--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,9 @@
     <t>ตลาดสุขสวัสดิ์</t>
   </si>
   <si>
+    <t>เมืองทองธานี ชั้น4 โซน R</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -403,6 +406,12 @@
     <t>BBQ Plaza เซ็นทรัลปิ่นเกล้า</t>
   </si>
   <si>
+    <t>Thongdee Cafe Chiangmai</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -643,6 +652,9 @@
     <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
   </si>
   <si>
+    <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -709,6 +721,12 @@
     <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
   </si>
   <si>
+    <t>ร้านอาหารดังเชียงใหม่ สั่งปิด14วัน พบผู้ติดเชื้อโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย ประกาศปิด พบผู้ติดเชื้อมาใช้บริการ</t>
+  </si>
+  <si>
     <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
   </si>
   <si>
@@ -808,6 +826,9 @@
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
   </si>
   <si>
+    <t>https://www.bangkokbiznews.com/news/detail/915032</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -860,6 +881,12 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914663</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5632650</t>
   </si>
   <si>
     <t>https://www.prachachat.net/marketing/news-582754</t>
@@ -1273,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1349,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1390,22 +1417,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1434,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1478,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1522,22 +1549,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1566,22 +1593,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1610,22 +1637,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1654,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1698,22 +1725,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1742,22 +1769,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1786,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1830,22 +1857,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1874,22 +1901,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1918,22 +1945,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1962,22 +1989,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2006,22 +2033,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2050,22 +2077,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2106,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2138,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2182,22 +2209,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2226,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2270,22 +2297,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2314,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2358,22 +2385,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2402,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2446,22 +2473,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2490,22 +2517,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2534,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2578,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2622,22 +2649,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2666,22 +2693,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2710,22 +2737,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2754,22 +2781,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2798,22 +2825,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2842,22 +2869,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2868,19 +2895,19 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37">
-        <v>13.5579068</v>
+        <v>13.9122188</v>
       </c>
       <c r="F37">
-        <v>100.270829</v>
+        <v>100.5512936</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2888,20 +2915,20 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" t="s">
-        <v>186</v>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2912,7 +2939,7 @@
         <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
@@ -2921,31 +2948,31 @@
         <v>55</v>
       </c>
       <c r="E38">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F38">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>187</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2956,7 +2983,7 @@
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
@@ -2965,28 +2992,28 @@
         <v>56</v>
       </c>
       <c r="E39">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F39">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>265</v>
@@ -3000,7 +3027,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
@@ -3009,31 +3036,31 @@
         <v>57</v>
       </c>
       <c r="E40">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F40">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3050,13 +3077,13 @@
         <v>44185</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F41">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3065,19 +3092,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3094,13 +3121,13 @@
         <v>44185</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F42">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3109,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3132,7 +3159,7 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
@@ -3141,10 +3168,10 @@
         <v>58</v>
       </c>
       <c r="E43">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F43">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3153,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3176,7 +3203,7 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -3185,31 +3212,31 @@
         <v>59</v>
       </c>
       <c r="E44">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F44">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
-        <v>185</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J44" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3217,7 +3244,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3229,31 +3256,31 @@
         <v>60</v>
       </c>
       <c r="E45">
-        <v>13.8683169</v>
+        <v>14.06566869</v>
       </c>
       <c r="F45">
-        <v>100.4107308</v>
+        <v>99.9821468</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3264,7 +3291,7 @@
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -3273,31 +3300,31 @@
         <v>61</v>
       </c>
       <c r="E46">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F46">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3308,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -3317,31 +3344,31 @@
         <v>62</v>
       </c>
       <c r="E47">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F47">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3352,7 +3379,7 @@
         <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3361,31 +3388,31 @@
         <v>63</v>
       </c>
       <c r="E48">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F48">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3405,31 +3432,31 @@
         <v>64</v>
       </c>
       <c r="E49">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F49">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3449,31 +3476,31 @@
         <v>65</v>
       </c>
       <c r="E50">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F50">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K50" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3493,31 +3520,31 @@
         <v>66</v>
       </c>
       <c r="E51">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F51">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3537,31 +3564,31 @@
         <v>67</v>
       </c>
       <c r="E52">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F52">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3581,31 +3608,31 @@
         <v>68</v>
       </c>
       <c r="E53">
-        <v>13.71100665</v>
+        <v>13.82622351</v>
       </c>
       <c r="F53">
-        <v>100.4234972</v>
+        <v>100.4124415</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3625,31 +3652,31 @@
         <v>69</v>
       </c>
       <c r="E54">
-        <v>13.81780926</v>
+        <v>13.71100665</v>
       </c>
       <c r="F54">
-        <v>100.3981472</v>
+        <v>100.4234972</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3669,31 +3696,31 @@
         <v>70</v>
       </c>
       <c r="E55">
-        <v>13.95701015</v>
+        <v>13.81780926</v>
       </c>
       <c r="F55">
-        <v>100.404266</v>
+        <v>100.3981472</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3713,31 +3740,31 @@
         <v>71</v>
       </c>
       <c r="E56">
-        <v>14.06478568</v>
+        <v>13.95701015</v>
       </c>
       <c r="F56">
-        <v>100.0502624</v>
+        <v>100.404266</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J56" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3757,31 +3784,31 @@
         <v>72</v>
       </c>
       <c r="E57">
-        <v>13.73106738</v>
+        <v>14.06478568</v>
       </c>
       <c r="F57">
-        <v>100.0732375</v>
+        <v>100.0502624</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3801,31 +3828,31 @@
         <v>73</v>
       </c>
       <c r="E58">
-        <v>13.8122326</v>
+        <v>13.73106738</v>
       </c>
       <c r="F58">
-        <v>100.0726883</v>
+        <v>100.0732375</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3845,31 +3872,31 @@
         <v>74</v>
       </c>
       <c r="E59">
-        <v>13.69415224</v>
+        <v>13.8122326</v>
       </c>
       <c r="F59">
-        <v>100.6478267</v>
+        <v>100.0726883</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3889,31 +3916,31 @@
         <v>75</v>
       </c>
       <c r="E60">
-        <v>13.80243028</v>
+        <v>13.69415224</v>
       </c>
       <c r="F60">
-        <v>100.6151197</v>
+        <v>100.6478267</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L60" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3933,31 +3960,31 @@
         <v>76</v>
       </c>
       <c r="E61">
-        <v>13.82571976</v>
+        <v>13.80243028</v>
       </c>
       <c r="F61">
-        <v>100.6794424</v>
+        <v>100.6151197</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K61" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3977,31 +4004,31 @@
         <v>77</v>
       </c>
       <c r="E62">
-        <v>13.83106898</v>
+        <v>13.82571976</v>
       </c>
       <c r="F62">
-        <v>100.3729686</v>
+        <v>100.6794424</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I62" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4021,31 +4048,31 @@
         <v>78</v>
       </c>
       <c r="E63">
-        <v>13.71815181</v>
+        <v>13.83106898</v>
       </c>
       <c r="F63">
-        <v>100.4133961</v>
+        <v>100.3729686</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>189</v>
+      </c>
+      <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" t="s">
+        <v>189</v>
       </c>
       <c r="L63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4056,40 +4083,40 @@
         <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
       </c>
       <c r="E64">
-        <v>13.8781452</v>
+        <v>13.71815181</v>
       </c>
       <c r="F64">
-        <v>100.4091302</v>
+        <v>100.4133961</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
-        <v>185</v>
-      </c>
-      <c r="I64" t="s">
-        <v>188</v>
-      </c>
-      <c r="J64" t="s">
-        <v>190</v>
-      </c>
-      <c r="K64" t="s">
-        <v>186</v>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4097,10 +4124,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2">
         <v>44186</v>
@@ -4109,31 +4136,31 @@
         <v>80</v>
       </c>
       <c r="E65">
-        <v>13.70807262</v>
+        <v>13.8781452</v>
       </c>
       <c r="F65">
-        <v>100.59964</v>
+        <v>100.4091302</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I65" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K65" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L65" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4153,31 +4180,31 @@
         <v>81</v>
       </c>
       <c r="E66">
-        <v>13.78051515</v>
+        <v>13.70807262</v>
       </c>
       <c r="F66">
-        <v>100.4226823</v>
+        <v>100.59964</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4197,31 +4224,31 @@
         <v>82</v>
       </c>
       <c r="E67">
-        <v>13.7355293</v>
+        <v>13.78051515</v>
       </c>
       <c r="F67">
-        <v>100.5979688</v>
+        <v>100.4226823</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I67" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4241,31 +4268,31 @@
         <v>83</v>
       </c>
       <c r="E68">
-        <v>13.73406154</v>
+        <v>13.7355293</v>
       </c>
       <c r="F68">
-        <v>100.5967948</v>
+        <v>100.5979688</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J68" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L68" t="s">
         <v>199</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4285,31 +4312,31 @@
         <v>84</v>
       </c>
       <c r="E69">
-        <v>13.7738673</v>
+        <v>13.73406154</v>
       </c>
       <c r="F69">
-        <v>100.5093218</v>
+        <v>100.5967948</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K69" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L69" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4329,31 +4356,31 @@
         <v>85</v>
       </c>
       <c r="E70">
-        <v>13.82650614</v>
+        <v>13.7738673</v>
       </c>
       <c r="F70">
-        <v>100.4860605</v>
+        <v>100.5093218</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I70" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L70" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4373,31 +4400,31 @@
         <v>86</v>
       </c>
       <c r="E71">
-        <v>13.79667017</v>
+        <v>13.82650614</v>
       </c>
       <c r="F71">
-        <v>100.5516735</v>
+        <v>100.4860605</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" t="s">
+        <v>189</v>
       </c>
       <c r="L71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4411,16 +4438,16 @@
         <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D72" t="s">
         <v>87</v>
       </c>
       <c r="E72">
-        <v>13.73541413</v>
+        <v>13.79667017</v>
       </c>
       <c r="F72">
-        <v>100.5877998</v>
+        <v>100.5516735</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4428,20 +4455,20 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>188</v>
-      </c>
-      <c r="J72" t="s">
-        <v>190</v>
-      </c>
-      <c r="K72" t="s">
-        <v>186</v>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4461,10 +4488,10 @@
         <v>88</v>
       </c>
       <c r="E73">
-        <v>13.78766192</v>
+        <v>13.73541413</v>
       </c>
       <c r="F73">
-        <v>100.5105938</v>
+        <v>100.5877998</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4473,19 +4500,19 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4496,7 +4523,7 @@
         <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
         <v>44187</v>
@@ -4505,31 +4532,31 @@
         <v>89</v>
       </c>
       <c r="E74">
-        <v>13.5951449</v>
+        <v>13.78766192</v>
       </c>
       <c r="F74">
-        <v>100.5802135</v>
+        <v>100.5105938</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
-        <v>185</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K74" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4540,7 +4567,7 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75" s="2">
         <v>44187</v>
@@ -4549,31 +4576,31 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>13.803038</v>
+        <v>13.5951449</v>
       </c>
       <c r="F75">
-        <v>100.188902</v>
+        <v>100.5802135</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4593,31 +4620,31 @@
         <v>91</v>
       </c>
       <c r="E76">
-        <v>13.802143</v>
+        <v>13.803038</v>
       </c>
       <c r="F76">
-        <v>100.19</v>
+        <v>100.188902</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I76" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4637,31 +4664,31 @@
         <v>92</v>
       </c>
       <c r="E77">
-        <v>13.928974</v>
+        <v>13.802143</v>
       </c>
       <c r="F77">
-        <v>100.577365</v>
+        <v>100.19</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I77" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L77" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4681,31 +4708,31 @@
         <v>93</v>
       </c>
       <c r="E78">
-        <v>13.929686</v>
+        <v>13.928974</v>
       </c>
       <c r="F78">
-        <v>100.576</v>
+        <v>100.577365</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L78" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4725,31 +4752,31 @@
         <v>94</v>
       </c>
       <c r="E79">
-        <v>13.76033018</v>
+        <v>13.929686</v>
       </c>
       <c r="F79">
-        <v>100.4796436</v>
+        <v>100.576</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L79" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4769,31 +4796,31 @@
         <v>95</v>
       </c>
       <c r="E80">
-        <v>13.82853997</v>
+        <v>13.76033018</v>
       </c>
       <c r="F80">
-        <v>100.4842102</v>
+        <v>100.4796436</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I80" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J80" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4813,31 +4840,31 @@
         <v>96</v>
       </c>
       <c r="E81">
-        <v>14.01020378</v>
+        <v>13.82853997</v>
       </c>
       <c r="F81">
-        <v>100.1768909</v>
+        <v>100.4842102</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K81" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L81" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4857,31 +4884,31 @@
         <v>97</v>
       </c>
       <c r="E82">
-        <v>14.04839109</v>
+        <v>14.01020378</v>
       </c>
       <c r="F82">
-        <v>100.0198852</v>
+        <v>100.1768909</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I82" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4901,31 +4928,31 @@
         <v>98</v>
       </c>
       <c r="E83">
-        <v>13.80175861</v>
+        <v>14.04839109</v>
       </c>
       <c r="F83">
-        <v>100.3053076</v>
+        <v>100.0198852</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I83" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L83" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4945,31 +4972,31 @@
         <v>99</v>
       </c>
       <c r="E84">
-        <v>13.60633251</v>
+        <v>13.80175861</v>
       </c>
       <c r="F84">
-        <v>100.4036543</v>
+        <v>100.3053076</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
+      <c r="H84" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" t="s">
+        <v>193</v>
+      </c>
+      <c r="K84" t="s">
+        <v>189</v>
       </c>
       <c r="L84" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4977,22 +5004,22 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D85" t="s">
         <v>100</v>
       </c>
       <c r="E85">
-        <v>13.7243591</v>
+        <v>13.60633251</v>
       </c>
       <c r="F85">
-        <v>100.5386589</v>
+        <v>100.4036543</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5000,20 +5027,20 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>188</v>
-      </c>
-      <c r="J85" t="s">
-        <v>190</v>
-      </c>
-      <c r="K85" t="s">
-        <v>186</v>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5033,31 +5060,31 @@
         <v>101</v>
       </c>
       <c r="E86">
-        <v>13.54974685</v>
+        <v>13.7243591</v>
       </c>
       <c r="F86">
-        <v>100.2561435</v>
+        <v>100.5386589</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
-        <v>187</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5077,31 +5104,31 @@
         <v>102</v>
       </c>
       <c r="E87">
-        <v>14.45160513</v>
+        <v>13.54974685</v>
       </c>
       <c r="F87">
-        <v>100.7230585</v>
+        <v>100.2561435</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I87" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K87" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5109,10 +5136,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C88" s="2">
         <v>44188</v>
@@ -5121,31 +5148,31 @@
         <v>103</v>
       </c>
       <c r="E88">
-        <v>13.2054213</v>
+        <v>14.45160513</v>
       </c>
       <c r="F88">
-        <v>99.9793013</v>
+        <v>100.7230585</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K88" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5153,10 +5180,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" s="2">
         <v>44188</v>
@@ -5165,31 +5192,31 @@
         <v>104</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
-        <v>186</v>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J89" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K89" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5209,31 +5236,31 @@
         <v>105</v>
       </c>
       <c r="E90">
-        <v>13.802283</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>100.184509</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I90" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J90" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K90" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L90" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5253,31 +5280,31 @@
         <v>106</v>
       </c>
       <c r="E91">
-        <v>13.91857</v>
+        <v>13.802283</v>
       </c>
       <c r="F91">
-        <v>100.601606</v>
+        <v>100.184509</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I91" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J91" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K91" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5297,31 +5324,31 @@
         <v>107</v>
       </c>
       <c r="E92">
-        <v>13.6171972</v>
+        <v>13.91857</v>
       </c>
       <c r="F92">
-        <v>100.3791504</v>
+        <v>100.601606</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I92" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K92" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5341,31 +5368,31 @@
         <v>108</v>
       </c>
       <c r="E93">
-        <v>12.66469676</v>
+        <v>13.6171972</v>
       </c>
       <c r="F93">
-        <v>102.1037094</v>
+        <v>100.3791504</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I93" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J93" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K93" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5385,31 +5412,31 @@
         <v>109</v>
       </c>
       <c r="E94">
-        <v>13.86149331</v>
+        <v>12.66469676</v>
       </c>
       <c r="F94">
-        <v>100.6434383</v>
+        <v>102.1037094</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>188</v>
+      </c>
+      <c r="I94" t="s">
+        <v>191</v>
+      </c>
+      <c r="J94" t="s">
+        <v>193</v>
+      </c>
+      <c r="K94" t="s">
+        <v>189</v>
       </c>
       <c r="L94" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5429,10 +5456,10 @@
         <v>110</v>
       </c>
       <c r="E95">
-        <v>13.84500752</v>
+        <v>13.86149331</v>
       </c>
       <c r="F95">
-        <v>100.6352673</v>
+        <v>100.6434383</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5450,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5467,37 +5494,37 @@
         <v>14</v>
       </c>
       <c r="C96" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D96" t="s">
         <v>111</v>
       </c>
       <c r="E96">
-        <v>13.721681</v>
+        <v>13.84500752</v>
       </c>
       <c r="F96">
-        <v>100.53</v>
+        <v>100.6352673</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>186</v>
-      </c>
-      <c r="I96" t="s">
-        <v>188</v>
-      </c>
-      <c r="J96" t="s">
-        <v>190</v>
-      </c>
-      <c r="K96" t="s">
-        <v>186</v>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5508,7 +5535,7 @@
         <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C97" s="2">
         <v>44189</v>
@@ -5517,31 +5544,31 @@
         <v>112</v>
       </c>
       <c r="E97">
-        <v>13.9134431</v>
+        <v>13.721681</v>
       </c>
       <c r="F97">
-        <v>100.4220473</v>
+        <v>100.53</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K97" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L97" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5552,7 +5579,7 @@
         <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C98" s="2">
         <v>44189</v>
@@ -5561,31 +5588,31 @@
         <v>113</v>
       </c>
       <c r="E98">
-        <v>13.786588</v>
+        <v>13.9134431</v>
       </c>
       <c r="F98">
-        <v>100.321233</v>
+        <v>100.4220473</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I98" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J98" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K98" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L98" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5596,7 +5623,7 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2">
         <v>44189</v>
@@ -5605,31 +5632,31 @@
         <v>114</v>
       </c>
       <c r="E99">
-        <v>13.8017434</v>
+        <v>13.786588</v>
       </c>
       <c r="F99">
-        <v>100.1879465</v>
+        <v>100.321233</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I99" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J99" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K99" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L99" t="s">
         <v>198</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5640,7 +5667,7 @@
         <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2">
         <v>44189</v>
@@ -5649,31 +5676,31 @@
         <v>115</v>
       </c>
       <c r="E100">
-        <v>13.81456113</v>
+        <v>13.8017434</v>
       </c>
       <c r="F100">
-        <v>100.0630594</v>
+        <v>100.1879465</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I100" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J100" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L100" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5693,31 +5720,31 @@
         <v>116</v>
       </c>
       <c r="E101">
-        <v>12.68783188</v>
+        <v>13.81456113</v>
       </c>
       <c r="F101">
-        <v>101.2114545</v>
+        <v>100.0630594</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I101" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K101" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L101" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5737,31 +5764,31 @@
         <v>117</v>
       </c>
       <c r="E102">
-        <v>13.67342423</v>
+        <v>12.68783188</v>
       </c>
       <c r="F102">
-        <v>100.6069256</v>
+        <v>101.2114545</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I102" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K102" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L102" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5781,31 +5808,31 @@
         <v>118</v>
       </c>
       <c r="E103">
-        <v>13.6680206</v>
+        <v>13.67342423</v>
       </c>
       <c r="F103">
-        <v>100.6354649</v>
+        <v>100.6069256</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I103" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K103" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L103" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5825,31 +5852,31 @@
         <v>119</v>
       </c>
       <c r="E104">
-        <v>13.88903855</v>
+        <v>13.6680206</v>
       </c>
       <c r="F104">
-        <v>100.6576064</v>
+        <v>100.6354649</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
+      <c r="H104" t="s">
+        <v>189</v>
+      </c>
+      <c r="I104" t="s">
+        <v>191</v>
+      </c>
+      <c r="J104" t="s">
+        <v>193</v>
+      </c>
+      <c r="K104" t="s">
+        <v>189</v>
       </c>
       <c r="L104" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5869,10 +5896,10 @@
         <v>120</v>
       </c>
       <c r="E105">
-        <v>13.71110566</v>
+        <v>13.88903855</v>
       </c>
       <c r="F105">
-        <v>100.4158636</v>
+        <v>100.6576064</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5890,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5913,10 +5940,10 @@
         <v>121</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>13.71110566</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>100.4158636</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5934,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5951,37 +5978,37 @@
         <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D107" t="s">
         <v>122</v>
       </c>
       <c r="E107">
-        <v>13.924252</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>100.597945</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>186</v>
-      </c>
-      <c r="I107" t="s">
-        <v>188</v>
-      </c>
-      <c r="J107" t="s">
-        <v>190</v>
-      </c>
-      <c r="K107" t="s">
-        <v>186</v>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6001,31 +6028,31 @@
         <v>123</v>
       </c>
       <c r="E108">
-        <v>12.69670286</v>
+        <v>13.924252</v>
       </c>
       <c r="F108">
-        <v>101.2683573</v>
+        <v>100.597945</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I108" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J108" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K108" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L108" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6045,31 +6072,31 @@
         <v>124</v>
       </c>
       <c r="E109">
-        <v>12.69574994</v>
+        <v>12.69670286</v>
       </c>
       <c r="F109">
-        <v>101.2674706</v>
+        <v>101.2683573</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I109" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J109" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K109" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6089,31 +6116,31 @@
         <v>125</v>
       </c>
       <c r="E110">
-        <v>13.71190173</v>
+        <v>12.69574994</v>
       </c>
       <c r="F110">
-        <v>100.4224456</v>
+        <v>101.2674706</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110" t="s">
+        <v>191</v>
+      </c>
+      <c r="J110" t="s">
+        <v>193</v>
+      </c>
+      <c r="K110" t="s">
+        <v>189</v>
       </c>
       <c r="L110" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6133,10 +6160,10 @@
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.80614397</v>
+        <v>13.71190173</v>
       </c>
       <c r="F111">
-        <v>100.5307221</v>
+        <v>100.4224456</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6154,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6177,10 +6204,10 @@
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.78786299</v>
+        <v>13.80614397</v>
       </c>
       <c r="F112">
-        <v>100.4828396</v>
+        <v>100.5307221</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6198,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6221,10 +6248,10 @@
         <v>128</v>
       </c>
       <c r="E113">
-        <v>13.77791571</v>
+        <v>13.78786299</v>
       </c>
       <c r="F113">
-        <v>100.4766994</v>
+        <v>100.4828396</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6242,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6253,22 +6280,22 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D114" t="s">
         <v>129</v>
       </c>
       <c r="E114">
-        <v>13.734066</v>
+        <v>13.77791571</v>
       </c>
       <c r="F114">
-        <v>100.5278354</v>
+        <v>100.4766994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6286,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6297,22 +6324,22 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D115" t="s">
         <v>130</v>
       </c>
       <c r="E115">
-        <v>12.6483736</v>
+        <v>18.80731097</v>
       </c>
       <c r="F115">
-        <v>101.2273679</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6330,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6341,43 +6368,43 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D116" t="s">
         <v>131</v>
       </c>
       <c r="E116">
-        <v>12.69691038</v>
+        <v>13.7707636</v>
       </c>
       <c r="F116">
-        <v>101.268451</v>
+        <v>100.4680689</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" t="s">
-        <v>185</v>
-      </c>
-      <c r="I116" t="s">
-        <v>188</v>
-      </c>
-      <c r="J116" t="s">
-        <v>190</v>
-      </c>
-      <c r="K116" t="s">
-        <v>186</v>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6388,7 +6415,7 @@
         <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C117" s="2">
         <v>44191</v>
@@ -6397,31 +6424,31 @@
         <v>132</v>
       </c>
       <c r="E117">
-        <v>12.66695256</v>
+        <v>13.734066</v>
       </c>
       <c r="F117">
-        <v>101.2738756</v>
+        <v>100.5278354</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" t="s">
-        <v>185</v>
-      </c>
-      <c r="I117" t="s">
-        <v>188</v>
-      </c>
-      <c r="J117" t="s">
-        <v>190</v>
-      </c>
-      <c r="K117" t="s">
-        <v>186</v>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6432,7 +6459,7 @@
         <v>178</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C118" s="2">
         <v>44191</v>
@@ -6441,10 +6468,10 @@
         <v>133</v>
       </c>
       <c r="E118">
-        <v>13.86265154</v>
+        <v>12.6483736</v>
       </c>
       <c r="F118">
-        <v>100.6432858</v>
+        <v>101.2273679</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6462,10 +6489,10 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6476,40 +6503,40 @@
         <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
       </c>
       <c r="E119">
-        <v>12.6844183</v>
+        <v>12.69691038</v>
       </c>
       <c r="F119">
-        <v>101.2742991</v>
+        <v>101.268451</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>188</v>
+      </c>
+      <c r="I119" t="s">
+        <v>191</v>
+      </c>
+      <c r="J119" t="s">
+        <v>193</v>
       </c>
       <c r="K119" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6520,40 +6547,40 @@
         <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D120" t="s">
         <v>135</v>
       </c>
       <c r="E120">
-        <v>12.9730033</v>
+        <v>12.66695256</v>
       </c>
       <c r="F120">
-        <v>100.9029061</v>
+        <v>101.2738756</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
+      <c r="H120" t="s">
+        <v>188</v>
+      </c>
+      <c r="I120" t="s">
+        <v>191</v>
+      </c>
+      <c r="J120" t="s">
+        <v>193</v>
       </c>
       <c r="K120" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6567,16 +6594,16 @@
         <v>14</v>
       </c>
       <c r="C121" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D121" t="s">
         <v>136</v>
       </c>
       <c r="E121">
-        <v>13.7946069</v>
+        <v>13.86265154</v>
       </c>
       <c r="F121">
-        <v>100.5161808</v>
+        <v>100.6432858</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6590,14 +6617,14 @@
       <c r="J121">
         <v>0</v>
       </c>
-      <c r="K121" t="s">
-        <v>186</v>
+      <c r="K121">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6608,7 +6635,7 @@
         <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122" s="2">
         <v>44192</v>
@@ -6617,31 +6644,31 @@
         <v>137</v>
       </c>
       <c r="E122">
-        <v>13.54448567</v>
+        <v>12.6844183</v>
       </c>
       <c r="F122">
-        <v>100.2752027</v>
+        <v>101.2742991</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122" t="s">
-        <v>185</v>
-      </c>
-      <c r="I122" t="s">
-        <v>188</v>
-      </c>
-      <c r="J122" t="s">
-        <v>190</v>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L122" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6652,7 +6679,7 @@
         <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123" s="2">
         <v>44192</v>
@@ -6661,10 +6688,10 @@
         <v>138</v>
       </c>
       <c r="E123">
-        <v>13.67424547</v>
+        <v>12.9730033</v>
       </c>
       <c r="F123">
-        <v>100.426448</v>
+        <v>100.9029061</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6678,14 +6705,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123">
-        <v>0</v>
+      <c r="K123" t="s">
+        <v>189</v>
       </c>
       <c r="L123" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6699,37 +6726,37 @@
         <v>14</v>
       </c>
       <c r="C124" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D124" t="s">
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.73545544</v>
+        <v>13.7946069</v>
       </c>
       <c r="F124">
-        <v>100.5661584</v>
+        <v>100.5161808</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" t="s">
-        <v>186</v>
-      </c>
-      <c r="I124" t="s">
-        <v>188</v>
-      </c>
-      <c r="J124" t="s">
-        <v>190</v>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L124" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6740,40 +6767,40 @@
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D125" t="s">
         <v>140</v>
       </c>
       <c r="E125">
-        <v>12.9098775</v>
+        <v>13.54448567</v>
       </c>
       <c r="F125">
-        <v>100.891563</v>
+        <v>100.2752027</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I125" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J125" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K125" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6784,19 +6811,19 @@
         <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D126" t="s">
         <v>141</v>
       </c>
       <c r="E126">
-        <v>13.3535702</v>
+        <v>13.67424547</v>
       </c>
       <c r="F126">
-        <v>100.9765439</v>
+        <v>100.426448</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6810,14 +6837,14 @@
       <c r="J126">
         <v>0</v>
       </c>
-      <c r="K126" t="s">
-        <v>186</v>
+      <c r="K126">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6828,40 +6855,40 @@
         <v>187</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C127" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D127" t="s">
         <v>142</v>
       </c>
       <c r="E127">
-        <v>12.948902</v>
+        <v>13.73545544</v>
       </c>
       <c r="F127">
-        <v>100.891292</v>
+        <v>100.5661584</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
+      <c r="H127" t="s">
+        <v>189</v>
+      </c>
+      <c r="I127" t="s">
+        <v>191</v>
+      </c>
+      <c r="J127" t="s">
+        <v>193</v>
       </c>
       <c r="K127" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L127" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6881,31 +6908,31 @@
         <v>143</v>
       </c>
       <c r="E128">
-        <v>12.6495877</v>
+        <v>12.9098775</v>
       </c>
       <c r="F128">
-        <v>102.0329425</v>
+        <v>100.891563</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
+      <c r="H128" t="s">
+        <v>189</v>
+      </c>
+      <c r="I128" t="s">
+        <v>191</v>
+      </c>
+      <c r="J128" t="s">
+        <v>193</v>
       </c>
       <c r="K128" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L128" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6925,10 +6952,10 @@
         <v>144</v>
       </c>
       <c r="E129">
-        <v>12.3757564</v>
+        <v>13.3535702</v>
       </c>
       <c r="F129">
-        <v>102.3818628</v>
+        <v>100.9765439</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6943,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L129" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6960,7 +6987,7 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C130" s="2">
         <v>44194</v>
@@ -6969,10 +6996,10 @@
         <v>145</v>
       </c>
       <c r="E130">
-        <v>12.7246169</v>
+        <v>12.948902</v>
       </c>
       <c r="F130">
-        <v>101.9362794</v>
+        <v>100.891292</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6987,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L130" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7004,7 +7031,7 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2">
         <v>44194</v>
@@ -7013,10 +7040,10 @@
         <v>146</v>
       </c>
       <c r="E131">
-        <v>13.772986</v>
+        <v>12.6495877</v>
       </c>
       <c r="F131">
-        <v>100.4855148</v>
+        <v>102.0329425</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7031,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L131" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7048,7 +7075,7 @@
         <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C132" s="2">
         <v>44194</v>
@@ -7057,10 +7084,10 @@
         <v>147</v>
       </c>
       <c r="E132">
-        <v>12.90895904</v>
+        <v>12.3757564</v>
       </c>
       <c r="F132">
-        <v>100.891925</v>
+        <v>102.3818628</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7074,14 +7101,14 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132">
-        <v>0</v>
+      <c r="K132" t="s">
+        <v>189</v>
       </c>
       <c r="L132" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7092,7 +7119,7 @@
         <v>193</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C133" s="2">
         <v>44194</v>
@@ -7101,10 +7128,10 @@
         <v>148</v>
       </c>
       <c r="E133">
-        <v>12.90960418</v>
+        <v>12.7246169</v>
       </c>
       <c r="F133">
-        <v>100.870256</v>
+        <v>101.9362794</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7118,14 +7145,14 @@
       <c r="J133">
         <v>0</v>
       </c>
-      <c r="K133">
-        <v>0</v>
+      <c r="K133" t="s">
+        <v>189</v>
       </c>
       <c r="L133" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7145,10 +7172,10 @@
         <v>149</v>
       </c>
       <c r="E134">
-        <v>12.93047726</v>
+        <v>13.772986</v>
       </c>
       <c r="F134">
-        <v>100.8807229</v>
+        <v>100.4855148</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7162,14 +7189,14 @@
       <c r="J134">
         <v>0</v>
       </c>
-      <c r="K134">
-        <v>0</v>
+      <c r="K134" t="s">
+        <v>189</v>
       </c>
       <c r="L134" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7189,10 +7216,10 @@
         <v>150</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>12.90895904</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>100.891925</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7210,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7233,10 +7260,10 @@
         <v>151</v>
       </c>
       <c r="E136">
-        <v>12.66219926</v>
+        <v>12.90960418</v>
       </c>
       <c r="F136">
-        <v>100.8989779</v>
+        <v>100.870256</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7254,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7277,10 +7304,10 @@
         <v>152</v>
       </c>
       <c r="E137">
-        <v>13.32877789</v>
+        <v>12.93047726</v>
       </c>
       <c r="F137">
-        <v>100.9230017</v>
+        <v>100.8807229</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7298,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7321,10 +7348,10 @@
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.33615653</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>100.9694597</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7342,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7365,10 +7392,10 @@
         <v>154</v>
       </c>
       <c r="E139">
-        <v>12.83546656</v>
+        <v>12.66219926</v>
       </c>
       <c r="F139">
-        <v>100.967575</v>
+        <v>100.8989779</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7386,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7409,10 +7436,10 @@
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.33545565</v>
+        <v>13.32877789</v>
       </c>
       <c r="F140">
-        <v>100.9249432</v>
+        <v>100.9230017</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7430,10 +7457,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7453,10 +7480,10 @@
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.33841928</v>
+        <v>13.33615653</v>
       </c>
       <c r="F141">
-        <v>100.9526548</v>
+        <v>100.9694597</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7474,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7497,10 +7524,10 @@
         <v>157</v>
       </c>
       <c r="E142">
-        <v>12.68318129</v>
+        <v>12.83546656</v>
       </c>
       <c r="F142">
-        <v>101.2479341</v>
+        <v>100.967575</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7518,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7541,10 +7568,10 @@
         <v>158</v>
       </c>
       <c r="E143">
-        <v>12.68178774</v>
+        <v>13.33545565</v>
       </c>
       <c r="F143">
-        <v>101.2804266</v>
+        <v>100.9249432</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7562,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7585,10 +7612,10 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>12.67663309</v>
+        <v>13.33841928</v>
       </c>
       <c r="F144">
-        <v>101.2204609</v>
+        <v>100.9526548</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7606,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7629,10 +7656,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.67969829</v>
+        <v>12.68318129</v>
       </c>
       <c r="F145">
-        <v>101.2516232</v>
+        <v>101.2479341</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7650,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7673,10 +7700,10 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.67895072</v>
+        <v>12.68178774</v>
       </c>
       <c r="F146">
-        <v>101.2811971</v>
+        <v>101.2804266</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7694,10 +7721,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7717,10 +7744,10 @@
         <v>162</v>
       </c>
       <c r="E147">
-        <v>12.69121623</v>
+        <v>12.67663309</v>
       </c>
       <c r="F147">
-        <v>101.2828322</v>
+        <v>101.2204609</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7738,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7761,10 +7788,10 @@
         <v>163</v>
       </c>
       <c r="E148">
-        <v>12.61154131</v>
+        <v>12.67969829</v>
       </c>
       <c r="F148">
-        <v>102.105739</v>
+        <v>101.2516232</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7782,10 +7809,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7805,10 +7832,10 @@
         <v>164</v>
       </c>
       <c r="E149">
-        <v>12.59875505</v>
+        <v>12.67895072</v>
       </c>
       <c r="F149">
-        <v>102.1108505</v>
+        <v>101.2811971</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7826,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7849,10 +7876,10 @@
         <v>165</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>12.69121623</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>101.2828322</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7870,10 +7897,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7893,10 +7920,10 @@
         <v>166</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>12.61154131</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>102.105739</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7914,10 +7941,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7937,10 +7964,10 @@
         <v>167</v>
       </c>
       <c r="E152">
-        <v>12.94007297</v>
+        <v>12.59875505</v>
       </c>
       <c r="F152">
-        <v>100.9198688</v>
+        <v>102.1108505</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7958,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7981,10 +8008,10 @@
         <v>168</v>
       </c>
       <c r="E153">
-        <v>12.93500267</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>100.8828385</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8002,10 +8029,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8025,10 +8052,10 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>12.93302705</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>100.9013151</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8046,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8069,10 +8096,10 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>12.93124481</v>
+        <v>12.94007297</v>
       </c>
       <c r="F155">
-        <v>100.9008084</v>
+        <v>100.9198688</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8090,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8113,10 +8140,10 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.93038104</v>
+        <v>12.93500267</v>
       </c>
       <c r="F156">
-        <v>100.9126714</v>
+        <v>100.8828385</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8134,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8157,10 +8184,10 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.84875767</v>
+        <v>12.93302705</v>
       </c>
       <c r="F157">
-        <v>100.9017</v>
+        <v>100.9013151</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8178,10 +8205,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8201,10 +8228,10 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>12.90883138</v>
+        <v>12.93124481</v>
       </c>
       <c r="F158">
-        <v>100.8932458</v>
+        <v>100.9008084</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8222,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8245,10 +8272,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>12.66362634</v>
+        <v>12.93038104</v>
       </c>
       <c r="F159">
-        <v>100.8981743</v>
+        <v>100.9126714</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8266,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8289,10 +8316,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>12.95074463</v>
+        <v>12.84875767</v>
       </c>
       <c r="F160">
-        <v>100.8933879</v>
+        <v>100.9017</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8310,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8333,10 +8360,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.97880506</v>
+        <v>12.90883138</v>
       </c>
       <c r="F161">
-        <v>100.9430835</v>
+        <v>100.8932458</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8354,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8377,10 +8404,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>12.92662465</v>
+        <v>12.66362634</v>
       </c>
       <c r="F162">
-        <v>100.898605</v>
+        <v>100.8981743</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8398,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8421,10 +8448,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.98328283</v>
+        <v>12.95074463</v>
       </c>
       <c r="F163">
-        <v>100.9354783</v>
+        <v>100.8933879</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8442,10 +8469,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8465,10 +8492,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.98177123</v>
+        <v>12.97880506</v>
       </c>
       <c r="F164">
-        <v>100.9289336</v>
+        <v>100.9430835</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8486,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8509,10 +8536,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>13.01893524</v>
+        <v>12.92662465</v>
       </c>
       <c r="F165">
-        <v>100.932701</v>
+        <v>100.898605</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8530,10 +8557,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8553,10 +8580,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.95555524</v>
+        <v>12.98328283</v>
       </c>
       <c r="F166">
-        <v>100.8987028</v>
+        <v>100.9354783</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8574,10 +8601,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8597,10 +8624,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>12.93944879</v>
+        <v>12.98177123</v>
       </c>
       <c r="F167">
-        <v>100.9021397</v>
+        <v>100.9289336</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8618,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8641,10 +8668,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>12.75400498</v>
+        <v>13.01893524</v>
       </c>
       <c r="F168">
-        <v>100.9017967</v>
+        <v>100.932701</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8662,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8685,33 +8712,165 @@
         <v>184</v>
       </c>
       <c r="E169">
+        <v>12.95555524</v>
+      </c>
+      <c r="F169">
+        <v>100.8987028</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>253</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>230</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D170" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170">
+        <v>12.93944879</v>
+      </c>
+      <c r="F170">
+        <v>100.9021397</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>253</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>231</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171">
+        <v>12.75400498</v>
+      </c>
+      <c r="F171">
+        <v>100.9017967</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>253</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172">
+        <v>232</v>
+      </c>
+      <c r="B172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D172" t="s">
+        <v>187</v>
+      </c>
+      <c r="E172">
         <v>12.69857571</v>
       </c>
-      <c r="F169">
+      <c r="F172">
         <v>100.8899412</v>
       </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169" t="s">
-        <v>247</v>
-      </c>
-      <c r="M169" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="N169">
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>253</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N172">
         <v>0</v>
       </c>
     </row>
@@ -8758,8 +8917,8 @@
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
     <hyperlink ref="M42" r:id="rId41"/>
-    <hyperlink ref="M43" r:id="rId42" location="cxrecs_s"/>
-    <hyperlink ref="M44" r:id="rId43"/>
+    <hyperlink ref="M43" r:id="rId42"/>
+    <hyperlink ref="M44" r:id="rId43" location="cxrecs_s"/>
     <hyperlink ref="M45" r:id="rId44"/>
     <hyperlink ref="M46" r:id="rId45"/>
     <hyperlink ref="M47" r:id="rId46"/>
@@ -8885,6 +9044,9 @@
     <hyperlink ref="M167" r:id="rId166"/>
     <hyperlink ref="M168" r:id="rId167"/>
     <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
+    <hyperlink ref="M172" r:id="rId171"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -181,6 +181,9 @@
     <t>เมืองทองธานี ชั้น4 โซน R</t>
   </si>
   <si>
+    <t>ร้านอาโนส์ แถวธรรมศาสตร์ท่าพระจันทร์</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -256,6 +259,12 @@
     <t>สนามฟุตบอลหญ้าเทียม BQ เพชรเกษม 68</t>
   </si>
   <si>
+    <t>เซ็นทรัลศาลายา</t>
+  </si>
+  <si>
+    <t>ร้านเดอะไชน่า พระราม3</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -280,6 +289,12 @@
     <t>Mคอนโด จตุจักร</t>
   </si>
   <si>
+    <t>ห้างไอคอนสยาม</t>
+  </si>
+  <si>
+    <t>ภัตตาคารลี เหล่า หงี่ พระราม3</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -352,6 +367,9 @@
     <t>บ้านเด็กพิการซ้ำซ้อน รามอินทรา</t>
   </si>
   <si>
+    <t>Lotus Express สาขา สน.หนองแขม</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -412,6 +430,9 @@
     <t>สนง.เขตบางกอกน้อย</t>
   </si>
   <si>
+    <t>ตลาดแม่พวง จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -427,6 +448,9 @@
     <t>ร้านบ้านสวนสิริน ถ.วัชรพล</t>
   </si>
   <si>
+    <t>ตลาดหลัง 7-11 สาขา สน. หนองแขม</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -445,6 +469,9 @@
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
+    <t>ตลาดสดตรงข้ามหมู่บ้านมนวดี กรีน ปาร์ค</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -655,6 +682,9 @@
     <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
   </si>
   <si>
+    <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 109-123</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -827,6 +857,9 @@
   </si>
   <si>
     <t>https://www.bangkokbiznews.com/news/detail/915032</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3129619717137628</t>
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
@@ -1300,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1376,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1417,22 +1450,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1461,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1505,22 +1538,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1549,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1593,22 +1626,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1637,22 +1670,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1681,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1725,22 +1758,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1769,22 +1802,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1813,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L12" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1857,22 +1890,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1901,22 +1934,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1945,22 +1978,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1989,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2033,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2077,22 +2110,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2133,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2165,22 +2198,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2209,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2253,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2297,22 +2330,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2341,22 +2374,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2385,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2429,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2473,22 +2506,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2517,22 +2550,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2561,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2605,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2649,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2693,22 +2726,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2737,22 +2770,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2781,22 +2814,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2825,22 +2858,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2869,22 +2902,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2925,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2939,19 +2972,19 @@
         <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
       </c>
       <c r="E38">
-        <v>13.5579068</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>100.270829</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2959,20 +2992,20 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>191</v>
-      </c>
-      <c r="J38" t="s">
-        <v>193</v>
-      </c>
-      <c r="K38" t="s">
-        <v>189</v>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2983,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
@@ -2992,31 +3025,31 @@
         <v>56</v>
       </c>
       <c r="E39">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F39">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>190</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K39" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3027,7 +3060,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
@@ -3036,31 +3069,31 @@
         <v>57</v>
       </c>
       <c r="E40">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F40">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J40" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K40" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s">
         <v>214</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3071,7 +3104,7 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -3080,31 +3113,31 @@
         <v>58</v>
       </c>
       <c r="E41">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F41">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>199</v>
       </c>
       <c r="I41" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K41" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3121,13 +3154,13 @@
         <v>44185</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F42">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3136,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J42" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K42" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3165,13 +3198,13 @@
         <v>44185</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F43">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3180,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K43" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3203,7 +3236,7 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -3212,10 +3245,10 @@
         <v>59</v>
       </c>
       <c r="E44">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F44">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3224,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K44" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3247,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
@@ -3256,31 +3289,31 @@
         <v>60</v>
       </c>
       <c r="E45">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F45">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
-        <v>188</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3288,7 +3321,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3300,31 +3333,31 @@
         <v>61</v>
       </c>
       <c r="E46">
-        <v>13.8683169</v>
+        <v>14.06566869</v>
       </c>
       <c r="F46">
-        <v>100.4107308</v>
+        <v>99.9821468</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3335,7 +3368,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -3344,31 +3377,31 @@
         <v>62</v>
       </c>
       <c r="E47">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F47">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J47" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K47" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3379,7 +3412,7 @@
         <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3388,28 +3421,28 @@
         <v>63</v>
       </c>
       <c r="E48">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F48">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L48" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>267</v>
@@ -3423,7 +3456,7 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2">
         <v>44185</v>
@@ -3432,31 +3465,31 @@
         <v>64</v>
       </c>
       <c r="E49">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F49">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J49" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3476,31 +3509,31 @@
         <v>65</v>
       </c>
       <c r="E50">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F50">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J50" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K50" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3520,31 +3553,31 @@
         <v>66</v>
       </c>
       <c r="E51">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F51">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J51" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K51" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3564,31 +3597,31 @@
         <v>67</v>
       </c>
       <c r="E52">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F52">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J52" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3608,31 +3641,31 @@
         <v>68</v>
       </c>
       <c r="E53">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F53">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L53" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3652,31 +3685,31 @@
         <v>69</v>
       </c>
       <c r="E54">
-        <v>13.71100665</v>
+        <v>13.82622351</v>
       </c>
       <c r="F54">
-        <v>100.4234972</v>
+        <v>100.4124415</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J54" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L54" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3696,31 +3729,31 @@
         <v>70</v>
       </c>
       <c r="E55">
-        <v>13.81780926</v>
+        <v>13.71100665</v>
       </c>
       <c r="F55">
-        <v>100.3981472</v>
+        <v>100.4234972</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J55" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K55" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3740,31 +3773,31 @@
         <v>71</v>
       </c>
       <c r="E56">
-        <v>13.95701015</v>
+        <v>13.81780926</v>
       </c>
       <c r="F56">
-        <v>100.404266</v>
+        <v>100.3981472</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I56" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J56" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3784,31 +3817,31 @@
         <v>72</v>
       </c>
       <c r="E57">
-        <v>14.06478568</v>
+        <v>13.95701015</v>
       </c>
       <c r="F57">
-        <v>100.0502624</v>
+        <v>100.404266</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J57" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K57" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3828,31 +3861,31 @@
         <v>73</v>
       </c>
       <c r="E58">
-        <v>13.73106738</v>
+        <v>14.06478568</v>
       </c>
       <c r="F58">
-        <v>100.0732375</v>
+        <v>100.0502624</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J58" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K58" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3872,31 +3905,31 @@
         <v>74</v>
       </c>
       <c r="E59">
-        <v>13.8122326</v>
+        <v>13.73106738</v>
       </c>
       <c r="F59">
-        <v>100.0726883</v>
+        <v>100.0732375</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J59" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K59" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3916,31 +3949,31 @@
         <v>75</v>
       </c>
       <c r="E60">
-        <v>13.69415224</v>
+        <v>13.8122326</v>
       </c>
       <c r="F60">
-        <v>100.6478267</v>
+        <v>100.0726883</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J60" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K60" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3960,31 +3993,31 @@
         <v>76</v>
       </c>
       <c r="E61">
-        <v>13.80243028</v>
+        <v>13.69415224</v>
       </c>
       <c r="F61">
-        <v>100.6151197</v>
+        <v>100.6478267</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I61" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4004,31 +4037,31 @@
         <v>77</v>
       </c>
       <c r="E62">
-        <v>13.82571976</v>
+        <v>13.80243028</v>
       </c>
       <c r="F62">
-        <v>100.6794424</v>
+        <v>100.6151197</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J62" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4048,31 +4081,31 @@
         <v>78</v>
       </c>
       <c r="E63">
-        <v>13.83106898</v>
+        <v>13.82571976</v>
       </c>
       <c r="F63">
-        <v>100.3729686</v>
+        <v>100.6794424</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K63" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L63" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4092,31 +4125,31 @@
         <v>79</v>
       </c>
       <c r="E64">
-        <v>13.71815181</v>
+        <v>13.83106898</v>
       </c>
       <c r="F64">
-        <v>100.4133961</v>
+        <v>100.3729686</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" t="s">
+        <v>198</v>
       </c>
       <c r="L64" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4127,40 +4160,40 @@
         <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
       </c>
       <c r="E65">
-        <v>13.8781452</v>
+        <v>13.71815181</v>
       </c>
       <c r="F65">
-        <v>100.4091302</v>
+        <v>100.4133961</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
-        <v>188</v>
-      </c>
-      <c r="I65" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65" t="s">
-        <v>193</v>
-      </c>
-      <c r="K65" t="s">
-        <v>189</v>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4168,43 +4201,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
       </c>
       <c r="E66">
-        <v>13.70807262</v>
+        <v>13.78667725</v>
       </c>
       <c r="F66">
-        <v>100.59964</v>
+        <v>100.2762861</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" t="s">
-        <v>189</v>
-      </c>
-      <c r="I66" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66" t="s">
-        <v>193</v>
-      </c>
-      <c r="K66" t="s">
-        <v>189</v>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4212,43 +4245,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D67" t="s">
         <v>82</v>
       </c>
       <c r="E67">
-        <v>13.78051515</v>
+        <v>13.69173041</v>
       </c>
       <c r="F67">
-        <v>100.4226823</v>
+        <v>100.5025163</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
-        <v>190</v>
-      </c>
-      <c r="I67" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67" t="s">
-        <v>193</v>
-      </c>
-      <c r="K67" t="s">
-        <v>189</v>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4256,10 +4289,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2">
         <v>44186</v>
@@ -4268,31 +4301,31 @@
         <v>83</v>
       </c>
       <c r="E68">
-        <v>13.7355293</v>
+        <v>13.8781452</v>
       </c>
       <c r="F68">
-        <v>100.5979688</v>
+        <v>100.4091302</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I68" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J68" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K68" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4312,31 +4345,31 @@
         <v>84</v>
       </c>
       <c r="E69">
-        <v>13.73406154</v>
+        <v>13.70807262</v>
       </c>
       <c r="F69">
-        <v>100.5967948</v>
+        <v>100.59964</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I69" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J69" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K69" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L69" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4356,31 +4389,31 @@
         <v>85</v>
       </c>
       <c r="E70">
-        <v>13.7738673</v>
+        <v>13.78051515</v>
       </c>
       <c r="F70">
-        <v>100.5093218</v>
+        <v>100.4226823</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I70" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J70" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K70" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4400,31 +4433,31 @@
         <v>86</v>
       </c>
       <c r="E71">
-        <v>13.82650614</v>
+        <v>13.7355293</v>
       </c>
       <c r="F71">
-        <v>100.4860605</v>
+        <v>100.5979688</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I71" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J71" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K71" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4444,31 +4477,31 @@
         <v>87</v>
       </c>
       <c r="E72">
-        <v>13.79667017</v>
+        <v>13.73406154</v>
       </c>
       <c r="F72">
-        <v>100.5516735</v>
+        <v>100.5967948</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>198</v>
+      </c>
+      <c r="I72" t="s">
+        <v>200</v>
+      </c>
+      <c r="J72" t="s">
+        <v>202</v>
+      </c>
+      <c r="K72" t="s">
+        <v>198</v>
       </c>
       <c r="L72" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4482,37 +4515,37 @@
         <v>14</v>
       </c>
       <c r="C73" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D73" t="s">
         <v>88</v>
       </c>
       <c r="E73">
-        <v>13.73541413</v>
+        <v>13.7738673</v>
       </c>
       <c r="F73">
-        <v>100.5877998</v>
+        <v>100.5093218</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>198</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J73" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K73" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L73" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4526,37 +4559,37 @@
         <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D74" t="s">
         <v>89</v>
       </c>
       <c r="E74">
-        <v>13.78766192</v>
+        <v>13.82650614</v>
       </c>
       <c r="F74">
-        <v>100.5105938</v>
+        <v>100.4860605</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
+      <c r="H74" t="s">
+        <v>198</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J74" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K74" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L74" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4567,40 +4600,40 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C75" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D75" t="s">
         <v>90</v>
       </c>
       <c r="E75">
-        <v>13.5951449</v>
+        <v>13.79667017</v>
       </c>
       <c r="F75">
-        <v>100.5802135</v>
+        <v>100.5516735</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I75" t="s">
-        <v>191</v>
-      </c>
-      <c r="J75" t="s">
-        <v>193</v>
-      </c>
-      <c r="K75" t="s">
-        <v>189</v>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4614,37 +4647,37 @@
         <v>14</v>
       </c>
       <c r="C76" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D76" t="s">
         <v>91</v>
       </c>
       <c r="E76">
-        <v>13.803038</v>
+        <v>13.72655096</v>
       </c>
       <c r="F76">
-        <v>100.188902</v>
+        <v>100.5102552</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
-        <v>189</v>
-      </c>
-      <c r="I76" t="s">
-        <v>191</v>
-      </c>
-      <c r="J76" t="s">
-        <v>193</v>
-      </c>
-      <c r="K76" t="s">
-        <v>189</v>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4658,37 +4691,37 @@
         <v>14</v>
       </c>
       <c r="C77" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D77" t="s">
         <v>92</v>
       </c>
       <c r="E77">
-        <v>13.802143</v>
+        <v>13.69580853</v>
       </c>
       <c r="F77">
-        <v>100.19</v>
+        <v>100.5133688</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I77" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" t="s">
-        <v>193</v>
-      </c>
-      <c r="K77" t="s">
-        <v>189</v>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4708,31 +4741,31 @@
         <v>93</v>
       </c>
       <c r="E78">
-        <v>13.928974</v>
+        <v>13.73541413</v>
       </c>
       <c r="F78">
-        <v>100.577365</v>
+        <v>100.5877998</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
-        <v>189</v>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J78" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L78" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4752,31 +4785,31 @@
         <v>94</v>
       </c>
       <c r="E79">
-        <v>13.929686</v>
+        <v>13.78766192</v>
       </c>
       <c r="F79">
-        <v>100.576</v>
+        <v>100.5105938</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
-        <v>189</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J79" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L79" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4787,7 +4820,7 @@
         <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2">
         <v>44187</v>
@@ -4796,31 +4829,31 @@
         <v>95</v>
       </c>
       <c r="E80">
-        <v>13.76033018</v>
+        <v>13.5951449</v>
       </c>
       <c r="F80">
-        <v>100.4796436</v>
+        <v>100.5802135</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I80" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J80" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L80" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4840,31 +4873,31 @@
         <v>96</v>
       </c>
       <c r="E81">
-        <v>13.82853997</v>
+        <v>13.803038</v>
       </c>
       <c r="F81">
-        <v>100.4842102</v>
+        <v>100.188902</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I81" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L81" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4884,31 +4917,31 @@
         <v>97</v>
       </c>
       <c r="E82">
-        <v>14.01020378</v>
+        <v>13.802143</v>
       </c>
       <c r="F82">
-        <v>100.1768909</v>
+        <v>100.19</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I82" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J82" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4928,31 +4961,31 @@
         <v>98</v>
       </c>
       <c r="E83">
-        <v>14.04839109</v>
+        <v>13.928974</v>
       </c>
       <c r="F83">
-        <v>100.0198852</v>
+        <v>100.577365</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I83" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J83" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L83" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4972,31 +5005,31 @@
         <v>99</v>
       </c>
       <c r="E84">
-        <v>13.80175861</v>
+        <v>13.929686</v>
       </c>
       <c r="F84">
-        <v>100.3053076</v>
+        <v>100.576</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I84" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J84" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K84" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L84" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5016,31 +5049,31 @@
         <v>100</v>
       </c>
       <c r="E85">
-        <v>13.60633251</v>
+        <v>13.76033018</v>
       </c>
       <c r="F85">
-        <v>100.4036543</v>
+        <v>100.4796436</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>198</v>
+      </c>
+      <c r="I85" t="s">
+        <v>200</v>
+      </c>
+      <c r="J85" t="s">
+        <v>202</v>
+      </c>
+      <c r="K85" t="s">
+        <v>198</v>
       </c>
       <c r="L85" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5048,43 +5081,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D86" t="s">
         <v>101</v>
       </c>
       <c r="E86">
-        <v>13.7243591</v>
+        <v>13.82853997</v>
       </c>
       <c r="F86">
-        <v>100.5386589</v>
+        <v>100.4842102</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>0</v>
+      <c r="H86" t="s">
+        <v>198</v>
       </c>
       <c r="I86" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J86" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5092,43 +5125,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C87" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D87" t="s">
         <v>102</v>
       </c>
       <c r="E87">
-        <v>13.54974685</v>
+        <v>14.01020378</v>
       </c>
       <c r="F87">
-        <v>100.2561435</v>
+        <v>100.1768909</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I87" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J87" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L87" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5136,43 +5169,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C88" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D88" t="s">
         <v>103</v>
       </c>
       <c r="E88">
-        <v>14.45160513</v>
+        <v>14.04839109</v>
       </c>
       <c r="F88">
-        <v>100.7230585</v>
+        <v>100.0198852</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I88" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J88" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5180,43 +5213,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D89" t="s">
         <v>104</v>
       </c>
       <c r="E89">
-        <v>13.2054213</v>
+        <v>13.80175861</v>
       </c>
       <c r="F89">
-        <v>99.9793013</v>
+        <v>100.3053076</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>198</v>
       </c>
       <c r="I89" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J89" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L89" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5224,43 +5257,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D90" t="s">
         <v>105</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>13.60633251</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>100.4036543</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
-        <v>189</v>
-      </c>
-      <c r="I90" t="s">
-        <v>191</v>
-      </c>
-      <c r="J90" t="s">
-        <v>193</v>
-      </c>
-      <c r="K90" t="s">
-        <v>189</v>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5268,10 +5301,10 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C91" s="2">
         <v>44188</v>
@@ -5280,31 +5313,31 @@
         <v>106</v>
       </c>
       <c r="E91">
-        <v>13.802283</v>
+        <v>13.7243591</v>
       </c>
       <c r="F91">
-        <v>100.184509</v>
+        <v>100.5386589</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
-        <v>189</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J91" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K91" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L91" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5312,10 +5345,10 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C92" s="2">
         <v>44188</v>
@@ -5324,31 +5357,31 @@
         <v>107</v>
       </c>
       <c r="E92">
-        <v>13.91857</v>
+        <v>13.54974685</v>
       </c>
       <c r="F92">
-        <v>100.601606</v>
+        <v>100.2561435</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I92" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K92" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L92" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5356,10 +5389,10 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2">
         <v>44188</v>
@@ -5368,31 +5401,31 @@
         <v>108</v>
       </c>
       <c r="E93">
-        <v>13.6171972</v>
+        <v>14.45160513</v>
       </c>
       <c r="F93">
-        <v>100.3791504</v>
+        <v>100.7230585</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I93" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J93" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K93" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L93" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5400,10 +5433,10 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" s="2">
         <v>44188</v>
@@ -5412,31 +5445,31 @@
         <v>109</v>
       </c>
       <c r="E94">
-        <v>12.66469676</v>
+        <v>13.2054213</v>
       </c>
       <c r="F94">
-        <v>102.1037094</v>
+        <v>99.9793013</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>188</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J94" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K94" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L94" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5456,31 +5489,31 @@
         <v>110</v>
       </c>
       <c r="E95">
-        <v>13.86149331</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>100.6434383</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>198</v>
+      </c>
+      <c r="I95" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" t="s">
+        <v>198</v>
       </c>
       <c r="L95" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5500,31 +5533,31 @@
         <v>111</v>
       </c>
       <c r="E96">
-        <v>13.84500752</v>
+        <v>13.802283</v>
       </c>
       <c r="F96">
-        <v>100.6352673</v>
+        <v>100.184509</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" t="s">
+        <v>202</v>
+      </c>
+      <c r="K96" t="s">
+        <v>198</v>
       </c>
       <c r="L96" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5538,37 +5571,37 @@
         <v>14</v>
       </c>
       <c r="C97" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D97" t="s">
         <v>112</v>
       </c>
       <c r="E97">
-        <v>13.721681</v>
+        <v>13.91857</v>
       </c>
       <c r="F97">
-        <v>100.53</v>
+        <v>100.601606</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J97" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K97" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5579,40 +5612,40 @@
         <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D98" t="s">
         <v>113</v>
       </c>
       <c r="E98">
-        <v>13.9134431</v>
+        <v>13.6171972</v>
       </c>
       <c r="F98">
-        <v>100.4220473</v>
+        <v>100.3791504</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I98" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J98" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K98" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L98" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5626,37 +5659,37 @@
         <v>14</v>
       </c>
       <c r="C99" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D99" t="s">
         <v>114</v>
       </c>
       <c r="E99">
-        <v>13.786588</v>
+        <v>12.66469676</v>
       </c>
       <c r="F99">
-        <v>100.321233</v>
+        <v>102.1037094</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I99" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J99" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K99" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L99" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5667,40 +5700,40 @@
         <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D100" t="s">
         <v>115</v>
       </c>
       <c r="E100">
-        <v>13.8017434</v>
+        <v>13.86149331</v>
       </c>
       <c r="F100">
-        <v>100.1879465</v>
+        <v>100.6434383</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
-        <v>189</v>
-      </c>
-      <c r="I100" t="s">
-        <v>191</v>
-      </c>
-      <c r="J100" t="s">
-        <v>193</v>
-      </c>
-      <c r="K100" t="s">
-        <v>189</v>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5714,37 +5747,37 @@
         <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D101" t="s">
         <v>116</v>
       </c>
       <c r="E101">
-        <v>13.81456113</v>
+        <v>13.84500752</v>
       </c>
       <c r="F101">
-        <v>100.0630594</v>
+        <v>100.6352673</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
-        <v>189</v>
-      </c>
-      <c r="I101" t="s">
-        <v>191</v>
-      </c>
-      <c r="J101" t="s">
-        <v>193</v>
-      </c>
-      <c r="K101" t="s">
-        <v>189</v>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5758,37 +5791,37 @@
         <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D102" t="s">
         <v>117</v>
       </c>
       <c r="E102">
-        <v>12.68783188</v>
+        <v>13.67744471</v>
       </c>
       <c r="F102">
-        <v>101.2114545</v>
+        <v>100.3450652</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>188</v>
-      </c>
-      <c r="I102" t="s">
-        <v>191</v>
-      </c>
-      <c r="J102" t="s">
-        <v>193</v>
-      </c>
-      <c r="K102" t="s">
-        <v>189</v>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5808,31 +5841,31 @@
         <v>118</v>
       </c>
       <c r="E103">
-        <v>13.67342423</v>
+        <v>13.721681</v>
       </c>
       <c r="F103">
-        <v>100.6069256</v>
+        <v>100.53</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I103" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J103" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K103" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5843,7 +5876,7 @@
         <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C104" s="2">
         <v>44189</v>
@@ -5852,31 +5885,31 @@
         <v>119</v>
       </c>
       <c r="E104">
-        <v>13.6680206</v>
+        <v>13.9134431</v>
       </c>
       <c r="F104">
-        <v>100.6354649</v>
+        <v>100.4220473</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I104" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J104" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K104" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5896,31 +5929,31 @@
         <v>120</v>
       </c>
       <c r="E105">
-        <v>13.88903855</v>
+        <v>13.786588</v>
       </c>
       <c r="F105">
-        <v>100.6576064</v>
+        <v>100.321233</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I105" t="s">
+        <v>200</v>
+      </c>
+      <c r="J105" t="s">
+        <v>202</v>
+      </c>
+      <c r="K105" t="s">
+        <v>198</v>
       </c>
       <c r="L105" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5931,7 +5964,7 @@
         <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
         <v>44189</v>
@@ -5940,31 +5973,31 @@
         <v>121</v>
       </c>
       <c r="E106">
-        <v>13.71110566</v>
+        <v>13.8017434</v>
       </c>
       <c r="F106">
-        <v>100.4158636</v>
+        <v>100.1879465</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
+      <c r="H106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I106" t="s">
+        <v>200</v>
+      </c>
+      <c r="J106" t="s">
+        <v>202</v>
+      </c>
+      <c r="K106" t="s">
+        <v>198</v>
       </c>
       <c r="L106" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5984,31 +6017,31 @@
         <v>122</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>13.81456113</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>100.0630594</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>198</v>
+      </c>
+      <c r="I107" t="s">
+        <v>200</v>
+      </c>
+      <c r="J107" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" t="s">
+        <v>198</v>
       </c>
       <c r="L107" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6022,37 +6055,37 @@
         <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D108" t="s">
         <v>123</v>
       </c>
       <c r="E108">
-        <v>13.924252</v>
+        <v>12.68783188</v>
       </c>
       <c r="F108">
-        <v>100.597945</v>
+        <v>101.2114545</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I108" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J108" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K108" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L108" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6066,37 +6099,37 @@
         <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D109" t="s">
         <v>124</v>
       </c>
       <c r="E109">
-        <v>12.69670286</v>
+        <v>13.67342423</v>
       </c>
       <c r="F109">
-        <v>101.2683573</v>
+        <v>100.6069256</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I109" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J109" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K109" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L109" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6110,37 +6143,37 @@
         <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D110" t="s">
         <v>125</v>
       </c>
       <c r="E110">
-        <v>12.69574994</v>
+        <v>13.6680206</v>
       </c>
       <c r="F110">
-        <v>101.2674706</v>
+        <v>100.6354649</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I110" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J110" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K110" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L110" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6154,16 +6187,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D111" t="s">
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.71190173</v>
+        <v>13.88903855</v>
       </c>
       <c r="F111">
-        <v>100.4224456</v>
+        <v>100.6576064</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6181,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6198,16 +6231,16 @@
         <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D112" t="s">
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.80614397</v>
+        <v>13.71110566</v>
       </c>
       <c r="F112">
-        <v>100.5307221</v>
+        <v>100.4158636</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6225,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6242,16 +6275,16 @@
         <v>14</v>
       </c>
       <c r="C113" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D113" t="s">
         <v>128</v>
       </c>
       <c r="E113">
-        <v>13.78786299</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>100.4828396</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6269,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6292,31 +6325,31 @@
         <v>129</v>
       </c>
       <c r="E114">
-        <v>13.77791571</v>
+        <v>13.924252</v>
       </c>
       <c r="F114">
-        <v>100.4766994</v>
+        <v>100.597945</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I114" t="s">
+        <v>200</v>
+      </c>
+      <c r="J114" t="s">
+        <v>202</v>
+      </c>
+      <c r="K114" t="s">
+        <v>198</v>
       </c>
       <c r="L114" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6327,7 +6360,7 @@
         <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C115" s="2">
         <v>44190</v>
@@ -6336,31 +6369,31 @@
         <v>130</v>
       </c>
       <c r="E115">
-        <v>18.80731097</v>
+        <v>12.69670286</v>
       </c>
       <c r="F115">
-        <v>98.96283674999999</v>
+        <v>101.2683573</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>197</v>
+      </c>
+      <c r="I115" t="s">
+        <v>200</v>
+      </c>
+      <c r="J115" t="s">
+        <v>202</v>
+      </c>
+      <c r="K115" t="s">
+        <v>198</v>
       </c>
       <c r="L115" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6380,31 +6413,31 @@
         <v>131</v>
       </c>
       <c r="E116">
-        <v>13.7707636</v>
+        <v>12.69574994</v>
       </c>
       <c r="F116">
-        <v>100.4680689</v>
+        <v>101.2674706</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
+      <c r="H116" t="s">
+        <v>197</v>
+      </c>
+      <c r="I116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J116" t="s">
+        <v>202</v>
+      </c>
+      <c r="K116" t="s">
+        <v>198</v>
       </c>
       <c r="L116" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6412,22 +6445,22 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D117" t="s">
         <v>132</v>
       </c>
       <c r="E117">
-        <v>13.734066</v>
+        <v>13.71190173</v>
       </c>
       <c r="F117">
-        <v>100.5278354</v>
+        <v>100.4224456</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6445,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6456,22 +6489,22 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
       </c>
       <c r="E118">
-        <v>12.6483736</v>
+        <v>13.80614397</v>
       </c>
       <c r="F118">
-        <v>101.2273679</v>
+        <v>100.5307221</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6489,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6500,43 +6533,43 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
       </c>
       <c r="E119">
-        <v>12.69691038</v>
+        <v>13.78786299</v>
       </c>
       <c r="F119">
-        <v>101.268451</v>
+        <v>100.4828396</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
-        <v>188</v>
-      </c>
-      <c r="I119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J119" t="s">
-        <v>193</v>
-      </c>
-      <c r="K119" t="s">
-        <v>189</v>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6544,43 +6577,43 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D120" t="s">
         <v>135</v>
       </c>
       <c r="E120">
-        <v>12.66695256</v>
+        <v>13.77791571</v>
       </c>
       <c r="F120">
-        <v>101.2738756</v>
+        <v>100.4766994</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" t="s">
-        <v>188</v>
-      </c>
-      <c r="I120" t="s">
-        <v>191</v>
-      </c>
-      <c r="J120" t="s">
-        <v>193</v>
-      </c>
-      <c r="K120" t="s">
-        <v>189</v>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6588,22 +6621,22 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D121" t="s">
         <v>136</v>
       </c>
       <c r="E121">
-        <v>13.86265154</v>
+        <v>18.80731097</v>
       </c>
       <c r="F121">
-        <v>100.6432858</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6621,10 +6654,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6632,22 +6665,22 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D122" t="s">
         <v>137</v>
       </c>
       <c r="E122">
-        <v>12.6844183</v>
+        <v>13.7707636</v>
       </c>
       <c r="F122">
-        <v>101.2742991</v>
+        <v>100.4680689</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6661,14 +6694,14 @@
       <c r="J122">
         <v>0</v>
       </c>
-      <c r="K122" t="s">
-        <v>189</v>
+      <c r="K122">
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6676,22 +6709,22 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D123" t="s">
         <v>138</v>
       </c>
       <c r="E123">
-        <v>12.9730033</v>
+        <v>13.5455515</v>
       </c>
       <c r="F123">
-        <v>100.9029061</v>
+        <v>100.2767451</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6705,14 +6738,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123" t="s">
-        <v>189</v>
+      <c r="K123">
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6723,19 +6756,19 @@
         <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C124" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D124" t="s">
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.7946069</v>
+        <v>13.734066</v>
       </c>
       <c r="F124">
-        <v>100.5161808</v>
+        <v>100.5278354</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6749,14 +6782,14 @@
       <c r="J124">
         <v>0</v>
       </c>
-      <c r="K124" t="s">
-        <v>189</v>
+      <c r="K124">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6767,40 +6800,40 @@
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C125" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D125" t="s">
         <v>140</v>
       </c>
       <c r="E125">
-        <v>13.54448567</v>
+        <v>12.6483736</v>
       </c>
       <c r="F125">
-        <v>100.2752027</v>
+        <v>101.2273679</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" t="s">
-        <v>188</v>
-      </c>
-      <c r="I125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J125" t="s">
-        <v>193</v>
-      </c>
-      <c r="K125" t="s">
-        <v>189</v>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6814,37 +6847,37 @@
         <v>14</v>
       </c>
       <c r="C126" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D126" t="s">
         <v>141</v>
       </c>
       <c r="E126">
-        <v>13.67424547</v>
+        <v>12.69691038</v>
       </c>
       <c r="F126">
-        <v>100.426448</v>
+        <v>101.268451</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
+      <c r="H126" t="s">
+        <v>197</v>
+      </c>
+      <c r="I126" t="s">
+        <v>200</v>
+      </c>
+      <c r="J126" t="s">
+        <v>202</v>
+      </c>
+      <c r="K126" t="s">
+        <v>198</v>
       </c>
       <c r="L126" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6858,34 +6891,34 @@
         <v>14</v>
       </c>
       <c r="C127" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="D127" t="s">
         <v>142</v>
       </c>
       <c r="E127">
-        <v>13.73545544</v>
+        <v>12.66695256</v>
       </c>
       <c r="F127">
-        <v>100.5661584</v>
+        <v>101.2738756</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I127" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J127" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K127" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>296</v>
@@ -6899,37 +6932,37 @@
         <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D128" t="s">
         <v>143</v>
       </c>
       <c r="E128">
-        <v>12.9098775</v>
+        <v>13.86265154</v>
       </c>
       <c r="F128">
-        <v>100.891563</v>
+        <v>100.6432858</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
-        <v>189</v>
-      </c>
-      <c r="I128" t="s">
-        <v>191</v>
-      </c>
-      <c r="J128" t="s">
-        <v>193</v>
-      </c>
-      <c r="K128" t="s">
-        <v>189</v>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>297</v>
@@ -6943,19 +6976,19 @@
         <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D129" t="s">
         <v>144</v>
       </c>
       <c r="E129">
-        <v>13.3535702</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>100.9765439</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6969,14 +7002,14 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129" t="s">
-        <v>189</v>
+      <c r="K129">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6987,19 +7020,19 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D130" t="s">
         <v>145</v>
       </c>
       <c r="E130">
-        <v>12.948902</v>
+        <v>12.6844183</v>
       </c>
       <c r="F130">
-        <v>100.891292</v>
+        <v>101.2742991</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7014,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L130" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7034,16 +7067,16 @@
         <v>15</v>
       </c>
       <c r="C131" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D131" t="s">
         <v>146</v>
       </c>
       <c r="E131">
-        <v>12.6495877</v>
+        <v>12.9730033</v>
       </c>
       <c r="F131">
-        <v>102.0329425</v>
+        <v>100.9029061</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7058,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L131" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7075,19 +7108,19 @@
         <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D132" t="s">
         <v>147</v>
       </c>
       <c r="E132">
-        <v>12.3757564</v>
+        <v>13.7946069</v>
       </c>
       <c r="F132">
-        <v>102.3818628</v>
+        <v>100.5161808</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7102,13 +7135,13 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L132" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7119,40 +7152,40 @@
         <v>193</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D133" t="s">
         <v>148</v>
       </c>
       <c r="E133">
-        <v>12.7246169</v>
+        <v>13.54448567</v>
       </c>
       <c r="F133">
-        <v>101.9362794</v>
+        <v>100.2752027</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
+      <c r="H133" t="s">
+        <v>197</v>
+      </c>
+      <c r="I133" t="s">
+        <v>200</v>
+      </c>
+      <c r="J133" t="s">
+        <v>202</v>
       </c>
       <c r="K133" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L133" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7163,19 +7196,19 @@
         <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C134" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D134" t="s">
         <v>149</v>
       </c>
       <c r="E134">
-        <v>13.772986</v>
+        <v>13.67424547</v>
       </c>
       <c r="F134">
-        <v>100.4855148</v>
+        <v>100.426448</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7189,14 +7222,14 @@
       <c r="J134">
         <v>0</v>
       </c>
-      <c r="K134" t="s">
-        <v>189</v>
+      <c r="K134">
+        <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7207,40 +7240,40 @@
         <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C135" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D135" t="s">
         <v>150</v>
       </c>
       <c r="E135">
-        <v>12.90895904</v>
+        <v>13.73545544</v>
       </c>
       <c r="F135">
-        <v>100.891925</v>
+        <v>100.5661584</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
+      <c r="H135" t="s">
+        <v>198</v>
+      </c>
+      <c r="I135" t="s">
+        <v>200</v>
+      </c>
+      <c r="J135" t="s">
+        <v>202</v>
+      </c>
+      <c r="K135" t="s">
+        <v>198</v>
       </c>
       <c r="L135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7251,19 +7284,19 @@
         <v>196</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C136" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D136" t="s">
         <v>151</v>
       </c>
       <c r="E136">
-        <v>12.90960418</v>
+        <v>13.91669065</v>
       </c>
       <c r="F136">
-        <v>100.870256</v>
+        <v>100.397828</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7281,10 +7314,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7295,7 +7328,7 @@
         <v>197</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C137" s="2">
         <v>44194</v>
@@ -7304,31 +7337,31 @@
         <v>152</v>
       </c>
       <c r="E137">
-        <v>12.93047726</v>
+        <v>12.9098775</v>
       </c>
       <c r="F137">
-        <v>100.8807229</v>
+        <v>100.891563</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
+      <c r="H137" t="s">
+        <v>198</v>
+      </c>
+      <c r="I137" t="s">
+        <v>200</v>
+      </c>
+      <c r="J137" t="s">
+        <v>202</v>
+      </c>
+      <c r="K137" t="s">
+        <v>198</v>
       </c>
       <c r="L137" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7339,7 +7372,7 @@
         <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C138" s="2">
         <v>44194</v>
@@ -7348,10 +7381,10 @@
         <v>153</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>13.3535702</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>100.9765439</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7365,14 +7398,14 @@
       <c r="J138">
         <v>0</v>
       </c>
-      <c r="K138">
-        <v>0</v>
+      <c r="K138" t="s">
+        <v>198</v>
       </c>
       <c r="L138" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7392,10 +7425,10 @@
         <v>154</v>
       </c>
       <c r="E139">
-        <v>12.66219926</v>
+        <v>12.948902</v>
       </c>
       <c r="F139">
-        <v>100.8989779</v>
+        <v>100.891292</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7409,14 +7442,14 @@
       <c r="J139">
         <v>0</v>
       </c>
-      <c r="K139">
-        <v>0</v>
+      <c r="K139" t="s">
+        <v>198</v>
       </c>
       <c r="L139" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7427,7 +7460,7 @@
         <v>200</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C140" s="2">
         <v>44194</v>
@@ -7436,10 +7469,10 @@
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.32877789</v>
+        <v>12.6495877</v>
       </c>
       <c r="F140">
-        <v>100.9230017</v>
+        <v>102.0329425</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7453,14 +7486,14 @@
       <c r="J140">
         <v>0</v>
       </c>
-      <c r="K140">
-        <v>0</v>
+      <c r="K140" t="s">
+        <v>198</v>
       </c>
       <c r="L140" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7471,7 +7504,7 @@
         <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C141" s="2">
         <v>44194</v>
@@ -7480,10 +7513,10 @@
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.33615653</v>
+        <v>12.3757564</v>
       </c>
       <c r="F141">
-        <v>100.9694597</v>
+        <v>102.3818628</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7497,14 +7530,14 @@
       <c r="J141">
         <v>0</v>
       </c>
-      <c r="K141">
-        <v>0</v>
+      <c r="K141" t="s">
+        <v>198</v>
       </c>
       <c r="L141" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7515,7 +7548,7 @@
         <v>202</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C142" s="2">
         <v>44194</v>
@@ -7524,10 +7557,10 @@
         <v>157</v>
       </c>
       <c r="E142">
-        <v>12.83546656</v>
+        <v>12.7246169</v>
       </c>
       <c r="F142">
-        <v>100.967575</v>
+        <v>101.9362794</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7541,14 +7574,14 @@
       <c r="J142">
         <v>0</v>
       </c>
-      <c r="K142">
-        <v>0</v>
+      <c r="K142" t="s">
+        <v>198</v>
       </c>
       <c r="L142" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7568,10 +7601,10 @@
         <v>158</v>
       </c>
       <c r="E143">
-        <v>13.33545565</v>
+        <v>13.772986</v>
       </c>
       <c r="F143">
-        <v>100.9249432</v>
+        <v>100.4855148</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7585,14 +7618,14 @@
       <c r="J143">
         <v>0</v>
       </c>
-      <c r="K143">
-        <v>0</v>
+      <c r="K143" t="s">
+        <v>198</v>
       </c>
       <c r="L143" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7612,10 +7645,10 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>13.33841928</v>
+        <v>12.90895904</v>
       </c>
       <c r="F144">
-        <v>100.9526548</v>
+        <v>100.891925</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7633,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7656,10 +7689,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.68318129</v>
+        <v>12.90960418</v>
       </c>
       <c r="F145">
-        <v>101.2479341</v>
+        <v>100.870256</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7677,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7700,10 +7733,10 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.68178774</v>
+        <v>12.93047726</v>
       </c>
       <c r="F146">
-        <v>101.2804266</v>
+        <v>100.8807229</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7721,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7744,10 +7777,10 @@
         <v>162</v>
       </c>
       <c r="E147">
-        <v>12.67663309</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>101.2204609</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7765,10 +7798,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7788,10 +7821,10 @@
         <v>163</v>
       </c>
       <c r="E148">
-        <v>12.67969829</v>
+        <v>12.66219926</v>
       </c>
       <c r="F148">
-        <v>101.2516232</v>
+        <v>100.8989779</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7809,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7832,10 +7865,10 @@
         <v>164</v>
       </c>
       <c r="E149">
-        <v>12.67895072</v>
+        <v>13.32877789</v>
       </c>
       <c r="F149">
-        <v>101.2811971</v>
+        <v>100.9230017</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7853,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7876,10 +7909,10 @@
         <v>165</v>
       </c>
       <c r="E150">
-        <v>12.69121623</v>
+        <v>13.33615653</v>
       </c>
       <c r="F150">
-        <v>101.2828322</v>
+        <v>100.9694597</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7897,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7920,10 +7953,10 @@
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.61154131</v>
+        <v>12.83546656</v>
       </c>
       <c r="F151">
-        <v>102.105739</v>
+        <v>100.967575</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7941,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7964,10 +7997,10 @@
         <v>167</v>
       </c>
       <c r="E152">
-        <v>12.59875505</v>
+        <v>13.33545565</v>
       </c>
       <c r="F152">
-        <v>102.1108505</v>
+        <v>100.9249432</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7985,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8008,10 +8041,10 @@
         <v>168</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>13.33841928</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>100.9526548</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8029,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8052,10 +8085,10 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>12.68318129</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>101.2479341</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8073,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8096,10 +8129,10 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>12.94007297</v>
+        <v>12.68178774</v>
       </c>
       <c r="F155">
-        <v>100.9198688</v>
+        <v>101.2804266</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8117,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8140,10 +8173,10 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.93500267</v>
+        <v>12.67663309</v>
       </c>
       <c r="F156">
-        <v>100.8828385</v>
+        <v>101.2204609</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8161,10 +8194,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8184,10 +8217,10 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.93302705</v>
+        <v>12.67969829</v>
       </c>
       <c r="F157">
-        <v>100.9013151</v>
+        <v>101.2516232</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8205,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8228,10 +8261,10 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>12.93124481</v>
+        <v>12.67895072</v>
       </c>
       <c r="F158">
-        <v>100.9008084</v>
+        <v>101.2811971</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8249,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8272,10 +8305,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>12.93038104</v>
+        <v>12.69121623</v>
       </c>
       <c r="F159">
-        <v>100.9126714</v>
+        <v>101.2828322</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8293,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8316,10 +8349,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>12.84875767</v>
+        <v>12.61154131</v>
       </c>
       <c r="F160">
-        <v>100.9017</v>
+        <v>102.105739</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8337,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8360,10 +8393,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.90883138</v>
+        <v>12.59875505</v>
       </c>
       <c r="F161">
-        <v>100.8932458</v>
+        <v>102.1108505</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8381,10 +8414,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8404,10 +8437,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>12.66362634</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>100.8981743</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8425,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8448,10 +8481,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.95074463</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>100.8933879</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8469,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8492,10 +8525,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.97880506</v>
+        <v>12.94007297</v>
       </c>
       <c r="F164">
-        <v>100.9430835</v>
+        <v>100.9198688</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8513,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8536,10 +8569,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.92662465</v>
+        <v>12.93500267</v>
       </c>
       <c r="F165">
-        <v>100.898605</v>
+        <v>100.8828385</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8557,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8580,10 +8613,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.98328283</v>
+        <v>12.93302705</v>
       </c>
       <c r="F166">
-        <v>100.9354783</v>
+        <v>100.9013151</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8601,10 +8634,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8624,10 +8657,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>12.98177123</v>
+        <v>12.93124481</v>
       </c>
       <c r="F167">
-        <v>100.9289336</v>
+        <v>100.9008084</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8645,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8668,10 +8701,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.01893524</v>
+        <v>12.93038104</v>
       </c>
       <c r="F168">
-        <v>100.932701</v>
+        <v>100.9126714</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8689,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8712,10 +8745,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>12.95555524</v>
+        <v>12.84875767</v>
       </c>
       <c r="F169">
-        <v>100.8987028</v>
+        <v>100.9017</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8733,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8756,10 +8789,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>12.93944879</v>
+        <v>12.90883138</v>
       </c>
       <c r="F170">
-        <v>100.9021397</v>
+        <v>100.8932458</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8777,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8800,10 +8833,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>12.75400498</v>
+        <v>12.66362634</v>
       </c>
       <c r="F171">
-        <v>100.9017967</v>
+        <v>100.8981743</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8821,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8844,33 +8877,429 @@
         <v>187</v>
       </c>
       <c r="E172">
+        <v>12.95074463</v>
+      </c>
+      <c r="F172">
+        <v>100.8933879</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>263</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173">
+        <v>233</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173">
+        <v>12.97880506</v>
+      </c>
+      <c r="F173">
+        <v>100.9430835</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>263</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174">
+        <v>234</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174">
+        <v>12.92662465</v>
+      </c>
+      <c r="F174">
+        <v>100.898605</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>263</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175">
+        <v>235</v>
+      </c>
+      <c r="B175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D175" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175">
+        <v>12.98328283</v>
+      </c>
+      <c r="F175">
+        <v>100.9354783</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>263</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176">
+        <v>236</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176">
+        <v>12.98177123</v>
+      </c>
+      <c r="F176">
+        <v>100.9289336</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176" t="s">
+        <v>263</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177">
+        <v>237</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D177" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177">
+        <v>13.01893524</v>
+      </c>
+      <c r="F177">
+        <v>100.932701</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>263</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178">
+        <v>238</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="E178">
+        <v>12.95555524</v>
+      </c>
+      <c r="F178">
+        <v>100.8987028</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" t="s">
+        <v>263</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179">
+        <v>239</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D179" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179">
+        <v>12.93944879</v>
+      </c>
+      <c r="F179">
+        <v>100.9021397</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>263</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180">
+        <v>240</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D180" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180">
+        <v>12.75400498</v>
+      </c>
+      <c r="F180">
+        <v>100.9017967</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>263</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181">
+        <v>241</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181">
         <v>12.69857571</v>
       </c>
-      <c r="F172">
+      <c r="F181">
         <v>100.8899412</v>
       </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172" t="s">
-        <v>253</v>
-      </c>
-      <c r="M172" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="N172">
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>263</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N181">
         <v>0</v>
       </c>
     </row>
@@ -8918,8 +9347,8 @@
     <hyperlink ref="M41" r:id="rId40"/>
     <hyperlink ref="M42" r:id="rId41"/>
     <hyperlink ref="M43" r:id="rId42"/>
-    <hyperlink ref="M44" r:id="rId43" location="cxrecs_s"/>
-    <hyperlink ref="M45" r:id="rId44"/>
+    <hyperlink ref="M44" r:id="rId43"/>
+    <hyperlink ref="M45" r:id="rId44" location="cxrecs_s"/>
     <hyperlink ref="M46" r:id="rId45"/>
     <hyperlink ref="M47" r:id="rId46"/>
     <hyperlink ref="M48" r:id="rId47"/>
@@ -9047,6 +9476,15 @@
     <hyperlink ref="M170" r:id="rId169"/>
     <hyperlink ref="M171" r:id="rId170"/>
     <hyperlink ref="M172" r:id="rId171"/>
+    <hyperlink ref="M173" r:id="rId172"/>
+    <hyperlink ref="M174" r:id="rId173"/>
+    <hyperlink ref="M175" r:id="rId174"/>
+    <hyperlink ref="M176" r:id="rId175"/>
+    <hyperlink ref="M177" r:id="rId176"/>
+    <hyperlink ref="M178" r:id="rId177"/>
+    <hyperlink ref="M179" r:id="rId178"/>
+    <hyperlink ref="M180" r:id="rId179"/>
+    <hyperlink ref="M181" r:id="rId180"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -334,6 +334,9 @@
     <t>ตลาดมิตรมงคล เขตบางขุนเทียน</t>
   </si>
   <si>
+    <t>Groove Evening</t>
+  </si>
+  <si>
     <t>อาคารกรุงเทพประกันภัย ชั้น 22</t>
   </si>
   <si>
@@ -403,6 +406,15 @@
     <t>บริษัทเมืองไทยแคปปิตอล ปากซอยจรัญ49</t>
   </si>
   <si>
+    <t>ตลาดบางบัวทอง</t>
+  </si>
+  <si>
+    <t>ธนาคาร SCB สาขาไทรน้อย</t>
+  </si>
+  <si>
+    <t>ห้าง BB Market Park บางใหญ่</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
@@ -433,6 +445,9 @@
     <t>ตลาดแม่พวง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>บริษัท AIM สยามจำกัด นนทบุรี</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -607,6 +622,9 @@
     <t>ร้านสเต็ก 700 ไร่</t>
   </si>
   <si>
+    <t>วัดละหาร</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -724,6 +742,9 @@
     <t>ตลาดโอโซนวัน ประกาศปิด 2 วัน หลังพบคนติดเชื้อโควิดเข้ามาใช้บริการ</t>
   </si>
   <si>
+    <t>ผู้เสียชีวิตจาก COVID-19 รายที่ 62 ของประเทศไทย เป็นลูกค้าที่มีประวัติมาใช้บริการที่ร้าน วันที่ 22 ธันวาคม 2563</t>
+  </si>
+  <si>
     <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
   </si>
   <si>
@@ -751,6 +772,9 @@
     <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
   </si>
   <si>
+    <t>อุบลราชธานี เผยไทม์ไลน์ผู้ป่วยโควิด 1 ราย เดินทางมาจากนนทบุรี พบเชื้อ 31 ธ.ค.63</t>
+  </si>
+  <si>
     <t>ร้านอาหารดังเชียงใหม่ สั่งปิด14วัน พบผู้ติดเชื้อโควิดใช้บริการ</t>
   </si>
   <si>
@@ -808,6 +832,9 @@
     <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
   </si>
   <si>
+    <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
@@ -892,6 +919,9 @@
     <t>https://www.matichon.co.th/covid19/news_2502134</t>
   </si>
   <si>
+    <t>https://www.facebook.com/GrooveEvening/posts/3790964334289800</t>
+  </si>
+  <si>
     <t>https://www.infoquest.co.th/2020/54934</t>
   </si>
   <si>
@@ -916,6 +946,9 @@
     <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2509609</t>
+  </si>
+  <si>
     <t>https://www.bangkokbiznews.com/news/detail/914663</t>
   </si>
   <si>
@@ -959,6 +992,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/v.khunplome/photos/a.108967524044265/214275353513481/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/region/news_2509978</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1409,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1450,22 +1486,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1494,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1538,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1582,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1626,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1670,22 +1706,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1714,22 +1750,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1758,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1802,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1846,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1890,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1934,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1978,22 +2014,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2022,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J16" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2066,22 +2102,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J17" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2110,22 +2146,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2166,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2198,22 +2234,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2242,22 +2278,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2286,22 +2322,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2330,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2374,22 +2410,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2418,22 +2454,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2462,22 +2498,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2506,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2550,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2594,22 +2630,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2638,22 +2674,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2682,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2726,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2770,22 +2806,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L33" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2814,22 +2850,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2858,22 +2894,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2902,22 +2938,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J36" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2958,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3002,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3037,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3078,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J40" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3122,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3169,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3213,19 +3249,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J43" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K43" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3257,19 +3293,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3301,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J45" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K45" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3342,22 +3378,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3386,22 +3422,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L47" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3430,22 +3466,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L48" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3474,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J49" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K49" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L49" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3518,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J50" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L50" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3562,22 +3598,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J51" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K51" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3606,22 +3642,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J52" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3650,22 +3686,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J53" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K53" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3694,22 +3730,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L54" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3738,22 +3774,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I55" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J55" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K55" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3782,22 +3818,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I56" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J56" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L56" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3826,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I57" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J57" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3870,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J58" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3914,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I59" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J59" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K59" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L59" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3958,22 +3994,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J60" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4002,22 +4038,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4046,22 +4082,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J62" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K62" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L62" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4090,22 +4126,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J63" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K63" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4134,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J64" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K64" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L64" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4190,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4234,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4278,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4310,22 +4346,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J68" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4354,22 +4390,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J69" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K69" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L69" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4398,22 +4434,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L70" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4442,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J71" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K71" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L71" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4486,22 +4522,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I72" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J72" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L72" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4530,22 +4566,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I73" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J73" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K73" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L73" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4574,22 +4610,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I74" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J74" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K74" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L74" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4630,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4674,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4718,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4753,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K78" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L78" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4797,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J79" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K79" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4838,22 +4874,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J80" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K80" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L80" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4882,22 +4918,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I81" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J81" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L81" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4926,22 +4962,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I82" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J82" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K82" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L82" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4970,22 +5006,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I83" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J83" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K83" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L83" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5014,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I84" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J84" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K84" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5058,22 +5094,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I85" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J85" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L85" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5102,22 +5138,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I86" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J86" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K86" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L86" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5146,22 +5182,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I87" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J87" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L87" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5190,22 +5226,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I88" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J88" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5234,22 +5270,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I89" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J89" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L89" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5290,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5301,22 +5337,22 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D91" t="s">
         <v>106</v>
       </c>
       <c r="E91">
-        <v>13.7243591</v>
+        <v>13.78396755</v>
       </c>
       <c r="F91">
-        <v>100.5386589</v>
+        <v>100.4713623</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5324,20 +5360,20 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>200</v>
-      </c>
-      <c r="J91" t="s">
-        <v>202</v>
-      </c>
-      <c r="K91" t="s">
-        <v>198</v>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5357,31 +5393,31 @@
         <v>107</v>
       </c>
       <c r="E92">
-        <v>13.54974685</v>
+        <v>13.7243591</v>
       </c>
       <c r="F92">
-        <v>100.2561435</v>
+        <v>100.5386589</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" t="s">
-        <v>199</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J92" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L92" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5401,31 +5437,31 @@
         <v>108</v>
       </c>
       <c r="E93">
-        <v>14.45160513</v>
+        <v>13.54974685</v>
       </c>
       <c r="F93">
-        <v>100.7230585</v>
+        <v>100.2561435</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I93" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J93" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L93" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5433,10 +5469,10 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2">
         <v>44188</v>
@@ -5445,31 +5481,31 @@
         <v>109</v>
       </c>
       <c r="E94">
-        <v>13.2054213</v>
+        <v>14.45160513</v>
       </c>
       <c r="F94">
-        <v>99.9793013</v>
+        <v>100.7230585</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>205</v>
       </c>
       <c r="I94" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J94" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K94" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L94" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5477,10 +5513,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
         <v>44188</v>
@@ -5489,31 +5525,31 @@
         <v>110</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
-        <v>198</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J95" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5533,31 +5569,31 @@
         <v>111</v>
       </c>
       <c r="E96">
-        <v>13.802283</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>100.184509</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I96" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J96" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L96" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5577,31 +5613,31 @@
         <v>112</v>
       </c>
       <c r="E97">
-        <v>13.91857</v>
+        <v>13.802283</v>
       </c>
       <c r="F97">
-        <v>100.601606</v>
+        <v>100.184509</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I97" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J97" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L97" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5621,31 +5657,31 @@
         <v>113</v>
       </c>
       <c r="E98">
-        <v>13.6171972</v>
+        <v>13.91857</v>
       </c>
       <c r="F98">
-        <v>100.3791504</v>
+        <v>100.601606</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I98" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J98" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L98" t="s">
         <v>240</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5665,31 +5701,31 @@
         <v>114</v>
       </c>
       <c r="E99">
-        <v>12.66469676</v>
+        <v>13.6171972</v>
       </c>
       <c r="F99">
-        <v>102.1037094</v>
+        <v>100.3791504</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I99" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J99" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K99" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L99" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5709,31 +5745,31 @@
         <v>115</v>
       </c>
       <c r="E100">
-        <v>13.86149331</v>
+        <v>12.66469676</v>
       </c>
       <c r="F100">
-        <v>100.6434383</v>
+        <v>102.1037094</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>203</v>
+      </c>
+      <c r="I100" t="s">
+        <v>206</v>
+      </c>
+      <c r="J100" t="s">
+        <v>208</v>
+      </c>
+      <c r="K100" t="s">
+        <v>204</v>
       </c>
       <c r="L100" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5753,10 +5789,10 @@
         <v>116</v>
       </c>
       <c r="E101">
-        <v>13.84500752</v>
+        <v>13.86149331</v>
       </c>
       <c r="F101">
-        <v>100.6352673</v>
+        <v>100.6434383</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5774,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5797,10 +5833,10 @@
         <v>117</v>
       </c>
       <c r="E102">
-        <v>13.67744471</v>
+        <v>13.84500752</v>
       </c>
       <c r="F102">
-        <v>100.3450652</v>
+        <v>100.6352673</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5818,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5835,37 +5871,37 @@
         <v>14</v>
       </c>
       <c r="C103" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D103" t="s">
         <v>118</v>
       </c>
       <c r="E103">
-        <v>13.721681</v>
+        <v>13.67744471</v>
       </c>
       <c r="F103">
-        <v>100.53</v>
+        <v>100.3450652</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
-        <v>198</v>
-      </c>
-      <c r="I103" t="s">
-        <v>200</v>
-      </c>
-      <c r="J103" t="s">
-        <v>202</v>
-      </c>
-      <c r="K103" t="s">
-        <v>198</v>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5876,7 +5912,7 @@
         <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C104" s="2">
         <v>44189</v>
@@ -5885,31 +5921,31 @@
         <v>119</v>
       </c>
       <c r="E104">
-        <v>13.9134431</v>
+        <v>13.721681</v>
       </c>
       <c r="F104">
-        <v>100.4220473</v>
+        <v>100.53</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I104" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J104" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L104" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5920,7 +5956,7 @@
         <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105" s="2">
         <v>44189</v>
@@ -5929,31 +5965,31 @@
         <v>120</v>
       </c>
       <c r="E105">
-        <v>13.786588</v>
+        <v>13.9134431</v>
       </c>
       <c r="F105">
-        <v>100.321233</v>
+        <v>100.4220473</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I105" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J105" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L105" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5964,7 +6000,7 @@
         <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2">
         <v>44189</v>
@@ -5973,31 +6009,31 @@
         <v>121</v>
       </c>
       <c r="E106">
-        <v>13.8017434</v>
+        <v>13.786588</v>
       </c>
       <c r="F106">
-        <v>100.1879465</v>
+        <v>100.321233</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I106" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J106" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K106" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L106" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6008,7 +6044,7 @@
         <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2">
         <v>44189</v>
@@ -6017,31 +6053,31 @@
         <v>122</v>
       </c>
       <c r="E107">
-        <v>13.81456113</v>
+        <v>13.8017434</v>
       </c>
       <c r="F107">
-        <v>100.0630594</v>
+        <v>100.1879465</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J107" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K107" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L107" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6061,31 +6097,31 @@
         <v>123</v>
       </c>
       <c r="E108">
-        <v>12.68783188</v>
+        <v>13.81456113</v>
       </c>
       <c r="F108">
-        <v>101.2114545</v>
+        <v>100.0630594</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I108" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J108" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L108" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6105,31 +6141,31 @@
         <v>124</v>
       </c>
       <c r="E109">
-        <v>13.67342423</v>
+        <v>12.68783188</v>
       </c>
       <c r="F109">
-        <v>100.6069256</v>
+        <v>101.2114545</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I109" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J109" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K109" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L109" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6149,31 +6185,31 @@
         <v>125</v>
       </c>
       <c r="E110">
-        <v>13.6680206</v>
+        <v>13.67342423</v>
       </c>
       <c r="F110">
-        <v>100.6354649</v>
+        <v>100.6069256</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I110" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J110" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K110" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L110" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6193,31 +6229,31 @@
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.88903855</v>
+        <v>13.6680206</v>
       </c>
       <c r="F111">
-        <v>100.6576064</v>
+        <v>100.6354649</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>204</v>
+      </c>
+      <c r="I111" t="s">
+        <v>206</v>
+      </c>
+      <c r="J111" t="s">
+        <v>208</v>
+      </c>
+      <c r="K111" t="s">
+        <v>204</v>
       </c>
       <c r="L111" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6237,10 +6273,10 @@
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.71110566</v>
+        <v>13.88903855</v>
       </c>
       <c r="F112">
-        <v>100.4158636</v>
+        <v>100.6576064</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6258,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6281,10 +6317,10 @@
         <v>128</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>13.71110566</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>100.4158636</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6302,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6319,37 +6355,37 @@
         <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D114" t="s">
         <v>129</v>
       </c>
       <c r="E114">
-        <v>13.924252</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>100.597945</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" t="s">
-        <v>198</v>
-      </c>
-      <c r="I114" t="s">
-        <v>200</v>
-      </c>
-      <c r="J114" t="s">
-        <v>202</v>
-      </c>
-      <c r="K114" t="s">
-        <v>198</v>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6363,37 +6399,37 @@
         <v>14</v>
       </c>
       <c r="C115" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D115" t="s">
         <v>130</v>
       </c>
       <c r="E115">
-        <v>12.69670286</v>
+        <v>13.91716059</v>
       </c>
       <c r="F115">
-        <v>101.2683573</v>
+        <v>100.4212109</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" t="s">
-        <v>197</v>
-      </c>
-      <c r="I115" t="s">
-        <v>200</v>
-      </c>
-      <c r="J115" t="s">
-        <v>202</v>
-      </c>
-      <c r="K115" t="s">
-        <v>198</v>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6407,37 +6443,37 @@
         <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D116" t="s">
         <v>131</v>
       </c>
       <c r="E116">
-        <v>12.69574994</v>
+        <v>13.98026263</v>
       </c>
       <c r="F116">
-        <v>101.2674706</v>
+        <v>100.3148877</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" t="s">
-        <v>197</v>
-      </c>
-      <c r="I116" t="s">
-        <v>200</v>
-      </c>
-      <c r="J116" t="s">
-        <v>202</v>
-      </c>
-      <c r="K116" t="s">
-        <v>198</v>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6451,16 +6487,16 @@
         <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D117" t="s">
         <v>132</v>
       </c>
       <c r="E117">
-        <v>13.71190173</v>
+        <v>13.87612007</v>
       </c>
       <c r="F117">
-        <v>100.4224456</v>
+        <v>100.4091692</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6478,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6501,31 +6537,31 @@
         <v>133</v>
       </c>
       <c r="E118">
-        <v>13.80614397</v>
+        <v>13.924252</v>
       </c>
       <c r="F118">
-        <v>100.5307221</v>
+        <v>100.597945</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>204</v>
+      </c>
+      <c r="I118" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" t="s">
+        <v>208</v>
+      </c>
+      <c r="K118" t="s">
+        <v>204</v>
       </c>
       <c r="L118" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6545,31 +6581,31 @@
         <v>134</v>
       </c>
       <c r="E119">
-        <v>13.78786299</v>
+        <v>12.69670286</v>
       </c>
       <c r="F119">
-        <v>100.4828396</v>
+        <v>101.2683573</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>203</v>
+      </c>
+      <c r="I119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>208</v>
+      </c>
+      <c r="K119" t="s">
+        <v>204</v>
       </c>
       <c r="L119" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6589,31 +6625,31 @@
         <v>135</v>
       </c>
       <c r="E120">
-        <v>13.77791571</v>
+        <v>12.69574994</v>
       </c>
       <c r="F120">
-        <v>100.4766994</v>
+        <v>101.2674706</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
+      <c r="H120" t="s">
+        <v>203</v>
+      </c>
+      <c r="I120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J120" t="s">
+        <v>208</v>
+      </c>
+      <c r="K120" t="s">
+        <v>204</v>
       </c>
       <c r="L120" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6624,7 +6660,7 @@
         <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C121" s="2">
         <v>44190</v>
@@ -6633,10 +6669,10 @@
         <v>136</v>
       </c>
       <c r="E121">
-        <v>18.80731097</v>
+        <v>13.71190173</v>
       </c>
       <c r="F121">
-        <v>98.96283674999999</v>
+        <v>100.4224456</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6654,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6677,10 +6713,10 @@
         <v>137</v>
       </c>
       <c r="E122">
-        <v>13.7707636</v>
+        <v>13.80614397</v>
       </c>
       <c r="F122">
-        <v>100.4680689</v>
+        <v>100.5307221</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6698,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6721,10 +6757,10 @@
         <v>138</v>
       </c>
       <c r="E123">
-        <v>13.5455515</v>
+        <v>13.78786299</v>
       </c>
       <c r="F123">
-        <v>100.2767451</v>
+        <v>100.4828396</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6742,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6753,22 +6789,22 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C124" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D124" t="s">
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.734066</v>
+        <v>13.77791571</v>
       </c>
       <c r="F124">
-        <v>100.5278354</v>
+        <v>100.4766994</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6786,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6797,22 +6833,22 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D125" t="s">
         <v>140</v>
       </c>
       <c r="E125">
-        <v>12.6483736</v>
+        <v>18.80731097</v>
       </c>
       <c r="F125">
-        <v>101.2273679</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6830,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6841,43 +6877,43 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D126" t="s">
         <v>141</v>
       </c>
       <c r="E126">
-        <v>12.69691038</v>
+        <v>13.7707636</v>
       </c>
       <c r="F126">
-        <v>101.268451</v>
+        <v>100.4680689</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
-        <v>197</v>
-      </c>
-      <c r="I126" t="s">
-        <v>200</v>
-      </c>
-      <c r="J126" t="s">
-        <v>202</v>
-      </c>
-      <c r="K126" t="s">
-        <v>198</v>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6885,43 +6921,43 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D127" t="s">
         <v>142</v>
       </c>
       <c r="E127">
-        <v>12.66695256</v>
+        <v>13.5455515</v>
       </c>
       <c r="F127">
-        <v>101.2738756</v>
+        <v>100.2767451</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
-        <v>197</v>
-      </c>
-      <c r="I127" t="s">
-        <v>200</v>
-      </c>
-      <c r="J127" t="s">
-        <v>202</v>
-      </c>
-      <c r="K127" t="s">
-        <v>198</v>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6929,22 +6965,22 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D128" t="s">
         <v>143</v>
       </c>
       <c r="E128">
-        <v>13.86265154</v>
+        <v>13.99716298</v>
       </c>
       <c r="F128">
-        <v>100.6432858</v>
+        <v>100.3271499</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6962,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6976,7 +7012,7 @@
         <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129" s="2">
         <v>44191</v>
@@ -6985,10 +7021,10 @@
         <v>144</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>13.734066</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>100.5278354</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -7006,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7023,16 +7059,16 @@
         <v>15</v>
       </c>
       <c r="C130" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D130" t="s">
         <v>145</v>
       </c>
       <c r="E130">
-        <v>12.6844183</v>
+        <v>12.6483736</v>
       </c>
       <c r="F130">
-        <v>101.2742991</v>
+        <v>101.2273679</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7046,14 +7082,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130" t="s">
-        <v>198</v>
+      <c r="K130">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7064,40 +7100,40 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D131" t="s">
         <v>146</v>
       </c>
       <c r="E131">
-        <v>12.9730033</v>
+        <v>12.69691038</v>
       </c>
       <c r="F131">
-        <v>100.9029061</v>
+        <v>101.268451</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
+      <c r="H131" t="s">
+        <v>203</v>
+      </c>
+      <c r="I131" t="s">
+        <v>206</v>
+      </c>
+      <c r="J131" t="s">
+        <v>208</v>
       </c>
       <c r="K131" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7111,37 +7147,37 @@
         <v>14</v>
       </c>
       <c r="C132" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D132" t="s">
         <v>147</v>
       </c>
       <c r="E132">
-        <v>13.7946069</v>
+        <v>12.66695256</v>
       </c>
       <c r="F132">
-        <v>100.5161808</v>
+        <v>101.2738756</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
+      <c r="H132" t="s">
+        <v>203</v>
+      </c>
+      <c r="I132" t="s">
+        <v>206</v>
+      </c>
+      <c r="J132" t="s">
+        <v>208</v>
       </c>
       <c r="K132" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7155,37 +7191,37 @@
         <v>14</v>
       </c>
       <c r="C133" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D133" t="s">
         <v>148</v>
       </c>
       <c r="E133">
-        <v>13.54448567</v>
+        <v>13.86265154</v>
       </c>
       <c r="F133">
-        <v>100.2752027</v>
+        <v>100.6432858</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" t="s">
-        <v>197</v>
-      </c>
-      <c r="I133" t="s">
-        <v>200</v>
-      </c>
-      <c r="J133" t="s">
-        <v>202</v>
-      </c>
-      <c r="K133" t="s">
-        <v>198</v>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7199,16 +7235,16 @@
         <v>14</v>
       </c>
       <c r="C134" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D134" t="s">
         <v>149</v>
       </c>
       <c r="E134">
-        <v>13.67424547</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>100.426448</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7226,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7240,40 +7276,40 @@
         <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C135" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D135" t="s">
         <v>150</v>
       </c>
       <c r="E135">
-        <v>13.73545544</v>
+        <v>12.6844183</v>
       </c>
       <c r="F135">
-        <v>100.5661584</v>
+        <v>101.2742991</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135" t="s">
-        <v>198</v>
-      </c>
-      <c r="I135" t="s">
-        <v>200</v>
-      </c>
-      <c r="J135" t="s">
-        <v>202</v>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L135" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7284,19 +7320,19 @@
         <v>196</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D136" t="s">
         <v>151</v>
       </c>
       <c r="E136">
-        <v>13.91669065</v>
+        <v>12.9730033</v>
       </c>
       <c r="F136">
-        <v>100.397828</v>
+        <v>100.9029061</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7310,14 +7346,14 @@
       <c r="J136">
         <v>0</v>
       </c>
-      <c r="K136">
-        <v>0</v>
+      <c r="K136" t="s">
+        <v>204</v>
       </c>
       <c r="L136" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7328,40 +7364,40 @@
         <v>197</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D137" t="s">
         <v>152</v>
       </c>
       <c r="E137">
-        <v>12.9098775</v>
+        <v>13.7946069</v>
       </c>
       <c r="F137">
-        <v>100.891563</v>
+        <v>100.5161808</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" t="s">
-        <v>198</v>
-      </c>
-      <c r="I137" t="s">
-        <v>200</v>
-      </c>
-      <c r="J137" t="s">
-        <v>202</v>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L137" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7372,40 +7408,40 @@
         <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D138" t="s">
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.3535702</v>
+        <v>13.54448567</v>
       </c>
       <c r="F138">
-        <v>100.9765439</v>
+        <v>100.2752027</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
+      <c r="H138" t="s">
+        <v>203</v>
+      </c>
+      <c r="I138" t="s">
+        <v>206</v>
+      </c>
+      <c r="J138" t="s">
+        <v>208</v>
       </c>
       <c r="K138" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L138" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7416,19 +7452,19 @@
         <v>199</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C139" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D139" t="s">
         <v>154</v>
       </c>
       <c r="E139">
-        <v>12.948902</v>
+        <v>13.67424547</v>
       </c>
       <c r="F139">
-        <v>100.891292</v>
+        <v>100.426448</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7442,14 +7478,14 @@
       <c r="J139">
         <v>0</v>
       </c>
-      <c r="K139" t="s">
-        <v>198</v>
+      <c r="K139">
+        <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7460,40 +7496,40 @@
         <v>200</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
       </c>
       <c r="E140">
-        <v>12.6495877</v>
+        <v>13.73545544</v>
       </c>
       <c r="F140">
-        <v>102.0329425</v>
+        <v>100.5661584</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
+      <c r="H140" t="s">
+        <v>204</v>
+      </c>
+      <c r="I140" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" t="s">
+        <v>208</v>
       </c>
       <c r="K140" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L140" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7504,19 +7540,19 @@
         <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D141" t="s">
         <v>156</v>
       </c>
       <c r="E141">
-        <v>12.3757564</v>
+        <v>13.91669065</v>
       </c>
       <c r="F141">
-        <v>102.3818628</v>
+        <v>100.397828</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7530,14 +7566,14 @@
       <c r="J141">
         <v>0</v>
       </c>
-      <c r="K141" t="s">
-        <v>198</v>
+      <c r="K141">
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7557,31 +7593,31 @@
         <v>157</v>
       </c>
       <c r="E142">
-        <v>12.7246169</v>
+        <v>12.9098775</v>
       </c>
       <c r="F142">
-        <v>101.9362794</v>
+        <v>100.891563</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
+      <c r="H142" t="s">
+        <v>204</v>
+      </c>
+      <c r="I142" t="s">
+        <v>206</v>
+      </c>
+      <c r="J142" t="s">
+        <v>208</v>
       </c>
       <c r="K142" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L142" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7592,7 +7628,7 @@
         <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C143" s="2">
         <v>44194</v>
@@ -7601,10 +7637,10 @@
         <v>158</v>
       </c>
       <c r="E143">
-        <v>13.772986</v>
+        <v>13.3535702</v>
       </c>
       <c r="F143">
-        <v>100.4855148</v>
+        <v>100.9765439</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7619,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L143" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7645,10 +7681,10 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>12.90895904</v>
+        <v>12.948902</v>
       </c>
       <c r="F144">
-        <v>100.891925</v>
+        <v>100.891292</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7662,14 +7698,14 @@
       <c r="J144">
         <v>0</v>
       </c>
-      <c r="K144">
-        <v>0</v>
+      <c r="K144" t="s">
+        <v>204</v>
       </c>
       <c r="L144" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7680,7 +7716,7 @@
         <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C145" s="2">
         <v>44194</v>
@@ -7689,10 +7725,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.90960418</v>
+        <v>12.6495877</v>
       </c>
       <c r="F145">
-        <v>100.870256</v>
+        <v>102.0329425</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7706,14 +7742,14 @@
       <c r="J145">
         <v>0</v>
       </c>
-      <c r="K145">
-        <v>0</v>
+      <c r="K145" t="s">
+        <v>204</v>
       </c>
       <c r="L145" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7724,7 +7760,7 @@
         <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C146" s="2">
         <v>44194</v>
@@ -7733,10 +7769,10 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.93047726</v>
+        <v>12.3757564</v>
       </c>
       <c r="F146">
-        <v>100.8807229</v>
+        <v>102.3818628</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7750,14 +7786,14 @@
       <c r="J146">
         <v>0</v>
       </c>
-      <c r="K146">
-        <v>0</v>
+      <c r="K146" t="s">
+        <v>204</v>
       </c>
       <c r="L146" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7768,7 +7804,7 @@
         <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C147" s="2">
         <v>44194</v>
@@ -7777,10 +7813,10 @@
         <v>162</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>12.7246169</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>101.9362794</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7794,14 +7830,14 @@
       <c r="J147">
         <v>0</v>
       </c>
-      <c r="K147">
-        <v>0</v>
+      <c r="K147" t="s">
+        <v>204</v>
       </c>
       <c r="L147" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7821,10 +7857,10 @@
         <v>163</v>
       </c>
       <c r="E148">
-        <v>12.66219926</v>
+        <v>13.772986</v>
       </c>
       <c r="F148">
-        <v>100.8989779</v>
+        <v>100.4855148</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7838,14 +7874,14 @@
       <c r="J148">
         <v>0</v>
       </c>
-      <c r="K148">
-        <v>0</v>
+      <c r="K148" t="s">
+        <v>204</v>
       </c>
       <c r="L148" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7865,10 +7901,10 @@
         <v>164</v>
       </c>
       <c r="E149">
-        <v>13.32877789</v>
+        <v>12.90895904</v>
       </c>
       <c r="F149">
-        <v>100.9230017</v>
+        <v>100.891925</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7886,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7909,10 +7945,10 @@
         <v>165</v>
       </c>
       <c r="E150">
-        <v>13.33615653</v>
+        <v>12.90960418</v>
       </c>
       <c r="F150">
-        <v>100.9694597</v>
+        <v>100.870256</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7930,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7953,10 +7989,10 @@
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.83546656</v>
+        <v>12.93047726</v>
       </c>
       <c r="F151">
-        <v>100.967575</v>
+        <v>100.8807229</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7974,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7997,10 +8033,10 @@
         <v>167</v>
       </c>
       <c r="E152">
-        <v>13.33545565</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>100.9249432</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8018,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8041,10 +8077,10 @@
         <v>168</v>
       </c>
       <c r="E153">
-        <v>13.33841928</v>
+        <v>12.66219926</v>
       </c>
       <c r="F153">
-        <v>100.9526548</v>
+        <v>100.8989779</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8062,10 +8098,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8085,10 +8121,10 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>12.68318129</v>
+        <v>13.32877789</v>
       </c>
       <c r="F154">
-        <v>101.2479341</v>
+        <v>100.9230017</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8106,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8129,10 +8165,10 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>12.68178774</v>
+        <v>13.33615653</v>
       </c>
       <c r="F155">
-        <v>101.2804266</v>
+        <v>100.9694597</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8150,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8173,10 +8209,10 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.67663309</v>
+        <v>12.83546656</v>
       </c>
       <c r="F156">
-        <v>101.2204609</v>
+        <v>100.967575</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8194,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8217,10 +8253,10 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.67969829</v>
+        <v>13.33545565</v>
       </c>
       <c r="F157">
-        <v>101.2516232</v>
+        <v>100.9249432</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8238,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8261,10 +8297,10 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>12.67895072</v>
+        <v>13.33841928</v>
       </c>
       <c r="F158">
-        <v>101.2811971</v>
+        <v>100.9526548</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8282,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8305,10 +8341,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>12.69121623</v>
+        <v>12.68318129</v>
       </c>
       <c r="F159">
-        <v>101.2828322</v>
+        <v>101.2479341</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8326,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8349,10 +8385,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>12.61154131</v>
+        <v>12.68178774</v>
       </c>
       <c r="F160">
-        <v>102.105739</v>
+        <v>101.2804266</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8370,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8393,10 +8429,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.59875505</v>
+        <v>12.67663309</v>
       </c>
       <c r="F161">
-        <v>102.1108505</v>
+        <v>101.2204609</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8414,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8437,10 +8473,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>12.67969829</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>101.2516232</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8458,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8481,10 +8517,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>12.67895072</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>101.2811971</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8502,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8525,10 +8561,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.94007297</v>
+        <v>12.69121623</v>
       </c>
       <c r="F164">
-        <v>100.9198688</v>
+        <v>101.2828322</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8546,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8569,10 +8605,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.93500267</v>
+        <v>12.61154131</v>
       </c>
       <c r="F165">
-        <v>100.8828385</v>
+        <v>102.105739</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8590,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8613,10 +8649,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.93302705</v>
+        <v>12.59875505</v>
       </c>
       <c r="F166">
-        <v>100.9013151</v>
+        <v>102.1108505</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8634,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8657,10 +8693,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>12.93124481</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>100.9008084</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8678,10 +8714,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8701,10 +8737,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>12.93038104</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>100.9126714</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8722,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8745,10 +8781,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>12.84875767</v>
+        <v>12.94007297</v>
       </c>
       <c r="F169">
-        <v>100.9017</v>
+        <v>100.9198688</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8766,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8789,10 +8825,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>12.90883138</v>
+        <v>12.93500267</v>
       </c>
       <c r="F170">
-        <v>100.8932458</v>
+        <v>100.8828385</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8810,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8833,10 +8869,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>12.66362634</v>
+        <v>12.93302705</v>
       </c>
       <c r="F171">
-        <v>100.8981743</v>
+        <v>100.9013151</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8854,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8877,10 +8913,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>12.95074463</v>
+        <v>12.93124481</v>
       </c>
       <c r="F172">
-        <v>100.8933879</v>
+        <v>100.9008084</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -8898,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8921,10 +8957,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>12.97880506</v>
+        <v>12.93038104</v>
       </c>
       <c r="F173">
-        <v>100.9430835</v>
+        <v>100.9126714</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -8942,10 +8978,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8965,10 +9001,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>12.92662465</v>
+        <v>12.84875767</v>
       </c>
       <c r="F174">
-        <v>100.898605</v>
+        <v>100.9017</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -8986,10 +9022,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9009,10 +9045,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>12.98328283</v>
+        <v>12.90883138</v>
       </c>
       <c r="F175">
-        <v>100.9354783</v>
+        <v>100.8932458</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9030,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9053,10 +9089,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>12.98177123</v>
+        <v>12.66362634</v>
       </c>
       <c r="F176">
-        <v>100.9289336</v>
+        <v>100.8981743</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9074,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9097,10 +9133,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.01893524</v>
+        <v>12.95074463</v>
       </c>
       <c r="F177">
-        <v>100.932701</v>
+        <v>100.8933879</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9118,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9141,10 +9177,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.95555524</v>
+        <v>12.97880506</v>
       </c>
       <c r="F178">
-        <v>100.8987028</v>
+        <v>100.9430835</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9162,10 +9198,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9185,10 +9221,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.93944879</v>
+        <v>12.92662465</v>
       </c>
       <c r="F179">
-        <v>100.9021397</v>
+        <v>100.898605</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9206,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9229,10 +9265,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.75400498</v>
+        <v>12.98328283</v>
       </c>
       <c r="F180">
-        <v>100.9017967</v>
+        <v>100.9354783</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9250,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9273,33 +9309,297 @@
         <v>196</v>
       </c>
       <c r="E181">
+        <v>12.98177123</v>
+      </c>
+      <c r="F181">
+        <v>100.9289336</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>271</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182">
+        <v>242</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D182" t="s">
+        <v>197</v>
+      </c>
+      <c r="E182">
+        <v>13.01893524</v>
+      </c>
+      <c r="F182">
+        <v>100.932701</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182" t="s">
+        <v>271</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183">
+        <v>243</v>
+      </c>
+      <c r="B183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D183" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183">
+        <v>12.95555524</v>
+      </c>
+      <c r="F183">
+        <v>100.8987028</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183" t="s">
+        <v>271</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184">
+        <v>244</v>
+      </c>
+      <c r="B184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D184" t="s">
+        <v>199</v>
+      </c>
+      <c r="E184">
+        <v>12.93944879</v>
+      </c>
+      <c r="F184">
+        <v>100.9021397</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184" t="s">
+        <v>271</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185">
+        <v>245</v>
+      </c>
+      <c r="B185" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D185" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185">
+        <v>12.75400498</v>
+      </c>
+      <c r="F185">
+        <v>100.9017967</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>271</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186">
+        <v>246</v>
+      </c>
+      <c r="B186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D186" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186">
         <v>12.69857571</v>
       </c>
-      <c r="F181">
+      <c r="F186">
         <v>100.8899412</v>
       </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181" t="s">
-        <v>263</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="N181">
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186" t="s">
+        <v>271</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187">
+        <v>247</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D187" t="s">
+        <v>202</v>
+      </c>
+      <c r="E187">
+        <v>13.91532244</v>
+      </c>
+      <c r="F187">
+        <v>100.4236653</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187" t="s">
+        <v>272</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N187">
         <v>0</v>
       </c>
     </row>
@@ -9485,6 +9785,12 @@
     <hyperlink ref="M179" r:id="rId178"/>
     <hyperlink ref="M180" r:id="rId179"/>
     <hyperlink ref="M181" r:id="rId180"/>
+    <hyperlink ref="M182" r:id="rId181"/>
+    <hyperlink ref="M183" r:id="rId182"/>
+    <hyperlink ref="M184" r:id="rId183"/>
+    <hyperlink ref="M185" r:id="rId184"/>
+    <hyperlink ref="M186" r:id="rId185"/>
+    <hyperlink ref="M187" r:id="rId186"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="330">
   <si>
     <t>id</t>
   </si>
@@ -466,6 +466,9 @@
     <t>ตลาดหลัง 7-11 สาขา สน. หนองแขม</t>
   </si>
   <si>
+    <t>ร้านแกงป่า ศรีย่าน</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -787,6 +790,9 @@
     <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
   </si>
   <si>
+    <t>นักร้องร้านน้องใหม่พลาซ่าที่ติดโควิด-19 มาที่นี่เวลา 11:00-12:00 น.</t>
+  </si>
+  <si>
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
@@ -959,6 +965,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582764</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/a.340316886067939/3125681690864764/?type=3</t>
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582966</t>
@@ -1369,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1445,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1486,22 +1495,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1530,22 +1539,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1574,22 +1583,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1618,22 +1627,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1662,22 +1671,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1706,22 +1715,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1750,22 +1759,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1794,22 +1803,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1838,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1882,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1926,22 +1935,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1970,22 +1979,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2014,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2058,22 +2067,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2102,22 +2111,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2146,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2202,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2234,22 +2243,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2278,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2322,22 +2331,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2366,22 +2375,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2410,22 +2419,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2454,22 +2463,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2498,22 +2507,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2542,22 +2551,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2586,22 +2595,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2630,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2674,22 +2683,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2718,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2762,22 +2771,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2806,22 +2815,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2850,22 +2859,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2894,22 +2903,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2938,22 +2947,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2994,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3038,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3073,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3114,22 +3123,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3158,22 +3167,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3205,19 +3214,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3249,19 +3258,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3293,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3337,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3378,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3422,22 +3431,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3466,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3510,22 +3519,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3554,22 +3563,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3598,22 +3607,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3642,22 +3651,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3686,22 +3695,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3730,22 +3739,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3774,22 +3783,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3818,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3862,22 +3871,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3906,22 +3915,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3950,22 +3959,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3994,22 +4003,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4038,22 +4047,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4082,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4126,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4170,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4226,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4270,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4314,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4346,22 +4355,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4390,22 +4399,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4434,22 +4443,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4478,22 +4487,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4522,22 +4531,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4566,22 +4575,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4610,22 +4619,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4666,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4710,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4754,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4789,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4833,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4874,22 +4883,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4918,22 +4927,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4962,22 +4971,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5006,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5050,22 +5059,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5094,22 +5103,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5138,22 +5147,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5182,22 +5191,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5226,22 +5235,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5270,22 +5279,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5326,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5370,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5405,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5446,22 +5455,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5490,22 +5499,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5537,19 +5546,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5578,22 +5587,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5622,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5666,22 +5675,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5710,22 +5719,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5754,22 +5763,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5810,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5854,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5898,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5930,22 +5939,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5974,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6018,22 +6027,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6062,22 +6071,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6106,22 +6115,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6150,22 +6159,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6194,22 +6203,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I110" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6238,22 +6247,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6294,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6338,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6382,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6426,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6470,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6514,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6546,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6590,22 +6599,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J119" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6634,22 +6643,22 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6690,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6734,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6778,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6822,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6866,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6910,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6954,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6998,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7042,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7086,10 +7095,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7118,22 +7127,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I131" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J131" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K131" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7162,22 +7171,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I132" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J132" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K132" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7218,10 +7227,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7262,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7276,19 +7285,19 @@
         <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D135" t="s">
         <v>150</v>
       </c>
       <c r="E135">
-        <v>12.6844183</v>
+        <v>13.7831563</v>
       </c>
       <c r="F135">
-        <v>101.2742991</v>
+        <v>100.5154952</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7302,14 +7311,14 @@
       <c r="J135">
         <v>0</v>
       </c>
-      <c r="K135" t="s">
-        <v>204</v>
+      <c r="K135">
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7329,10 +7338,10 @@
         <v>151</v>
       </c>
       <c r="E136">
-        <v>12.9730033</v>
+        <v>12.6844183</v>
       </c>
       <c r="F136">
-        <v>100.9029061</v>
+        <v>101.2742991</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7347,13 +7356,13 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7364,7 +7373,7 @@
         <v>197</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C137" s="2">
         <v>44192</v>
@@ -7373,10 +7382,10 @@
         <v>152</v>
       </c>
       <c r="E137">
-        <v>13.7946069</v>
+        <v>12.9730033</v>
       </c>
       <c r="F137">
-        <v>100.5161808</v>
+        <v>100.9029061</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7391,13 +7400,13 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7417,31 +7426,31 @@
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.54448567</v>
+        <v>13.7946069</v>
       </c>
       <c r="F138">
-        <v>100.2752027</v>
+        <v>100.5161808</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138" t="s">
-        <v>203</v>
-      </c>
-      <c r="I138" t="s">
-        <v>206</v>
-      </c>
-      <c r="J138" t="s">
-        <v>208</v>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7461,31 +7470,31 @@
         <v>154</v>
       </c>
       <c r="E139">
-        <v>13.67424547</v>
+        <v>13.54448567</v>
       </c>
       <c r="F139">
-        <v>100.426448</v>
+        <v>100.2752027</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
+      <c r="H139" t="s">
+        <v>204</v>
+      </c>
+      <c r="I139" t="s">
+        <v>207</v>
+      </c>
+      <c r="J139" t="s">
+        <v>209</v>
+      </c>
+      <c r="K139" t="s">
+        <v>205</v>
       </c>
       <c r="L139" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7499,37 +7508,37 @@
         <v>14</v>
       </c>
       <c r="C140" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.73545544</v>
+        <v>13.67424547</v>
       </c>
       <c r="F140">
-        <v>100.5661584</v>
+        <v>100.426448</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140" t="s">
-        <v>204</v>
-      </c>
-      <c r="I140" t="s">
-        <v>206</v>
-      </c>
-      <c r="J140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K140" t="s">
-        <v>204</v>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7549,31 +7558,31 @@
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.91669065</v>
+        <v>13.73545544</v>
       </c>
       <c r="F141">
-        <v>100.397828</v>
+        <v>100.5661584</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
+      <c r="H141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I141" t="s">
+        <v>207</v>
+      </c>
+      <c r="J141" t="s">
+        <v>209</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
       </c>
       <c r="L141" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7584,40 +7593,40 @@
         <v>202</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C142" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D142" t="s">
         <v>157</v>
       </c>
       <c r="E142">
-        <v>12.9098775</v>
+        <v>13.91669065</v>
       </c>
       <c r="F142">
-        <v>100.891563</v>
+        <v>100.397828</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" t="s">
-        <v>204</v>
-      </c>
-      <c r="I142" t="s">
-        <v>206</v>
-      </c>
-      <c r="J142" t="s">
-        <v>208</v>
-      </c>
-      <c r="K142" t="s">
-        <v>204</v>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7637,31 +7646,31 @@
         <v>158</v>
       </c>
       <c r="E143">
-        <v>13.3535702</v>
+        <v>12.9098775</v>
       </c>
       <c r="F143">
-        <v>100.9765439</v>
+        <v>100.891563</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
+      <c r="H143" t="s">
+        <v>205</v>
+      </c>
+      <c r="I143" t="s">
+        <v>207</v>
+      </c>
+      <c r="J143" t="s">
+        <v>209</v>
       </c>
       <c r="K143" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7672,7 +7681,7 @@
         <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C144" s="2">
         <v>44194</v>
@@ -7681,10 +7690,10 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>12.948902</v>
+        <v>13.3535702</v>
       </c>
       <c r="F144">
-        <v>100.891292</v>
+        <v>100.9765439</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7699,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L144" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7716,7 +7725,7 @@
         <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C145" s="2">
         <v>44194</v>
@@ -7725,10 +7734,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.6495877</v>
+        <v>12.948902</v>
       </c>
       <c r="F145">
-        <v>102.0329425</v>
+        <v>100.891292</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7743,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7769,10 +7778,10 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.3757564</v>
+        <v>12.6495877</v>
       </c>
       <c r="F146">
-        <v>102.3818628</v>
+        <v>102.0329425</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7787,13 +7796,13 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7813,10 +7822,10 @@
         <v>162</v>
       </c>
       <c r="E147">
-        <v>12.7246169</v>
+        <v>12.3757564</v>
       </c>
       <c r="F147">
-        <v>101.9362794</v>
+        <v>102.3818628</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7831,13 +7840,13 @@
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7848,7 +7857,7 @@
         <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C148" s="2">
         <v>44194</v>
@@ -7857,10 +7866,10 @@
         <v>163</v>
       </c>
       <c r="E148">
-        <v>13.772986</v>
+        <v>12.7246169</v>
       </c>
       <c r="F148">
-        <v>100.4855148</v>
+        <v>101.9362794</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7875,13 +7884,13 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7901,10 +7910,10 @@
         <v>164</v>
       </c>
       <c r="E149">
-        <v>12.90895904</v>
+        <v>13.772986</v>
       </c>
       <c r="F149">
-        <v>100.891925</v>
+        <v>100.4855148</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7918,14 +7927,14 @@
       <c r="J149">
         <v>0</v>
       </c>
-      <c r="K149">
-        <v>0</v>
+      <c r="K149" t="s">
+        <v>205</v>
       </c>
       <c r="L149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7945,10 +7954,10 @@
         <v>165</v>
       </c>
       <c r="E150">
-        <v>12.90960418</v>
+        <v>12.90895904</v>
       </c>
       <c r="F150">
-        <v>100.870256</v>
+        <v>100.891925</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7966,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7989,10 +7998,10 @@
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.93047726</v>
+        <v>12.90960418</v>
       </c>
       <c r="F151">
-        <v>100.8807229</v>
+        <v>100.870256</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -8010,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8033,10 +8042,10 @@
         <v>167</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>12.93047726</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>100.8807229</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8054,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8077,10 +8086,10 @@
         <v>168</v>
       </c>
       <c r="E153">
-        <v>12.66219926</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>100.8989779</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8098,10 +8107,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8121,10 +8130,10 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>13.32877789</v>
+        <v>12.66219926</v>
       </c>
       <c r="F154">
-        <v>100.9230017</v>
+        <v>100.8989779</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8142,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8165,10 +8174,10 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>13.33615653</v>
+        <v>13.32877789</v>
       </c>
       <c r="F155">
-        <v>100.9694597</v>
+        <v>100.9230017</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8186,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8209,10 +8218,10 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.83546656</v>
+        <v>13.33615653</v>
       </c>
       <c r="F156">
-        <v>100.967575</v>
+        <v>100.9694597</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8230,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8253,10 +8262,10 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>13.33545565</v>
+        <v>12.83546656</v>
       </c>
       <c r="F157">
-        <v>100.9249432</v>
+        <v>100.967575</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8274,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8297,10 +8306,10 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.33841928</v>
+        <v>13.33545565</v>
       </c>
       <c r="F158">
-        <v>100.9526548</v>
+        <v>100.9249432</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8318,10 +8327,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8341,10 +8350,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>12.68318129</v>
+        <v>13.33841928</v>
       </c>
       <c r="F159">
-        <v>101.2479341</v>
+        <v>100.9526548</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8362,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8385,10 +8394,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>12.68178774</v>
+        <v>12.68318129</v>
       </c>
       <c r="F160">
-        <v>101.2804266</v>
+        <v>101.2479341</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8406,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8429,10 +8438,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.67663309</v>
+        <v>12.68178774</v>
       </c>
       <c r="F161">
-        <v>101.2204609</v>
+        <v>101.2804266</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8450,10 +8459,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8473,10 +8482,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>12.67969829</v>
+        <v>12.67663309</v>
       </c>
       <c r="F162">
-        <v>101.2516232</v>
+        <v>101.2204609</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8494,10 +8503,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8517,10 +8526,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.67895072</v>
+        <v>12.67969829</v>
       </c>
       <c r="F163">
-        <v>101.2811971</v>
+        <v>101.2516232</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8538,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8561,10 +8570,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.69121623</v>
+        <v>12.67895072</v>
       </c>
       <c r="F164">
-        <v>101.2828322</v>
+        <v>101.2811971</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8582,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8605,10 +8614,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.61154131</v>
+        <v>12.69121623</v>
       </c>
       <c r="F165">
-        <v>102.105739</v>
+        <v>101.2828322</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8626,10 +8635,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8649,10 +8658,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.59875505</v>
+        <v>12.61154131</v>
       </c>
       <c r="F166">
-        <v>102.1108505</v>
+        <v>102.105739</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8670,10 +8679,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8693,10 +8702,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>12.59875505</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>102.1108505</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8714,10 +8723,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8758,10 +8767,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8781,10 +8790,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>12.94007297</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>100.9198688</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8802,10 +8811,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8825,10 +8834,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>12.93500267</v>
+        <v>12.94007297</v>
       </c>
       <c r="F170">
-        <v>100.8828385</v>
+        <v>100.9198688</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8846,10 +8855,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8869,10 +8878,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>12.93302705</v>
+        <v>12.93500267</v>
       </c>
       <c r="F171">
-        <v>100.9013151</v>
+        <v>100.8828385</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8890,10 +8899,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8913,10 +8922,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>12.93124481</v>
+        <v>12.93302705</v>
       </c>
       <c r="F172">
-        <v>100.9008084</v>
+        <v>100.9013151</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -8934,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8957,10 +8966,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>12.93038104</v>
+        <v>12.93124481</v>
       </c>
       <c r="F173">
-        <v>100.9126714</v>
+        <v>100.9008084</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -8978,10 +8987,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9001,10 +9010,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>12.84875767</v>
+        <v>12.93038104</v>
       </c>
       <c r="F174">
-        <v>100.9017</v>
+        <v>100.9126714</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9022,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9045,10 +9054,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>12.90883138</v>
+        <v>12.84875767</v>
       </c>
       <c r="F175">
-        <v>100.8932458</v>
+        <v>100.9017</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9066,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9089,10 +9098,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>12.66362634</v>
+        <v>12.90883138</v>
       </c>
       <c r="F176">
-        <v>100.8981743</v>
+        <v>100.8932458</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9110,10 +9119,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9133,10 +9142,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>12.95074463</v>
+        <v>12.66362634</v>
       </c>
       <c r="F177">
-        <v>100.8933879</v>
+        <v>100.8981743</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9154,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9177,10 +9186,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.97880506</v>
+        <v>12.95074463</v>
       </c>
       <c r="F178">
-        <v>100.9430835</v>
+        <v>100.8933879</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9198,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9221,10 +9230,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.92662465</v>
+        <v>12.97880506</v>
       </c>
       <c r="F179">
-        <v>100.898605</v>
+        <v>100.9430835</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9242,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9265,10 +9274,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.98328283</v>
+        <v>12.92662465</v>
       </c>
       <c r="F180">
-        <v>100.9354783</v>
+        <v>100.898605</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9286,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9309,10 +9318,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>12.98177123</v>
+        <v>12.98328283</v>
       </c>
       <c r="F181">
-        <v>100.9289336</v>
+        <v>100.9354783</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9330,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9353,10 +9362,10 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>13.01893524</v>
+        <v>12.98177123</v>
       </c>
       <c r="F182">
-        <v>100.932701</v>
+        <v>100.9289336</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9374,10 +9383,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9397,10 +9406,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>12.95555524</v>
+        <v>13.01893524</v>
       </c>
       <c r="F183">
-        <v>100.8987028</v>
+        <v>100.932701</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9418,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9441,10 +9450,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.93944879</v>
+        <v>12.95555524</v>
       </c>
       <c r="F184">
-        <v>100.9021397</v>
+        <v>100.8987028</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9462,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9485,10 +9494,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.75400498</v>
+        <v>12.93944879</v>
       </c>
       <c r="F185">
-        <v>100.9017967</v>
+        <v>100.9021397</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9506,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9529,10 +9538,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>12.69857571</v>
+        <v>12.75400498</v>
       </c>
       <c r="F186">
-        <v>100.8899412</v>
+        <v>100.9017967</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9550,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9567,39 +9576,83 @@
         <v>17</v>
       </c>
       <c r="C187" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D187" t="s">
         <v>202</v>
       </c>
       <c r="E187">
+        <v>12.69857571</v>
+      </c>
+      <c r="F187">
+        <v>100.8899412</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187" t="s">
+        <v>273</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188">
+        <v>248</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D188" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188">
         <v>13.91532244</v>
       </c>
-      <c r="F187">
+      <c r="F188">
         <v>100.4236653</v>
       </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187" t="s">
-        <v>272</v>
-      </c>
-      <c r="M187" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N187">
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
+        <v>274</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N188">
         <v>0</v>
       </c>
     </row>
@@ -9791,6 +9844,7 @@
     <hyperlink ref="M185" r:id="rId184"/>
     <hyperlink ref="M186" r:id="rId185"/>
     <hyperlink ref="M187" r:id="rId186"/>
+    <hyperlink ref="M188" r:id="rId187"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="333">
   <si>
     <t>id</t>
   </si>
@@ -628,6 +628,9 @@
     <t>วัดละหาร</t>
   </si>
   <si>
+    <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -841,6 +844,9 @@
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
+    <t>จากการตรวจสอบไทม์ไลน์ผู้ป่วยโควิด ชาวเมียนม่า พบเดินทางมาที่สนามไก่ชนในอ.ป่าโมก และ อ.เมือง</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
@@ -1004,6 +1010,9 @@
   </si>
   <si>
     <t>https://www.matichon.co.th/region/news_2509978</t>
+  </si>
+  <si>
+    <t>https://www.thebangkokinsight.com/518217/</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1454,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1495,22 +1504,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1539,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1583,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1627,22 +1636,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1671,22 +1680,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1715,22 +1724,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1759,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1803,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1847,22 +1856,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1891,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1935,22 +1944,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1979,22 +1988,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2023,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2067,22 +2076,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2111,22 +2120,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2155,22 +2164,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2211,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2243,22 +2252,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2287,22 +2296,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2331,22 +2340,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2375,22 +2384,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2419,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2463,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2507,22 +2516,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2551,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2595,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2639,22 +2648,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2683,22 +2692,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2727,22 +2736,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2771,22 +2780,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2815,22 +2824,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2859,22 +2868,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2903,22 +2912,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2947,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3003,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3047,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3082,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3123,22 +3132,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3167,22 +3176,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3214,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3258,19 +3267,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3302,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3346,19 +3355,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3387,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3431,22 +3440,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3475,22 +3484,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3519,22 +3528,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3563,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3607,22 +3616,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3651,22 +3660,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3695,22 +3704,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3739,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3783,22 +3792,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3827,22 +3836,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3871,22 +3880,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3915,22 +3924,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3959,22 +3968,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4003,22 +4012,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4047,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4091,22 +4100,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4135,22 +4144,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4179,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4235,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4279,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4323,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4355,22 +4364,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4399,22 +4408,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4443,22 +4452,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4487,22 +4496,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4531,22 +4540,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4575,22 +4584,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4619,22 +4628,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4675,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4719,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4763,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4798,19 +4807,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4842,19 +4851,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4883,22 +4892,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4927,22 +4936,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4971,22 +4980,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5015,22 +5024,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5059,22 +5068,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5103,22 +5112,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5147,22 +5156,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5191,22 +5200,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5235,22 +5244,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5279,22 +5288,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5335,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5379,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5414,19 +5423,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5455,22 +5464,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5499,22 +5508,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5546,19 +5555,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5587,22 +5596,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5631,22 +5640,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5675,22 +5684,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5719,22 +5728,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5763,22 +5772,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5819,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5863,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5907,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5939,22 +5948,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5983,22 +5992,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6027,22 +6036,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6071,22 +6080,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6115,22 +6124,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6159,22 +6168,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6203,22 +6212,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6247,22 +6256,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J111" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6303,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6347,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6391,10 +6400,10 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6435,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6479,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6523,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6555,22 +6564,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6599,22 +6608,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6643,22 +6652,22 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J120" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6699,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6743,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6787,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6831,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6875,10 +6884,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6919,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6963,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7007,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7051,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7095,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7127,22 +7136,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I131" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7171,22 +7180,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I132" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J132" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K132" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7227,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7271,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7315,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7356,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7400,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7444,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7479,22 +7488,22 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J139" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K139" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7535,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7567,22 +7576,22 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J141" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7623,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7655,22 +7664,22 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I143" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7708,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7752,13 +7761,13 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7796,13 +7805,13 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7840,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7884,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7928,13 +7937,13 @@
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7975,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8019,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8063,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8107,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8151,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8195,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8239,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8283,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8327,10 +8336,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8371,10 +8380,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8415,10 +8424,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8459,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8503,10 +8512,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8547,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8591,10 +8600,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8635,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8679,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8723,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8767,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8811,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8855,10 +8864,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8899,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8943,10 +8952,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8987,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9031,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9075,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9119,10 +9128,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9163,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9207,10 +9216,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9251,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9295,10 +9304,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9339,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9383,10 +9392,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9427,10 +9436,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9471,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9515,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9559,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9603,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9647,12 +9656,56 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189">
+        <v>249</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D189" t="s">
+        <v>204</v>
+      </c>
+      <c r="E189">
+        <v>14.5063704</v>
+      </c>
+      <c r="F189">
+        <v>100.4640833</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>276</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="N189">
         <v>0</v>
       </c>
     </row>
@@ -9845,6 +9898,7 @@
     <hyperlink ref="M186" r:id="rId185"/>
     <hyperlink ref="M187" r:id="rId186"/>
     <hyperlink ref="M188" r:id="rId187"/>
+    <hyperlink ref="M189" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="362">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,9 @@
     <t>ร้านเดอะไชน่า พระราม3</t>
   </si>
   <si>
+    <t>ร้าน ลิ้ม ม่ง ฮวด อ.มาบตาพุด</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>ภัตตาคารลี เหล่า หงี่ พระราม3</t>
   </si>
   <si>
+    <t>ธนาคารกรุงไทย สาขาเทเวศร์</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -337,6 +343,12 @@
     <t>Groove Evening</t>
   </si>
   <si>
+    <t>ตลาดศาลานำ้เย็น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โรงเจ ซอยเทอดไท 26 </t>
+  </si>
+  <si>
     <t>อาคารกรุงเทพประกันภัย ชั้น 22</t>
   </si>
   <si>
@@ -373,6 +385,12 @@
     <t>Lotus Express สาขา สน.หนองแขม</t>
   </si>
   <si>
+    <t>ตลาดสดเทเวศร์</t>
+  </si>
+  <si>
+    <t>ธนาคารไทยพาณิชย์ สาขาเทเวศร์</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -415,6 +433,15 @@
     <t>ห้าง BB Market Park บางใหญ่</t>
   </si>
   <si>
+    <t>สถานีรถไฟ หัวลำโพง</t>
+  </si>
+  <si>
+    <t>สถานีรถไฟฟ้าบางยี่ขัน</t>
+  </si>
+  <si>
+    <t>สถานีรถไฟฟ้าลาดพร้าว</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
@@ -448,6 +475,21 @@
     <t>บริษัท AIM สยามจำกัด นนทบุรี</t>
   </si>
   <si>
+    <t>กอง ฌาปนกิจ กรมสวัสดิการ ทบ.</t>
+  </si>
+  <si>
+    <t>ห้าง supreme บางกระบือ</t>
+  </si>
+  <si>
+    <t>ร้านมุมกะเพรา ปั๊มน้ำมัน PT สุขุมวิท 71</t>
+  </si>
+  <si>
+    <t>ร้านศิลวัฒน์ ถนนสรรพาวุธ</t>
+  </si>
+  <si>
+    <t>ตึกโบ๊เบ๊ทาวเวอร์</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -484,12 +526,24 @@
     <t>ตลาดบางบอน</t>
   </si>
   <si>
+    <t>วัดโพธิ์บ้านอ้อย ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>งานบวช วัดชินวราราม ปทุมธานี</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
     <t>ตลาดสดตรงข้ามหมู่บ้านมนวดี กรีน ปาร์ค</t>
   </si>
   <si>
+    <t>องค์การสงเคราะห์ทหารผ่านศึก</t>
+  </si>
+  <si>
+    <t>ตลาดโบ๊เบ๊</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -625,9 +679,30 @@
     <t>ร้านสเต็ก 700 ไร่</t>
   </si>
   <si>
+    <t>สำนักงานเลขานุการกองทัพบก</t>
+  </si>
+  <si>
+    <t>กรมกำลังพลทหารบก</t>
+  </si>
+  <si>
+    <t>ร้าน CJ ซอยวัดกู้</t>
+  </si>
+  <si>
+    <t>ท่าเรือวัดเตย</t>
+  </si>
+  <si>
     <t>วัดละหาร</t>
   </si>
   <si>
+    <t>ตลาดไท</t>
+  </si>
+  <si>
+    <t>ร้านเมี่ยงปลาเผาหลังราม ถนน 345</t>
+  </si>
+  <si>
+    <t>ตลาดพิชัย</t>
+  </si>
+  <si>
     <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
   </si>
   <si>
@@ -733,6 +808,9 @@
     <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
   </si>
   <si>
+    <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 126 - 142</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -805,6 +883,9 @@
     <t>ผู้ว่าฯ สมุทรสาคร พา รมต.สาธารณะสุข ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
   </si>
   <si>
+    <t>นนทบุรีแจ้งไทม์ไลน์ ผู้ป่วยโควิด-19 ในพื้นที่ รายที่ 186-193</t>
+  </si>
+  <si>
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
@@ -916,6 +997,9 @@
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
   </si>
   <si>
+    <t>https://www.facebook.com/earthpongsakornk/posts/436542727755628</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
   </si>
   <si>
@@ -983,6 +1067,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-583401</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9630000134022</t>
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-585006</t>
@@ -1387,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1463,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1504,22 +1591,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1548,22 +1635,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1592,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L5" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1636,22 +1723,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1680,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1724,22 +1811,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1768,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J9" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1812,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K10" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1856,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K11" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L11" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1900,22 +1987,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K12" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1944,22 +2031,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K13" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1988,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L14" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2032,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L15" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2076,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L16" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2120,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K17" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2164,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L18" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2220,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2252,22 +2339,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2296,22 +2383,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2340,22 +2427,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2384,22 +2471,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2428,22 +2515,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2472,22 +2559,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2516,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2560,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2604,22 +2691,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2648,22 +2735,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2692,22 +2779,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2736,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2780,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2824,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2868,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2912,22 +2999,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J35" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K35" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2956,22 +3043,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3012,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3056,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3091,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J39" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3132,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3176,22 +3263,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J41" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3223,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3267,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K43" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3311,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J44" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3355,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J45" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3396,22 +3483,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J46" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3440,22 +3527,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J47" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3484,22 +3571,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J48" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3528,22 +3615,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3572,22 +3659,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K50" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3616,22 +3703,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3660,22 +3747,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K52" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L52" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3704,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K53" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L53" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3748,22 +3835,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K54" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L54" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3792,22 +3879,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K55" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3836,22 +3923,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K56" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3880,22 +3967,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K57" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L57" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3924,22 +4011,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K58" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3968,22 +4055,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I59" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J59" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K59" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L59" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4012,22 +4099,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L60" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4056,22 +4143,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I61" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J61" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K61" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L61" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4100,22 +4187,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L62" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4144,22 +4231,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I63" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J63" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K63" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4188,22 +4275,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4244,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4288,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4332,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4346,40 +4433,40 @@
         <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
       </c>
       <c r="E68">
-        <v>13.8781452</v>
+        <v>12.71090068</v>
       </c>
       <c r="F68">
-        <v>100.4091302</v>
+        <v>101.1716232</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" t="s">
-        <v>208</v>
-      </c>
-      <c r="J68" t="s">
-        <v>210</v>
-      </c>
-      <c r="K68" t="s">
-        <v>206</v>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4387,10 +4474,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
         <v>44186</v>
@@ -4399,31 +4486,31 @@
         <v>84</v>
       </c>
       <c r="E69">
-        <v>13.70807262</v>
+        <v>13.8781452</v>
       </c>
       <c r="F69">
-        <v>100.59964</v>
+        <v>100.4091302</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I69" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J69" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L69" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4443,31 +4530,31 @@
         <v>85</v>
       </c>
       <c r="E70">
-        <v>13.78051515</v>
+        <v>13.70807262</v>
       </c>
       <c r="F70">
-        <v>100.4226823</v>
+        <v>100.59964</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="I70" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K70" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4487,31 +4574,31 @@
         <v>86</v>
       </c>
       <c r="E71">
-        <v>13.7355293</v>
+        <v>13.78051515</v>
       </c>
       <c r="F71">
-        <v>100.5979688</v>
+        <v>100.4226823</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I71" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J71" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K71" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L71" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4531,31 +4618,31 @@
         <v>87</v>
       </c>
       <c r="E72">
-        <v>13.73406154</v>
+        <v>13.7355293</v>
       </c>
       <c r="F72">
-        <v>100.5967948</v>
+        <v>100.5979688</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J72" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K72" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4575,31 +4662,31 @@
         <v>88</v>
       </c>
       <c r="E73">
-        <v>13.7738673</v>
+        <v>13.73406154</v>
       </c>
       <c r="F73">
-        <v>100.5093218</v>
+        <v>100.5967948</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J73" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K73" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L73" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4619,31 +4706,31 @@
         <v>89</v>
       </c>
       <c r="E74">
-        <v>13.82650614</v>
+        <v>13.7738673</v>
       </c>
       <c r="F74">
-        <v>100.4860605</v>
+        <v>100.5093218</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I74" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J74" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K74" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L74" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4663,31 +4750,31 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>13.79667017</v>
+        <v>13.82650614</v>
       </c>
       <c r="F75">
-        <v>100.5516735</v>
+        <v>100.4860605</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
+      <c r="H75" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" t="s">
+        <v>233</v>
+      </c>
+      <c r="J75" t="s">
+        <v>235</v>
+      </c>
+      <c r="K75" t="s">
+        <v>231</v>
       </c>
       <c r="L75" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4707,10 +4794,10 @@
         <v>91</v>
       </c>
       <c r="E76">
-        <v>13.72655096</v>
+        <v>13.79667017</v>
       </c>
       <c r="F76">
-        <v>100.5102552</v>
+        <v>100.5516735</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4728,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4751,10 +4838,10 @@
         <v>92</v>
       </c>
       <c r="E77">
-        <v>13.69580853</v>
+        <v>13.72655096</v>
       </c>
       <c r="F77">
-        <v>100.5133688</v>
+        <v>100.5102552</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4772,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4789,16 +4876,16 @@
         <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D78" t="s">
         <v>93</v>
       </c>
       <c r="E78">
-        <v>13.73541413</v>
+        <v>13.69580853</v>
       </c>
       <c r="F78">
-        <v>100.5877998</v>
+        <v>100.5133688</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4806,20 +4893,20 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>208</v>
-      </c>
-      <c r="J78" t="s">
-        <v>210</v>
-      </c>
-      <c r="K78" t="s">
-        <v>206</v>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4833,16 +4920,16 @@
         <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D79" t="s">
         <v>94</v>
       </c>
       <c r="E79">
-        <v>13.78766192</v>
+        <v>13.76772134</v>
       </c>
       <c r="F79">
-        <v>100.5105938</v>
+        <v>100.502025</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4850,20 +4937,20 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>208</v>
-      </c>
-      <c r="J79" t="s">
-        <v>210</v>
-      </c>
-      <c r="K79" t="s">
-        <v>206</v>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4874,7 +4961,7 @@
         <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
         <v>44187</v>
@@ -4883,31 +4970,31 @@
         <v>95</v>
       </c>
       <c r="E80">
-        <v>13.5951449</v>
+        <v>13.73541413</v>
       </c>
       <c r="F80">
-        <v>100.5802135</v>
+        <v>100.5877998</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
-        <v>205</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J80" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K80" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L80" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4927,31 +5014,31 @@
         <v>96</v>
       </c>
       <c r="E81">
-        <v>13.803038</v>
+        <v>13.78766192</v>
       </c>
       <c r="F81">
-        <v>100.188902</v>
+        <v>100.5105938</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
-        <v>206</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J81" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K81" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L81" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4962,7 +5049,7 @@
         <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
         <v>44187</v>
@@ -4971,31 +5058,31 @@
         <v>97</v>
       </c>
       <c r="E82">
-        <v>13.802143</v>
+        <v>13.5951449</v>
       </c>
       <c r="F82">
-        <v>100.19</v>
+        <v>100.5802135</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I82" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J82" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K82" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L82" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5015,31 +5102,31 @@
         <v>98</v>
       </c>
       <c r="E83">
-        <v>13.928974</v>
+        <v>13.803038</v>
       </c>
       <c r="F83">
-        <v>100.577365</v>
+        <v>100.188902</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I83" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J83" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K83" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5059,31 +5146,31 @@
         <v>99</v>
       </c>
       <c r="E84">
-        <v>13.929686</v>
+        <v>13.802143</v>
       </c>
       <c r="F84">
-        <v>100.576</v>
+        <v>100.19</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I84" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J84" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K84" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5103,31 +5190,31 @@
         <v>100</v>
       </c>
       <c r="E85">
-        <v>13.76033018</v>
+        <v>13.928974</v>
       </c>
       <c r="F85">
-        <v>100.4796436</v>
+        <v>100.577365</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I85" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J85" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K85" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L85" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5147,31 +5234,31 @@
         <v>101</v>
       </c>
       <c r="E86">
-        <v>13.82853997</v>
+        <v>13.929686</v>
       </c>
       <c r="F86">
-        <v>100.4842102</v>
+        <v>100.576</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I86" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J86" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K86" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5191,31 +5278,31 @@
         <v>102</v>
       </c>
       <c r="E87">
-        <v>14.01020378</v>
+        <v>13.76033018</v>
       </c>
       <c r="F87">
-        <v>100.1768909</v>
+        <v>100.4796436</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I87" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J87" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K87" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L87" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5235,31 +5322,31 @@
         <v>103</v>
       </c>
       <c r="E88">
-        <v>14.04839109</v>
+        <v>13.82853997</v>
       </c>
       <c r="F88">
-        <v>100.0198852</v>
+        <v>100.4842102</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I88" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K88" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L88" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5279,31 +5366,31 @@
         <v>104</v>
       </c>
       <c r="E89">
-        <v>13.80175861</v>
+        <v>14.01020378</v>
       </c>
       <c r="F89">
-        <v>100.3053076</v>
+        <v>100.1768909</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I89" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J89" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K89" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L89" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5323,31 +5410,31 @@
         <v>105</v>
       </c>
       <c r="E90">
-        <v>13.60633251</v>
+        <v>14.04839109</v>
       </c>
       <c r="F90">
-        <v>100.4036543</v>
+        <v>100.0198852</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
+      <c r="H90" t="s">
+        <v>231</v>
+      </c>
+      <c r="I90" t="s">
+        <v>233</v>
+      </c>
+      <c r="J90" t="s">
+        <v>235</v>
+      </c>
+      <c r="K90" t="s">
+        <v>231</v>
       </c>
       <c r="L90" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5367,31 +5454,31 @@
         <v>106</v>
       </c>
       <c r="E91">
-        <v>13.78396755</v>
+        <v>13.80175861</v>
       </c>
       <c r="F91">
-        <v>100.4713623</v>
+        <v>100.3053076</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
+      <c r="H91" t="s">
+        <v>231</v>
+      </c>
+      <c r="I91" t="s">
+        <v>233</v>
+      </c>
+      <c r="J91" t="s">
+        <v>235</v>
+      </c>
+      <c r="K91" t="s">
+        <v>231</v>
       </c>
       <c r="L91" t="s">
         <v>244</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5399,22 +5486,22 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
       </c>
       <c r="E92">
-        <v>13.7243591</v>
+        <v>13.60633251</v>
       </c>
       <c r="F92">
-        <v>100.5386589</v>
+        <v>100.4036543</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5422,20 +5509,20 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>208</v>
-      </c>
-      <c r="J92" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" t="s">
-        <v>206</v>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
       </c>
       <c r="L92" t="s">
         <v>245</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5443,43 +5530,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C93" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
       </c>
       <c r="E93">
-        <v>13.54974685</v>
+        <v>13.78396755</v>
       </c>
       <c r="F93">
-        <v>100.2561435</v>
+        <v>100.4713623</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
-        <v>207</v>
-      </c>
-      <c r="I93" t="s">
-        <v>208</v>
-      </c>
-      <c r="J93" t="s">
-        <v>210</v>
-      </c>
-      <c r="K93" t="s">
-        <v>206</v>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5487,43 +5574,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
       </c>
       <c r="E94">
-        <v>14.45160513</v>
+        <v>13.76051919</v>
       </c>
       <c r="F94">
-        <v>100.7230585</v>
+        <v>100.4744225</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>207</v>
-      </c>
-      <c r="I94" t="s">
-        <v>208</v>
-      </c>
-      <c r="J94" t="s">
-        <v>210</v>
-      </c>
-      <c r="K94" t="s">
-        <v>206</v>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5531,22 +5618,22 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D95" t="s">
         <v>110</v>
       </c>
       <c r="E95">
-        <v>13.2054213</v>
+        <v>13.72086517</v>
       </c>
       <c r="F95">
-        <v>99.9793013</v>
+        <v>100.4724448</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5554,20 +5641,20 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
-        <v>208</v>
-      </c>
-      <c r="J95" t="s">
-        <v>210</v>
-      </c>
-      <c r="K95" t="s">
-        <v>206</v>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5575,10 +5662,10 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C96" s="2">
         <v>44188</v>
@@ -5587,31 +5674,31 @@
         <v>111</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>13.7243591</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>100.5386589</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>206</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J96" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K96" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L96" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5619,10 +5706,10 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C97" s="2">
         <v>44188</v>
@@ -5631,31 +5718,31 @@
         <v>112</v>
       </c>
       <c r="E97">
-        <v>13.802283</v>
+        <v>13.54974685</v>
       </c>
       <c r="F97">
-        <v>100.184509</v>
+        <v>100.2561435</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I97" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J97" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L97" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5663,10 +5750,10 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C98" s="2">
         <v>44188</v>
@@ -5675,31 +5762,31 @@
         <v>113</v>
       </c>
       <c r="E98">
-        <v>13.91857</v>
+        <v>14.45160513</v>
       </c>
       <c r="F98">
-        <v>100.601606</v>
+        <v>100.7230585</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I98" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J98" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K98" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L98" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5707,10 +5794,10 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2">
         <v>44188</v>
@@ -5719,31 +5806,31 @@
         <v>114</v>
       </c>
       <c r="E99">
-        <v>13.6171972</v>
+        <v>13.2054213</v>
       </c>
       <c r="F99">
-        <v>100.3791504</v>
+        <v>99.9793013</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" t="s">
-        <v>206</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J99" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L99" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5763,31 +5850,31 @@
         <v>115</v>
       </c>
       <c r="E100">
-        <v>12.66469676</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>102.1037094</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="I100" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J100" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K100" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L100" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5807,31 +5894,31 @@
         <v>116</v>
       </c>
       <c r="E101">
-        <v>13.86149331</v>
+        <v>13.802283</v>
       </c>
       <c r="F101">
-        <v>100.6434383</v>
+        <v>100.184509</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101" t="s">
+        <v>233</v>
+      </c>
+      <c r="J101" t="s">
+        <v>235</v>
+      </c>
+      <c r="K101" t="s">
+        <v>231</v>
       </c>
       <c r="L101" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5851,31 +5938,31 @@
         <v>117</v>
       </c>
       <c r="E102">
-        <v>13.84500752</v>
+        <v>13.91857</v>
       </c>
       <c r="F102">
-        <v>100.6352673</v>
+        <v>100.601606</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>231</v>
+      </c>
+      <c r="I102" t="s">
+        <v>233</v>
+      </c>
+      <c r="J102" t="s">
+        <v>235</v>
+      </c>
+      <c r="K102" t="s">
+        <v>231</v>
       </c>
       <c r="L102" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5895,31 +5982,31 @@
         <v>118</v>
       </c>
       <c r="E103">
-        <v>13.67744471</v>
+        <v>13.6171972</v>
       </c>
       <c r="F103">
-        <v>100.3450652</v>
+        <v>100.3791504</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>231</v>
+      </c>
+      <c r="I103" t="s">
+        <v>233</v>
+      </c>
+      <c r="J103" t="s">
+        <v>235</v>
+      </c>
+      <c r="K103" t="s">
+        <v>231</v>
       </c>
       <c r="L103" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5933,37 +6020,37 @@
         <v>14</v>
       </c>
       <c r="C104" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D104" t="s">
         <v>119</v>
       </c>
       <c r="E104">
-        <v>13.721681</v>
+        <v>12.66469676</v>
       </c>
       <c r="F104">
-        <v>100.53</v>
+        <v>102.1037094</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I104" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J104" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K104" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L104" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5974,40 +6061,40 @@
         <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C105" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D105" t="s">
         <v>120</v>
       </c>
       <c r="E105">
-        <v>13.9134431</v>
+        <v>13.86149331</v>
       </c>
       <c r="F105">
-        <v>100.4220473</v>
+        <v>100.6434383</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
-        <v>207</v>
-      </c>
-      <c r="I105" t="s">
-        <v>209</v>
-      </c>
-      <c r="J105" t="s">
-        <v>210</v>
-      </c>
-      <c r="K105" t="s">
-        <v>206</v>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6021,37 +6108,37 @@
         <v>14</v>
       </c>
       <c r="C106" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D106" t="s">
         <v>121</v>
       </c>
       <c r="E106">
-        <v>13.786588</v>
+        <v>13.84500752</v>
       </c>
       <c r="F106">
-        <v>100.321233</v>
+        <v>100.6352673</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
-        <v>206</v>
-      </c>
-      <c r="I106" t="s">
-        <v>208</v>
-      </c>
-      <c r="J106" t="s">
-        <v>210</v>
-      </c>
-      <c r="K106" t="s">
-        <v>206</v>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6062,40 +6149,40 @@
         <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D107" t="s">
         <v>122</v>
       </c>
       <c r="E107">
-        <v>13.8017434</v>
+        <v>13.67744471</v>
       </c>
       <c r="F107">
-        <v>100.1879465</v>
+        <v>100.3450652</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>206</v>
-      </c>
-      <c r="I107" t="s">
-        <v>208</v>
-      </c>
-      <c r="J107" t="s">
-        <v>210</v>
-      </c>
-      <c r="K107" t="s">
-        <v>206</v>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6109,37 +6196,37 @@
         <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D108" t="s">
         <v>123</v>
       </c>
       <c r="E108">
-        <v>13.81456113</v>
+        <v>13.77009632</v>
       </c>
       <c r="F108">
-        <v>100.0630594</v>
+        <v>100.5039461</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
-        <v>206</v>
-      </c>
-      <c r="I108" t="s">
-        <v>208</v>
-      </c>
-      <c r="J108" t="s">
-        <v>210</v>
-      </c>
-      <c r="K108" t="s">
-        <v>206</v>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6153,37 +6240,37 @@
         <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D109" t="s">
         <v>124</v>
       </c>
       <c r="E109">
-        <v>12.68783188</v>
+        <v>13.76948528</v>
       </c>
       <c r="F109">
-        <v>101.2114545</v>
+        <v>100.5044662</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
-        <v>205</v>
-      </c>
-      <c r="I109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J109" t="s">
-        <v>210</v>
-      </c>
-      <c r="K109" t="s">
-        <v>206</v>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6203,31 +6290,31 @@
         <v>125</v>
       </c>
       <c r="E110">
-        <v>13.67342423</v>
+        <v>13.721681</v>
       </c>
       <c r="F110">
-        <v>100.6069256</v>
+        <v>100.53</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I110" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J110" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K110" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L110" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6238,7 +6325,7 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C111" s="2">
         <v>44189</v>
@@ -6247,31 +6334,31 @@
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.6680206</v>
+        <v>13.9134431</v>
       </c>
       <c r="F111">
-        <v>100.6354649</v>
+        <v>100.4220473</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I111" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J111" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K111" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L111" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6291,31 +6378,31 @@
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.88903855</v>
+        <v>13.786588</v>
       </c>
       <c r="F112">
-        <v>100.6576064</v>
+        <v>100.321233</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>231</v>
+      </c>
+      <c r="I112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J112" t="s">
+        <v>235</v>
+      </c>
+      <c r="K112" t="s">
+        <v>231</v>
       </c>
       <c r="L112" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6326,7 +6413,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
         <v>44189</v>
@@ -6335,31 +6422,31 @@
         <v>128</v>
       </c>
       <c r="E113">
-        <v>13.71110566</v>
+        <v>13.8017434</v>
       </c>
       <c r="F113">
-        <v>100.4158636</v>
+        <v>100.1879465</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
+      <c r="H113" t="s">
+        <v>231</v>
+      </c>
+      <c r="I113" t="s">
+        <v>233</v>
+      </c>
+      <c r="J113" t="s">
+        <v>235</v>
+      </c>
+      <c r="K113" t="s">
+        <v>231</v>
       </c>
       <c r="L113" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6379,31 +6466,31 @@
         <v>129</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>13.81456113</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>100.0630594</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>231</v>
+      </c>
+      <c r="I114" t="s">
+        <v>233</v>
+      </c>
+      <c r="J114" t="s">
+        <v>235</v>
+      </c>
+      <c r="K114" t="s">
+        <v>231</v>
       </c>
       <c r="L114" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6423,31 +6510,31 @@
         <v>130</v>
       </c>
       <c r="E115">
-        <v>13.91716059</v>
+        <v>12.68783188</v>
       </c>
       <c r="F115">
-        <v>100.4212109</v>
+        <v>101.2114545</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>230</v>
+      </c>
+      <c r="I115" t="s">
+        <v>233</v>
+      </c>
+      <c r="J115" t="s">
+        <v>235</v>
+      </c>
+      <c r="K115" t="s">
+        <v>231</v>
       </c>
       <c r="L115" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6467,31 +6554,31 @@
         <v>131</v>
       </c>
       <c r="E116">
-        <v>13.98026263</v>
+        <v>13.67342423</v>
       </c>
       <c r="F116">
-        <v>100.3148877</v>
+        <v>100.6069256</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
+      <c r="H116" t="s">
+        <v>231</v>
+      </c>
+      <c r="I116" t="s">
+        <v>233</v>
+      </c>
+      <c r="J116" t="s">
+        <v>235</v>
+      </c>
+      <c r="K116" t="s">
+        <v>231</v>
       </c>
       <c r="L116" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6511,31 +6598,31 @@
         <v>132</v>
       </c>
       <c r="E117">
-        <v>13.87612007</v>
+        <v>13.6680206</v>
       </c>
       <c r="F117">
-        <v>100.4091692</v>
+        <v>100.6354649</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
+      <c r="H117" t="s">
+        <v>231</v>
+      </c>
+      <c r="I117" t="s">
+        <v>233</v>
+      </c>
+      <c r="J117" t="s">
+        <v>235</v>
+      </c>
+      <c r="K117" t="s">
+        <v>231</v>
       </c>
       <c r="L117" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6549,37 +6636,37 @@
         <v>14</v>
       </c>
       <c r="C118" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
       </c>
       <c r="E118">
-        <v>13.924252</v>
+        <v>13.88903855</v>
       </c>
       <c r="F118">
-        <v>100.597945</v>
+        <v>100.6576064</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
-        <v>206</v>
-      </c>
-      <c r="I118" t="s">
-        <v>208</v>
-      </c>
-      <c r="J118" t="s">
-        <v>210</v>
-      </c>
-      <c r="K118" t="s">
-        <v>206</v>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6593,37 +6680,37 @@
         <v>14</v>
       </c>
       <c r="C119" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
       </c>
       <c r="E119">
-        <v>12.69670286</v>
+        <v>13.71110566</v>
       </c>
       <c r="F119">
-        <v>101.2683573</v>
+        <v>100.4158636</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
-        <v>205</v>
-      </c>
-      <c r="I119" t="s">
-        <v>208</v>
-      </c>
-      <c r="J119" t="s">
-        <v>210</v>
-      </c>
-      <c r="K119" t="s">
-        <v>206</v>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6637,37 +6724,37 @@
         <v>14</v>
       </c>
       <c r="C120" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D120" t="s">
         <v>135</v>
       </c>
       <c r="E120">
-        <v>12.69574994</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>101.2674706</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" t="s">
-        <v>205</v>
-      </c>
-      <c r="I120" t="s">
-        <v>208</v>
-      </c>
-      <c r="J120" t="s">
-        <v>210</v>
-      </c>
-      <c r="K120" t="s">
-        <v>206</v>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6681,16 +6768,16 @@
         <v>14</v>
       </c>
       <c r="C121" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D121" t="s">
         <v>136</v>
       </c>
       <c r="E121">
-        <v>13.71190173</v>
+        <v>13.91716059</v>
       </c>
       <c r="F121">
-        <v>100.4224456</v>
+        <v>100.4212109</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6708,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6725,16 +6812,16 @@
         <v>14</v>
       </c>
       <c r="C122" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D122" t="s">
         <v>137</v>
       </c>
       <c r="E122">
-        <v>13.80614397</v>
+        <v>13.98026263</v>
       </c>
       <c r="F122">
-        <v>100.5307221</v>
+        <v>100.3148877</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6752,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6769,16 +6856,16 @@
         <v>14</v>
       </c>
       <c r="C123" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D123" t="s">
         <v>138</v>
       </c>
       <c r="E123">
-        <v>13.78786299</v>
+        <v>13.87612007</v>
       </c>
       <c r="F123">
-        <v>100.4828396</v>
+        <v>100.4091692</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6796,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6813,16 +6900,16 @@
         <v>14</v>
       </c>
       <c r="C124" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D124" t="s">
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.77791571</v>
+        <v>13.7392405</v>
       </c>
       <c r="F124">
-        <v>100.4766994</v>
+        <v>100.5167889</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6840,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6854,19 +6941,19 @@
         <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D125" t="s">
         <v>140</v>
       </c>
       <c r="E125">
-        <v>18.80731097</v>
+        <v>13.7773423</v>
       </c>
       <c r="F125">
-        <v>98.96283674999999</v>
+        <v>100.4852567</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6884,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6901,16 +6988,16 @@
         <v>14</v>
       </c>
       <c r="C126" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D126" t="s">
         <v>141</v>
       </c>
       <c r="E126">
-        <v>13.7707636</v>
+        <v>13.80601718</v>
       </c>
       <c r="F126">
-        <v>100.4680689</v>
+        <v>100.5736064</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6928,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6951,31 +7038,31 @@
         <v>142</v>
       </c>
       <c r="E127">
-        <v>13.5455515</v>
+        <v>13.924252</v>
       </c>
       <c r="F127">
-        <v>100.2767451</v>
+        <v>100.597945</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
+      <c r="H127" t="s">
+        <v>231</v>
+      </c>
+      <c r="I127" t="s">
+        <v>233</v>
+      </c>
+      <c r="J127" t="s">
+        <v>235</v>
+      </c>
+      <c r="K127" t="s">
+        <v>231</v>
       </c>
       <c r="L127" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6995,31 +7082,31 @@
         <v>143</v>
       </c>
       <c r="E128">
-        <v>13.99716298</v>
+        <v>12.69670286</v>
       </c>
       <c r="F128">
-        <v>100.3271499</v>
+        <v>101.2683573</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
+      <c r="H128" t="s">
+        <v>230</v>
+      </c>
+      <c r="I128" t="s">
+        <v>233</v>
+      </c>
+      <c r="J128" t="s">
+        <v>235</v>
+      </c>
+      <c r="K128" t="s">
+        <v>231</v>
       </c>
       <c r="L128" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7027,43 +7114,43 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C129" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D129" t="s">
         <v>144</v>
       </c>
       <c r="E129">
-        <v>13.734066</v>
+        <v>12.69574994</v>
       </c>
       <c r="F129">
-        <v>100.5278354</v>
+        <v>101.2674706</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
+      <c r="H129" t="s">
+        <v>230</v>
+      </c>
+      <c r="I129" t="s">
+        <v>233</v>
+      </c>
+      <c r="J129" t="s">
+        <v>235</v>
+      </c>
+      <c r="K129" t="s">
+        <v>231</v>
       </c>
       <c r="L129" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7071,22 +7158,22 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C130" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D130" t="s">
         <v>145</v>
       </c>
       <c r="E130">
-        <v>12.6483736</v>
+        <v>13.71190173</v>
       </c>
       <c r="F130">
-        <v>101.2273679</v>
+        <v>100.4224456</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7104,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7115,43 +7202,43 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D131" t="s">
         <v>146</v>
       </c>
       <c r="E131">
-        <v>12.69691038</v>
+        <v>13.80614397</v>
       </c>
       <c r="F131">
-        <v>101.268451</v>
+        <v>100.5307221</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" t="s">
-        <v>205</v>
-      </c>
-      <c r="I131" t="s">
-        <v>208</v>
-      </c>
-      <c r="J131" t="s">
-        <v>210</v>
-      </c>
-      <c r="K131" t="s">
-        <v>206</v>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7159,43 +7246,43 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D132" t="s">
         <v>147</v>
       </c>
       <c r="E132">
-        <v>12.66695256</v>
+        <v>13.78786299</v>
       </c>
       <c r="F132">
-        <v>101.2738756</v>
+        <v>100.4828396</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132" t="s">
-        <v>205</v>
-      </c>
-      <c r="I132" t="s">
-        <v>208</v>
-      </c>
-      <c r="J132" t="s">
-        <v>210</v>
-      </c>
-      <c r="K132" t="s">
-        <v>206</v>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7203,22 +7290,22 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
       </c>
       <c r="C133" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D133" t="s">
         <v>148</v>
       </c>
       <c r="E133">
-        <v>13.86265154</v>
+        <v>13.77791571</v>
       </c>
       <c r="F133">
-        <v>100.6432858</v>
+        <v>100.4766994</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7236,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7247,22 +7334,22 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C134" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D134" t="s">
         <v>149</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>18.80731097</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7280,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7291,22 +7378,22 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
         <v>14</v>
       </c>
       <c r="C135" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D135" t="s">
         <v>150</v>
       </c>
       <c r="E135">
-        <v>13.7831563</v>
+        <v>13.7707636</v>
       </c>
       <c r="F135">
-        <v>100.5154952</v>
+        <v>100.4680689</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7324,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7335,22 +7422,22 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D136" t="s">
         <v>151</v>
       </c>
       <c r="E136">
-        <v>12.6844183</v>
+        <v>13.5455515</v>
       </c>
       <c r="F136">
-        <v>101.2742991</v>
+        <v>100.2767451</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7364,14 +7451,14 @@
       <c r="J136">
         <v>0</v>
       </c>
-      <c r="K136" t="s">
-        <v>206</v>
+      <c r="K136">
+        <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7379,22 +7466,22 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D137" t="s">
         <v>152</v>
       </c>
       <c r="E137">
-        <v>12.9730033</v>
+        <v>13.99716298</v>
       </c>
       <c r="F137">
-        <v>100.9029061</v>
+        <v>100.3271499</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7408,14 +7495,14 @@
       <c r="J137">
         <v>0</v>
       </c>
-      <c r="K137" t="s">
-        <v>206</v>
+      <c r="K137">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7423,22 +7510,22 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
         <v>14</v>
       </c>
       <c r="C138" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D138" t="s">
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.7946069</v>
+        <v>13.76007797</v>
       </c>
       <c r="F138">
-        <v>100.5161808</v>
+        <v>100.5098955</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7452,14 +7539,14 @@
       <c r="J138">
         <v>0</v>
       </c>
-      <c r="K138" t="s">
-        <v>206</v>
+      <c r="K138">
+        <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7467,43 +7554,43 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D139" t="s">
         <v>154</v>
       </c>
       <c r="E139">
-        <v>13.54448567</v>
+        <v>13.78946193</v>
       </c>
       <c r="F139">
-        <v>100.2752027</v>
+        <v>100.5154583</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139" t="s">
-        <v>205</v>
-      </c>
-      <c r="I139" t="s">
-        <v>208</v>
-      </c>
-      <c r="J139" t="s">
-        <v>210</v>
-      </c>
-      <c r="K139" t="s">
-        <v>206</v>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7511,22 +7598,22 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
         <v>14</v>
       </c>
       <c r="C140" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.67424547</v>
+        <v>13.72722747</v>
       </c>
       <c r="F140">
-        <v>100.426448</v>
+        <v>100.5965396</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7544,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7555,43 +7642,43 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="2">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="D141" t="s">
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.73545544</v>
+        <v>13.67587015</v>
       </c>
       <c r="F141">
-        <v>100.5661584</v>
+        <v>100.590999</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" t="s">
-        <v>206</v>
-      </c>
-      <c r="I141" t="s">
-        <v>208</v>
-      </c>
-      <c r="J141" t="s">
-        <v>210</v>
-      </c>
-      <c r="K141" t="s">
-        <v>206</v>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7599,22 +7686,22 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="2">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="D142" t="s">
         <v>157</v>
       </c>
       <c r="E142">
-        <v>13.91669065</v>
+        <v>13.75402516</v>
       </c>
       <c r="F142">
-        <v>100.397828</v>
+        <v>100.5152946</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7632,10 +7719,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7646,40 +7733,40 @@
         <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C143" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D143" t="s">
         <v>158</v>
       </c>
       <c r="E143">
-        <v>12.9098775</v>
+        <v>13.734066</v>
       </c>
       <c r="F143">
-        <v>100.891563</v>
+        <v>100.5278354</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" t="s">
-        <v>206</v>
-      </c>
-      <c r="I143" t="s">
-        <v>208</v>
-      </c>
-      <c r="J143" t="s">
-        <v>210</v>
-      </c>
-      <c r="K143" t="s">
-        <v>206</v>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7693,16 +7780,16 @@
         <v>15</v>
       </c>
       <c r="C144" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D144" t="s">
         <v>159</v>
       </c>
       <c r="E144">
-        <v>13.3535702</v>
+        <v>12.6483736</v>
       </c>
       <c r="F144">
-        <v>100.9765439</v>
+        <v>101.2273679</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7716,14 +7803,14 @@
       <c r="J144">
         <v>0</v>
       </c>
-      <c r="K144" t="s">
-        <v>206</v>
+      <c r="K144">
+        <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7734,40 +7821,40 @@
         <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C145" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D145" t="s">
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.948902</v>
+        <v>12.69691038</v>
       </c>
       <c r="F145">
-        <v>100.891292</v>
+        <v>101.268451</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
+      <c r="H145" t="s">
+        <v>230</v>
+      </c>
+      <c r="I145" t="s">
+        <v>233</v>
+      </c>
+      <c r="J145" t="s">
+        <v>235</v>
       </c>
       <c r="K145" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L145" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7778,40 +7865,40 @@
         <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D146" t="s">
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.6495877</v>
+        <v>12.66695256</v>
       </c>
       <c r="F146">
-        <v>102.0329425</v>
+        <v>101.2738756</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
+      <c r="H146" t="s">
+        <v>230</v>
+      </c>
+      <c r="I146" t="s">
+        <v>233</v>
+      </c>
+      <c r="J146" t="s">
+        <v>235</v>
       </c>
       <c r="K146" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L146" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7822,19 +7909,19 @@
         <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D147" t="s">
         <v>162</v>
       </c>
       <c r="E147">
-        <v>12.3757564</v>
+        <v>13.86265154</v>
       </c>
       <c r="F147">
-        <v>102.3818628</v>
+        <v>100.6432858</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7848,14 +7935,14 @@
       <c r="J147">
         <v>0</v>
       </c>
-      <c r="K147" t="s">
-        <v>206</v>
+      <c r="K147">
+        <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7866,19 +7953,19 @@
         <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D148" t="s">
         <v>163</v>
       </c>
       <c r="E148">
-        <v>12.7246169</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>101.9362794</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7892,14 +7979,14 @@
       <c r="J148">
         <v>0</v>
       </c>
-      <c r="K148" t="s">
-        <v>206</v>
+      <c r="K148">
+        <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7910,19 +7997,19 @@
         <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C149" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D149" t="s">
         <v>164</v>
       </c>
       <c r="E149">
-        <v>13.772986</v>
+        <v>13.7831563</v>
       </c>
       <c r="F149">
-        <v>100.4855148</v>
+        <v>100.5154952</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7936,14 +8023,14 @@
       <c r="J149">
         <v>0</v>
       </c>
-      <c r="K149" t="s">
-        <v>206</v>
+      <c r="K149">
+        <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7954,19 +8041,19 @@
         <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C150" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D150" t="s">
         <v>165</v>
       </c>
       <c r="E150">
-        <v>12.90895904</v>
+        <v>12.6844183</v>
       </c>
       <c r="F150">
-        <v>100.891925</v>
+        <v>101.2742991</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7980,14 +8067,14 @@
       <c r="J150">
         <v>0</v>
       </c>
-      <c r="K150">
-        <v>0</v>
+      <c r="K150" t="s">
+        <v>231</v>
       </c>
       <c r="L150" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7998,19 +8085,19 @@
         <v>211</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C151" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D151" t="s">
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.90960418</v>
+        <v>12.9730033</v>
       </c>
       <c r="F151">
-        <v>100.870256</v>
+        <v>100.9029061</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -8024,14 +8111,14 @@
       <c r="J151">
         <v>0</v>
       </c>
-      <c r="K151">
-        <v>0</v>
+      <c r="K151" t="s">
+        <v>231</v>
       </c>
       <c r="L151" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8042,19 +8129,19 @@
         <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C152" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D152" t="s">
         <v>167</v>
       </c>
       <c r="E152">
-        <v>12.93047726</v>
+        <v>13.7946069</v>
       </c>
       <c r="F152">
-        <v>100.8807229</v>
+        <v>100.5161808</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8068,14 +8155,14 @@
       <c r="J152">
         <v>0</v>
       </c>
-      <c r="K152">
-        <v>0</v>
+      <c r="K152" t="s">
+        <v>231</v>
       </c>
       <c r="L152" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8086,40 +8173,40 @@
         <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C153" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D153" t="s">
         <v>168</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>13.54448567</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>100.2752027</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
+      <c r="H153" t="s">
+        <v>230</v>
+      </c>
+      <c r="I153" t="s">
+        <v>233</v>
+      </c>
+      <c r="J153" t="s">
+        <v>235</v>
+      </c>
+      <c r="K153" t="s">
+        <v>231</v>
       </c>
       <c r="L153" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8130,19 +8217,19 @@
         <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C154" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D154" t="s">
         <v>169</v>
       </c>
       <c r="E154">
-        <v>12.66219926</v>
+        <v>13.67424547</v>
       </c>
       <c r="F154">
-        <v>100.8989779</v>
+        <v>100.426448</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8160,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8174,19 +8261,19 @@
         <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C155" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D155" t="s">
         <v>170</v>
       </c>
       <c r="E155">
-        <v>13.32877789</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>100.9230017</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8204,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8218,19 +8305,19 @@
         <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D156" t="s">
         <v>171</v>
       </c>
       <c r="E156">
-        <v>13.33615653</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>100.9694597</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8248,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8262,40 +8349,40 @@
         <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C157" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D157" t="s">
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.83546656</v>
+        <v>13.73545544</v>
       </c>
       <c r="F157">
-        <v>100.967575</v>
+        <v>100.5661584</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
+      <c r="H157" t="s">
+        <v>231</v>
+      </c>
+      <c r="I157" t="s">
+        <v>233</v>
+      </c>
+      <c r="J157" t="s">
+        <v>235</v>
+      </c>
+      <c r="K157" t="s">
+        <v>231</v>
       </c>
       <c r="L157" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8306,19 +8393,19 @@
         <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C158" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D158" t="s">
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.33545565</v>
+        <v>13.91669065</v>
       </c>
       <c r="F158">
-        <v>100.9249432</v>
+        <v>100.397828</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8336,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8350,19 +8437,19 @@
         <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C159" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D159" t="s">
         <v>174</v>
       </c>
       <c r="E159">
-        <v>13.33841928</v>
+        <v>13.76710313</v>
       </c>
       <c r="F159">
-        <v>100.9526548</v>
+        <v>100.5328623</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8380,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8394,19 +8481,19 @@
         <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D160" t="s">
         <v>175</v>
       </c>
       <c r="E160">
-        <v>12.68318129</v>
+        <v>13.7495748</v>
       </c>
       <c r="F160">
-        <v>101.2479341</v>
+        <v>100.5157013</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8424,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8438,7 +8525,7 @@
         <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C161" s="2">
         <v>44194</v>
@@ -8447,31 +8534,31 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.68178774</v>
+        <v>12.9098775</v>
       </c>
       <c r="F161">
-        <v>101.2804266</v>
+        <v>100.891563</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
+      <c r="H161" t="s">
+        <v>231</v>
+      </c>
+      <c r="I161" t="s">
+        <v>233</v>
+      </c>
+      <c r="J161" t="s">
+        <v>235</v>
+      </c>
+      <c r="K161" t="s">
+        <v>231</v>
       </c>
       <c r="L161" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8482,7 +8569,7 @@
         <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C162" s="2">
         <v>44194</v>
@@ -8491,10 +8578,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>12.67663309</v>
+        <v>13.3535702</v>
       </c>
       <c r="F162">
-        <v>101.2204609</v>
+        <v>100.9765439</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8508,14 +8595,14 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162">
-        <v>0</v>
+      <c r="K162" t="s">
+        <v>231</v>
       </c>
       <c r="L162" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8535,10 +8622,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.67969829</v>
+        <v>12.948902</v>
       </c>
       <c r="F163">
-        <v>101.2516232</v>
+        <v>100.891292</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8552,14 +8639,14 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163">
-        <v>0</v>
+      <c r="K163" t="s">
+        <v>231</v>
       </c>
       <c r="L163" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8570,7 +8657,7 @@
         <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C164" s="2">
         <v>44194</v>
@@ -8579,10 +8666,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.67895072</v>
+        <v>12.6495877</v>
       </c>
       <c r="F164">
-        <v>101.2811971</v>
+        <v>102.0329425</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8596,14 +8683,14 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164">
-        <v>0</v>
+      <c r="K164" t="s">
+        <v>231</v>
       </c>
       <c r="L164" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8614,7 +8701,7 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165" s="2">
         <v>44194</v>
@@ -8623,10 +8710,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.69121623</v>
+        <v>12.3757564</v>
       </c>
       <c r="F165">
-        <v>101.2828322</v>
+        <v>102.3818628</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8640,14 +8727,14 @@
       <c r="J165">
         <v>0</v>
       </c>
-      <c r="K165">
-        <v>0</v>
+      <c r="K165" t="s">
+        <v>231</v>
       </c>
       <c r="L165" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8658,7 +8745,7 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C166" s="2">
         <v>44194</v>
@@ -8667,10 +8754,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.61154131</v>
+        <v>12.7246169</v>
       </c>
       <c r="F166">
-        <v>102.105739</v>
+        <v>101.9362794</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8684,14 +8771,14 @@
       <c r="J166">
         <v>0</v>
       </c>
-      <c r="K166">
-        <v>0</v>
+      <c r="K166" t="s">
+        <v>231</v>
       </c>
       <c r="L166" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8711,10 +8798,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>12.59875505</v>
+        <v>13.772986</v>
       </c>
       <c r="F167">
-        <v>102.1108505</v>
+        <v>100.4855148</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8728,14 +8815,14 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167">
-        <v>0</v>
+      <c r="K167" t="s">
+        <v>231</v>
       </c>
       <c r="L167" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8755,10 +8842,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>12.90895904</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>100.891925</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8776,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8799,10 +8886,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>12.90960418</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>100.870256</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8820,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8843,10 +8930,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>12.94007297</v>
+        <v>12.93047726</v>
       </c>
       <c r="F170">
-        <v>100.9198688</v>
+        <v>100.8807229</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8864,10 +8951,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8887,10 +8974,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>12.93500267</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>100.8828385</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8908,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8931,10 +9018,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>12.93302705</v>
+        <v>12.66219926</v>
       </c>
       <c r="F172">
-        <v>100.9013151</v>
+        <v>100.8989779</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -8952,10 +9039,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8975,10 +9062,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>12.93124481</v>
+        <v>13.32877789</v>
       </c>
       <c r="F173">
-        <v>100.9008084</v>
+        <v>100.9230017</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -8996,10 +9083,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9019,10 +9106,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>12.93038104</v>
+        <v>13.33615653</v>
       </c>
       <c r="F174">
-        <v>100.9126714</v>
+        <v>100.9694597</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9040,10 +9127,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9063,10 +9150,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>12.84875767</v>
+        <v>12.83546656</v>
       </c>
       <c r="F175">
-        <v>100.9017</v>
+        <v>100.967575</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9084,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9107,10 +9194,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>12.90883138</v>
+        <v>13.33545565</v>
       </c>
       <c r="F176">
-        <v>100.8932458</v>
+        <v>100.9249432</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9128,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9151,10 +9238,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>12.66362634</v>
+        <v>13.33841928</v>
       </c>
       <c r="F177">
-        <v>100.8981743</v>
+        <v>100.9526548</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9172,10 +9259,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9195,10 +9282,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.95074463</v>
+        <v>12.68318129</v>
       </c>
       <c r="F178">
-        <v>100.8933879</v>
+        <v>101.2479341</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9216,10 +9303,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9239,10 +9326,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.97880506</v>
+        <v>12.68178774</v>
       </c>
       <c r="F179">
-        <v>100.9430835</v>
+        <v>101.2804266</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9260,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9283,10 +9370,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.92662465</v>
+        <v>12.67663309</v>
       </c>
       <c r="F180">
-        <v>100.898605</v>
+        <v>101.2204609</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9304,10 +9391,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9327,10 +9414,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>12.98328283</v>
+        <v>12.67969829</v>
       </c>
       <c r="F181">
-        <v>100.9354783</v>
+        <v>101.2516232</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9348,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9371,10 +9458,10 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>12.98177123</v>
+        <v>12.67895072</v>
       </c>
       <c r="F182">
-        <v>100.9289336</v>
+        <v>101.2811971</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9392,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9415,10 +9502,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>13.01893524</v>
+        <v>12.69121623</v>
       </c>
       <c r="F183">
-        <v>100.932701</v>
+        <v>101.2828322</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9436,10 +9523,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9459,10 +9546,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.95555524</v>
+        <v>12.61154131</v>
       </c>
       <c r="F184">
-        <v>100.8987028</v>
+        <v>102.105739</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9480,10 +9567,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9503,10 +9590,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.93944879</v>
+        <v>12.59875505</v>
       </c>
       <c r="F185">
-        <v>100.9021397</v>
+        <v>102.1108505</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9524,10 +9611,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9547,10 +9634,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>12.75400498</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>100.9017967</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9568,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9591,10 +9678,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>12.69857571</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>100.8899412</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9612,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9629,16 +9716,16 @@
         <v>17</v>
       </c>
       <c r="C188" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D188" t="s">
         <v>203</v>
       </c>
       <c r="E188">
-        <v>13.91532244</v>
+        <v>12.94007297</v>
       </c>
       <c r="F188">
-        <v>100.4236653</v>
+        <v>100.9198688</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -9656,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9670,42 +9757,1142 @@
         <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C189" s="2">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="D189" t="s">
         <v>204</v>
       </c>
       <c r="E189">
+        <v>12.93500267</v>
+      </c>
+      <c r="F189">
+        <v>100.8828385</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>301</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190">
+        <v>250</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D190" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190">
+        <v>12.93302705</v>
+      </c>
+      <c r="F190">
+        <v>100.9013151</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>301</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191">
+        <v>251</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D191" t="s">
+        <v>206</v>
+      </c>
+      <c r="E191">
+        <v>12.93124481</v>
+      </c>
+      <c r="F191">
+        <v>100.9008084</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191" t="s">
+        <v>301</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192">
+        <v>252</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D192" t="s">
+        <v>207</v>
+      </c>
+      <c r="E192">
+        <v>12.93038104</v>
+      </c>
+      <c r="F192">
+        <v>100.9126714</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192" t="s">
+        <v>301</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193">
+        <v>253</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="E193">
+        <v>12.84875767</v>
+      </c>
+      <c r="F193">
+        <v>100.9017</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>301</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194">
+        <v>254</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E194">
+        <v>12.90883138</v>
+      </c>
+      <c r="F194">
+        <v>100.8932458</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194" t="s">
+        <v>301</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195">
+        <v>255</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D195" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195">
+        <v>12.66362634</v>
+      </c>
+      <c r="F195">
+        <v>100.8981743</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195" t="s">
+        <v>301</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196">
+        <v>256</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D196" t="s">
+        <v>211</v>
+      </c>
+      <c r="E196">
+        <v>12.95074463</v>
+      </c>
+      <c r="F196">
+        <v>100.8933879</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196" t="s">
+        <v>301</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197">
+        <v>257</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D197" t="s">
+        <v>212</v>
+      </c>
+      <c r="E197">
+        <v>12.97880506</v>
+      </c>
+      <c r="F197">
+        <v>100.9430835</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197" t="s">
+        <v>301</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198">
+        <v>258</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D198" t="s">
+        <v>213</v>
+      </c>
+      <c r="E198">
+        <v>12.92662465</v>
+      </c>
+      <c r="F198">
+        <v>100.898605</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" t="s">
+        <v>301</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199">
+        <v>259</v>
+      </c>
+      <c r="B199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D199" t="s">
+        <v>214</v>
+      </c>
+      <c r="E199">
+        <v>12.98328283</v>
+      </c>
+      <c r="F199">
+        <v>100.9354783</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199" t="s">
+        <v>301</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200">
+        <v>260</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D200" t="s">
+        <v>215</v>
+      </c>
+      <c r="E200">
+        <v>12.98177123</v>
+      </c>
+      <c r="F200">
+        <v>100.9289336</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200" t="s">
+        <v>301</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201">
+        <v>261</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D201" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201">
+        <v>13.01893524</v>
+      </c>
+      <c r="F201">
+        <v>100.932701</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>301</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202">
+        <v>262</v>
+      </c>
+      <c r="B202" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D202" t="s">
+        <v>217</v>
+      </c>
+      <c r="E202">
+        <v>12.95555524</v>
+      </c>
+      <c r="F202">
+        <v>100.8987028</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202" t="s">
+        <v>301</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203">
+        <v>263</v>
+      </c>
+      <c r="B203" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D203" t="s">
+        <v>218</v>
+      </c>
+      <c r="E203">
+        <v>12.93944879</v>
+      </c>
+      <c r="F203">
+        <v>100.9021397</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203" t="s">
+        <v>301</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204">
+        <v>264</v>
+      </c>
+      <c r="B204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D204" t="s">
+        <v>219</v>
+      </c>
+      <c r="E204">
+        <v>12.75400498</v>
+      </c>
+      <c r="F204">
+        <v>100.9017967</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204" t="s">
+        <v>301</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205">
+        <v>265</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D205" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205">
+        <v>12.69857571</v>
+      </c>
+      <c r="F205">
+        <v>100.8899412</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205" t="s">
+        <v>301</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206">
+        <v>266</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D206" t="s">
+        <v>221</v>
+      </c>
+      <c r="E206">
+        <v>13.76238233</v>
+      </c>
+      <c r="F206">
+        <v>100.507696</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206" t="s">
+        <v>264</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207">
+        <v>267</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D207" t="s">
+        <v>222</v>
+      </c>
+      <c r="E207">
+        <v>13.76254009</v>
+      </c>
+      <c r="F207">
+        <v>100.5075498</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207" t="s">
+        <v>264</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208">
+        <v>268</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D208" t="s">
+        <v>223</v>
+      </c>
+      <c r="E208">
+        <v>13.92729422</v>
+      </c>
+      <c r="F208">
+        <v>100.5056386</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208" t="s">
+        <v>289</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209">
+        <v>269</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D209" t="s">
+        <v>224</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209" t="s">
+        <v>289</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210">
+        <v>270</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D210" t="s">
+        <v>225</v>
+      </c>
+      <c r="E210">
+        <v>13.91532244</v>
+      </c>
+      <c r="F210">
+        <v>100.4236653</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210" t="s">
+        <v>302</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211">
+        <v>271</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D211" t="s">
+        <v>226</v>
+      </c>
+      <c r="E211">
+        <v>14.08063723</v>
+      </c>
+      <c r="F211">
+        <v>100.6228372</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211" t="s">
+        <v>289</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212">
+        <v>272</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D212" t="s">
+        <v>227</v>
+      </c>
+      <c r="E212">
+        <v>13.95313369</v>
+      </c>
+      <c r="F212">
+        <v>100.4766133</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212" t="s">
+        <v>289</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213">
+        <v>273</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D213" t="s">
+        <v>228</v>
+      </c>
+      <c r="E213">
+        <v>13.91454494</v>
+      </c>
+      <c r="F213">
+        <v>100.4960227</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213" t="s">
+        <v>289</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214">
+        <v>274</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D214" t="s">
+        <v>229</v>
+      </c>
+      <c r="E214">
         <v>14.5063704</v>
       </c>
-      <c r="F189">
+      <c r="F214">
         <v>100.4640833</v>
       </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-      <c r="L189" t="s">
-        <v>276</v>
-      </c>
-      <c r="M189" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="N189">
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>303</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N214">
         <v>0</v>
       </c>
     </row>
@@ -9899,6 +11086,31 @@
     <hyperlink ref="M187" r:id="rId186"/>
     <hyperlink ref="M188" r:id="rId187"/>
     <hyperlink ref="M189" r:id="rId188"/>
+    <hyperlink ref="M190" r:id="rId189"/>
+    <hyperlink ref="M191" r:id="rId190"/>
+    <hyperlink ref="M192" r:id="rId191"/>
+    <hyperlink ref="M193" r:id="rId192"/>
+    <hyperlink ref="M194" r:id="rId193"/>
+    <hyperlink ref="M195" r:id="rId194"/>
+    <hyperlink ref="M196" r:id="rId195"/>
+    <hyperlink ref="M197" r:id="rId196"/>
+    <hyperlink ref="M198" r:id="rId197"/>
+    <hyperlink ref="M199" r:id="rId198"/>
+    <hyperlink ref="M200" r:id="rId199"/>
+    <hyperlink ref="M201" r:id="rId200"/>
+    <hyperlink ref="M202" r:id="rId201"/>
+    <hyperlink ref="M203" r:id="rId202"/>
+    <hyperlink ref="M204" r:id="rId203"/>
+    <hyperlink ref="M205" r:id="rId204"/>
+    <hyperlink ref="M206" r:id="rId205"/>
+    <hyperlink ref="M207" r:id="rId206"/>
+    <hyperlink ref="M208" r:id="rId207"/>
+    <hyperlink ref="M209" r:id="rId208"/>
+    <hyperlink ref="M210" r:id="rId209"/>
+    <hyperlink ref="M211" r:id="rId210"/>
+    <hyperlink ref="M212" r:id="rId211"/>
+    <hyperlink ref="M213" r:id="rId212"/>
+    <hyperlink ref="M214" r:id="rId213"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="376">
   <si>
     <t>id</t>
   </si>
@@ -268,6 +268,9 @@
     <t>ร้าน ลิ้ม ม่ง ฮวด อ.มาบตาพุด</t>
   </si>
   <si>
+    <t>ร้าน KIN central westgate</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -442,6 +445,9 @@
     <t>สถานีรถไฟฟ้าลาดพร้าว</t>
   </si>
   <si>
+    <t>ตึกใบหยก ชั้น 81</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
@@ -490,6 +496,15 @@
     <t>ตึกโบ๊เบ๊ทาวเวอร์</t>
   </si>
   <si>
+    <t>MRT สถานีบางอ้อ</t>
+  </si>
+  <si>
+    <t>MRT สถานีศูนย์วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>ห้างเอสพลานาดรัชดา</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -511,6 +526,9 @@
     <t>ร้านแกงป่า ศรีย่าน</t>
   </si>
   <si>
+    <t>ร้านบุนตงกี่ เดอะมอลล์งามวงศ์วาน</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -532,6 +550,12 @@
     <t>งานบวช วัดชินวราราม ปทุมธานี</t>
   </si>
   <si>
+    <t>MRT สถานีบางรักใหญ่</t>
+  </si>
+  <si>
+    <t>ร้าน mong kok เดอะมอลล์งามวงศ์วาน</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -544,6 +568,12 @@
     <t>ตลาดโบ๊เบ๊</t>
   </si>
   <si>
+    <t>MRT สถานีศูนย์ราชการ</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์งามวงศ์วาน</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -811,6 +841,9 @@
     <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 126 - 142</t>
   </si>
   <si>
+    <t>นนทบุรีเปิดไทม์ไลน์สาววัย 27 ผู้ป่วยโควิด-19 ในพื้นที่ รายที่ 195</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -856,7 +889,7 @@
     <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
   </si>
   <si>
-    <t>อุบลราชธานี เผยไทม์ไลน์ผู้ป่วยโควิด 1 ราย เดินทางมาจากนนทบุรี พบเชื้อ 31 ธ.ค.63</t>
+    <t>อุบลราชธานี เผยไทม์ไลน์ผู้ป่วยโควิด 1 ราย เดินทางมาจากนนทบุรี พบเชื้อ 31 ธ.ค.63 (รายที่ 196 ของนนทบุรี)</t>
   </si>
   <si>
     <t>ร้านอาหารดังเชียงใหม่ สั่งปิด14วัน พบผู้ติดเชื้อโควิดใช้บริการ</t>
@@ -889,6 +922,9 @@
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
+    <t>นนทบุรีแจ้งไทม์ไลน์ ผู้ป่วยโควิด-19 ในพื้นที่ รายที่ 197,200</t>
+  </si>
+  <si>
     <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
@@ -1000,6 +1036,9 @@
     <t>https://www.facebook.com/earthpongsakornk/posts/436542727755628</t>
   </si>
   <si>
+    <t>https://www.sanook.com/news/8329394/</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
   </si>
   <si>
@@ -1073,6 +1112,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-585006</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9630000134214</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
@@ -1474,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1550,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1591,22 +1633,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1635,22 +1677,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1679,22 +1721,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1723,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J6" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1767,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1811,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1855,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1899,22 +1941,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1943,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1987,22 +2029,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L12" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2031,22 +2073,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J13" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L13" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2075,22 +2117,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J14" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2119,22 +2161,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I15" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J15" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L15" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2163,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L16" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2207,22 +2249,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L17" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2251,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I18" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L18" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2307,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2339,22 +2381,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L20" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2383,22 +2425,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2427,22 +2469,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2471,22 +2513,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2515,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2559,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2603,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2647,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2691,22 +2733,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2735,22 +2777,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2779,22 +2821,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2823,22 +2865,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2867,22 +2909,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2911,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2955,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2999,22 +3041,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3043,22 +3085,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3099,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3143,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3178,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3219,22 +3261,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J40" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3263,22 +3305,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J41" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3310,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J42" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3354,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J43" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3398,19 +3440,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J44" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L44" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3442,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J45" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3483,22 +3525,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J46" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L46" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3527,22 +3569,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J47" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3571,22 +3613,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I48" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L48" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3615,22 +3657,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I49" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J49" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3659,22 +3701,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I50" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J50" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3703,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J51" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3747,22 +3789,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I52" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J52" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3791,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J53" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3835,22 +3877,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3879,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I55" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J55" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L55" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3923,22 +3965,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J56" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K56" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3967,22 +4009,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K57" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4011,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I58" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4055,22 +4097,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J59" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K59" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4099,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I60" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K60" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L60" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4143,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I61" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L61" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4187,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I62" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J62" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4231,22 +4273,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I63" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J63" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K63" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4275,22 +4317,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I64" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J64" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K64" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L64" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4331,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4375,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4419,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4463,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4477,40 +4519,40 @@
         <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D69" t="s">
         <v>84</v>
       </c>
       <c r="E69">
-        <v>13.8781452</v>
+        <v>13.87703702</v>
       </c>
       <c r="F69">
-        <v>100.4091302</v>
+        <v>100.4112297</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
-        <v>230</v>
-      </c>
-      <c r="I69" t="s">
-        <v>233</v>
-      </c>
-      <c r="J69" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" t="s">
-        <v>231</v>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4518,10 +4560,10 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2">
         <v>44186</v>
@@ -4530,31 +4572,31 @@
         <v>85</v>
       </c>
       <c r="E70">
-        <v>13.70807262</v>
+        <v>13.8781452</v>
       </c>
       <c r="F70">
-        <v>100.59964</v>
+        <v>100.4091302</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I70" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J70" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K70" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L70" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4574,31 +4616,31 @@
         <v>86</v>
       </c>
       <c r="E71">
-        <v>13.78051515</v>
+        <v>13.70807262</v>
       </c>
       <c r="F71">
-        <v>100.4226823</v>
+        <v>100.59964</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I71" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J71" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K71" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L71" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4618,31 +4660,31 @@
         <v>87</v>
       </c>
       <c r="E72">
-        <v>13.7355293</v>
+        <v>13.78051515</v>
       </c>
       <c r="F72">
-        <v>100.5979688</v>
+        <v>100.4226823</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I72" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J72" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K72" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L72" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4662,31 +4704,31 @@
         <v>88</v>
       </c>
       <c r="E73">
-        <v>13.73406154</v>
+        <v>13.7355293</v>
       </c>
       <c r="F73">
-        <v>100.5967948</v>
+        <v>100.5979688</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I73" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J73" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K73" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L73" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4706,31 +4748,31 @@
         <v>89</v>
       </c>
       <c r="E74">
-        <v>13.7738673</v>
+        <v>13.73406154</v>
       </c>
       <c r="F74">
-        <v>100.5093218</v>
+        <v>100.5967948</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I74" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J74" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K74" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L74" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4750,31 +4792,31 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>13.82650614</v>
+        <v>13.7738673</v>
       </c>
       <c r="F75">
-        <v>100.4860605</v>
+        <v>100.5093218</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I75" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J75" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K75" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L75" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4794,31 +4836,31 @@
         <v>91</v>
       </c>
       <c r="E76">
-        <v>13.79667017</v>
+        <v>13.82650614</v>
       </c>
       <c r="F76">
-        <v>100.5516735</v>
+        <v>100.4860605</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" t="s">
+        <v>243</v>
+      </c>
+      <c r="J76" t="s">
+        <v>245</v>
+      </c>
+      <c r="K76" t="s">
+        <v>241</v>
       </c>
       <c r="L76" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4838,10 +4880,10 @@
         <v>92</v>
       </c>
       <c r="E77">
-        <v>13.72655096</v>
+        <v>13.79667017</v>
       </c>
       <c r="F77">
-        <v>100.5102552</v>
+        <v>100.5516735</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4862,7 +4904,7 @@
         <v>255</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4882,10 +4924,10 @@
         <v>93</v>
       </c>
       <c r="E78">
-        <v>13.69580853</v>
+        <v>13.72655096</v>
       </c>
       <c r="F78">
-        <v>100.5133688</v>
+        <v>100.5102552</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4903,10 +4945,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4926,10 +4968,10 @@
         <v>94</v>
       </c>
       <c r="E79">
-        <v>13.76772134</v>
+        <v>13.69580853</v>
       </c>
       <c r="F79">
-        <v>100.502025</v>
+        <v>100.5133688</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4947,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4964,16 +5006,16 @@
         <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D80" t="s">
         <v>95</v>
       </c>
       <c r="E80">
-        <v>13.73541413</v>
+        <v>13.76772134</v>
       </c>
       <c r="F80">
-        <v>100.5877998</v>
+        <v>100.502025</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4981,20 +5023,20 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>233</v>
-      </c>
-      <c r="J80" t="s">
-        <v>235</v>
-      </c>
-      <c r="K80" t="s">
-        <v>231</v>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5014,10 +5056,10 @@
         <v>96</v>
       </c>
       <c r="E81">
-        <v>13.78766192</v>
+        <v>13.73541413</v>
       </c>
       <c r="F81">
-        <v>100.5105938</v>
+        <v>100.5877998</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5026,19 +5068,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J81" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K81" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L81" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5049,7 +5091,7 @@
         <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2">
         <v>44187</v>
@@ -5058,31 +5100,31 @@
         <v>97</v>
       </c>
       <c r="E82">
-        <v>13.5951449</v>
+        <v>13.78766192</v>
       </c>
       <c r="F82">
-        <v>100.5802135</v>
+        <v>100.5105938</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
-        <v>230</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J82" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L82" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5093,7 +5135,7 @@
         <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C83" s="2">
         <v>44187</v>
@@ -5102,31 +5144,31 @@
         <v>98</v>
       </c>
       <c r="E83">
-        <v>13.803038</v>
+        <v>13.5951449</v>
       </c>
       <c r="F83">
-        <v>100.188902</v>
+        <v>100.5802135</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J83" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L83" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5146,31 +5188,31 @@
         <v>99</v>
       </c>
       <c r="E84">
-        <v>13.802143</v>
+        <v>13.803038</v>
       </c>
       <c r="F84">
-        <v>100.19</v>
+        <v>100.188902</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I84" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J84" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K84" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L84" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5190,31 +5232,31 @@
         <v>100</v>
       </c>
       <c r="E85">
-        <v>13.928974</v>
+        <v>13.802143</v>
       </c>
       <c r="F85">
-        <v>100.577365</v>
+        <v>100.19</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I85" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J85" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K85" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L85" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5234,31 +5276,31 @@
         <v>101</v>
       </c>
       <c r="E86">
-        <v>13.929686</v>
+        <v>13.928974</v>
       </c>
       <c r="F86">
-        <v>100.576</v>
+        <v>100.577365</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I86" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J86" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K86" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L86" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5278,31 +5320,31 @@
         <v>102</v>
       </c>
       <c r="E87">
-        <v>13.76033018</v>
+        <v>13.929686</v>
       </c>
       <c r="F87">
-        <v>100.4796436</v>
+        <v>100.576</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I87" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J87" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K87" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L87" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5322,31 +5364,31 @@
         <v>103</v>
       </c>
       <c r="E88">
-        <v>13.82853997</v>
+        <v>13.76033018</v>
       </c>
       <c r="F88">
-        <v>100.4842102</v>
+        <v>100.4796436</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I88" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J88" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K88" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5366,31 +5408,31 @@
         <v>104</v>
       </c>
       <c r="E89">
-        <v>14.01020378</v>
+        <v>13.82853997</v>
       </c>
       <c r="F89">
-        <v>100.1768909</v>
+        <v>100.4842102</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I89" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J89" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K89" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L89" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5410,31 +5452,31 @@
         <v>105</v>
       </c>
       <c r="E90">
-        <v>14.04839109</v>
+        <v>14.01020378</v>
       </c>
       <c r="F90">
-        <v>100.0198852</v>
+        <v>100.1768909</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I90" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J90" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K90" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5454,31 +5496,31 @@
         <v>106</v>
       </c>
       <c r="E91">
-        <v>13.80175861</v>
+        <v>14.04839109</v>
       </c>
       <c r="F91">
-        <v>100.3053076</v>
+        <v>100.0198852</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I91" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J91" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K91" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L91" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5498,31 +5540,31 @@
         <v>107</v>
       </c>
       <c r="E92">
-        <v>13.60633251</v>
+        <v>13.80175861</v>
       </c>
       <c r="F92">
-        <v>100.4036543</v>
+        <v>100.3053076</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
+      <c r="H92" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" t="s">
+        <v>243</v>
+      </c>
+      <c r="J92" t="s">
+        <v>245</v>
+      </c>
+      <c r="K92" t="s">
+        <v>241</v>
       </c>
       <c r="L92" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5542,10 +5584,10 @@
         <v>108</v>
       </c>
       <c r="E93">
-        <v>13.78396755</v>
+        <v>13.60633251</v>
       </c>
       <c r="F93">
-        <v>100.4713623</v>
+        <v>100.4036543</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5563,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5586,10 +5628,10 @@
         <v>109</v>
       </c>
       <c r="E94">
-        <v>13.76051919</v>
+        <v>13.78396755</v>
       </c>
       <c r="F94">
-        <v>100.4744225</v>
+        <v>100.4713623</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5607,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5621,7 +5663,7 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="2">
         <v>44187</v>
@@ -5630,10 +5672,10 @@
         <v>110</v>
       </c>
       <c r="E95">
-        <v>13.72086517</v>
+        <v>13.76051919</v>
       </c>
       <c r="F95">
-        <v>100.4724448</v>
+        <v>100.4744225</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5651,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5662,22 +5704,22 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D96" t="s">
         <v>111</v>
       </c>
       <c r="E96">
-        <v>13.7243591</v>
+        <v>13.72086517</v>
       </c>
       <c r="F96">
-        <v>100.5386589</v>
+        <v>100.4724448</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5685,20 +5727,20 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>233</v>
-      </c>
-      <c r="J96" t="s">
-        <v>235</v>
-      </c>
-      <c r="K96" t="s">
-        <v>231</v>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5718,31 +5760,31 @@
         <v>112</v>
       </c>
       <c r="E97">
-        <v>13.54974685</v>
+        <v>13.7243591</v>
       </c>
       <c r="F97">
-        <v>100.2561435</v>
+        <v>100.5386589</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" t="s">
-        <v>232</v>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J97" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K97" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L97" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5762,31 +5804,31 @@
         <v>113</v>
       </c>
       <c r="E98">
-        <v>14.45160513</v>
+        <v>13.54974685</v>
       </c>
       <c r="F98">
-        <v>100.7230585</v>
+        <v>100.2561435</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I98" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J98" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K98" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L98" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5794,10 +5836,10 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C99" s="2">
         <v>44188</v>
@@ -5806,31 +5848,31 @@
         <v>114</v>
       </c>
       <c r="E99">
-        <v>13.2054213</v>
+        <v>14.45160513</v>
       </c>
       <c r="F99">
-        <v>99.9793013</v>
+        <v>100.7230585</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>0</v>
+      <c r="H99" t="s">
+        <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J99" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K99" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L99" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5838,10 +5880,10 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2">
         <v>44188</v>
@@ -5850,31 +5892,31 @@
         <v>115</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
-        <v>231</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J100" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K100" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L100" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5894,31 +5936,31 @@
         <v>116</v>
       </c>
       <c r="E101">
-        <v>13.802283</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>100.184509</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I101" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J101" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K101" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L101" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5938,31 +5980,31 @@
         <v>117</v>
       </c>
       <c r="E102">
-        <v>13.91857</v>
+        <v>13.802283</v>
       </c>
       <c r="F102">
-        <v>100.601606</v>
+        <v>100.184509</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I102" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J102" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K102" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L102" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5982,31 +6024,31 @@
         <v>118</v>
       </c>
       <c r="E103">
-        <v>13.6171972</v>
+        <v>13.91857</v>
       </c>
       <c r="F103">
-        <v>100.3791504</v>
+        <v>100.601606</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I103" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J103" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K103" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L103" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6026,31 +6068,31 @@
         <v>119</v>
       </c>
       <c r="E104">
-        <v>12.66469676</v>
+        <v>13.6171972</v>
       </c>
       <c r="F104">
-        <v>102.1037094</v>
+        <v>100.3791504</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J104" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K104" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L104" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6070,31 +6112,31 @@
         <v>120</v>
       </c>
       <c r="E105">
-        <v>13.86149331</v>
+        <v>12.66469676</v>
       </c>
       <c r="F105">
-        <v>100.6434383</v>
+        <v>102.1037094</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>240</v>
+      </c>
+      <c r="I105" t="s">
+        <v>243</v>
+      </c>
+      <c r="J105" t="s">
+        <v>245</v>
+      </c>
+      <c r="K105" t="s">
+        <v>241</v>
       </c>
       <c r="L105" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6114,10 +6156,10 @@
         <v>121</v>
       </c>
       <c r="E106">
-        <v>13.84500752</v>
+        <v>13.86149331</v>
       </c>
       <c r="F106">
-        <v>100.6352673</v>
+        <v>100.6434383</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6135,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6158,10 +6200,10 @@
         <v>122</v>
       </c>
       <c r="E107">
-        <v>13.67744471</v>
+        <v>13.84500752</v>
       </c>
       <c r="F107">
-        <v>100.3450652</v>
+        <v>100.6352673</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6179,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6202,10 +6244,10 @@
         <v>123</v>
       </c>
       <c r="E108">
-        <v>13.77009632</v>
+        <v>13.67744471</v>
       </c>
       <c r="F108">
-        <v>100.5039461</v>
+        <v>100.3450652</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6223,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6246,10 +6288,10 @@
         <v>124</v>
       </c>
       <c r="E109">
-        <v>13.76948528</v>
+        <v>13.77009632</v>
       </c>
       <c r="F109">
-        <v>100.5044662</v>
+        <v>100.5039461</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6267,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6284,37 +6326,37 @@
         <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D110" t="s">
         <v>125</v>
       </c>
       <c r="E110">
-        <v>13.721681</v>
+        <v>13.76948528</v>
       </c>
       <c r="F110">
-        <v>100.53</v>
+        <v>100.5044662</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
-        <v>231</v>
-      </c>
-      <c r="I110" t="s">
-        <v>233</v>
-      </c>
-      <c r="J110" t="s">
-        <v>235</v>
-      </c>
-      <c r="K110" t="s">
-        <v>231</v>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6325,7 +6367,7 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
         <v>44189</v>
@@ -6334,31 +6376,31 @@
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.9134431</v>
+        <v>13.721681</v>
       </c>
       <c r="F111">
-        <v>100.4220473</v>
+        <v>100.53</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I111" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="J111" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K111" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L111" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6369,7 +6411,7 @@
         <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C112" s="2">
         <v>44189</v>
@@ -6378,31 +6420,31 @@
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.786588</v>
+        <v>13.9134431</v>
       </c>
       <c r="F112">
-        <v>100.321233</v>
+        <v>100.4220473</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I112" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J112" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K112" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L112" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6413,7 +6455,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="2">
         <v>44189</v>
@@ -6422,31 +6464,31 @@
         <v>128</v>
       </c>
       <c r="E113">
-        <v>13.8017434</v>
+        <v>13.786588</v>
       </c>
       <c r="F113">
-        <v>100.1879465</v>
+        <v>100.321233</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I113" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J113" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K113" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L113" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6457,7 +6499,7 @@
         <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2">
         <v>44189</v>
@@ -6466,31 +6508,31 @@
         <v>129</v>
       </c>
       <c r="E114">
-        <v>13.81456113</v>
+        <v>13.8017434</v>
       </c>
       <c r="F114">
-        <v>100.0630594</v>
+        <v>100.1879465</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I114" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J114" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K114" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L114" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6510,31 +6552,31 @@
         <v>130</v>
       </c>
       <c r="E115">
-        <v>12.68783188</v>
+        <v>13.81456113</v>
       </c>
       <c r="F115">
-        <v>101.2114545</v>
+        <v>100.0630594</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I115" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J115" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K115" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L115" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6554,31 +6596,31 @@
         <v>131</v>
       </c>
       <c r="E116">
-        <v>13.67342423</v>
+        <v>12.68783188</v>
       </c>
       <c r="F116">
-        <v>100.6069256</v>
+        <v>101.2114545</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I116" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J116" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K116" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L116" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6598,31 +6640,31 @@
         <v>132</v>
       </c>
       <c r="E117">
-        <v>13.6680206</v>
+        <v>13.67342423</v>
       </c>
       <c r="F117">
-        <v>100.6354649</v>
+        <v>100.6069256</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I117" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J117" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K117" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L117" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6642,31 +6684,31 @@
         <v>133</v>
       </c>
       <c r="E118">
-        <v>13.88903855</v>
+        <v>13.6680206</v>
       </c>
       <c r="F118">
-        <v>100.6576064</v>
+        <v>100.6354649</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>241</v>
+      </c>
+      <c r="I118" t="s">
+        <v>243</v>
+      </c>
+      <c r="J118" t="s">
+        <v>245</v>
+      </c>
+      <c r="K118" t="s">
+        <v>241</v>
       </c>
       <c r="L118" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6686,10 +6728,10 @@
         <v>134</v>
       </c>
       <c r="E119">
-        <v>13.71110566</v>
+        <v>13.88903855</v>
       </c>
       <c r="F119">
-        <v>100.4158636</v>
+        <v>100.6576064</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6707,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6730,10 +6772,10 @@
         <v>135</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>13.71110566</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>100.4158636</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6751,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6774,10 +6816,10 @@
         <v>136</v>
       </c>
       <c r="E121">
-        <v>13.91716059</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>100.4212109</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6795,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6818,10 +6860,10 @@
         <v>137</v>
       </c>
       <c r="E122">
-        <v>13.98026263</v>
+        <v>13.91716059</v>
       </c>
       <c r="F122">
-        <v>100.3148877</v>
+        <v>100.4212109</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6839,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6862,10 +6904,10 @@
         <v>138</v>
       </c>
       <c r="E123">
-        <v>13.87612007</v>
+        <v>13.98026263</v>
       </c>
       <c r="F123">
-        <v>100.4091692</v>
+        <v>100.3148877</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6883,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6906,10 +6948,10 @@
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.7392405</v>
+        <v>13.87612007</v>
       </c>
       <c r="F124">
-        <v>100.5167889</v>
+        <v>100.4091692</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6927,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6950,10 +6992,10 @@
         <v>140</v>
       </c>
       <c r="E125">
-        <v>13.7773423</v>
+        <v>13.7392405</v>
       </c>
       <c r="F125">
-        <v>100.4852567</v>
+        <v>100.5167889</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6971,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6994,10 +7036,10 @@
         <v>141</v>
       </c>
       <c r="E126">
-        <v>13.80601718</v>
+        <v>13.7773423</v>
       </c>
       <c r="F126">
-        <v>100.5736064</v>
+        <v>100.4852567</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -7015,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7032,37 +7074,37 @@
         <v>14</v>
       </c>
       <c r="C127" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D127" t="s">
         <v>142</v>
       </c>
       <c r="E127">
-        <v>13.924252</v>
+        <v>13.80601718</v>
       </c>
       <c r="F127">
-        <v>100.597945</v>
+        <v>100.5736064</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
-        <v>231</v>
-      </c>
-      <c r="I127" t="s">
-        <v>233</v>
-      </c>
-      <c r="J127" t="s">
-        <v>235</v>
-      </c>
-      <c r="K127" t="s">
-        <v>231</v>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7076,37 +7118,37 @@
         <v>14</v>
       </c>
       <c r="C128" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D128" t="s">
         <v>143</v>
       </c>
       <c r="E128">
-        <v>12.69670286</v>
+        <v>13.75435309</v>
       </c>
       <c r="F128">
-        <v>101.2683573</v>
+        <v>100.540321</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
-        <v>230</v>
-      </c>
-      <c r="I128" t="s">
-        <v>233</v>
-      </c>
-      <c r="J128" t="s">
-        <v>235</v>
-      </c>
-      <c r="K128" t="s">
-        <v>231</v>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7126,31 +7168,31 @@
         <v>144</v>
       </c>
       <c r="E129">
-        <v>12.69574994</v>
+        <v>13.924252</v>
       </c>
       <c r="F129">
-        <v>101.2674706</v>
+        <v>100.597945</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I129" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J129" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K129" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7170,31 +7212,31 @@
         <v>145</v>
       </c>
       <c r="E130">
-        <v>13.71190173</v>
+        <v>12.69670286</v>
       </c>
       <c r="F130">
-        <v>100.4224456</v>
+        <v>101.2683573</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
+      <c r="H130" t="s">
+        <v>240</v>
+      </c>
+      <c r="I130" t="s">
+        <v>243</v>
+      </c>
+      <c r="J130" t="s">
+        <v>245</v>
+      </c>
+      <c r="K130" t="s">
+        <v>241</v>
       </c>
       <c r="L130" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7214,31 +7256,31 @@
         <v>146</v>
       </c>
       <c r="E131">
-        <v>13.80614397</v>
+        <v>12.69574994</v>
       </c>
       <c r="F131">
-        <v>100.5307221</v>
+        <v>101.2674706</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
+      <c r="H131" t="s">
+        <v>240</v>
+      </c>
+      <c r="I131" t="s">
+        <v>243</v>
+      </c>
+      <c r="J131" t="s">
+        <v>245</v>
+      </c>
+      <c r="K131" t="s">
+        <v>241</v>
       </c>
       <c r="L131" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7258,10 +7300,10 @@
         <v>147</v>
       </c>
       <c r="E132">
-        <v>13.78786299</v>
+        <v>13.71190173</v>
       </c>
       <c r="F132">
-        <v>100.4828396</v>
+        <v>100.4224456</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7279,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7302,10 +7344,10 @@
         <v>148</v>
       </c>
       <c r="E133">
-        <v>13.77791571</v>
+        <v>13.80614397</v>
       </c>
       <c r="F133">
-        <v>100.4766994</v>
+        <v>100.5307221</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7323,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7337,7 +7379,7 @@
         <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C134" s="2">
         <v>44190</v>
@@ -7346,10 +7388,10 @@
         <v>149</v>
       </c>
       <c r="E134">
-        <v>18.80731097</v>
+        <v>13.78786299</v>
       </c>
       <c r="F134">
-        <v>98.96283674999999</v>
+        <v>100.4828396</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7367,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7390,10 +7432,10 @@
         <v>150</v>
       </c>
       <c r="E135">
-        <v>13.7707636</v>
+        <v>13.77791571</v>
       </c>
       <c r="F135">
-        <v>100.4680689</v>
+        <v>100.4766994</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7411,10 +7453,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7425,7 +7467,7 @@
         <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C136" s="2">
         <v>44190</v>
@@ -7434,10 +7476,10 @@
         <v>151</v>
       </c>
       <c r="E136">
-        <v>13.5455515</v>
+        <v>18.80731097</v>
       </c>
       <c r="F136">
-        <v>100.2767451</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7455,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7478,10 +7520,10 @@
         <v>152</v>
       </c>
       <c r="E137">
-        <v>13.99716298</v>
+        <v>13.7707636</v>
       </c>
       <c r="F137">
-        <v>100.3271499</v>
+        <v>100.4680689</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7499,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7522,10 +7564,10 @@
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.76007797</v>
+        <v>13.5455515</v>
       </c>
       <c r="F138">
-        <v>100.5098955</v>
+        <v>100.2767451</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7543,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7566,10 +7608,10 @@
         <v>154</v>
       </c>
       <c r="E139">
-        <v>13.78946193</v>
+        <v>13.99716298</v>
       </c>
       <c r="F139">
-        <v>100.5154583</v>
+        <v>100.3271499</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7587,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7610,10 +7652,10 @@
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.72722747</v>
+        <v>13.76007797</v>
       </c>
       <c r="F140">
-        <v>100.5965396</v>
+        <v>100.5098955</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7631,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7654,10 +7696,10 @@
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.67587015</v>
+        <v>13.78946193</v>
       </c>
       <c r="F141">
-        <v>100.590999</v>
+        <v>100.5154583</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7675,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7698,10 +7740,10 @@
         <v>157</v>
       </c>
       <c r="E142">
-        <v>13.75402516</v>
+        <v>13.72722747</v>
       </c>
       <c r="F142">
-        <v>100.5152946</v>
+        <v>100.5965396</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7719,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7730,22 +7772,22 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C143" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D143" t="s">
         <v>158</v>
       </c>
       <c r="E143">
-        <v>13.734066</v>
+        <v>13.67587015</v>
       </c>
       <c r="F143">
-        <v>100.5278354</v>
+        <v>100.590999</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7763,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7774,22 +7816,22 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D144" t="s">
         <v>159</v>
       </c>
       <c r="E144">
-        <v>12.6483736</v>
+        <v>13.75402516</v>
       </c>
       <c r="F144">
-        <v>101.2273679</v>
+        <v>100.5152946</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7807,10 +7849,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7818,43 +7860,43 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D145" t="s">
         <v>160</v>
       </c>
       <c r="E145">
-        <v>12.69691038</v>
+        <v>13.79776156</v>
       </c>
       <c r="F145">
-        <v>101.268451</v>
+        <v>100.5088935</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" t="s">
-        <v>230</v>
-      </c>
-      <c r="I145" t="s">
-        <v>233</v>
-      </c>
-      <c r="J145" t="s">
-        <v>235</v>
-      </c>
-      <c r="K145" t="s">
-        <v>231</v>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7862,43 +7904,43 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
       <c r="C146" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D146" t="s">
         <v>161</v>
       </c>
       <c r="E146">
-        <v>12.66695256</v>
+        <v>13.76620466</v>
       </c>
       <c r="F146">
-        <v>101.2738756</v>
+        <v>100.5701576</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" t="s">
-        <v>230</v>
-      </c>
-      <c r="I146" t="s">
-        <v>233</v>
-      </c>
-      <c r="J146" t="s">
-        <v>235</v>
-      </c>
-      <c r="K146" t="s">
-        <v>231</v>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7906,22 +7948,22 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D147" t="s">
         <v>162</v>
       </c>
       <c r="E147">
-        <v>13.86265154</v>
+        <v>13.76651219</v>
       </c>
       <c r="F147">
-        <v>100.6432858</v>
+        <v>100.5696077</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7939,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7953,7 +7995,7 @@
         <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C148" s="2">
         <v>44191</v>
@@ -7962,10 +8004,10 @@
         <v>163</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>13.734066</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>100.5278354</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7983,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7997,7 +8039,7 @@
         <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C149" s="2">
         <v>44191</v>
@@ -8006,10 +8048,10 @@
         <v>164</v>
       </c>
       <c r="E149">
-        <v>13.7831563</v>
+        <v>12.6483736</v>
       </c>
       <c r="F149">
-        <v>100.5154952</v>
+        <v>101.2273679</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -8027,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8041,40 +8083,40 @@
         <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D150" t="s">
         <v>165</v>
       </c>
       <c r="E150">
-        <v>12.6844183</v>
+        <v>12.69691038</v>
       </c>
       <c r="F150">
-        <v>101.2742991</v>
+        <v>101.268451</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
+      <c r="H150" t="s">
+        <v>240</v>
+      </c>
+      <c r="I150" t="s">
+        <v>243</v>
+      </c>
+      <c r="J150" t="s">
+        <v>245</v>
       </c>
       <c r="K150" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8085,40 +8127,40 @@
         <v>211</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D151" t="s">
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.9730033</v>
+        <v>12.66695256</v>
       </c>
       <c r="F151">
-        <v>100.9029061</v>
+        <v>101.2738756</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
+      <c r="H151" t="s">
+        <v>240</v>
+      </c>
+      <c r="I151" t="s">
+        <v>243</v>
+      </c>
+      <c r="J151" t="s">
+        <v>245</v>
       </c>
       <c r="K151" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8132,16 +8174,16 @@
         <v>14</v>
       </c>
       <c r="C152" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D152" t="s">
         <v>167</v>
       </c>
       <c r="E152">
-        <v>13.7946069</v>
+        <v>13.86265154</v>
       </c>
       <c r="F152">
-        <v>100.5161808</v>
+        <v>100.6432858</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8155,14 +8197,14 @@
       <c r="J152">
         <v>0</v>
       </c>
-      <c r="K152" t="s">
-        <v>231</v>
+      <c r="K152">
+        <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8176,37 +8218,37 @@
         <v>14</v>
       </c>
       <c r="C153" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D153" t="s">
         <v>168</v>
       </c>
       <c r="E153">
-        <v>13.54448567</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>100.2752027</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153" t="s">
-        <v>230</v>
-      </c>
-      <c r="I153" t="s">
-        <v>233</v>
-      </c>
-      <c r="J153" t="s">
-        <v>235</v>
-      </c>
-      <c r="K153" t="s">
-        <v>231</v>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8220,16 +8262,16 @@
         <v>14</v>
       </c>
       <c r="C154" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D154" t="s">
         <v>169</v>
       </c>
       <c r="E154">
-        <v>13.67424547</v>
+        <v>13.7831563</v>
       </c>
       <c r="F154">
-        <v>100.426448</v>
+        <v>100.5154952</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8247,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8264,16 +8306,16 @@
         <v>14</v>
       </c>
       <c r="C155" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D155" t="s">
         <v>170</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>13.85626845</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>100.5418055</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8291,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8305,7 +8347,7 @@
         <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C156" s="2">
         <v>44192</v>
@@ -8314,10 +8356,10 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>12.6844183</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>101.2742991</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8331,14 +8373,14 @@
       <c r="J156">
         <v>0</v>
       </c>
-      <c r="K156">
-        <v>0</v>
+      <c r="K156" t="s">
+        <v>241</v>
       </c>
       <c r="L156" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8349,40 +8391,40 @@
         <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D157" t="s">
         <v>172</v>
       </c>
       <c r="E157">
-        <v>13.73545544</v>
+        <v>12.9730033</v>
       </c>
       <c r="F157">
-        <v>100.5661584</v>
+        <v>100.9029061</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" t="s">
-        <v>231</v>
-      </c>
-      <c r="I157" t="s">
-        <v>233</v>
-      </c>
-      <c r="J157" t="s">
-        <v>235</v>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L157" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8396,16 +8438,16 @@
         <v>14</v>
       </c>
       <c r="C158" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D158" t="s">
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.91669065</v>
+        <v>13.7946069</v>
       </c>
       <c r="F158">
-        <v>100.397828</v>
+        <v>100.5161808</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8419,14 +8461,14 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158">
-        <v>0</v>
+      <c r="K158" t="s">
+        <v>241</v>
       </c>
       <c r="L158" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8440,37 +8482,37 @@
         <v>14</v>
       </c>
       <c r="C159" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D159" t="s">
         <v>174</v>
       </c>
       <c r="E159">
-        <v>13.76710313</v>
+        <v>13.54448567</v>
       </c>
       <c r="F159">
-        <v>100.5328623</v>
+        <v>100.2752027</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
+      <c r="H159" t="s">
+        <v>240</v>
+      </c>
+      <c r="I159" t="s">
+        <v>243</v>
+      </c>
+      <c r="J159" t="s">
+        <v>245</v>
+      </c>
+      <c r="K159" t="s">
+        <v>241</v>
       </c>
       <c r="L159" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8484,16 +8526,16 @@
         <v>14</v>
       </c>
       <c r="C160" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D160" t="s">
         <v>175</v>
       </c>
       <c r="E160">
-        <v>13.7495748</v>
+        <v>13.67424547</v>
       </c>
       <c r="F160">
-        <v>100.5157013</v>
+        <v>100.426448</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8511,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8525,40 +8567,40 @@
         <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D161" t="s">
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.9098775</v>
+        <v>13.94010609</v>
       </c>
       <c r="F161">
-        <v>100.891563</v>
+        <v>100.5124853</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161" t="s">
-        <v>231</v>
-      </c>
-      <c r="I161" t="s">
-        <v>233</v>
-      </c>
-      <c r="J161" t="s">
-        <v>235</v>
-      </c>
-      <c r="K161" t="s">
-        <v>231</v>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8569,19 +8611,19 @@
         <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D162" t="s">
         <v>177</v>
       </c>
       <c r="E162">
-        <v>13.3535702</v>
+        <v>13.96674442</v>
       </c>
       <c r="F162">
-        <v>100.9765439</v>
+        <v>100.5302521</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8595,14 +8637,14 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162" t="s">
-        <v>231</v>
+      <c r="K162">
+        <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8613,19 +8655,19 @@
         <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C163" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D163" t="s">
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.948902</v>
+        <v>13.8766052</v>
       </c>
       <c r="F163">
-        <v>100.891292</v>
+        <v>100.4449333</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8639,14 +8681,14 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163" t="s">
-        <v>231</v>
+      <c r="K163">
+        <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8657,19 +8699,19 @@
         <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D164" t="s">
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.6495877</v>
+        <v>13.85555825</v>
       </c>
       <c r="F164">
-        <v>102.0329425</v>
+        <v>100.5424068</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8683,14 +8725,14 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164" t="s">
-        <v>231</v>
+      <c r="K164">
+        <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8701,40 +8743,40 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D165" t="s">
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.3757564</v>
+        <v>13.73545544</v>
       </c>
       <c r="F165">
-        <v>102.3818628</v>
+        <v>100.5661584</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
+      <c r="H165" t="s">
+        <v>241</v>
+      </c>
+      <c r="I165" t="s">
+        <v>243</v>
+      </c>
+      <c r="J165" t="s">
+        <v>245</v>
       </c>
       <c r="K165" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L165" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8745,19 +8787,19 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D166" t="s">
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.7246169</v>
+        <v>13.91669065</v>
       </c>
       <c r="F166">
-        <v>101.9362794</v>
+        <v>100.397828</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8771,14 +8813,14 @@
       <c r="J166">
         <v>0</v>
       </c>
-      <c r="K166" t="s">
-        <v>231</v>
+      <c r="K166">
+        <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8789,19 +8831,19 @@
         <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C167" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D167" t="s">
         <v>182</v>
       </c>
       <c r="E167">
-        <v>13.772986</v>
+        <v>13.76710313</v>
       </c>
       <c r="F167">
-        <v>100.4855148</v>
+        <v>100.5328623</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8815,14 +8857,14 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167" t="s">
-        <v>231</v>
+      <c r="K167">
+        <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8833,19 +8875,19 @@
         <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C168" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D168" t="s">
         <v>183</v>
       </c>
       <c r="E168">
-        <v>12.90895904</v>
+        <v>13.7495748</v>
       </c>
       <c r="F168">
-        <v>100.891925</v>
+        <v>100.5157013</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8863,10 +8905,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8877,19 +8919,19 @@
         <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C169" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D169" t="s">
         <v>184</v>
       </c>
       <c r="E169">
-        <v>12.90960418</v>
+        <v>13.86015375</v>
       </c>
       <c r="F169">
-        <v>100.870256</v>
+        <v>100.5133052</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8907,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8921,19 +8963,19 @@
         <v>230</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C170" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D170" t="s">
         <v>185</v>
       </c>
       <c r="E170">
-        <v>12.93047726</v>
+        <v>13.85554623</v>
       </c>
       <c r="F170">
-        <v>100.8807229</v>
+        <v>100.5420379</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8951,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8965,7 +9007,7 @@
         <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C171" s="2">
         <v>44194</v>
@@ -8974,31 +9016,31 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>12.9098775</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>100.891563</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
+      <c r="H171" t="s">
+        <v>241</v>
+      </c>
+      <c r="I171" t="s">
+        <v>243</v>
+      </c>
+      <c r="J171" t="s">
+        <v>245</v>
+      </c>
+      <c r="K171" t="s">
+        <v>241</v>
       </c>
       <c r="L171" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9009,7 +9051,7 @@
         <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C172" s="2">
         <v>44194</v>
@@ -9018,10 +9060,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>12.66219926</v>
+        <v>13.3535702</v>
       </c>
       <c r="F172">
-        <v>100.8989779</v>
+        <v>100.9765439</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9035,14 +9077,14 @@
       <c r="J172">
         <v>0</v>
       </c>
-      <c r="K172">
-        <v>0</v>
+      <c r="K172" t="s">
+        <v>241</v>
       </c>
       <c r="L172" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9062,10 +9104,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>13.32877789</v>
+        <v>12.948902</v>
       </c>
       <c r="F173">
-        <v>100.9230017</v>
+        <v>100.891292</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9079,14 +9121,14 @@
       <c r="J173">
         <v>0</v>
       </c>
-      <c r="K173">
-        <v>0</v>
+      <c r="K173" t="s">
+        <v>241</v>
       </c>
       <c r="L173" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9097,7 +9139,7 @@
         <v>234</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C174" s="2">
         <v>44194</v>
@@ -9106,10 +9148,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>13.33615653</v>
+        <v>12.6495877</v>
       </c>
       <c r="F174">
-        <v>100.9694597</v>
+        <v>102.0329425</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9123,14 +9165,14 @@
       <c r="J174">
         <v>0</v>
       </c>
-      <c r="K174">
-        <v>0</v>
+      <c r="K174" t="s">
+        <v>241</v>
       </c>
       <c r="L174" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9141,7 +9183,7 @@
         <v>235</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C175" s="2">
         <v>44194</v>
@@ -9150,10 +9192,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>12.83546656</v>
+        <v>12.3757564</v>
       </c>
       <c r="F175">
-        <v>100.967575</v>
+        <v>102.3818628</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9167,14 +9209,14 @@
       <c r="J175">
         <v>0</v>
       </c>
-      <c r="K175">
-        <v>0</v>
+      <c r="K175" t="s">
+        <v>241</v>
       </c>
       <c r="L175" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9185,7 +9227,7 @@
         <v>236</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C176" s="2">
         <v>44194</v>
@@ -9194,10 +9236,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>13.33545565</v>
+        <v>12.7246169</v>
       </c>
       <c r="F176">
-        <v>100.9249432</v>
+        <v>101.9362794</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9211,14 +9253,14 @@
       <c r="J176">
         <v>0</v>
       </c>
-      <c r="K176">
-        <v>0</v>
+      <c r="K176" t="s">
+        <v>241</v>
       </c>
       <c r="L176" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9238,10 +9280,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.33841928</v>
+        <v>13.772986</v>
       </c>
       <c r="F177">
-        <v>100.9526548</v>
+        <v>100.4855148</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9255,14 +9297,14 @@
       <c r="J177">
         <v>0</v>
       </c>
-      <c r="K177">
-        <v>0</v>
+      <c r="K177" t="s">
+        <v>241</v>
       </c>
       <c r="L177" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9282,10 +9324,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.68318129</v>
+        <v>12.90895904</v>
       </c>
       <c r="F178">
-        <v>101.2479341</v>
+        <v>100.891925</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9303,10 +9345,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9326,10 +9368,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.68178774</v>
+        <v>12.90960418</v>
       </c>
       <c r="F179">
-        <v>101.2804266</v>
+        <v>100.870256</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9347,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9370,10 +9412,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.67663309</v>
+        <v>12.93047726</v>
       </c>
       <c r="F180">
-        <v>101.2204609</v>
+        <v>100.8807229</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9391,10 +9433,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9414,10 +9456,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>12.67969829</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>101.2516232</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9435,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9458,10 +9500,10 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>12.67895072</v>
+        <v>12.66219926</v>
       </c>
       <c r="F182">
-        <v>101.2811971</v>
+        <v>100.8989779</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9479,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9502,10 +9544,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>12.69121623</v>
+        <v>13.32877789</v>
       </c>
       <c r="F183">
-        <v>101.2828322</v>
+        <v>100.9230017</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9523,10 +9565,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9546,10 +9588,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.61154131</v>
+        <v>13.33615653</v>
       </c>
       <c r="F184">
-        <v>102.105739</v>
+        <v>100.9694597</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9567,10 +9609,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9590,10 +9632,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.59875505</v>
+        <v>12.83546656</v>
       </c>
       <c r="F185">
-        <v>102.1108505</v>
+        <v>100.967575</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9611,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9634,10 +9676,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>13.33545565</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>100.9249432</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9655,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9678,10 +9720,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>13.33841928</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>100.9526548</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9699,10 +9741,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9722,10 +9764,10 @@
         <v>203</v>
       </c>
       <c r="E188">
-        <v>12.94007297</v>
+        <v>12.68318129</v>
       </c>
       <c r="F188">
-        <v>100.9198688</v>
+        <v>101.2479341</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -9743,10 +9785,10 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9766,10 +9808,10 @@
         <v>204</v>
       </c>
       <c r="E189">
-        <v>12.93500267</v>
+        <v>12.68178774</v>
       </c>
       <c r="F189">
-        <v>100.8828385</v>
+        <v>101.2804266</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -9787,10 +9829,10 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9810,10 +9852,10 @@
         <v>205</v>
       </c>
       <c r="E190">
-        <v>12.93302705</v>
+        <v>12.67663309</v>
       </c>
       <c r="F190">
-        <v>100.9013151</v>
+        <v>101.2204609</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -9831,10 +9873,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9854,10 +9896,10 @@
         <v>206</v>
       </c>
       <c r="E191">
-        <v>12.93124481</v>
+        <v>12.67969829</v>
       </c>
       <c r="F191">
-        <v>100.9008084</v>
+        <v>101.2516232</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -9875,10 +9917,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9898,10 +9940,10 @@
         <v>207</v>
       </c>
       <c r="E192">
-        <v>12.93038104</v>
+        <v>12.67895072</v>
       </c>
       <c r="F192">
-        <v>100.9126714</v>
+        <v>101.2811971</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -9919,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -9942,10 +9984,10 @@
         <v>208</v>
       </c>
       <c r="E193">
-        <v>12.84875767</v>
+        <v>12.69121623</v>
       </c>
       <c r="F193">
-        <v>100.9017</v>
+        <v>101.2828322</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -9963,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -9986,10 +10028,10 @@
         <v>209</v>
       </c>
       <c r="E194">
-        <v>12.90883138</v>
+        <v>12.61154131</v>
       </c>
       <c r="F194">
-        <v>100.8932458</v>
+        <v>102.105739</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10007,10 +10049,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10030,10 +10072,10 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>12.66362634</v>
+        <v>12.59875505</v>
       </c>
       <c r="F195">
-        <v>100.8981743</v>
+        <v>102.1108505</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10051,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10074,10 +10116,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>12.95074463</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>100.8933879</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10095,10 +10137,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10118,10 +10160,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>12.97880506</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>100.9430835</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10139,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10162,10 +10204,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>12.92662465</v>
+        <v>12.94007297</v>
       </c>
       <c r="F198">
-        <v>100.898605</v>
+        <v>100.9198688</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10183,10 +10225,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10206,10 +10248,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>12.98328283</v>
+        <v>12.93500267</v>
       </c>
       <c r="F199">
-        <v>100.9354783</v>
+        <v>100.8828385</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10227,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10250,10 +10292,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>12.98177123</v>
+        <v>12.93302705</v>
       </c>
       <c r="F200">
-        <v>100.9289336</v>
+        <v>100.9013151</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10271,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10294,10 +10336,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>13.01893524</v>
+        <v>12.93124481</v>
       </c>
       <c r="F201">
-        <v>100.932701</v>
+        <v>100.9008084</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10315,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10338,10 +10380,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>12.95555524</v>
+        <v>12.93038104</v>
       </c>
       <c r="F202">
-        <v>100.8987028</v>
+        <v>100.9126714</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10359,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10382,10 +10424,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.93944879</v>
+        <v>12.84875767</v>
       </c>
       <c r="F203">
-        <v>100.9021397</v>
+        <v>100.9017</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10403,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10426,10 +10468,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>12.75400498</v>
+        <v>12.90883138</v>
       </c>
       <c r="F204">
-        <v>100.9017967</v>
+        <v>100.8932458</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10447,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10470,10 +10512,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>12.69857571</v>
+        <v>12.66362634</v>
       </c>
       <c r="F205">
-        <v>100.8899412</v>
+        <v>100.8981743</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10491,10 +10533,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10505,7 +10547,7 @@
         <v>266</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C206" s="2">
         <v>44194</v>
@@ -10514,10 +10556,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>13.76238233</v>
+        <v>12.95074463</v>
       </c>
       <c r="F206">
-        <v>100.507696</v>
+        <v>100.8933879</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10535,10 +10577,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10549,7 +10591,7 @@
         <v>267</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C207" s="2">
         <v>44194</v>
@@ -10558,10 +10600,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>13.76254009</v>
+        <v>12.97880506</v>
       </c>
       <c r="F207">
-        <v>100.5075498</v>
+        <v>100.9430835</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10579,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10593,7 +10635,7 @@
         <v>268</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C208" s="2">
         <v>44194</v>
@@ -10602,10 +10644,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>13.92729422</v>
+        <v>12.92662465</v>
       </c>
       <c r="F208">
-        <v>100.5056386</v>
+        <v>100.898605</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10623,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10637,7 +10679,7 @@
         <v>269</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C209" s="2">
         <v>44194</v>
@@ -10646,10 +10688,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>12.98328283</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>100.9354783</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -10667,10 +10709,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10684,16 +10726,16 @@
         <v>17</v>
       </c>
       <c r="C210" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D210" t="s">
         <v>225</v>
       </c>
       <c r="E210">
-        <v>13.91532244</v>
+        <v>12.98177123</v>
       </c>
       <c r="F210">
-        <v>100.4236653</v>
+        <v>100.9289336</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -10711,10 +10753,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10725,19 +10767,19 @@
         <v>271</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C211" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D211" t="s">
         <v>226</v>
       </c>
       <c r="E211">
-        <v>14.08063723</v>
+        <v>13.01893524</v>
       </c>
       <c r="F211">
-        <v>100.6228372</v>
+        <v>100.932701</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -10755,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10769,19 +10811,19 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C212" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D212" t="s">
         <v>227</v>
       </c>
       <c r="E212">
-        <v>13.95313369</v>
+        <v>12.95555524</v>
       </c>
       <c r="F212">
-        <v>100.4766133</v>
+        <v>100.8987028</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -10799,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10813,19 +10855,19 @@
         <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C213" s="2">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="D213" t="s">
         <v>228</v>
       </c>
       <c r="E213">
-        <v>13.91454494</v>
+        <v>12.93944879</v>
       </c>
       <c r="F213">
-        <v>100.4960227</v>
+        <v>100.9021397</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -10843,10 +10885,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10857,42 +10899,482 @@
         <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C214" s="2">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="D214" t="s">
         <v>229</v>
       </c>
       <c r="E214">
+        <v>12.75400498</v>
+      </c>
+      <c r="F214">
+        <v>100.9017967</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>313</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215">
+        <v>275</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D215" t="s">
+        <v>230</v>
+      </c>
+      <c r="E215">
+        <v>12.69857571</v>
+      </c>
+      <c r="F215">
+        <v>100.8899412</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215" t="s">
+        <v>313</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216">
+        <v>276</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D216" t="s">
+        <v>231</v>
+      </c>
+      <c r="E216">
+        <v>13.76238233</v>
+      </c>
+      <c r="F216">
+        <v>100.507696</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216" t="s">
+        <v>274</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217">
+        <v>277</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D217" t="s">
+        <v>232</v>
+      </c>
+      <c r="E217">
+        <v>13.76254009</v>
+      </c>
+      <c r="F217">
+        <v>100.5075498</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217" t="s">
+        <v>274</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218">
+        <v>278</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D218" t="s">
+        <v>233</v>
+      </c>
+      <c r="E218">
+        <v>13.92729422</v>
+      </c>
+      <c r="F218">
+        <v>100.5056386</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" t="s">
+        <v>300</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219">
+        <v>279</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D219" t="s">
+        <v>234</v>
+      </c>
+      <c r="E219">
+        <v>13.91794214</v>
+      </c>
+      <c r="F219">
+        <v>100.4950847</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219" t="s">
+        <v>300</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220">
+        <v>280</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D220" t="s">
+        <v>235</v>
+      </c>
+      <c r="E220">
+        <v>13.91532244</v>
+      </c>
+      <c r="F220">
+        <v>100.4236653</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" t="s">
+        <v>314</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221">
+        <v>281</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D221" t="s">
+        <v>236</v>
+      </c>
+      <c r="E221">
+        <v>14.08063723</v>
+      </c>
+      <c r="F221">
+        <v>100.6228372</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221" t="s">
+        <v>300</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222">
+        <v>282</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D222" t="s">
+        <v>237</v>
+      </c>
+      <c r="E222">
+        <v>13.95313369</v>
+      </c>
+      <c r="F222">
+        <v>100.4766133</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
+        <v>300</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223">
+        <v>283</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D223" t="s">
+        <v>238</v>
+      </c>
+      <c r="E223">
+        <v>13.91454494</v>
+      </c>
+      <c r="F223">
+        <v>100.4960227</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" t="s">
+        <v>300</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224">
+        <v>284</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D224" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224">
         <v>14.5063704</v>
       </c>
-      <c r="F214">
+      <c r="F224">
         <v>100.4640833</v>
       </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-      <c r="L214" t="s">
-        <v>303</v>
-      </c>
-      <c r="M214" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="N214">
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
+        <v>315</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N224">
         <v>0</v>
       </c>
     </row>
@@ -11111,6 +11593,16 @@
     <hyperlink ref="M212" r:id="rId211"/>
     <hyperlink ref="M213" r:id="rId212"/>
     <hyperlink ref="M214" r:id="rId213"/>
+    <hyperlink ref="M215" r:id="rId214"/>
+    <hyperlink ref="M216" r:id="rId215"/>
+    <hyperlink ref="M217" r:id="rId216"/>
+    <hyperlink ref="M218" r:id="rId217"/>
+    <hyperlink ref="M219" r:id="rId218"/>
+    <hyperlink ref="M220" r:id="rId219"/>
+    <hyperlink ref="M221" r:id="rId220"/>
+    <hyperlink ref="M222" r:id="rId221"/>
+    <hyperlink ref="M223" r:id="rId222"/>
+    <hyperlink ref="M224" r:id="rId223"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -730,6 +730,18 @@
     <t>ร้านเมี่ยงปลาเผาหลังราม ถนน 345</t>
   </si>
   <si>
+    <t>วัดพระธาตุผาซ่อนแก้ว</t>
+  </si>
+  <si>
+    <t>ร้าน ฟีโน่ลาเต้</t>
+  </si>
+  <si>
+    <t>7-11 สาขาปากทางขึ้นทับเบิก</t>
+  </si>
+  <si>
+    <t>อาขื้อ ภูทับเบิกรีสอร์ท</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
@@ -961,6 +973,9 @@
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
+    <t>เพชรบูรณ์ เปิดไทม์ไลน์หนุ่มติด COVID-19 เที่ยว "เขาค้อ"</t>
+  </si>
+  <si>
     <t>จากการตรวจสอบไทม์ไลน์ผู้ป่วยโควิด ชาวเมียนม่า พบเดินทางมาที่สนามไก่ชนในอ.ป่าโมก และ อ.เมือง</t>
   </si>
   <si>
@@ -1139,6 +1154,9 @@
   </si>
   <si>
     <t>https://www.matichon.co.th/region/news_2509978</t>
+  </si>
+  <si>
+    <t>https://news.thaipbs.or.th/content/299865</t>
   </si>
   <si>
     <t>https://www.thebangkokinsight.com/518217/</t>
@@ -1516,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1633,22 +1651,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1677,22 +1695,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1721,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1765,22 +1783,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1809,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1853,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1897,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1941,22 +1959,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1985,22 +2003,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2029,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2073,22 +2091,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2117,22 +2135,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2161,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L15" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2205,22 +2223,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2249,22 +2267,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2293,22 +2311,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2349,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2381,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2425,22 +2443,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I21" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J21" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2469,22 +2487,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2513,22 +2531,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2557,22 +2575,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2601,22 +2619,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2645,22 +2663,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2689,22 +2707,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2733,22 +2751,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2777,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2821,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2865,22 +2883,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2909,22 +2927,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2953,22 +2971,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2997,22 +3015,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3041,22 +3059,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3085,22 +3103,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3141,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3185,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3220,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3261,22 +3279,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3305,22 +3323,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J41" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3352,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3396,19 +3414,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3440,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3484,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3525,22 +3543,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I46" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K46" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3569,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K47" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L47" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3613,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3657,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I49" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J49" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K49" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3701,22 +3719,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I50" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J50" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L50" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3745,22 +3763,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I51" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K51" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3789,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3833,22 +3851,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J53" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L53" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3877,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I54" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3921,22 +3939,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J55" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K55" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3965,22 +3983,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J56" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4009,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K57" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L57" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4053,22 +4071,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I58" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K58" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L58" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4097,22 +4115,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I59" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J59" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K59" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4141,22 +4159,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I60" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J60" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4185,22 +4203,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I61" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K61" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4229,22 +4247,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J62" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K62" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4273,22 +4291,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K63" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L63" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4317,22 +4335,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I64" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K64" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4373,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4417,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4461,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4505,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4549,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4581,22 +4599,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J70" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K70" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L70" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4625,22 +4643,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I71" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J71" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K71" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L71" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4669,22 +4687,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I72" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J72" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K72" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4713,22 +4731,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I73" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J73" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K73" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4757,22 +4775,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J74" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K74" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4801,22 +4819,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I75" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K75" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L75" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4845,22 +4863,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I76" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J76" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K76" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4901,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4945,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4989,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5033,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5068,19 +5086,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J81" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K81" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5112,19 +5130,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K82" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L82" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5153,22 +5171,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J83" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K83" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L83" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5197,22 +5215,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I84" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J84" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K84" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L84" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5241,22 +5259,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I85" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J85" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L85" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5285,22 +5303,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I86" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K86" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L86" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5329,22 +5347,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I87" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J87" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L87" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5373,22 +5391,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J88" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K88" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L88" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5417,22 +5435,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J89" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K89" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5461,22 +5479,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I90" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J90" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L90" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5505,22 +5523,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I91" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J91" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K91" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5549,22 +5567,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I92" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J92" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L92" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5605,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5649,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5693,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5737,10 +5755,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5772,19 +5790,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J97" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K97" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L97" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5813,22 +5831,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I98" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J98" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K98" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L98" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5857,22 +5875,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I99" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J99" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K99" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L99" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5904,19 +5922,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J100" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K100" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L100" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5945,22 +5963,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I101" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J101" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5989,22 +6007,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I102" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J102" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K102" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6033,22 +6051,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I103" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J103" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K103" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L103" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6077,22 +6095,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I104" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J104" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L104" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6121,22 +6139,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I105" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J105" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L105" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6177,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6221,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6265,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6309,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6353,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6385,22 +6403,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J111" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K111" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L111" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6429,22 +6447,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I112" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J112" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K112" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L112" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6473,22 +6491,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J113" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L113" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6517,22 +6535,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K114" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L114" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6561,22 +6579,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I115" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K115" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6605,22 +6623,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I116" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J116" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K116" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L116" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6649,22 +6667,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I117" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J117" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K117" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L117" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6693,22 +6711,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I118" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J118" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K118" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L118" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6749,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6793,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6837,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6881,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6925,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6969,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7013,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7057,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7101,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7145,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7177,22 +7195,22 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I129" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K129" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L129" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7221,22 +7239,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I130" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J130" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K130" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L130" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7265,22 +7283,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J131" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K131" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L131" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7321,10 +7339,10 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7365,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7409,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7453,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7497,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7541,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7585,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7629,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7673,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7717,10 +7735,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7761,10 +7779,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7805,10 +7823,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7849,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7893,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7937,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7981,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8025,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8069,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8101,22 +8119,22 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I150" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J150" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K150" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L150" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8145,22 +8163,22 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I151" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J151" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K151" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L151" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8201,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8245,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8289,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8333,10 +8351,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8374,13 +8392,13 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L156" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8418,13 +8436,13 @@
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L157" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8462,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L158" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8497,22 +8515,22 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I159" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J159" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K159" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L159" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8553,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8597,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8641,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8685,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8729,10 +8747,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8761,22 +8779,22 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I165" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J165" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K165" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L165" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8817,10 +8835,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8861,10 +8879,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8905,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8949,10 +8967,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8993,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9025,22 +9043,22 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I171" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J171" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K171" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L171" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9078,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L172" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9122,13 +9140,13 @@
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L173" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9166,13 +9184,13 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L174" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9210,13 +9228,13 @@
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L175" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9254,13 +9272,13 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L176" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9298,13 +9316,13 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L177" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9345,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9389,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9433,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9477,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9521,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9565,10 +9583,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9609,10 +9627,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9653,10 +9671,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9697,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9741,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9785,10 +9803,10 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9829,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9873,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9917,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9961,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10005,10 +10023,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10049,10 +10067,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10093,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10137,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10181,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10225,10 +10243,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10269,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10313,10 +10331,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10357,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10401,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10445,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10489,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10533,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10577,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10621,10 +10639,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10665,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10709,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10753,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10797,10 +10815,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10841,10 +10859,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10885,10 +10903,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10929,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10973,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11017,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11061,10 +11079,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11105,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11149,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11193,10 +11211,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11237,10 +11255,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11281,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11298,16 +11316,16 @@
         <v>14</v>
       </c>
       <c r="C223" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
       </c>
       <c r="E223">
-        <v>13.91454494</v>
+        <v>16.78945067</v>
       </c>
       <c r="F223">
-        <v>100.4960227</v>
+        <v>101.0491296</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11325,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11339,42 +11357,218 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C224" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D224" t="s">
         <v>239</v>
       </c>
       <c r="E224">
+        <v>16.79472348</v>
+      </c>
+      <c r="F224">
+        <v>101.0418582</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
+        <v>319</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225">
+        <v>285</v>
+      </c>
+      <c r="B225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D225" t="s">
+        <v>240</v>
+      </c>
+      <c r="E225">
+        <v>16.87641646</v>
+      </c>
+      <c r="F225">
+        <v>101.1720539</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" t="s">
+        <v>319</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226">
+        <v>286</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D226" t="s">
+        <v>241</v>
+      </c>
+      <c r="E226">
+        <v>16.90718372</v>
+      </c>
+      <c r="F226">
+        <v>101.1093359</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" t="s">
+        <v>319</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227">
+        <v>287</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D227" t="s">
+        <v>242</v>
+      </c>
+      <c r="E227">
+        <v>13.91454494</v>
+      </c>
+      <c r="F227">
+        <v>100.4960227</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227" t="s">
+        <v>304</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228">
+        <v>288</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D228" t="s">
+        <v>243</v>
+      </c>
+      <c r="E228">
         <v>14.5063704</v>
       </c>
-      <c r="F224">
+      <c r="F228">
         <v>100.4640833</v>
       </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>0</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-      <c r="K224">
-        <v>0</v>
-      </c>
-      <c r="L224" t="s">
-        <v>315</v>
-      </c>
-      <c r="M224" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="N224">
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>320</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N228">
         <v>0</v>
       </c>
     </row>
@@ -11603,6 +11797,10 @@
     <hyperlink ref="M222" r:id="rId221"/>
     <hyperlink ref="M223" r:id="rId222"/>
     <hyperlink ref="M224" r:id="rId223"/>
+    <hyperlink ref="M225" r:id="rId224"/>
+    <hyperlink ref="M226" r:id="rId225"/>
+    <hyperlink ref="M227" r:id="rId226"/>
+    <hyperlink ref="M228" r:id="rId227"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -394,6 +394,9 @@
     <t>ธนาคารไทยพาณิชย์ สาขาเทเวศร์</t>
   </si>
   <si>
+    <t>แมคโคร คลองหลวง</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -505,6 +508,15 @@
     <t>ห้างเอสพลานาดรัชดา</t>
   </si>
   <si>
+    <t>ตลาดเคหะคลองหก</t>
+  </si>
+  <si>
+    <t>ร้าน New Jazz ตรงข้าม The mall ท่าพระ</t>
+  </si>
+  <si>
+    <t>ร้าน The SUN ถ.บรมราชชนนี</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -529,6 +541,9 @@
     <t>ร้านบุนตงกี่ เดอะมอลล์งามวงศ์วาน</t>
   </si>
   <si>
+    <t>ร้านบ้านตะเกียง อ.ลำลูกกา</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -721,6 +736,15 @@
     <t>ท่าเรือวัดเตย</t>
   </si>
   <si>
+    <t>ตลาดสุชาติ(รังสิต)</t>
+  </si>
+  <si>
+    <t>ตลาดบางใหญ่</t>
+  </si>
+  <si>
+    <t>ร้าน the roof bar</t>
+  </si>
+  <si>
     <t>วัดละหาร</t>
   </si>
   <si>
@@ -742,6 +766,9 @@
     <t>อาขื้อ ภูทับเบิกรีสอร์ท</t>
   </si>
   <si>
+    <t>ร้าน เมมโมรี่ (memory 90's)</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
@@ -895,6 +922,9 @@
     <t>เปิด Timeline​ ผู้ติดเชื้อ​ สายไหม​ รายที่ 4</t>
   </si>
   <si>
+    <t>เปิดไทม์ไลน์ผู้ป่วยโควิดปทุมธานี รายที่ 58-60</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -910,6 +940,9 @@
     <t>สนง.เขตบางกอกน้อย ประกาศปิด พบผู้ติดเชื้อมาใช้บริการ</t>
   </si>
   <si>
+    <t>ผู้ป่วยชาย อายุ 44 ปี มีอาชีพอิสระ บ้านพักอยู่เขตสาทร มีประวัติไปเที่ยวสถานบันเทิงหลายแห่งในพื้นที่ กทม.</t>
+  </si>
+  <si>
     <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
   </si>
   <si>
@@ -970,12 +1003,18 @@
     <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
   </si>
   <si>
+    <t xml:space="preserve">ร้าน the roof bar มีผู้ติดเชื้อ covid19 เป็นพนักงานเสริฟที่ร้าน </t>
+  </si>
+  <si>
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
     <t>เพชรบูรณ์ เปิดไทม์ไลน์หนุ่มติด COVID-19 เที่ยว "เขาค้อ"</t>
   </si>
   <si>
+    <t>เจ้าของร้าน เมมโมรี่ (memory 90's) ย่านซอยลาซาล กทม. ประกาศว่าตนเองติดเชื้อโควิด-19 พร้อมแจ้งลูกค้าที่ไปใช้บริการที่ร้านช่วงระหว่างวันที่ 21-31 ธ.ค.2563 กักตัว สังเกตอาการ</t>
+  </si>
+  <si>
     <t>จากการตรวจสอบไทม์ไลน์ผู้ป่วยโควิด ชาวเมียนม่า พบเดินทางมาที่สนามไก่ชนในอ.ป่าโมก และ อ.เมือง</t>
   </si>
   <si>
@@ -1090,6 +1129,9 @@
     <t>https://www.facebook.com/saimaitongrot/photos/a.105315881483233/107708831243938/</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2510597</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
@@ -1105,6 +1147,9 @@
     <t>https://www.khaosod.co.th/covid-19/news_5632650</t>
   </si>
   <si>
+    <t>https://www.facebook.com/earthpongsakornk/posts/436569911086243</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/marketing/news-582754</t>
   </si>
   <si>
@@ -1153,10 +1198,16 @@
     <t>https://www.facebook.com/v.khunplome/photos/a.108967524044265/214275353513481/?type=3</t>
   </si>
   <si>
+    <t>https://www.facebook.com/TheRoofBarRama3/posts/419782009363732</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/region/news_2509978</t>
   </si>
   <si>
     <t>https://news.thaipbs.or.th/content/299865</t>
+  </si>
+  <si>
+    <t>https://www.komchadluek.net/news/regional/453969</t>
   </si>
   <si>
     <t>https://www.thebangkokinsight.com/518217/</t>
@@ -1534,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N228"/>
+  <dimension ref="A1:N237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1610,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1651,22 +1702,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1695,22 +1746,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1739,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1783,22 +1834,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1827,22 +1878,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1871,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L8" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1915,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1959,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K10" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2003,22 +2054,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2047,22 +2098,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L12" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2091,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L13" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2135,22 +2186,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L14" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2179,22 +2230,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2223,22 +2274,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2267,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L17" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2311,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I18" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2367,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2399,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K20" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L20" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2443,22 +2494,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2487,22 +2538,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I22" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2531,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2575,22 +2626,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2619,22 +2670,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2663,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2707,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2751,22 +2802,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2795,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2839,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2883,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2927,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2971,22 +3022,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3015,22 +3066,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3059,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3103,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3159,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3203,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3238,19 +3289,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J39" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3279,22 +3330,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3323,22 +3374,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J41" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3370,19 +3421,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3414,19 +3465,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L43" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3458,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3502,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J45" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3543,22 +3594,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J46" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3587,22 +3638,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K47" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3631,22 +3682,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I48" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J48" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K48" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L48" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3675,22 +3726,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K49" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3719,22 +3770,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L50" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3763,22 +3814,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I51" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J51" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K51" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3807,22 +3858,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J52" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K52" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L52" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3851,22 +3902,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J53" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K53" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L53" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3895,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I54" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J54" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L54" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3939,22 +3990,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I55" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J55" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L55" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3983,22 +4034,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I56" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J56" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K56" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L56" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4027,22 +4078,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I57" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J57" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K57" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4071,22 +4122,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J58" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K58" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L58" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4115,22 +4166,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J59" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K59" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L59" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4159,22 +4210,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J60" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K60" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4203,22 +4254,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I61" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J61" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L61" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4247,22 +4298,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J62" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K62" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L62" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4291,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K63" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L63" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4335,22 +4386,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I64" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J64" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K64" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L64" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4391,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4435,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4479,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4523,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4567,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4599,22 +4650,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I70" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J70" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K70" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L70" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4643,22 +4694,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I71" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J71" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K71" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L71" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4687,22 +4738,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I72" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J72" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K72" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L72" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4731,22 +4782,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I73" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J73" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K73" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4775,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I74" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J74" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K74" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4819,22 +4870,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I75" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J75" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K75" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L75" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4863,22 +4914,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I76" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J76" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K76" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L76" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4919,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4963,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5007,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5051,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5086,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J81" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L81" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5130,19 +5181,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J82" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K82" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L82" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5171,22 +5222,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I83" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J83" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K83" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L83" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5215,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I84" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J84" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K84" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L84" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5259,22 +5310,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I85" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J85" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K85" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L85" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5303,22 +5354,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I86" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J86" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K86" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L86" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5347,22 +5398,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I87" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J87" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K87" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L87" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5391,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J88" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K88" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L88" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5435,22 +5486,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I89" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J89" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K89" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L89" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5479,22 +5530,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I90" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J90" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K90" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L90" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5523,22 +5574,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I91" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K91" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L91" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5567,22 +5618,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I92" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J92" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K92" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L92" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5623,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5667,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5711,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5755,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5790,19 +5841,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K97" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L97" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5831,22 +5882,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I98" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J98" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K98" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L98" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5875,22 +5926,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I99" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J99" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K99" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L99" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5922,19 +5973,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J100" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K100" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L100" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5963,22 +6014,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I101" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J101" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K101" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L101" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6007,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I102" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J102" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K102" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L102" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6051,22 +6102,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I103" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J103" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K103" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L103" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6095,22 +6146,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I104" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J104" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K104" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L104" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6139,22 +6190,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I105" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J105" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K105" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L105" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6195,10 +6246,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6239,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6283,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6327,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6371,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6388,37 +6439,37 @@
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D111" t="s">
         <v>126</v>
       </c>
       <c r="E111">
-        <v>13.721681</v>
+        <v>14.0670117</v>
       </c>
       <c r="F111">
-        <v>100.53</v>
+        <v>100.6331584</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
-        <v>245</v>
-      </c>
-      <c r="I111" t="s">
-        <v>247</v>
-      </c>
-      <c r="J111" t="s">
-        <v>249</v>
-      </c>
-      <c r="K111" t="s">
-        <v>245</v>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6429,7 +6480,7 @@
         <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
         <v>44189</v>
@@ -6438,31 +6489,31 @@
         <v>127</v>
       </c>
       <c r="E112">
-        <v>13.9134431</v>
+        <v>13.721681</v>
       </c>
       <c r="F112">
-        <v>100.4220473</v>
+        <v>100.53</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I112" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J112" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K112" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L112" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6473,7 +6524,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C113" s="2">
         <v>44189</v>
@@ -6482,31 +6533,31 @@
         <v>128</v>
       </c>
       <c r="E113">
-        <v>13.786588</v>
+        <v>13.9134431</v>
       </c>
       <c r="F113">
-        <v>100.321233</v>
+        <v>100.4220473</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I113" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J113" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K113" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L113" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6517,7 +6568,7 @@
         <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
         <v>44189</v>
@@ -6526,31 +6577,31 @@
         <v>129</v>
       </c>
       <c r="E114">
-        <v>13.8017434</v>
+        <v>13.786588</v>
       </c>
       <c r="F114">
-        <v>100.1879465</v>
+        <v>100.321233</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I114" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J114" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K114" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L114" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6561,7 +6612,7 @@
         <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
         <v>44189</v>
@@ -6570,31 +6621,31 @@
         <v>130</v>
       </c>
       <c r="E115">
-        <v>13.81456113</v>
+        <v>13.8017434</v>
       </c>
       <c r="F115">
-        <v>100.0630594</v>
+        <v>100.1879465</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I115" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J115" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K115" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L115" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6614,31 +6665,31 @@
         <v>131</v>
       </c>
       <c r="E116">
-        <v>12.68783188</v>
+        <v>13.81456113</v>
       </c>
       <c r="F116">
-        <v>101.2114545</v>
+        <v>100.0630594</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I116" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J116" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K116" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L116" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6658,31 +6709,31 @@
         <v>132</v>
       </c>
       <c r="E117">
-        <v>13.67342423</v>
+        <v>12.68783188</v>
       </c>
       <c r="F117">
-        <v>100.6069256</v>
+        <v>101.2114545</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I117" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J117" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K117" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L117" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6702,31 +6753,31 @@
         <v>133</v>
       </c>
       <c r="E118">
-        <v>13.6680206</v>
+        <v>13.67342423</v>
       </c>
       <c r="F118">
-        <v>100.6354649</v>
+        <v>100.6069256</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J118" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K118" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L118" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6746,31 +6797,31 @@
         <v>134</v>
       </c>
       <c r="E119">
-        <v>13.88903855</v>
+        <v>13.6680206</v>
       </c>
       <c r="F119">
-        <v>100.6576064</v>
+        <v>100.6354649</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>254</v>
+      </c>
+      <c r="I119" t="s">
+        <v>256</v>
+      </c>
+      <c r="J119" t="s">
+        <v>258</v>
+      </c>
+      <c r="K119" t="s">
+        <v>254</v>
       </c>
       <c r="L119" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6790,10 +6841,10 @@
         <v>135</v>
       </c>
       <c r="E120">
-        <v>13.71110566</v>
+        <v>13.88903855</v>
       </c>
       <c r="F120">
-        <v>100.4158636</v>
+        <v>100.6576064</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6811,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6834,10 +6885,10 @@
         <v>136</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>13.71110566</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>100.4158636</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6855,10 +6906,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6878,10 +6929,10 @@
         <v>137</v>
       </c>
       <c r="E122">
-        <v>13.91716059</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>100.4212109</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6899,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6922,10 +6973,10 @@
         <v>138</v>
       </c>
       <c r="E123">
-        <v>13.98026263</v>
+        <v>13.91716059</v>
       </c>
       <c r="F123">
-        <v>100.3148877</v>
+        <v>100.4212109</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6943,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6966,10 +7017,10 @@
         <v>139</v>
       </c>
       <c r="E124">
-        <v>13.87612007</v>
+        <v>13.98026263</v>
       </c>
       <c r="F124">
-        <v>100.4091692</v>
+        <v>100.3148877</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6987,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7010,10 +7061,10 @@
         <v>140</v>
       </c>
       <c r="E125">
-        <v>13.7392405</v>
+        <v>13.87612007</v>
       </c>
       <c r="F125">
-        <v>100.5167889</v>
+        <v>100.4091692</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -7031,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7054,10 +7105,10 @@
         <v>141</v>
       </c>
       <c r="E126">
-        <v>13.7773423</v>
+        <v>13.7392405</v>
       </c>
       <c r="F126">
-        <v>100.4852567</v>
+        <v>100.5167889</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -7075,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7098,10 +7149,10 @@
         <v>142</v>
       </c>
       <c r="E127">
-        <v>13.80601718</v>
+        <v>13.7773423</v>
       </c>
       <c r="F127">
-        <v>100.5736064</v>
+        <v>100.4852567</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -7119,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7142,10 +7193,10 @@
         <v>143</v>
       </c>
       <c r="E128">
-        <v>13.75435309</v>
+        <v>13.80601718</v>
       </c>
       <c r="F128">
-        <v>100.540321</v>
+        <v>100.5736064</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -7163,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7180,37 +7231,37 @@
         <v>14</v>
       </c>
       <c r="C129" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D129" t="s">
         <v>144</v>
       </c>
       <c r="E129">
-        <v>13.924252</v>
+        <v>13.75435309</v>
       </c>
       <c r="F129">
-        <v>100.597945</v>
+        <v>100.540321</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
-        <v>245</v>
-      </c>
-      <c r="I129" t="s">
-        <v>247</v>
-      </c>
-      <c r="J129" t="s">
-        <v>249</v>
-      </c>
-      <c r="K129" t="s">
-        <v>245</v>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7230,31 +7281,31 @@
         <v>145</v>
       </c>
       <c r="E130">
-        <v>12.69670286</v>
+        <v>13.924252</v>
       </c>
       <c r="F130">
-        <v>101.2683573</v>
+        <v>100.597945</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I130" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J130" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K130" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7274,31 +7325,31 @@
         <v>146</v>
       </c>
       <c r="E131">
-        <v>12.69574994</v>
+        <v>12.69670286</v>
       </c>
       <c r="F131">
-        <v>101.2674706</v>
+        <v>101.2683573</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I131" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J131" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K131" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L131" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7318,31 +7369,31 @@
         <v>147</v>
       </c>
       <c r="E132">
-        <v>13.71190173</v>
+        <v>12.69574994</v>
       </c>
       <c r="F132">
-        <v>100.4224456</v>
+        <v>101.2674706</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
+      <c r="H132" t="s">
+        <v>253</v>
+      </c>
+      <c r="I132" t="s">
+        <v>256</v>
+      </c>
+      <c r="J132" t="s">
+        <v>258</v>
+      </c>
+      <c r="K132" t="s">
+        <v>254</v>
       </c>
       <c r="L132" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7362,10 +7413,10 @@
         <v>148</v>
       </c>
       <c r="E133">
-        <v>13.80614397</v>
+        <v>13.71190173</v>
       </c>
       <c r="F133">
-        <v>100.5307221</v>
+        <v>100.4224456</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7383,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7406,10 +7457,10 @@
         <v>149</v>
       </c>
       <c r="E134">
-        <v>13.78786299</v>
+        <v>13.80614397</v>
       </c>
       <c r="F134">
-        <v>100.4828396</v>
+        <v>100.5307221</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7427,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7450,10 +7501,10 @@
         <v>150</v>
       </c>
       <c r="E135">
-        <v>13.77791571</v>
+        <v>13.78786299</v>
       </c>
       <c r="F135">
-        <v>100.4766994</v>
+        <v>100.4828396</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7471,10 +7522,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7485,7 +7536,7 @@
         <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C136" s="2">
         <v>44190</v>
@@ -7494,10 +7545,10 @@
         <v>151</v>
       </c>
       <c r="E136">
-        <v>18.80731097</v>
+        <v>13.77791571</v>
       </c>
       <c r="F136">
-        <v>98.96283674999999</v>
+        <v>100.4766994</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7515,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7529,7 +7580,7 @@
         <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C137" s="2">
         <v>44190</v>
@@ -7538,10 +7589,10 @@
         <v>152</v>
       </c>
       <c r="E137">
-        <v>13.7707636</v>
+        <v>18.80731097</v>
       </c>
       <c r="F137">
-        <v>100.4680689</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7559,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7582,10 +7633,10 @@
         <v>153</v>
       </c>
       <c r="E138">
-        <v>13.5455515</v>
+        <v>13.7707636</v>
       </c>
       <c r="F138">
-        <v>100.2767451</v>
+        <v>100.4680689</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7603,10 +7654,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7626,10 +7677,10 @@
         <v>154</v>
       </c>
       <c r="E139">
-        <v>13.99716298</v>
+        <v>13.5455515</v>
       </c>
       <c r="F139">
-        <v>100.3271499</v>
+        <v>100.2767451</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7647,10 +7698,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7670,10 +7721,10 @@
         <v>155</v>
       </c>
       <c r="E140">
-        <v>13.76007797</v>
+        <v>13.99716298</v>
       </c>
       <c r="F140">
-        <v>100.5098955</v>
+        <v>100.3271499</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7691,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7714,10 +7765,10 @@
         <v>156</v>
       </c>
       <c r="E141">
-        <v>13.78946193</v>
+        <v>13.76007797</v>
       </c>
       <c r="F141">
-        <v>100.5154583</v>
+        <v>100.5098955</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7735,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7758,10 +7809,10 @@
         <v>157</v>
       </c>
       <c r="E142">
-        <v>13.72722747</v>
+        <v>13.78946193</v>
       </c>
       <c r="F142">
-        <v>100.5965396</v>
+        <v>100.5154583</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7779,10 +7830,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7802,10 +7853,10 @@
         <v>158</v>
       </c>
       <c r="E143">
-        <v>13.67587015</v>
+        <v>13.72722747</v>
       </c>
       <c r="F143">
-        <v>100.590999</v>
+        <v>100.5965396</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7823,10 +7874,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7846,10 +7897,10 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>13.75402516</v>
+        <v>13.67587015</v>
       </c>
       <c r="F144">
-        <v>100.5152946</v>
+        <v>100.590999</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7867,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7890,10 +7941,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>13.79776156</v>
+        <v>13.75402516</v>
       </c>
       <c r="F145">
-        <v>100.5088935</v>
+        <v>100.5152946</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7911,10 +7962,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7934,10 +7985,10 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>13.76620466</v>
+        <v>13.79776156</v>
       </c>
       <c r="F146">
-        <v>100.5701576</v>
+        <v>100.5088935</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7955,10 +8006,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7978,10 +8029,10 @@
         <v>162</v>
       </c>
       <c r="E147">
-        <v>13.76651219</v>
+        <v>13.76620466</v>
       </c>
       <c r="F147">
-        <v>100.5696077</v>
+        <v>100.5701576</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7999,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8010,22 +8061,22 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C148" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D148" t="s">
         <v>163</v>
       </c>
       <c r="E148">
-        <v>13.734066</v>
+        <v>13.76651219</v>
       </c>
       <c r="F148">
-        <v>100.5278354</v>
+        <v>100.5696077</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -8043,10 +8094,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8054,22 +8105,22 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D149" t="s">
         <v>164</v>
       </c>
       <c r="E149">
-        <v>12.6483736</v>
+        <v>14.02845946</v>
       </c>
       <c r="F149">
-        <v>101.2273679</v>
+        <v>100.7295866</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -8087,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8098,43 +8149,43 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
       </c>
       <c r="C150" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D150" t="s">
         <v>165</v>
       </c>
       <c r="E150">
-        <v>12.69691038</v>
+        <v>13.70861864</v>
       </c>
       <c r="F150">
-        <v>101.268451</v>
+        <v>100.480094</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150" t="s">
-        <v>244</v>
-      </c>
-      <c r="I150" t="s">
-        <v>247</v>
-      </c>
-      <c r="J150" t="s">
-        <v>249</v>
-      </c>
-      <c r="K150" t="s">
-        <v>245</v>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8142,43 +8193,43 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
         <v>14</v>
       </c>
       <c r="C151" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D151" t="s">
         <v>166</v>
       </c>
       <c r="E151">
-        <v>12.66695256</v>
+        <v>13.78761238</v>
       </c>
       <c r="F151">
-        <v>101.2738756</v>
+        <v>100.4840934</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151" t="s">
-        <v>244</v>
-      </c>
-      <c r="I151" t="s">
-        <v>247</v>
-      </c>
-      <c r="J151" t="s">
-        <v>249</v>
-      </c>
-      <c r="K151" t="s">
-        <v>245</v>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8189,7 +8240,7 @@
         <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C152" s="2">
         <v>44191</v>
@@ -8198,10 +8249,10 @@
         <v>167</v>
       </c>
       <c r="E152">
-        <v>13.86265154</v>
+        <v>13.734066</v>
       </c>
       <c r="F152">
-        <v>100.6432858</v>
+        <v>100.5278354</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8219,10 +8270,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8233,7 +8284,7 @@
         <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C153" s="2">
         <v>44191</v>
@@ -8242,10 +8293,10 @@
         <v>168</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>12.6483736</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>101.2273679</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8263,10 +8314,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8286,31 +8337,31 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>13.7831563</v>
+        <v>12.69691038</v>
       </c>
       <c r="F154">
-        <v>100.5154952</v>
+        <v>101.268451</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
+      <c r="H154" t="s">
+        <v>253</v>
+      </c>
+      <c r="I154" t="s">
+        <v>256</v>
+      </c>
+      <c r="J154" t="s">
+        <v>258</v>
+      </c>
+      <c r="K154" t="s">
+        <v>254</v>
       </c>
       <c r="L154" t="s">
         <v>300</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8330,31 +8381,31 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>13.85626845</v>
+        <v>12.66695256</v>
       </c>
       <c r="F155">
-        <v>100.5418055</v>
+        <v>101.2738756</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
+      <c r="H155" t="s">
+        <v>253</v>
+      </c>
+      <c r="I155" t="s">
+        <v>256</v>
+      </c>
+      <c r="J155" t="s">
+        <v>258</v>
+      </c>
+      <c r="K155" t="s">
+        <v>254</v>
       </c>
       <c r="L155" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8365,19 +8416,19 @@
         <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D156" t="s">
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.6844183</v>
+        <v>13.86265154</v>
       </c>
       <c r="F156">
-        <v>101.2742991</v>
+        <v>100.6432858</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8391,14 +8442,14 @@
       <c r="J156">
         <v>0</v>
       </c>
-      <c r="K156" t="s">
-        <v>245</v>
+      <c r="K156">
+        <v>0</v>
       </c>
       <c r="L156" t="s">
         <v>301</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8409,19 +8460,19 @@
         <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C157" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D157" t="s">
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.9730033</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>100.9029061</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8435,14 +8486,14 @@
       <c r="J157">
         <v>0</v>
       </c>
-      <c r="K157" t="s">
-        <v>245</v>
+      <c r="K157">
+        <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8456,16 +8507,16 @@
         <v>14</v>
       </c>
       <c r="C158" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D158" t="s">
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.7946069</v>
+        <v>13.7831563</v>
       </c>
       <c r="F158">
-        <v>100.5161808</v>
+        <v>100.5154952</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8479,14 +8530,14 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158" t="s">
-        <v>245</v>
+      <c r="K158">
+        <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8500,37 +8551,37 @@
         <v>14</v>
       </c>
       <c r="C159" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D159" t="s">
         <v>174</v>
       </c>
       <c r="E159">
-        <v>13.54448567</v>
+        <v>13.85626845</v>
       </c>
       <c r="F159">
-        <v>100.2752027</v>
+        <v>100.5418055</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="H159" t="s">
-        <v>244</v>
-      </c>
-      <c r="I159" t="s">
-        <v>247</v>
-      </c>
-      <c r="J159" t="s">
-        <v>249</v>
-      </c>
-      <c r="K159" t="s">
-        <v>245</v>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8544,16 +8595,16 @@
         <v>14</v>
       </c>
       <c r="C160" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D160" t="s">
         <v>175</v>
       </c>
       <c r="E160">
-        <v>13.67424547</v>
+        <v>13.93341769</v>
       </c>
       <c r="F160">
-        <v>100.426448</v>
+        <v>100.7190324</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8571,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8585,7 +8636,7 @@
         <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C161" s="2">
         <v>44192</v>
@@ -8594,10 +8645,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>13.94010609</v>
+        <v>12.6844183</v>
       </c>
       <c r="F161">
-        <v>100.5124853</v>
+        <v>101.2742991</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8611,14 +8662,14 @@
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161">
-        <v>0</v>
+      <c r="K161" t="s">
+        <v>254</v>
       </c>
       <c r="L161" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8629,7 +8680,7 @@
         <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C162" s="2">
         <v>44192</v>
@@ -8638,10 +8689,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>13.96674442</v>
+        <v>12.9730033</v>
       </c>
       <c r="F162">
-        <v>100.5302521</v>
+        <v>100.9029061</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8655,14 +8706,14 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162">
-        <v>0</v>
+      <c r="K162" t="s">
+        <v>254</v>
       </c>
       <c r="L162" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8682,10 +8733,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>13.8766052</v>
+        <v>13.7946069</v>
       </c>
       <c r="F163">
-        <v>100.4449333</v>
+        <v>100.5161808</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8699,14 +8750,14 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163">
-        <v>0</v>
+      <c r="K163" t="s">
+        <v>254</v>
       </c>
       <c r="L163" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8726,31 +8777,31 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>13.85555825</v>
+        <v>13.54448567</v>
       </c>
       <c r="F164">
-        <v>100.5424068</v>
+        <v>100.2752027</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
+      <c r="H164" t="s">
+        <v>253</v>
+      </c>
+      <c r="I164" t="s">
+        <v>256</v>
+      </c>
+      <c r="J164" t="s">
+        <v>258</v>
+      </c>
+      <c r="K164" t="s">
+        <v>254</v>
       </c>
       <c r="L164" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8764,37 +8815,37 @@
         <v>14</v>
       </c>
       <c r="C165" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D165" t="s">
         <v>180</v>
       </c>
       <c r="E165">
-        <v>13.73545544</v>
+        <v>13.67424547</v>
       </c>
       <c r="F165">
-        <v>100.5661584</v>
+        <v>100.426448</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165" t="s">
-        <v>245</v>
-      </c>
-      <c r="I165" t="s">
-        <v>247</v>
-      </c>
-      <c r="J165" t="s">
-        <v>249</v>
-      </c>
-      <c r="K165" t="s">
-        <v>245</v>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8808,16 +8859,16 @@
         <v>14</v>
       </c>
       <c r="C166" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D166" t="s">
         <v>181</v>
       </c>
       <c r="E166">
-        <v>13.91669065</v>
+        <v>13.94010609</v>
       </c>
       <c r="F166">
-        <v>100.397828</v>
+        <v>100.5124853</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -8835,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8852,16 +8903,16 @@
         <v>14</v>
       </c>
       <c r="C167" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D167" t="s">
         <v>182</v>
       </c>
       <c r="E167">
-        <v>13.76710313</v>
+        <v>13.96674442</v>
       </c>
       <c r="F167">
-        <v>100.5328623</v>
+        <v>100.5302521</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8879,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8896,16 +8947,16 @@
         <v>14</v>
       </c>
       <c r="C168" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D168" t="s">
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.7495748</v>
+        <v>13.8766052</v>
       </c>
       <c r="F168">
-        <v>100.5157013</v>
+        <v>100.4449333</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8923,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8940,16 +8991,16 @@
         <v>14</v>
       </c>
       <c r="C169" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D169" t="s">
         <v>184</v>
       </c>
       <c r="E169">
-        <v>13.86015375</v>
+        <v>13.85555825</v>
       </c>
       <c r="F169">
-        <v>100.5133052</v>
+        <v>100.5424068</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -8967,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8990,31 +9041,31 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>13.85554623</v>
+        <v>13.73545544</v>
       </c>
       <c r="F170">
-        <v>100.5420379</v>
+        <v>100.5661584</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
+      <c r="H170" t="s">
+        <v>254</v>
+      </c>
+      <c r="I170" t="s">
+        <v>256</v>
+      </c>
+      <c r="J170" t="s">
+        <v>258</v>
+      </c>
+      <c r="K170" t="s">
+        <v>254</v>
       </c>
       <c r="L170" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9025,40 +9076,40 @@
         <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D171" t="s">
         <v>186</v>
       </c>
       <c r="E171">
-        <v>12.9098775</v>
+        <v>13.91669065</v>
       </c>
       <c r="F171">
-        <v>100.891563</v>
+        <v>100.397828</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171" t="s">
-        <v>245</v>
-      </c>
-      <c r="I171" t="s">
-        <v>247</v>
-      </c>
-      <c r="J171" t="s">
-        <v>249</v>
-      </c>
-      <c r="K171" t="s">
-        <v>245</v>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9069,19 +9120,19 @@
         <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D172" t="s">
         <v>187</v>
       </c>
       <c r="E172">
-        <v>13.3535702</v>
+        <v>13.76710313</v>
       </c>
       <c r="F172">
-        <v>100.9765439</v>
+        <v>100.5328623</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9095,14 +9146,14 @@
       <c r="J172">
         <v>0</v>
       </c>
-      <c r="K172" t="s">
-        <v>245</v>
+      <c r="K172">
+        <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9113,19 +9164,19 @@
         <v>233</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C173" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D173" t="s">
         <v>188</v>
       </c>
       <c r="E173">
-        <v>12.948902</v>
+        <v>13.7495748</v>
       </c>
       <c r="F173">
-        <v>100.891292</v>
+        <v>100.5157013</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9139,14 +9190,14 @@
       <c r="J173">
         <v>0</v>
       </c>
-      <c r="K173" t="s">
-        <v>245</v>
+      <c r="K173">
+        <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9157,19 +9208,19 @@
         <v>234</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D174" t="s">
         <v>189</v>
       </c>
       <c r="E174">
-        <v>12.6495877</v>
+        <v>13.86015375</v>
       </c>
       <c r="F174">
-        <v>102.0329425</v>
+        <v>100.5133052</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9183,14 +9234,14 @@
       <c r="J174">
         <v>0</v>
       </c>
-      <c r="K174" t="s">
-        <v>245</v>
+      <c r="K174">
+        <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9201,19 +9252,19 @@
         <v>235</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D175" t="s">
         <v>190</v>
       </c>
       <c r="E175">
-        <v>12.3757564</v>
+        <v>13.85554623</v>
       </c>
       <c r="F175">
-        <v>102.3818628</v>
+        <v>100.5420379</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9227,14 +9278,14 @@
       <c r="J175">
         <v>0</v>
       </c>
-      <c r="K175" t="s">
-        <v>245</v>
+      <c r="K175">
+        <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9254,31 +9305,31 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>12.7246169</v>
+        <v>12.9098775</v>
       </c>
       <c r="F176">
-        <v>101.9362794</v>
+        <v>100.891563</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
+      <c r="H176" t="s">
+        <v>254</v>
+      </c>
+      <c r="I176" t="s">
+        <v>256</v>
+      </c>
+      <c r="J176" t="s">
+        <v>258</v>
       </c>
       <c r="K176" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L176" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9289,7 +9340,7 @@
         <v>237</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C177" s="2">
         <v>44194</v>
@@ -9298,10 +9349,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.772986</v>
+        <v>13.3535702</v>
       </c>
       <c r="F177">
-        <v>100.4855148</v>
+        <v>100.9765439</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9316,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L177" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9342,10 +9393,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.90895904</v>
+        <v>12.948902</v>
       </c>
       <c r="F178">
-        <v>100.891925</v>
+        <v>100.891292</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9359,14 +9410,14 @@
       <c r="J178">
         <v>0</v>
       </c>
-      <c r="K178">
-        <v>0</v>
+      <c r="K178" t="s">
+        <v>254</v>
       </c>
       <c r="L178" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9377,7 +9428,7 @@
         <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C179" s="2">
         <v>44194</v>
@@ -9386,10 +9437,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.90960418</v>
+        <v>12.6495877</v>
       </c>
       <c r="F179">
-        <v>100.870256</v>
+        <v>102.0329425</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9403,14 +9454,14 @@
       <c r="J179">
         <v>0</v>
       </c>
-      <c r="K179">
-        <v>0</v>
+      <c r="K179" t="s">
+        <v>254</v>
       </c>
       <c r="L179" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9421,7 +9472,7 @@
         <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C180" s="2">
         <v>44194</v>
@@ -9430,10 +9481,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.93047726</v>
+        <v>12.3757564</v>
       </c>
       <c r="F180">
-        <v>100.8807229</v>
+        <v>102.3818628</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9447,14 +9498,14 @@
       <c r="J180">
         <v>0</v>
       </c>
-      <c r="K180">
-        <v>0</v>
+      <c r="K180" t="s">
+        <v>254</v>
       </c>
       <c r="L180" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9465,7 +9516,7 @@
         <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C181" s="2">
         <v>44194</v>
@@ -9474,10 +9525,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>12.7246169</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>101.9362794</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9491,14 +9542,14 @@
       <c r="J181">
         <v>0</v>
       </c>
-      <c r="K181">
-        <v>0</v>
+      <c r="K181" t="s">
+        <v>254</v>
       </c>
       <c r="L181" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9518,10 +9569,10 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>12.66219926</v>
+        <v>13.772986</v>
       </c>
       <c r="F182">
-        <v>100.8989779</v>
+        <v>100.4855148</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9535,14 +9586,14 @@
       <c r="J182">
         <v>0</v>
       </c>
-      <c r="K182">
-        <v>0</v>
+      <c r="K182" t="s">
+        <v>254</v>
       </c>
       <c r="L182" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9562,10 +9613,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>13.32877789</v>
+        <v>12.90895904</v>
       </c>
       <c r="F183">
-        <v>100.9230017</v>
+        <v>100.891925</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9583,10 +9634,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9606,10 +9657,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>13.33615653</v>
+        <v>12.90960418</v>
       </c>
       <c r="F184">
-        <v>100.9694597</v>
+        <v>100.870256</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9627,10 +9678,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9650,10 +9701,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.83546656</v>
+        <v>12.93047726</v>
       </c>
       <c r="F185">
-        <v>100.967575</v>
+        <v>100.8807229</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9671,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9694,10 +9745,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>13.33545565</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>100.9249432</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9715,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9738,10 +9789,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>13.33841928</v>
+        <v>12.66219926</v>
       </c>
       <c r="F187">
-        <v>100.9526548</v>
+        <v>100.8989779</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9759,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9782,10 +9833,10 @@
         <v>203</v>
       </c>
       <c r="E188">
-        <v>12.68318129</v>
+        <v>13.32877789</v>
       </c>
       <c r="F188">
-        <v>101.2479341</v>
+        <v>100.9230017</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -9803,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9826,10 +9877,10 @@
         <v>204</v>
       </c>
       <c r="E189">
-        <v>12.68178774</v>
+        <v>13.33615653</v>
       </c>
       <c r="F189">
-        <v>101.2804266</v>
+        <v>100.9694597</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -9847,10 +9898,10 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9870,10 +9921,10 @@
         <v>205</v>
       </c>
       <c r="E190">
-        <v>12.67663309</v>
+        <v>12.83546656</v>
       </c>
       <c r="F190">
-        <v>101.2204609</v>
+        <v>100.967575</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -9891,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9914,10 +9965,10 @@
         <v>206</v>
       </c>
       <c r="E191">
-        <v>12.67969829</v>
+        <v>13.33545565</v>
       </c>
       <c r="F191">
-        <v>101.2516232</v>
+        <v>100.9249432</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -9935,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9958,10 +10009,10 @@
         <v>207</v>
       </c>
       <c r="E192">
-        <v>12.67895072</v>
+        <v>13.33841928</v>
       </c>
       <c r="F192">
-        <v>101.2811971</v>
+        <v>100.9526548</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -9979,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10002,10 +10053,10 @@
         <v>208</v>
       </c>
       <c r="E193">
-        <v>12.69121623</v>
+        <v>12.68318129</v>
       </c>
       <c r="F193">
-        <v>101.2828322</v>
+        <v>101.2479341</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -10023,10 +10074,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10046,10 +10097,10 @@
         <v>209</v>
       </c>
       <c r="E194">
-        <v>12.61154131</v>
+        <v>12.68178774</v>
       </c>
       <c r="F194">
-        <v>102.105739</v>
+        <v>101.2804266</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10067,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10090,10 +10141,10 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>12.59875505</v>
+        <v>12.67663309</v>
       </c>
       <c r="F195">
-        <v>102.1108505</v>
+        <v>101.2204609</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10111,10 +10162,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10134,10 +10185,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>12.67969829</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>101.2516232</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10155,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10178,10 +10229,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>12.67895072</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>101.2811971</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10199,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10222,10 +10273,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>12.94007297</v>
+        <v>12.69121623</v>
       </c>
       <c r="F198">
-        <v>100.9198688</v>
+        <v>101.2828322</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10243,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10266,10 +10317,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>12.93500267</v>
+        <v>12.61154131</v>
       </c>
       <c r="F199">
-        <v>100.8828385</v>
+        <v>102.105739</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10287,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10310,10 +10361,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>12.93302705</v>
+        <v>12.59875505</v>
       </c>
       <c r="F200">
-        <v>100.9013151</v>
+        <v>102.1108505</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10331,10 +10382,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10354,10 +10405,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>12.93124481</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>100.9008084</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10375,10 +10426,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10398,10 +10449,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>12.93038104</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>100.9126714</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10419,10 +10470,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10442,10 +10493,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.84875767</v>
+        <v>12.94007297</v>
       </c>
       <c r="F203">
-        <v>100.9017</v>
+        <v>100.9198688</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10463,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10486,10 +10537,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>12.90883138</v>
+        <v>12.93500267</v>
       </c>
       <c r="F204">
-        <v>100.8932458</v>
+        <v>100.8828385</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10507,10 +10558,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10530,10 +10581,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>12.66362634</v>
+        <v>12.93302705</v>
       </c>
       <c r="F205">
-        <v>100.8981743</v>
+        <v>100.9013151</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10551,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10574,10 +10625,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>12.95074463</v>
+        <v>12.93124481</v>
       </c>
       <c r="F206">
-        <v>100.8933879</v>
+        <v>100.9008084</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10595,10 +10646,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10618,10 +10669,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>12.97880506</v>
+        <v>12.93038104</v>
       </c>
       <c r="F207">
-        <v>100.9430835</v>
+        <v>100.9126714</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10639,10 +10690,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10662,10 +10713,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>12.92662465</v>
+        <v>12.84875767</v>
       </c>
       <c r="F208">
-        <v>100.898605</v>
+        <v>100.9017</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10683,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10706,10 +10757,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>12.98328283</v>
+        <v>12.90883138</v>
       </c>
       <c r="F209">
-        <v>100.9354783</v>
+        <v>100.8932458</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -10727,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10750,10 +10801,10 @@
         <v>225</v>
       </c>
       <c r="E210">
-        <v>12.98177123</v>
+        <v>12.66362634</v>
       </c>
       <c r="F210">
-        <v>100.9289336</v>
+        <v>100.8981743</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -10771,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10794,10 +10845,10 @@
         <v>226</v>
       </c>
       <c r="E211">
-        <v>13.01893524</v>
+        <v>12.95074463</v>
       </c>
       <c r="F211">
-        <v>100.932701</v>
+        <v>100.8933879</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -10815,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10838,10 +10889,10 @@
         <v>227</v>
       </c>
       <c r="E212">
-        <v>12.95555524</v>
+        <v>12.97880506</v>
       </c>
       <c r="F212">
-        <v>100.8987028</v>
+        <v>100.9430835</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -10859,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10882,10 +10933,10 @@
         <v>228</v>
       </c>
       <c r="E213">
-        <v>12.93944879</v>
+        <v>12.92662465</v>
       </c>
       <c r="F213">
-        <v>100.9021397</v>
+        <v>100.898605</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -10903,10 +10954,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10926,10 +10977,10 @@
         <v>229</v>
       </c>
       <c r="E214">
-        <v>12.75400498</v>
+        <v>12.98328283</v>
       </c>
       <c r="F214">
-        <v>100.9017967</v>
+        <v>100.9354783</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -10947,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10970,10 +11021,10 @@
         <v>230</v>
       </c>
       <c r="E215">
-        <v>12.69857571</v>
+        <v>12.98177123</v>
       </c>
       <c r="F215">
-        <v>100.8899412</v>
+        <v>100.9289336</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -10991,10 +11042,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11005,7 +11056,7 @@
         <v>276</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C216" s="2">
         <v>44194</v>
@@ -11014,10 +11065,10 @@
         <v>231</v>
       </c>
       <c r="E216">
-        <v>13.76238233</v>
+        <v>13.01893524</v>
       </c>
       <c r="F216">
-        <v>100.507696</v>
+        <v>100.932701</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -11035,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11049,7 +11100,7 @@
         <v>277</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C217" s="2">
         <v>44194</v>
@@ -11058,10 +11109,10 @@
         <v>232</v>
       </c>
       <c r="E217">
-        <v>13.76254009</v>
+        <v>12.95555524</v>
       </c>
       <c r="F217">
-        <v>100.5075498</v>
+        <v>100.8987028</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -11079,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11093,7 +11144,7 @@
         <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C218" s="2">
         <v>44194</v>
@@ -11102,10 +11153,10 @@
         <v>233</v>
       </c>
       <c r="E218">
-        <v>13.92729422</v>
+        <v>12.93944879</v>
       </c>
       <c r="F218">
-        <v>100.5056386</v>
+        <v>100.9021397</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11123,10 +11174,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11137,7 +11188,7 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C219" s="2">
         <v>44194</v>
@@ -11146,10 +11197,10 @@
         <v>234</v>
       </c>
       <c r="E219">
-        <v>13.91794214</v>
+        <v>12.75400498</v>
       </c>
       <c r="F219">
-        <v>100.4950847</v>
+        <v>100.9017967</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -11167,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11184,16 +11235,16 @@
         <v>17</v>
       </c>
       <c r="C220" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D220" t="s">
         <v>235</v>
       </c>
       <c r="E220">
-        <v>13.91532244</v>
+        <v>12.69857571</v>
       </c>
       <c r="F220">
-        <v>100.4236653</v>
+        <v>100.8899412</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -11211,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11228,16 +11279,16 @@
         <v>14</v>
       </c>
       <c r="C221" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D221" t="s">
         <v>236</v>
       </c>
       <c r="E221">
-        <v>14.08063723</v>
+        <v>13.76238233</v>
       </c>
       <c r="F221">
-        <v>100.6228372</v>
+        <v>100.507696</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -11255,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11269,19 +11320,19 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C222" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D222" t="s">
         <v>237</v>
       </c>
       <c r="E222">
-        <v>13.95313369</v>
+        <v>13.76254009</v>
       </c>
       <c r="F222">
-        <v>100.4766133</v>
+        <v>100.5075498</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -11299,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11316,16 +11367,16 @@
         <v>14</v>
       </c>
       <c r="C223" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
       </c>
       <c r="E223">
-        <v>16.78945067</v>
+        <v>13.92729422</v>
       </c>
       <c r="F223">
-        <v>101.0491296</v>
+        <v>100.5056386</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11343,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11360,16 +11411,16 @@
         <v>14</v>
       </c>
       <c r="C224" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D224" t="s">
         <v>239</v>
       </c>
       <c r="E224">
-        <v>16.79472348</v>
+        <v>13.91794214</v>
       </c>
       <c r="F224">
-        <v>101.0418582</v>
+        <v>100.4950847</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -11387,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11404,16 +11455,16 @@
         <v>14</v>
       </c>
       <c r="C225" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D225" t="s">
         <v>240</v>
       </c>
       <c r="E225">
-        <v>16.87641646</v>
+        <v>13.98571223</v>
       </c>
       <c r="F225">
-        <v>101.1720539</v>
+        <v>100.605726</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -11431,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11448,16 +11499,16 @@
         <v>14</v>
       </c>
       <c r="C226" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D226" t="s">
         <v>241</v>
       </c>
       <c r="E226">
-        <v>16.90718372</v>
+        <v>13.87711756</v>
       </c>
       <c r="F226">
-        <v>101.1093359</v>
+        <v>100.4091557</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -11475,10 +11526,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11492,16 +11543,16 @@
         <v>14</v>
       </c>
       <c r="C227" s="2">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="D227" t="s">
         <v>242</v>
       </c>
       <c r="E227">
-        <v>13.91454494</v>
+        <v>13.69058811</v>
       </c>
       <c r="F227">
-        <v>100.4960227</v>
+        <v>100.5032004</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11519,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11533,42 +11584,438 @@
         <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C228" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D228" t="s">
         <v>243</v>
       </c>
       <c r="E228">
+        <v>13.91532244</v>
+      </c>
+      <c r="F228">
+        <v>100.4236653</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>330</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229">
+        <v>289</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D229" t="s">
+        <v>244</v>
+      </c>
+      <c r="E229">
+        <v>14.08063723</v>
+      </c>
+      <c r="F229">
+        <v>100.6228372</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229" t="s">
+        <v>315</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230">
+        <v>290</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D230" t="s">
+        <v>245</v>
+      </c>
+      <c r="E230">
+        <v>13.95313369</v>
+      </c>
+      <c r="F230">
+        <v>100.4766133</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230" t="s">
+        <v>315</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231">
+        <v>291</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D231" t="s">
+        <v>246</v>
+      </c>
+      <c r="E231">
+        <v>16.78945067</v>
+      </c>
+      <c r="F231">
+        <v>101.0491296</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231" t="s">
+        <v>331</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232">
+        <v>292</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D232" t="s">
+        <v>247</v>
+      </c>
+      <c r="E232">
+        <v>16.79472348</v>
+      </c>
+      <c r="F232">
+        <v>101.0418582</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" t="s">
+        <v>331</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233">
+        <v>293</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D233" t="s">
+        <v>248</v>
+      </c>
+      <c r="E233">
+        <v>16.87641646</v>
+      </c>
+      <c r="F233">
+        <v>101.1720539</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
+        <v>331</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234">
+        <v>294</v>
+      </c>
+      <c r="B234" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D234" t="s">
+        <v>249</v>
+      </c>
+      <c r="E234">
+        <v>16.90718372</v>
+      </c>
+      <c r="F234">
+        <v>101.1093359</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234" t="s">
+        <v>331</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235">
+        <v>295</v>
+      </c>
+      <c r="B235" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D235" t="s">
+        <v>250</v>
+      </c>
+      <c r="E235">
+        <v>13.65610344</v>
+      </c>
+      <c r="F235">
+        <v>100.6432163</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235" t="s">
+        <v>332</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236">
+        <v>296</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D236" t="s">
+        <v>251</v>
+      </c>
+      <c r="E236">
+        <v>13.91454494</v>
+      </c>
+      <c r="F236">
+        <v>100.4960227</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236" t="s">
+        <v>315</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237">
+        <v>297</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D237" t="s">
+        <v>252</v>
+      </c>
+      <c r="E237">
         <v>14.5063704</v>
       </c>
-      <c r="F228">
+      <c r="F237">
         <v>100.4640833</v>
       </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>0</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <v>0</v>
-      </c>
-      <c r="K228">
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
-        <v>320</v>
-      </c>
-      <c r="M228" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="N228">
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237" t="s">
+        <v>333</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="N237">
         <v>0</v>
       </c>
     </row>
@@ -11801,6 +12248,15 @@
     <hyperlink ref="M226" r:id="rId225"/>
     <hyperlink ref="M227" r:id="rId226"/>
     <hyperlink ref="M228" r:id="rId227"/>
+    <hyperlink ref="M229" r:id="rId228"/>
+    <hyperlink ref="M230" r:id="rId229"/>
+    <hyperlink ref="M231" r:id="rId230"/>
+    <hyperlink ref="M232" r:id="rId231"/>
+    <hyperlink ref="M233" r:id="rId232"/>
+    <hyperlink ref="M234" r:id="rId233"/>
+    <hyperlink ref="M235" r:id="rId234"/>
+    <hyperlink ref="M236" r:id="rId235"/>
+    <hyperlink ref="M237" r:id="rId236"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="431">
   <si>
     <t>id</t>
   </si>
@@ -517,6 +517,12 @@
     <t>ร้าน The SUN ถ.บรมราชชนนี</t>
   </si>
   <si>
+    <t>อาคารทรู ทาวเวอร์ 1 ชั้น 22</t>
+  </si>
+  <si>
+    <t>สำนักงานใหญ่ EGCO</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>ร้าน mong kok เดอะมอลล์งามวงศ์วาน</t>
   </si>
   <si>
+    <t>สถานบันเทิง DC</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -589,6 +598,15 @@
     <t>เดอะมอลล์งามวงศ์วาน</t>
   </si>
   <si>
+    <t>สถานบันเทิง ท่าช้าง</t>
+  </si>
+  <si>
+    <t>สถานบันเทิง อินฟินิตี้</t>
+  </si>
+  <si>
+    <t>ธนาคารกสิกรไทย อาคารสำนักงานใหญ่ราษฎร์บูรณะ ชั้น 33</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -745,6 +763,24 @@
     <t>ร้าน the roof bar</t>
   </si>
   <si>
+    <t>สำนักงานขนส่งจังหวัดลำปาง</t>
+  </si>
+  <si>
+    <t>ร้านมิสเตอร์ DIY โลตัสคำเที่ยง</t>
+  </si>
+  <si>
+    <t>โรงเหล้าตะวันแดง อ.เมืองสุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงศรี สาขาพาราไดซ์พาร์ค</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงศรี สาขาเทสโก้โลตัส สุขุมวิท50</t>
+  </si>
+  <si>
+    <t>ตลาดนัดวัดโคกเกตุ</t>
+  </si>
+  <si>
     <t>วัดละหาร</t>
   </si>
   <si>
@@ -769,12 +805,42 @@
     <t>ร้าน เมมโมรี่ (memory 90's)</t>
   </si>
   <si>
+    <t>ตลาดนัดโลตัสคำเที่ยง</t>
+  </si>
+  <si>
+    <t>ตลาดนัดวัดอมรวดี</t>
+  </si>
+  <si>
+    <t>สนามซ้อมไก่กลางทุ่ง ที่วัดป่าพฤกษ์</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
+    <t>สถานบันเทิง วอร์มอัพ</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเฟสติวัล  เชียงใหม่</t>
+  </si>
+  <si>
+    <t>สถานบันเทิง พริตตี้คลับ เอ็กคลูซีฟ</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย สำนักงานเขตระยอง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย สาขานิคมพัฒนา ระยอง</t>
+  </si>
+  <si>
     <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
   </si>
   <si>
+    <t>สนามชนไก่ อ.โคกสำโรง จ.ลพบุรี</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านชาบูอิ่มหมีพีมัน สาขาสตาร์อเวนิว ถนนซูเปอร์ไฮเวย์ เชียงใหม่ </t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -943,6 +1009,9 @@
     <t>ผู้ป่วยชาย อายุ 44 ปี มีอาชีพอิสระ บ้านพักอยู่เขตสาทร มีประวัติไปเที่ยวสถานบันเทิงหลายแห่งในพื้นที่ กทม.</t>
   </si>
   <si>
+    <t>เอกชนเร่งแจงไทม์ไลน์พนักงานติดโควิด พร้อมดันมาตรการป้องกันขั้นสูงสุด</t>
+  </si>
+  <si>
     <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
   </si>
   <si>
@@ -964,6 +1033,9 @@
     <t>นนทบุรีแจ้งไทม์ไลน์ ผู้ป่วยโควิด-19 ในพื้นที่ รายที่ 186-193</t>
   </si>
   <si>
+    <t>เชียงใหม่พบสาว 25 ปี ติดเชื้อโควิด-19 ไทม์ไลน์เที่ยวผับดังหลายแห่ง</t>
+  </si>
+  <si>
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
@@ -1006,6 +1078,15 @@
     <t xml:space="preserve">ร้าน the roof bar มีผู้ติดเชื้อ covid19 เป็นพนักงานเสริฟที่ร้าน </t>
   </si>
   <si>
+    <t>สุพรรณฯ พบโควิดอีก 1 ราย ชายวัย 66 ปีเป็นรายที่ 11 กลับจากชนไก่อ่างทอง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงศรีขอแจ้งปิดบางสาขาเป็นการชั่วคราว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สมุทรสงคราม เปิดไทม์ไลน์ผู้ป่วยรายที่ 21-22 </t>
+  </si>
+  <si>
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
@@ -1150,6 +1231,9 @@
     <t>https://www.facebook.com/earthpongsakornk/posts/436569911086243</t>
   </si>
   <si>
+    <t>https://www.thairath.co.th/news/business/2006208</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/marketing/news-582754</t>
   </si>
   <si>
@@ -1171,6 +1255,9 @@
     <t>https://mgronline.com/onlinesection/detail/9630000134022</t>
   </si>
   <si>
+    <t>https://www.sanook.com/news/8330358/</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/general/news-585006</t>
   </si>
   <si>
@@ -1199,6 +1286,15 @@
   </si>
   <si>
     <t>https://www.facebook.com/TheRoofBarRama3/posts/419782009363732</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/2006023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KrungsriSimple/posts/3465605033488132</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/2005988</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/region/news_2509978</t>
@@ -1585,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N237"/>
+  <dimension ref="A1:N259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1661,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1702,22 +1798,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1746,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L4" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1790,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J5" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1834,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1878,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1922,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K8" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L8" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1966,22 +2062,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K9" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L9" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2010,22 +2106,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K10" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L10" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2054,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L11" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2098,22 +2194,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K12" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L12" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2142,22 +2238,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K13" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L13" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2186,22 +2282,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K14" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L14" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2230,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J15" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K15" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L15" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2274,22 +2370,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J16" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K16" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L16" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2318,22 +2414,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J17" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K17" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2362,22 +2458,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J18" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K18" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L18" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2418,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2450,22 +2546,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J20" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K20" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L20" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2494,22 +2590,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K21" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L21" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2538,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K22" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2582,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K23" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L23" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2626,22 +2722,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2670,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2714,22 +2810,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2758,22 +2854,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2802,22 +2898,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2846,22 +2942,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2890,22 +2986,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2934,22 +3030,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2978,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3022,22 +3118,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3066,22 +3162,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3110,22 +3206,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3154,22 +3250,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3210,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3254,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3289,19 +3385,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3330,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I40" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3374,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I41" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K41" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3421,19 +3517,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J42" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K42" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3465,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J43" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3509,19 +3605,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J44" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3553,19 +3649,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J45" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3594,22 +3690,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J46" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K46" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3638,22 +3734,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I47" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J47" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K47" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3682,22 +3778,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I48" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J48" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K48" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L48" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3726,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J49" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K49" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3770,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I50" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J50" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K50" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3814,22 +3910,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J51" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K51" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3858,22 +3954,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J52" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K52" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L52" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3902,22 +3998,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I53" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J53" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K53" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3946,22 +4042,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J54" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K54" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3990,22 +4086,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I55" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J55" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K55" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4034,22 +4130,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I56" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J56" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K56" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4078,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J57" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K57" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L57" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4122,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I58" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J58" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K58" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L58" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4166,22 +4262,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I59" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J59" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K59" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L59" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4210,22 +4306,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I60" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K60" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L60" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4254,22 +4350,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J61" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K61" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4298,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I62" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J62" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K62" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L62" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4342,22 +4438,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I63" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J63" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4386,22 +4482,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J64" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K64" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L64" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4442,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4486,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4530,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4574,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4618,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4650,22 +4746,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I70" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J70" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K70" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4694,22 +4790,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I71" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J71" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K71" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L71" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4738,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I72" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J72" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K72" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L72" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4782,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I73" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J73" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K73" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L73" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4826,22 +4922,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I74" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J74" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K74" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4870,22 +4966,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I75" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J75" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K75" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L75" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4914,22 +5010,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I76" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J76" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K76" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L76" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4970,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5014,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5058,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5102,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5137,19 +5233,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J81" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K81" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L81" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5181,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J82" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K82" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L82" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5222,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I83" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J83" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K83" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L83" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5266,22 +5362,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I84" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J84" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K84" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L84" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5310,22 +5406,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I85" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J85" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K85" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5354,22 +5450,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I86" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J86" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K86" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L86" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5398,22 +5494,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I87" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J87" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K87" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5442,22 +5538,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I88" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J88" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K88" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L88" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5486,22 +5582,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I89" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J89" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K89" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L89" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5530,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I90" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J90" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K90" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L90" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5574,22 +5670,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I91" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J91" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K91" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L91" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5618,22 +5714,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I92" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J92" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K92" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L92" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5674,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5718,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5762,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5806,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5841,19 +5937,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J97" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K97" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L97" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5882,22 +5978,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I98" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J98" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K98" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L98" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5926,22 +6022,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I99" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J99" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K99" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L99" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5973,19 +6069,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J100" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K100" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L100" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6014,22 +6110,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I101" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J101" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K101" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L101" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6058,22 +6154,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I102" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J102" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K102" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L102" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6102,22 +6198,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I103" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J103" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K103" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L103" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6146,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I104" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J104" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K104" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L104" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6190,22 +6286,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I105" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J105" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K105" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L105" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6246,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6290,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6334,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6378,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6422,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6466,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6498,22 +6594,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I112" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J112" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K112" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L112" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6542,22 +6638,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I113" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="J113" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K113" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L113" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6586,22 +6682,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I114" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J114" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K114" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L114" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6630,22 +6726,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I115" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J115" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K115" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L115" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6674,22 +6770,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I116" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J116" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K116" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L116" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6718,22 +6814,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I117" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J117" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K117" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L117" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6762,22 +6858,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I118" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J118" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K118" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L118" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6806,22 +6902,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I119" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J119" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K119" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L119" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6862,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6906,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6950,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6994,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -7038,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7082,10 +7178,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7126,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7170,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7214,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7258,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7290,22 +7386,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I130" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J130" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K130" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L130" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7334,22 +7430,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I131" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J131" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K131" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L131" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7378,22 +7474,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I132" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J132" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="K132" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L132" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7434,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7478,10 +7574,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7522,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7566,10 +7662,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7610,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7654,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7698,10 +7794,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7742,10 +7838,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7786,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7830,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7874,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7918,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7962,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8006,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8050,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8094,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8138,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8182,10 +8278,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8226,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8237,22 +8333,22 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C152" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D152" t="s">
         <v>167</v>
       </c>
       <c r="E152">
-        <v>13.734066</v>
+        <v>13.76250003</v>
       </c>
       <c r="F152">
-        <v>100.5278354</v>
+        <v>100.5681171</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8270,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8281,22 +8377,22 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D153" t="s">
         <v>168</v>
       </c>
       <c r="E153">
-        <v>12.6483736</v>
+        <v>13.87041671</v>
       </c>
       <c r="F153">
-        <v>101.2273679</v>
+        <v>100.567355</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8314,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8328,7 +8424,7 @@
         <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C154" s="2">
         <v>44191</v>
@@ -8337,31 +8433,31 @@
         <v>169</v>
       </c>
       <c r="E154">
-        <v>12.69691038</v>
+        <v>13.734066</v>
       </c>
       <c r="F154">
-        <v>101.268451</v>
+        <v>100.5278354</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" t="s">
-        <v>253</v>
-      </c>
-      <c r="I154" t="s">
-        <v>256</v>
-      </c>
-      <c r="J154" t="s">
-        <v>258</v>
-      </c>
-      <c r="K154" t="s">
-        <v>254</v>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8372,7 +8468,7 @@
         <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155" s="2">
         <v>44191</v>
@@ -8381,31 +8477,31 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>12.66695256</v>
+        <v>12.6483736</v>
       </c>
       <c r="F155">
-        <v>101.2738756</v>
+        <v>101.2273679</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" t="s">
-        <v>253</v>
-      </c>
-      <c r="I155" t="s">
-        <v>256</v>
-      </c>
-      <c r="J155" t="s">
-        <v>258</v>
-      </c>
-      <c r="K155" t="s">
-        <v>254</v>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8425,31 +8521,31 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>13.86265154</v>
+        <v>12.69691038</v>
       </c>
       <c r="F156">
-        <v>100.6432858</v>
+        <v>101.268451</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
+      <c r="H156" t="s">
+        <v>275</v>
+      </c>
+      <c r="I156" t="s">
+        <v>278</v>
+      </c>
+      <c r="J156" t="s">
+        <v>280</v>
+      </c>
+      <c r="K156" t="s">
+        <v>276</v>
       </c>
       <c r="L156" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8469,31 +8565,31 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>12.66695256</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>101.2738756</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
+      <c r="H157" t="s">
+        <v>275</v>
+      </c>
+      <c r="I157" t="s">
+        <v>278</v>
+      </c>
+      <c r="J157" t="s">
+        <v>280</v>
+      </c>
+      <c r="K157" t="s">
+        <v>276</v>
       </c>
       <c r="L157" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8513,10 +8609,10 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.7831563</v>
+        <v>13.86265154</v>
       </c>
       <c r="F158">
-        <v>100.5154952</v>
+        <v>100.6432858</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8534,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8557,10 +8653,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>13.85626845</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>100.5418055</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8578,10 +8674,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8601,10 +8697,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>13.93341769</v>
+        <v>13.7831563</v>
       </c>
       <c r="F160">
-        <v>100.7190324</v>
+        <v>100.5154952</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8622,10 +8718,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8636,19 +8732,19 @@
         <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D161" t="s">
         <v>176</v>
       </c>
       <c r="E161">
-        <v>12.6844183</v>
+        <v>13.85626845</v>
       </c>
       <c r="F161">
-        <v>101.2742991</v>
+        <v>100.5418055</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8662,14 +8758,14 @@
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161" t="s">
-        <v>254</v>
+      <c r="K161">
+        <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8680,19 +8776,19 @@
         <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D162" t="s">
         <v>177</v>
       </c>
       <c r="E162">
-        <v>12.9730033</v>
+        <v>13.93341769</v>
       </c>
       <c r="F162">
-        <v>100.9029061</v>
+        <v>100.7190324</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8706,14 +8802,14 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162" t="s">
-        <v>254</v>
+      <c r="K162">
+        <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8724,7 +8820,7 @@
         <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C163" s="2">
         <v>44192</v>
@@ -8733,10 +8829,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>13.7946069</v>
+        <v>12.6844183</v>
       </c>
       <c r="F163">
-        <v>100.5161808</v>
+        <v>101.2742991</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8751,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L163" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8768,7 +8864,7 @@
         <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C164" s="2">
         <v>44192</v>
@@ -8777,31 +8873,31 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>13.54448567</v>
+        <v>12.9730033</v>
       </c>
       <c r="F164">
-        <v>100.2752027</v>
+        <v>100.9029061</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164" t="s">
-        <v>253</v>
-      </c>
-      <c r="I164" t="s">
-        <v>256</v>
-      </c>
-      <c r="J164" t="s">
-        <v>258</v>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L164" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8821,10 +8917,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>13.67424547</v>
+        <v>13.7946069</v>
       </c>
       <c r="F165">
-        <v>100.426448</v>
+        <v>100.5161808</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8838,14 +8934,14 @@
       <c r="J165">
         <v>0</v>
       </c>
-      <c r="K165">
-        <v>0</v>
+      <c r="K165" t="s">
+        <v>276</v>
       </c>
       <c r="L165" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8865,31 +8961,31 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>13.94010609</v>
+        <v>13.54448567</v>
       </c>
       <c r="F166">
-        <v>100.5124853</v>
+        <v>100.2752027</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
+      <c r="H166" t="s">
+        <v>275</v>
+      </c>
+      <c r="I166" t="s">
+        <v>278</v>
+      </c>
+      <c r="J166" t="s">
+        <v>280</v>
+      </c>
+      <c r="K166" t="s">
+        <v>276</v>
       </c>
       <c r="L166" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8909,10 +9005,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>13.96674442</v>
+        <v>13.67424547</v>
       </c>
       <c r="F167">
-        <v>100.5302521</v>
+        <v>100.426448</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8930,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8953,10 +9049,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.8766052</v>
+        <v>13.94010609</v>
       </c>
       <c r="F168">
-        <v>100.4449333</v>
+        <v>100.5124853</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8974,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8997,10 +9093,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>13.85555825</v>
+        <v>13.96674442</v>
       </c>
       <c r="F169">
-        <v>100.5424068</v>
+        <v>100.5302521</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -9018,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9035,34 +9131,34 @@
         <v>14</v>
       </c>
       <c r="C170" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D170" t="s">
         <v>185</v>
       </c>
       <c r="E170">
-        <v>13.73545544</v>
+        <v>13.8766052</v>
       </c>
       <c r="F170">
-        <v>100.5661584</v>
+        <v>100.4449333</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170" t="s">
-        <v>254</v>
-      </c>
-      <c r="I170" t="s">
-        <v>256</v>
-      </c>
-      <c r="J170" t="s">
-        <v>258</v>
-      </c>
-      <c r="K170" t="s">
-        <v>254</v>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>385</v>
@@ -9079,16 +9175,16 @@
         <v>14</v>
       </c>
       <c r="C171" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D171" t="s">
         <v>186</v>
       </c>
       <c r="E171">
-        <v>13.91669065</v>
+        <v>13.85555825</v>
       </c>
       <c r="F171">
-        <v>100.397828</v>
+        <v>100.5424068</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -9106,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9123,16 +9219,16 @@
         <v>14</v>
       </c>
       <c r="C172" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D172" t="s">
         <v>187</v>
       </c>
       <c r="E172">
-        <v>13.76710313</v>
+        <v>18.79792861</v>
       </c>
       <c r="F172">
-        <v>100.5328623</v>
+        <v>98.96334683000001</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9150,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9173,31 +9269,31 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>13.7495748</v>
+        <v>13.73545544</v>
       </c>
       <c r="F173">
-        <v>100.5157013</v>
+        <v>100.5661584</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
+      <c r="H173" t="s">
+        <v>276</v>
+      </c>
+      <c r="I173" t="s">
+        <v>278</v>
+      </c>
+      <c r="J173" t="s">
+        <v>280</v>
+      </c>
+      <c r="K173" t="s">
+        <v>276</v>
       </c>
       <c r="L173" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9217,10 +9313,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>13.86015375</v>
+        <v>13.91669065</v>
       </c>
       <c r="F174">
-        <v>100.5133052</v>
+        <v>100.397828</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9238,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9261,10 +9357,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>13.85554623</v>
+        <v>13.76710313</v>
       </c>
       <c r="F175">
-        <v>100.5420379</v>
+        <v>100.5328623</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9282,10 +9378,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9296,40 +9392,40 @@
         <v>236</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D176" t="s">
         <v>191</v>
       </c>
       <c r="E176">
-        <v>12.9098775</v>
+        <v>13.7495748</v>
       </c>
       <c r="F176">
-        <v>100.891563</v>
+        <v>100.5157013</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176" t="s">
-        <v>254</v>
-      </c>
-      <c r="I176" t="s">
-        <v>256</v>
-      </c>
-      <c r="J176" t="s">
-        <v>258</v>
-      </c>
-      <c r="K176" t="s">
-        <v>254</v>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9340,19 +9436,19 @@
         <v>237</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D177" t="s">
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.3535702</v>
+        <v>13.86015375</v>
       </c>
       <c r="F177">
-        <v>100.9765439</v>
+        <v>100.5133052</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9366,14 +9462,14 @@
       <c r="J177">
         <v>0</v>
       </c>
-      <c r="K177" t="s">
-        <v>254</v>
+      <c r="K177">
+        <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9384,19 +9480,19 @@
         <v>238</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C178" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D178" t="s">
         <v>193</v>
       </c>
       <c r="E178">
-        <v>12.948902</v>
+        <v>13.85554623</v>
       </c>
       <c r="F178">
-        <v>100.891292</v>
+        <v>100.5420379</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9410,14 +9506,14 @@
       <c r="J178">
         <v>0</v>
       </c>
-      <c r="K178" t="s">
-        <v>254</v>
+      <c r="K178">
+        <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9428,19 +9524,19 @@
         <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D179" t="s">
         <v>194</v>
       </c>
       <c r="E179">
-        <v>12.6495877</v>
+        <v>18.80178381</v>
       </c>
       <c r="F179">
-        <v>102.0329425</v>
+        <v>98.99477501</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9454,14 +9550,14 @@
       <c r="J179">
         <v>0</v>
       </c>
-      <c r="K179" t="s">
-        <v>254</v>
+      <c r="K179">
+        <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9472,19 +9568,19 @@
         <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D180" t="s">
         <v>195</v>
       </c>
       <c r="E180">
-        <v>12.3757564</v>
+        <v>18.79840936</v>
       </c>
       <c r="F180">
-        <v>102.3818628</v>
+        <v>98.96368013999999</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9498,14 +9594,14 @@
       <c r="J180">
         <v>0</v>
       </c>
-      <c r="K180" t="s">
-        <v>254</v>
+      <c r="K180">
+        <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9516,19 +9612,19 @@
         <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D181" t="s">
         <v>196</v>
       </c>
       <c r="E181">
-        <v>12.7246169</v>
+        <v>13.67953551</v>
       </c>
       <c r="F181">
-        <v>101.9362794</v>
+        <v>100.5139293</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9542,14 +9638,14 @@
       <c r="J181">
         <v>0</v>
       </c>
-      <c r="K181" t="s">
-        <v>254</v>
+      <c r="K181">
+        <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9560,7 +9656,7 @@
         <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C182" s="2">
         <v>44194</v>
@@ -9569,31 +9665,31 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>13.772986</v>
+        <v>12.9098775</v>
       </c>
       <c r="F182">
-        <v>100.4855148</v>
+        <v>100.891563</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
+      <c r="H182" t="s">
+        <v>276</v>
+      </c>
+      <c r="I182" t="s">
+        <v>278</v>
+      </c>
+      <c r="J182" t="s">
+        <v>280</v>
       </c>
       <c r="K182" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L182" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9604,7 +9700,7 @@
         <v>243</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C183" s="2">
         <v>44194</v>
@@ -9613,10 +9709,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>12.90895904</v>
+        <v>13.3535702</v>
       </c>
       <c r="F183">
-        <v>100.891925</v>
+        <v>100.9765439</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9630,14 +9726,14 @@
       <c r="J183">
         <v>0</v>
       </c>
-      <c r="K183">
-        <v>0</v>
+      <c r="K183" t="s">
+        <v>276</v>
       </c>
       <c r="L183" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9657,10 +9753,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.90960418</v>
+        <v>12.948902</v>
       </c>
       <c r="F184">
-        <v>100.870256</v>
+        <v>100.891292</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9674,14 +9770,14 @@
       <c r="J184">
         <v>0</v>
       </c>
-      <c r="K184">
-        <v>0</v>
+      <c r="K184" t="s">
+        <v>276</v>
       </c>
       <c r="L184" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9692,7 +9788,7 @@
         <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C185" s="2">
         <v>44194</v>
@@ -9701,10 +9797,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.93047726</v>
+        <v>12.6495877</v>
       </c>
       <c r="F185">
-        <v>100.8807229</v>
+        <v>102.0329425</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9718,14 +9814,14 @@
       <c r="J185">
         <v>0</v>
       </c>
-      <c r="K185">
-        <v>0</v>
+      <c r="K185" t="s">
+        <v>276</v>
       </c>
       <c r="L185" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9736,7 +9832,7 @@
         <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C186" s="2">
         <v>44194</v>
@@ -9745,10 +9841,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>12.3757564</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>102.3818628</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9762,14 +9858,14 @@
       <c r="J186">
         <v>0</v>
       </c>
-      <c r="K186">
-        <v>0</v>
+      <c r="K186" t="s">
+        <v>276</v>
       </c>
       <c r="L186" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9780,7 +9876,7 @@
         <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C187" s="2">
         <v>44194</v>
@@ -9789,10 +9885,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>12.66219926</v>
+        <v>12.7246169</v>
       </c>
       <c r="F187">
-        <v>100.8989779</v>
+        <v>101.9362794</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9806,14 +9902,14 @@
       <c r="J187">
         <v>0</v>
       </c>
-      <c r="K187">
-        <v>0</v>
+      <c r="K187" t="s">
+        <v>276</v>
       </c>
       <c r="L187" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9833,10 +9929,10 @@
         <v>203</v>
       </c>
       <c r="E188">
-        <v>13.32877789</v>
+        <v>13.772986</v>
       </c>
       <c r="F188">
-        <v>100.9230017</v>
+        <v>100.4855148</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -9850,14 +9946,14 @@
       <c r="J188">
         <v>0</v>
       </c>
-      <c r="K188">
-        <v>0</v>
+      <c r="K188" t="s">
+        <v>276</v>
       </c>
       <c r="L188" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9877,10 +9973,10 @@
         <v>204</v>
       </c>
       <c r="E189">
-        <v>13.33615653</v>
+        <v>12.90895904</v>
       </c>
       <c r="F189">
-        <v>100.9694597</v>
+        <v>100.891925</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -9898,10 +9994,10 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9921,10 +10017,10 @@
         <v>205</v>
       </c>
       <c r="E190">
-        <v>12.83546656</v>
+        <v>12.90960418</v>
       </c>
       <c r="F190">
-        <v>100.967575</v>
+        <v>100.870256</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -9942,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9965,10 +10061,10 @@
         <v>206</v>
       </c>
       <c r="E191">
-        <v>13.33545565</v>
+        <v>12.93047726</v>
       </c>
       <c r="F191">
-        <v>100.9249432</v>
+        <v>100.8807229</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -9986,10 +10082,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -10009,10 +10105,10 @@
         <v>207</v>
       </c>
       <c r="E192">
-        <v>13.33841928</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>100.9526548</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -10030,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10053,10 +10149,10 @@
         <v>208</v>
       </c>
       <c r="E193">
-        <v>12.68318129</v>
+        <v>12.66219926</v>
       </c>
       <c r="F193">
-        <v>101.2479341</v>
+        <v>100.8989779</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -10074,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10097,10 +10193,10 @@
         <v>209</v>
       </c>
       <c r="E194">
-        <v>12.68178774</v>
+        <v>13.32877789</v>
       </c>
       <c r="F194">
-        <v>101.2804266</v>
+        <v>100.9230017</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10118,10 +10214,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10141,10 +10237,10 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>12.67663309</v>
+        <v>13.33615653</v>
       </c>
       <c r="F195">
-        <v>101.2204609</v>
+        <v>100.9694597</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10162,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10185,10 +10281,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>12.67969829</v>
+        <v>12.83546656</v>
       </c>
       <c r="F196">
-        <v>101.2516232</v>
+        <v>100.967575</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10206,10 +10302,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10229,10 +10325,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>12.67895072</v>
+        <v>13.33545565</v>
       </c>
       <c r="F197">
-        <v>101.2811971</v>
+        <v>100.9249432</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10250,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10273,10 +10369,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>12.69121623</v>
+        <v>13.33841928</v>
       </c>
       <c r="F198">
-        <v>101.2828322</v>
+        <v>100.9526548</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10294,10 +10390,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10317,10 +10413,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>12.61154131</v>
+        <v>12.68318129</v>
       </c>
       <c r="F199">
-        <v>102.105739</v>
+        <v>101.2479341</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10338,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10361,10 +10457,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>12.59875505</v>
+        <v>12.68178774</v>
       </c>
       <c r="F200">
-        <v>102.1108505</v>
+        <v>101.2804266</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10382,10 +10478,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10405,10 +10501,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>12.67663309</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>101.2204609</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10426,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10449,10 +10545,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>12.67969829</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>101.2516232</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10470,10 +10566,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10493,10 +10589,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.94007297</v>
+        <v>12.67895072</v>
       </c>
       <c r="F203">
-        <v>100.9198688</v>
+        <v>101.2811971</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10514,10 +10610,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10537,10 +10633,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>12.93500267</v>
+        <v>12.69121623</v>
       </c>
       <c r="F204">
-        <v>100.8828385</v>
+        <v>101.2828322</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10558,10 +10654,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10581,10 +10677,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>12.93302705</v>
+        <v>12.61154131</v>
       </c>
       <c r="F205">
-        <v>100.9013151</v>
+        <v>102.105739</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10602,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10625,10 +10721,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>12.93124481</v>
+        <v>12.59875505</v>
       </c>
       <c r="F206">
-        <v>100.9008084</v>
+        <v>102.1108505</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10646,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10669,10 +10765,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>12.93038104</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>100.9126714</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10690,10 +10786,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10713,10 +10809,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>12.84875767</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>100.9017</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10734,10 +10830,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10757,10 +10853,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>12.90883138</v>
+        <v>12.94007297</v>
       </c>
       <c r="F209">
-        <v>100.8932458</v>
+        <v>100.9198688</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -10778,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10801,10 +10897,10 @@
         <v>225</v>
       </c>
       <c r="E210">
-        <v>12.66362634</v>
+        <v>12.93500267</v>
       </c>
       <c r="F210">
-        <v>100.8981743</v>
+        <v>100.8828385</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -10822,10 +10918,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10845,10 +10941,10 @@
         <v>226</v>
       </c>
       <c r="E211">
-        <v>12.95074463</v>
+        <v>12.93302705</v>
       </c>
       <c r="F211">
-        <v>100.8933879</v>
+        <v>100.9013151</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -10866,10 +10962,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10889,10 +10985,10 @@
         <v>227</v>
       </c>
       <c r="E212">
-        <v>12.97880506</v>
+        <v>12.93124481</v>
       </c>
       <c r="F212">
-        <v>100.9430835</v>
+        <v>100.9008084</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -10910,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10933,10 +11029,10 @@
         <v>228</v>
       </c>
       <c r="E213">
-        <v>12.92662465</v>
+        <v>12.93038104</v>
       </c>
       <c r="F213">
-        <v>100.898605</v>
+        <v>100.9126714</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -10954,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10977,10 +11073,10 @@
         <v>229</v>
       </c>
       <c r="E214">
-        <v>12.98328283</v>
+        <v>12.84875767</v>
       </c>
       <c r="F214">
-        <v>100.9354783</v>
+        <v>100.9017</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -10998,10 +11094,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11021,10 +11117,10 @@
         <v>230</v>
       </c>
       <c r="E215">
-        <v>12.98177123</v>
+        <v>12.90883138</v>
       </c>
       <c r="F215">
-        <v>100.9289336</v>
+        <v>100.8932458</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -11042,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11065,10 +11161,10 @@
         <v>231</v>
       </c>
       <c r="E216">
-        <v>13.01893524</v>
+        <v>12.66362634</v>
       </c>
       <c r="F216">
-        <v>100.932701</v>
+        <v>100.8981743</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -11086,10 +11182,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11109,10 +11205,10 @@
         <v>232</v>
       </c>
       <c r="E217">
-        <v>12.95555524</v>
+        <v>12.95074463</v>
       </c>
       <c r="F217">
-        <v>100.8987028</v>
+        <v>100.8933879</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -11130,10 +11226,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11153,10 +11249,10 @@
         <v>233</v>
       </c>
       <c r="E218">
-        <v>12.93944879</v>
+        <v>12.97880506</v>
       </c>
       <c r="F218">
-        <v>100.9021397</v>
+        <v>100.9430835</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11174,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11197,10 +11293,10 @@
         <v>234</v>
       </c>
       <c r="E219">
-        <v>12.75400498</v>
+        <v>12.92662465</v>
       </c>
       <c r="F219">
-        <v>100.9017967</v>
+        <v>100.898605</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -11218,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11241,10 +11337,10 @@
         <v>235</v>
       </c>
       <c r="E220">
-        <v>12.69857571</v>
+        <v>12.98328283</v>
       </c>
       <c r="F220">
-        <v>100.8899412</v>
+        <v>100.9354783</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -11262,10 +11358,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11276,7 +11372,7 @@
         <v>281</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C221" s="2">
         <v>44194</v>
@@ -11285,10 +11381,10 @@
         <v>236</v>
       </c>
       <c r="E221">
-        <v>13.76238233</v>
+        <v>12.98177123</v>
       </c>
       <c r="F221">
-        <v>100.507696</v>
+        <v>100.9289336</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -11306,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11320,7 +11416,7 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C222" s="2">
         <v>44194</v>
@@ -11329,10 +11425,10 @@
         <v>237</v>
       </c>
       <c r="E222">
-        <v>13.76254009</v>
+        <v>13.01893524</v>
       </c>
       <c r="F222">
-        <v>100.5075498</v>
+        <v>100.932701</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -11350,10 +11446,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11364,7 +11460,7 @@
         <v>283</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C223" s="2">
         <v>44194</v>
@@ -11373,10 +11469,10 @@
         <v>238</v>
       </c>
       <c r="E223">
-        <v>13.92729422</v>
+        <v>12.95555524</v>
       </c>
       <c r="F223">
-        <v>100.5056386</v>
+        <v>100.8987028</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11394,10 +11490,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11408,7 +11504,7 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C224" s="2">
         <v>44194</v>
@@ -11417,10 +11513,10 @@
         <v>239</v>
       </c>
       <c r="E224">
-        <v>13.91794214</v>
+        <v>12.93944879</v>
       </c>
       <c r="F224">
-        <v>100.4950847</v>
+        <v>100.9021397</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -11438,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11452,7 +11548,7 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C225" s="2">
         <v>44194</v>
@@ -11461,10 +11557,10 @@
         <v>240</v>
       </c>
       <c r="E225">
-        <v>13.98571223</v>
+        <v>12.75400498</v>
       </c>
       <c r="F225">
-        <v>100.605726</v>
+        <v>100.9017967</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -11482,10 +11578,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11496,7 +11592,7 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C226" s="2">
         <v>44194</v>
@@ -11505,10 +11601,10 @@
         <v>241</v>
       </c>
       <c r="E226">
-        <v>13.87711756</v>
+        <v>12.69857571</v>
       </c>
       <c r="F226">
-        <v>100.4091557</v>
+        <v>100.8899412</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -11526,10 +11622,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11549,10 +11645,10 @@
         <v>242</v>
       </c>
       <c r="E227">
-        <v>13.69058811</v>
+        <v>13.76238233</v>
       </c>
       <c r="F227">
-        <v>100.5032004</v>
+        <v>100.507696</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11570,10 +11666,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11584,19 +11680,19 @@
         <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C228" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D228" t="s">
         <v>243</v>
       </c>
       <c r="E228">
-        <v>13.91532244</v>
+        <v>13.76254009</v>
       </c>
       <c r="F228">
-        <v>100.4236653</v>
+        <v>100.5075498</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -11614,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="L228" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11631,16 +11727,16 @@
         <v>14</v>
       </c>
       <c r="C229" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D229" t="s">
         <v>244</v>
       </c>
       <c r="E229">
-        <v>14.08063723</v>
+        <v>13.92729422</v>
       </c>
       <c r="F229">
-        <v>100.6228372</v>
+        <v>100.5056386</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -11658,10 +11754,10 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11675,16 +11771,16 @@
         <v>14</v>
       </c>
       <c r="C230" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D230" t="s">
         <v>245</v>
       </c>
       <c r="E230">
-        <v>13.95313369</v>
+        <v>13.91794214</v>
       </c>
       <c r="F230">
-        <v>100.4766133</v>
+        <v>100.4950847</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -11702,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11719,16 +11815,16 @@
         <v>14</v>
       </c>
       <c r="C231" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D231" t="s">
         <v>246</v>
       </c>
       <c r="E231">
-        <v>16.78945067</v>
+        <v>13.98571223</v>
       </c>
       <c r="F231">
-        <v>101.0491296</v>
+        <v>100.605726</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -11746,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11763,16 +11859,16 @@
         <v>14</v>
       </c>
       <c r="C232" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D232" t="s">
         <v>247</v>
       </c>
       <c r="E232">
-        <v>16.79472348</v>
+        <v>13.87711756</v>
       </c>
       <c r="F232">
-        <v>101.0418582</v>
+        <v>100.4091557</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -11790,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="L232" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11807,16 +11903,16 @@
         <v>14</v>
       </c>
       <c r="C233" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D233" t="s">
         <v>248</v>
       </c>
       <c r="E233">
-        <v>16.87641646</v>
+        <v>13.69058811</v>
       </c>
       <c r="F233">
-        <v>101.1720539</v>
+        <v>100.5032004</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -11834,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="L233" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11851,16 +11947,16 @@
         <v>14</v>
       </c>
       <c r="C234" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D234" t="s">
         <v>249</v>
       </c>
       <c r="E234">
-        <v>16.90718372</v>
+        <v>18.26066421</v>
       </c>
       <c r="F234">
-        <v>101.1093359</v>
+        <v>99.54330871000001</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -11878,10 +11974,10 @@
         <v>0</v>
       </c>
       <c r="L234" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11892,19 +11988,19 @@
         <v>295</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C235" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D235" t="s">
         <v>250</v>
       </c>
       <c r="E235">
-        <v>13.65610344</v>
+        <v>18.80845098</v>
       </c>
       <c r="F235">
-        <v>100.6432163</v>
+        <v>98.99692628</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -11922,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -11939,16 +12035,16 @@
         <v>14</v>
       </c>
       <c r="C236" s="2">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="D236" t="s">
         <v>251</v>
       </c>
       <c r="E236">
-        <v>13.91454494</v>
+        <v>14.48644022</v>
       </c>
       <c r="F236">
-        <v>100.4960227</v>
+        <v>100.124873</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -11966,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -11980,42 +12076,1010 @@
         <v>297</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C237" s="2">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="D237" t="s">
         <v>252</v>
       </c>
       <c r="E237">
+        <v>13.68885671</v>
+      </c>
+      <c r="F237">
+        <v>100.6472895</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237" t="s">
+        <v>355</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238">
+        <v>298</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="2">
+        <v>44195</v>
+      </c>
+      <c r="D238" t="s">
+        <v>253</v>
+      </c>
+      <c r="E238">
+        <v>13.7055576</v>
+      </c>
+      <c r="F238">
+        <v>100.6010884</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238" t="s">
+        <v>355</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239">
+        <v>299</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="2">
+        <v>44195</v>
+      </c>
+      <c r="D239" t="s">
+        <v>254</v>
+      </c>
+      <c r="E239">
+        <v>13.38779853</v>
+      </c>
+      <c r="F239">
+        <v>99.92358786</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239" t="s">
+        <v>356</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240">
+        <v>300</v>
+      </c>
+      <c r="B240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D240" t="s">
+        <v>255</v>
+      </c>
+      <c r="E240">
+        <v>13.91532244</v>
+      </c>
+      <c r="F240">
+        <v>100.4236653</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240" t="s">
+        <v>357</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241">
+        <v>301</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D241" t="s">
+        <v>256</v>
+      </c>
+      <c r="E241">
+        <v>14.08063723</v>
+      </c>
+      <c r="F241">
+        <v>100.6228372</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
+        <v>338</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242">
+        <v>302</v>
+      </c>
+      <c r="B242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D242" t="s">
+        <v>257</v>
+      </c>
+      <c r="E242">
+        <v>13.95313369</v>
+      </c>
+      <c r="F242">
+        <v>100.4766133</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242" t="s">
+        <v>338</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243">
+        <v>303</v>
+      </c>
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D243" t="s">
+        <v>258</v>
+      </c>
+      <c r="E243">
+        <v>16.78945067</v>
+      </c>
+      <c r="F243">
+        <v>101.0491296</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243" t="s">
+        <v>358</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244">
+        <v>304</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D244" t="s">
+        <v>259</v>
+      </c>
+      <c r="E244">
+        <v>16.79472348</v>
+      </c>
+      <c r="F244">
+        <v>101.0418582</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244" t="s">
+        <v>358</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245">
+        <v>305</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D245" t="s">
+        <v>260</v>
+      </c>
+      <c r="E245">
+        <v>16.87641646</v>
+      </c>
+      <c r="F245">
+        <v>101.1720539</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245" t="s">
+        <v>358</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246">
+        <v>306</v>
+      </c>
+      <c r="B246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D246" t="s">
+        <v>261</v>
+      </c>
+      <c r="E246">
+        <v>16.90718372</v>
+      </c>
+      <c r="F246">
+        <v>101.1093359</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246" t="s">
+        <v>358</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247">
+        <v>307</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D247" t="s">
+        <v>262</v>
+      </c>
+      <c r="E247">
+        <v>13.65610344</v>
+      </c>
+      <c r="F247">
+        <v>100.6432163</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247" t="s">
+        <v>359</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248">
+        <v>308</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D248" t="s">
+        <v>263</v>
+      </c>
+      <c r="E248">
+        <v>18.80850902</v>
+      </c>
+      <c r="F248">
+        <v>98.99591362</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248" t="s">
+        <v>339</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249">
+        <v>309</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D249" t="s">
+        <v>264</v>
+      </c>
+      <c r="E249">
+        <v>13.39760126</v>
+      </c>
+      <c r="F249">
+        <v>99.92353421</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
+        <v>356</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250">
+        <v>310</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D250" t="s">
+        <v>265</v>
+      </c>
+      <c r="E250">
+        <v>14.35549807</v>
+      </c>
+      <c r="F250">
+        <v>100.1472331</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250" t="s">
+        <v>354</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251">
+        <v>311</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D251" t="s">
+        <v>266</v>
+      </c>
+      <c r="E251">
+        <v>13.91454494</v>
+      </c>
+      <c r="F251">
+        <v>100.4960227</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251" t="s">
+        <v>338</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252">
+        <v>312</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D252" t="s">
+        <v>267</v>
+      </c>
+      <c r="E252">
+        <v>18.79508842</v>
+      </c>
+      <c r="F252">
+        <v>98.96505512</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252" t="s">
+        <v>339</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253">
+        <v>313</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D253" t="s">
+        <v>268</v>
+      </c>
+      <c r="E253">
+        <v>18.80723907</v>
+      </c>
+      <c r="F253">
+        <v>99.018125</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253" t="s">
+        <v>339</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254">
+        <v>314</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D254" t="s">
+        <v>269</v>
+      </c>
+      <c r="E254">
+        <v>18.7980703</v>
+      </c>
+      <c r="F254">
+        <v>98.96166732</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>339</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255">
+        <v>315</v>
+      </c>
+      <c r="B255" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D255" t="s">
+        <v>270</v>
+      </c>
+      <c r="E255">
+        <v>12.67967328</v>
+      </c>
+      <c r="F255">
+        <v>101.2816124</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255" t="s">
+        <v>331</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256">
+        <v>316</v>
+      </c>
+      <c r="B256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D256" t="s">
+        <v>271</v>
+      </c>
+      <c r="E256">
+        <v>12.83113908</v>
+      </c>
+      <c r="F256">
+        <v>101.2045512</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256" t="s">
+        <v>331</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257">
+        <v>317</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D257" t="s">
+        <v>272</v>
+      </c>
+      <c r="E257">
         <v>14.5063704</v>
       </c>
-      <c r="F237">
+      <c r="F257">
         <v>100.4640833</v>
       </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="J237">
-        <v>0</v>
-      </c>
-      <c r="K237">
-        <v>0</v>
-      </c>
-      <c r="L237" t="s">
-        <v>333</v>
-      </c>
-      <c r="M237" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="N237">
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257" t="s">
+        <v>360</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258">
+        <v>318</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D258" t="s">
+        <v>273</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258" t="s">
+        <v>354</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259">
+        <v>319</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D259" t="s">
+        <v>274</v>
+      </c>
+      <c r="E259">
+        <v>18.80005469</v>
+      </c>
+      <c r="F259">
+        <v>99.01848506</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
+        <v>339</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N259">
         <v>0</v>
       </c>
     </row>
@@ -12257,6 +13321,28 @@
     <hyperlink ref="M235" r:id="rId234"/>
     <hyperlink ref="M236" r:id="rId235"/>
     <hyperlink ref="M237" r:id="rId236"/>
+    <hyperlink ref="M238" r:id="rId237"/>
+    <hyperlink ref="M239" r:id="rId238"/>
+    <hyperlink ref="M240" r:id="rId239"/>
+    <hyperlink ref="M241" r:id="rId240"/>
+    <hyperlink ref="M242" r:id="rId241"/>
+    <hyperlink ref="M243" r:id="rId242"/>
+    <hyperlink ref="M244" r:id="rId243"/>
+    <hyperlink ref="M245" r:id="rId244"/>
+    <hyperlink ref="M246" r:id="rId245"/>
+    <hyperlink ref="M247" r:id="rId246"/>
+    <hyperlink ref="M248" r:id="rId247"/>
+    <hyperlink ref="M249" r:id="rId248"/>
+    <hyperlink ref="M250" r:id="rId249"/>
+    <hyperlink ref="M251" r:id="rId250"/>
+    <hyperlink ref="M252" r:id="rId251"/>
+    <hyperlink ref="M253" r:id="rId252"/>
+    <hyperlink ref="M254" r:id="rId253"/>
+    <hyperlink ref="M255" r:id="rId254"/>
+    <hyperlink ref="M256" r:id="rId255"/>
+    <hyperlink ref="M257" r:id="rId256"/>
+    <hyperlink ref="M258" r:id="rId257"/>
+    <hyperlink ref="M259" r:id="rId258"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 19 ธ.ค. </t>
   </si>
   <si>
-    <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
+    <t>พบการระบาดในหมู่นักเที่ยวและพนักงานสถานบันเทิง</t>
   </si>
   <si>
     <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.ชลบุรี</t>
@@ -9744,7 +9744,7 @@
         <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C184" s="2">
         <v>44194</v>
@@ -9964,7 +9964,7 @@
         <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C189" s="2">
         <v>44194</v>
@@ -10008,7 +10008,7 @@
         <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C190" s="2">
         <v>44194</v>
@@ -10052,7 +10052,7 @@
         <v>251</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C191" s="2">
         <v>44194</v>
@@ -10096,7 +10096,7 @@
         <v>252</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C192" s="2">
         <v>44194</v>
@@ -10140,7 +10140,7 @@
         <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C193" s="2">
         <v>44194</v>
@@ -10184,7 +10184,7 @@
         <v>254</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C194" s="2">
         <v>44194</v>
@@ -10228,7 +10228,7 @@
         <v>255</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C195" s="2">
         <v>44194</v>
@@ -10272,7 +10272,7 @@
         <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C196" s="2">
         <v>44194</v>
@@ -10316,7 +10316,7 @@
         <v>257</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C197" s="2">
         <v>44194</v>
@@ -10360,7 +10360,7 @@
         <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C198" s="2">
         <v>44194</v>
@@ -10404,7 +10404,7 @@
         <v>259</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C199" s="2">
         <v>44194</v>
@@ -10448,7 +10448,7 @@
         <v>260</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C200" s="2">
         <v>44194</v>
@@ -10492,7 +10492,7 @@
         <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C201" s="2">
         <v>44194</v>
@@ -10536,7 +10536,7 @@
         <v>262</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C202" s="2">
         <v>44194</v>
@@ -10580,7 +10580,7 @@
         <v>263</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C203" s="2">
         <v>44194</v>
@@ -10624,7 +10624,7 @@
         <v>264</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C204" s="2">
         <v>44194</v>
@@ -10668,7 +10668,7 @@
         <v>265</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C205" s="2">
         <v>44194</v>
@@ -10712,7 +10712,7 @@
         <v>266</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C206" s="2">
         <v>44194</v>
@@ -10756,7 +10756,7 @@
         <v>267</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C207" s="2">
         <v>44194</v>
@@ -10800,7 +10800,7 @@
         <v>268</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C208" s="2">
         <v>44194</v>
@@ -10844,7 +10844,7 @@
         <v>269</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C209" s="2">
         <v>44194</v>
@@ -10888,7 +10888,7 @@
         <v>270</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C210" s="2">
         <v>44194</v>
@@ -10932,7 +10932,7 @@
         <v>271</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C211" s="2">
         <v>44194</v>
@@ -10976,7 +10976,7 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C212" s="2">
         <v>44194</v>
@@ -11020,7 +11020,7 @@
         <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C213" s="2">
         <v>44194</v>
@@ -11064,7 +11064,7 @@
         <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C214" s="2">
         <v>44194</v>
@@ -11108,7 +11108,7 @@
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C215" s="2">
         <v>44194</v>
@@ -11152,7 +11152,7 @@
         <v>276</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C216" s="2">
         <v>44194</v>
@@ -11196,7 +11196,7 @@
         <v>277</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C217" s="2">
         <v>44194</v>
@@ -11240,7 +11240,7 @@
         <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C218" s="2">
         <v>44194</v>
@@ -11284,7 +11284,7 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C219" s="2">
         <v>44194</v>
@@ -11328,7 +11328,7 @@
         <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C220" s="2">
         <v>44194</v>
@@ -11372,7 +11372,7 @@
         <v>281</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C221" s="2">
         <v>44194</v>
@@ -11416,7 +11416,7 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C222" s="2">
         <v>44194</v>
@@ -11460,7 +11460,7 @@
         <v>283</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C223" s="2">
         <v>44194</v>
@@ -11504,7 +11504,7 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C224" s="2">
         <v>44194</v>
@@ -11548,7 +11548,7 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C225" s="2">
         <v>44194</v>
@@ -11592,7 +11592,7 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C226" s="2">
         <v>44194</v>
@@ -12208,7 +12208,7 @@
         <v>300</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C240" s="2">
         <v>44196</v>
@@ -13009,10 +13009,10 @@
         <v>273</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>15.0696922</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>100.7237944</v>
       </c>
       <c r="G258">
         <v>0</v>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="459">
   <si>
     <t>id</t>
   </si>
@@ -814,6 +814,12 @@
     <t>สนามซ้อมไก่กลางทุ่ง ที่วัดป่าพฤกษ์</t>
   </si>
   <si>
+    <t>ซอยเทียมเจริญ ตลาดบน-ตลาดล่าง บริเวณตลาดเทศบาลเมือง บางบัวทอง</t>
+  </si>
+  <si>
+    <t>หมู่บ้าน ช.รุ่งเรือง 6</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
@@ -832,15 +838,45 @@
     <t>ธนาคารกรุงไทย สาขานิคมพัฒนา ระยอง</t>
   </si>
   <si>
+    <t>ร้านเรือนน้ำจิ้มซีฟู้ด ศรีราชา</t>
+  </si>
+  <si>
+    <t>สถานที่เล่นพนันแห่งหนึ่งในจังหวัดสมุทรปราการ</t>
+  </si>
+  <si>
+    <t>7-11 หน้าหมู่บ้านเอื้อาทร</t>
+  </si>
+  <si>
+    <t>โซนกับข้าวสำเร็จ ชั้นล่างเซ็นทรัลเวสเกต</t>
+  </si>
+  <si>
+    <t>คอนโดสีชมพู บางใหญ่</t>
+  </si>
+  <si>
+    <t>ซอยหน้าวัดละหาร แยกหน้าร้านสังฆภัณฑ์</t>
+  </si>
+  <si>
     <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
   </si>
   <si>
     <t>สนามชนไก่ อ.โคกสำโรง จ.ลพบุรี</t>
   </si>
   <si>
+    <t>วัดไร่กล้วย</t>
+  </si>
+  <si>
+    <t>โรบินสัน บ่อวิน</t>
+  </si>
+  <si>
     <t xml:space="preserve">ร้านชาบูอิ่มหมีพีมัน สาขาสตาร์อเวนิว ถนนซูเปอร์ไฮเวย์ เชียงใหม่ </t>
   </si>
   <si>
+    <t>บีเอฟซี (BFC) บางแสน</t>
+  </si>
+  <si>
+    <t>ร้านโรตีชาชัก ซอยกสิกรแหลมฉบัง</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -1096,9 +1132,42 @@
     <t>เจ้าของร้าน เมมโมรี่ (memory 90's) ย่านซอยลาซาล กทม. ประกาศว่าตนเองติดเชื้อโควิด-19 พร้อมแจ้งลูกค้าที่ไปใช้บริการที่ร้านช่วงระหว่างวันที่ 21-31 ธ.ค.2563 กักตัว สังเกตอาการ</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยนนทบุรี รายที่ 220</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยนนทบุรี รายที่ 218</t>
+  </si>
+  <si>
+    <t>ท่านใดมาที่นี่วันที่ 1 ม.ค. 2564 เวลา17:00-19:00 น. โปรดสังเกตอาการตัวเอง เว้นระยะห่างกับผู้คน</t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยโควิด-19ท่านหนึ่ง มีประวัติเดินทางไปสถานที่เล่นพนันในจังหวัดสมุทรปราการ</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยนนทบุรี รายที่ 209</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยนนทบุรี รายที่ 210</t>
+  </si>
+  <si>
+    <t>ล้อมรั้วลวดหนามคอนโดสีชมพู หลังพบผู้ติดเชื้อโควิด 21 ราย</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยนนทบุรี รายที่ 219</t>
+  </si>
+  <si>
     <t>จากการตรวจสอบไทม์ไลน์ผู้ป่วยโควิด ชาวเมียนม่า พบเดินทางมาที่สนามไก่ชนในอ.ป่าโมก และ อ.เมือง</t>
   </si>
   <si>
+    <t>สถานที่เสี่ยง ตามรายงานของสำนักงานสาธารณสุขจังหวัดชลบุรี</t>
+  </si>
+  <si>
+    <t>ท่านใดมาที่นี่วันที่ 2 ม.ค. 2564 เวลาเที่ยงถึงบ่ายสี่โมง โปรดสังเกตอาการตัวเอง เว้นระยะห่างกับผู้คน</t>
+  </si>
+  <si>
+    <t>สถานที่เสี่ยงโควิด-19 ตามรายงานของสำนักงานสาธารณสุขจังหวัดชลบุรี</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
@@ -1304,6 +1373,21 @@
   </si>
   <si>
     <t>https://www.komchadluek.net/news/regional/453969</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9640000000324</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/318251788326658/photos/a.1908514712633683/1908532709298550/?type=3</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/nakhonpathompublichealth/photos/a.117945686306015/411484666952114/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thebangkokinsight.com/518780/</t>
+  </si>
+  <si>
+    <t>https://workpointtoday.com/nontaburi-covid-19/</t>
   </si>
   <si>
     <t>https://www.thebangkokinsight.com/518217/</t>
@@ -1681,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N259"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1798,22 +1882,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1842,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1886,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1930,22 +2014,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1974,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2018,22 +2102,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L8" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2062,22 +2146,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2106,22 +2190,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L10" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2150,22 +2234,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J11" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L11" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2194,22 +2278,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L12" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2238,22 +2322,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K13" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L13" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2282,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L14" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2326,22 +2410,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J15" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K15" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2370,22 +2454,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I16" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L16" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2414,22 +2498,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J17" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K17" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L17" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2458,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I18" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L18" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2514,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2546,22 +2630,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J20" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L20" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2590,22 +2674,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I21" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J21" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K21" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L21" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2634,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K22" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L22" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2678,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K23" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L23" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2722,22 +2806,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J24" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2766,22 +2850,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J25" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K25" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2810,22 +2894,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J26" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2854,22 +2938,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2898,22 +2982,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2942,22 +3026,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2986,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3030,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3074,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3118,22 +3202,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3162,22 +3246,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3206,22 +3290,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3250,22 +3334,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3306,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3350,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3385,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J39" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3426,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3470,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3517,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J42" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3561,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J43" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K43" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3605,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J44" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K44" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3649,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K45" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3690,22 +3774,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3734,22 +3818,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J47" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3778,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3822,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I49" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J49" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3866,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J50" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3910,22 +3994,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I51" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J51" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3954,22 +4038,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J52" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K52" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L52" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3998,22 +4082,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J53" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L53" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4042,22 +4126,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J54" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K54" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4086,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I55" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J55" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K55" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L55" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4130,22 +4214,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I56" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J56" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K56" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4174,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I57" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J57" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K57" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4218,22 +4302,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I58" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J58" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K58" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L58" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4262,22 +4346,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J59" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L59" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4306,22 +4390,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I60" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J60" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K60" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L60" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4350,22 +4434,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I61" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J61" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K61" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L61" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4394,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I62" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J62" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L62" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4438,22 +4522,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I63" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J63" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K63" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L63" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4482,22 +4566,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I64" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J64" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L64" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4538,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4582,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4626,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4670,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4714,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4746,22 +4830,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I70" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J70" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L70" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4790,22 +4874,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I71" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J71" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K71" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4834,22 +4918,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J72" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K72" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L72" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4878,22 +4962,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I73" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J73" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K73" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L73" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4922,22 +5006,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I74" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J74" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K74" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L74" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4966,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J75" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K75" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L75" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5010,22 +5094,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J76" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K76" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5066,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5110,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5154,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5198,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5233,19 +5317,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J81" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K81" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L81" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5277,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J82" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K82" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L82" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5318,22 +5402,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I83" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J83" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K83" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L83" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5362,22 +5446,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I84" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J84" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K84" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L84" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5406,22 +5490,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I85" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J85" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K85" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L85" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5450,22 +5534,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I86" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J86" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K86" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L86" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5494,22 +5578,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I87" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J87" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K87" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L87" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5538,22 +5622,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I88" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J88" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K88" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L88" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5582,22 +5666,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J89" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K89" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L89" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5626,22 +5710,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I90" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J90" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K90" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L90" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5670,22 +5754,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I91" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J91" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K91" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L91" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5714,22 +5798,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I92" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J92" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K92" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L92" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5770,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5814,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5858,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5902,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5937,19 +6021,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J97" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K97" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L97" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5978,22 +6062,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I98" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J98" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K98" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L98" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6022,22 +6106,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I99" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J99" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K99" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L99" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6069,19 +6153,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J100" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K100" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L100" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6110,22 +6194,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I101" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J101" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K101" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L101" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6154,22 +6238,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I102" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J102" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K102" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L102" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6198,22 +6282,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I103" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J103" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K103" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L103" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6242,22 +6326,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I104" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J104" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K104" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L104" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6286,22 +6370,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I105" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J105" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K105" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L105" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6342,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6386,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6430,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6474,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6518,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6562,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6594,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I112" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J112" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K112" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L112" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6638,22 +6722,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I113" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="J113" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K113" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L113" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6682,22 +6766,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I114" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J114" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K114" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L114" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6726,22 +6810,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I115" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J115" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K115" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L115" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6770,22 +6854,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I116" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J116" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K116" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L116" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6814,22 +6898,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I117" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J117" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K117" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L117" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6858,22 +6942,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I118" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J118" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K118" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L118" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6902,22 +6986,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I119" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J119" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K119" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L119" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6958,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7002,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -7046,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -7090,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -7134,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7178,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7222,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7266,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7310,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7354,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7386,22 +7470,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I130" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J130" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K130" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L130" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7430,22 +7514,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I131" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J131" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K131" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L131" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7474,22 +7558,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I132" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J132" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K132" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7530,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7574,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7618,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7662,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7706,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7750,10 +7834,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7794,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7838,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7882,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7926,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7970,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8014,10 +8098,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8058,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8102,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8146,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8190,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8234,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8278,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8322,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8366,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8410,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8454,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8498,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8530,22 +8614,22 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I156" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J156" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K156" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L156" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8574,22 +8658,22 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I157" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J157" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K157" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L157" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8630,10 +8714,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8674,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8718,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8762,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8806,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8847,13 +8931,13 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L163" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8891,13 +8975,13 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L164" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8935,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L165" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8970,22 +9054,22 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I166" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J166" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K166" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L166" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -9026,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -9070,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -9114,10 +9198,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9158,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9202,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9246,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9278,22 +9362,22 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I173" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J173" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K173" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L173" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9334,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9378,10 +9462,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9422,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9466,10 +9550,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9510,10 +9594,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9554,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9598,10 +9682,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9642,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9674,22 +9758,22 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I182" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J182" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K182" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L182" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9727,13 +9811,13 @@
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L183" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9771,13 +9855,13 @@
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L184" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9815,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L185" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9859,13 +9943,13 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L186" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9903,13 +9987,13 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L187" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9947,13 +10031,13 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L188" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9994,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -10038,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -10082,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -10126,10 +10210,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10170,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10214,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10258,10 +10342,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10302,10 +10386,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10346,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10390,10 +10474,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10434,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10478,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10522,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10566,10 +10650,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10610,10 +10694,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10654,10 +10738,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10698,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10742,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10786,10 +10870,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10830,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10874,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10918,10 +11002,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10962,10 +11046,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -11006,10 +11090,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11050,10 +11134,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -11094,10 +11178,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11138,10 +11222,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11182,10 +11266,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11226,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11270,10 +11354,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11314,10 +11398,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11358,10 +11442,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11402,10 +11486,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11446,10 +11530,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11490,10 +11574,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11534,10 +11618,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11578,10 +11662,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11622,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11666,10 +11750,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11710,10 +11794,10 @@
         <v>0</v>
       </c>
       <c r="L228" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11754,10 +11838,10 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11798,10 +11882,10 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11842,10 +11926,10 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11886,10 +11970,10 @@
         <v>0</v>
       </c>
       <c r="L232" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11930,10 +12014,10 @@
         <v>0</v>
       </c>
       <c r="L233" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11974,10 +12058,10 @@
         <v>0</v>
       </c>
       <c r="L234" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -12018,10 +12102,10 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -12062,10 +12146,10 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12106,10 +12190,10 @@
         <v>0</v>
       </c>
       <c r="L237" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12150,10 +12234,10 @@
         <v>0</v>
       </c>
       <c r="L238" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12194,10 +12278,10 @@
         <v>0</v>
       </c>
       <c r="L239" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12238,10 +12322,10 @@
         <v>0</v>
       </c>
       <c r="L240" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12282,10 +12366,10 @@
         <v>0</v>
       </c>
       <c r="L241" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -12326,10 +12410,10 @@
         <v>0</v>
       </c>
       <c r="L242" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12370,10 +12454,10 @@
         <v>0</v>
       </c>
       <c r="L243" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12414,10 +12498,10 @@
         <v>0</v>
       </c>
       <c r="L244" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12458,10 +12542,10 @@
         <v>0</v>
       </c>
       <c r="L245" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -12502,10 +12586,10 @@
         <v>0</v>
       </c>
       <c r="L246" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12546,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="L247" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12590,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="L248" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12634,10 +12718,10 @@
         <v>0</v>
       </c>
       <c r="L249" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12678,10 +12762,10 @@
         <v>0</v>
       </c>
       <c r="L250" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12695,16 +12779,16 @@
         <v>14</v>
       </c>
       <c r="C251" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D251" t="s">
         <v>266</v>
       </c>
       <c r="E251">
-        <v>13.91454494</v>
+        <v>13.91657726</v>
       </c>
       <c r="F251">
-        <v>100.4960227</v>
+        <v>100.4202007</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -12722,10 +12806,10 @@
         <v>0</v>
       </c>
       <c r="L251" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -12739,16 +12823,16 @@
         <v>14</v>
       </c>
       <c r="C252" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D252" t="s">
         <v>267</v>
       </c>
       <c r="E252">
-        <v>18.79508842</v>
+        <v>13.90327914</v>
       </c>
       <c r="F252">
-        <v>98.96505512</v>
+        <v>100.4283632</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -12766,10 +12850,10 @@
         <v>0</v>
       </c>
       <c r="L252" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -12789,10 +12873,10 @@
         <v>268</v>
       </c>
       <c r="E253">
-        <v>18.80723907</v>
+        <v>13.91454494</v>
       </c>
       <c r="F253">
-        <v>99.018125</v>
+        <v>100.4960227</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -12810,10 +12894,10 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -12833,10 +12917,10 @@
         <v>269</v>
       </c>
       <c r="E254">
-        <v>18.7980703</v>
+        <v>18.79508842</v>
       </c>
       <c r="F254">
-        <v>98.96166732</v>
+        <v>98.96505512</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -12854,10 +12938,10 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -12877,10 +12961,10 @@
         <v>270</v>
       </c>
       <c r="E255">
-        <v>12.67967328</v>
+        <v>18.80723907</v>
       </c>
       <c r="F255">
-        <v>101.2816124</v>
+        <v>99.018125</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -12898,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12921,10 +13005,10 @@
         <v>271</v>
       </c>
       <c r="E256">
-        <v>12.83113908</v>
+        <v>18.7980703</v>
       </c>
       <c r="F256">
-        <v>101.2045512</v>
+        <v>98.96166732</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -12942,10 +13026,10 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12956,19 +13040,19 @@
         <v>317</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C257" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D257" t="s">
         <v>272</v>
       </c>
       <c r="E257">
-        <v>14.5063704</v>
+        <v>12.67967328</v>
       </c>
       <c r="F257">
-        <v>100.4640833</v>
+        <v>101.2816124</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -12986,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13000,19 +13084,19 @@
         <v>318</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C258" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D258" t="s">
         <v>273</v>
       </c>
       <c r="E258">
-        <v>15.0696922</v>
+        <v>12.83113908</v>
       </c>
       <c r="F258">
-        <v>100.7237944</v>
+        <v>101.2045512</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -13030,10 +13114,10 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -13044,42 +13128,570 @@
         <v>319</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C259" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="D259" t="s">
         <v>274</v>
       </c>
       <c r="E259">
+        <v>13.1690554</v>
+      </c>
+      <c r="F259">
+        <v>100.9246356</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
+        <v>374</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260">
+        <v>320</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D260" t="s">
+        <v>275</v>
+      </c>
+      <c r="E260">
+        <v>13.5984203</v>
+      </c>
+      <c r="F260">
+        <v>100.5945368</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260" t="s">
+        <v>375</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261">
+        <v>321</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D261" t="s">
+        <v>276</v>
+      </c>
+      <c r="E261">
+        <v>13.93068401</v>
+      </c>
+      <c r="F261">
+        <v>100.5174953</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261" t="s">
+        <v>376</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262">
+        <v>322</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D262" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262">
+        <v>13.87762828</v>
+      </c>
+      <c r="F262">
+        <v>100.4107211</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262" t="s">
+        <v>377</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263">
+        <v>323</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D263" t="s">
+        <v>278</v>
+      </c>
+      <c r="E263">
+        <v>13.87448379</v>
+      </c>
+      <c r="F263">
+        <v>100.4056405</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263" t="s">
+        <v>378</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264">
+        <v>324</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D264" t="s">
+        <v>279</v>
+      </c>
+      <c r="E264">
+        <v>13.91514634</v>
+      </c>
+      <c r="F264">
+        <v>100.4225456</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264" t="s">
+        <v>379</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265">
+        <v>325</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D265" t="s">
+        <v>280</v>
+      </c>
+      <c r="E265">
+        <v>14.5063704</v>
+      </c>
+      <c r="F265">
+        <v>100.4640833</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265" t="s">
+        <v>380</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266">
+        <v>326</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D266" t="s">
+        <v>281</v>
+      </c>
+      <c r="E266">
+        <v>15.0696922</v>
+      </c>
+      <c r="F266">
+        <v>100.7237944</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>366</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267">
+        <v>327</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D267" t="s">
+        <v>282</v>
+      </c>
+      <c r="E267">
+        <v>13.1584655</v>
+      </c>
+      <c r="F267">
+        <v>100.9518027</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267" t="s">
+        <v>288</v>
+      </c>
+      <c r="L267" t="s">
+        <v>381</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268">
+        <v>328</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D268" t="s">
+        <v>283</v>
+      </c>
+      <c r="E268">
+        <v>13.0394735</v>
+      </c>
+      <c r="F268">
+        <v>101.0829624</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268" t="s">
+        <v>382</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269">
+        <v>329</v>
+      </c>
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D269" t="s">
+        <v>284</v>
+      </c>
+      <c r="E269">
         <v>18.80005469</v>
       </c>
-      <c r="F259">
+      <c r="F269">
         <v>99.01848506</v>
       </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>0</v>
-      </c>
-      <c r="I259">
-        <v>0</v>
-      </c>
-      <c r="J259">
-        <v>0</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
-        <v>339</v>
-      </c>
-      <c r="M259" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="N259">
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269" t="s">
+        <v>351</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270">
+        <v>330</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D270" t="s">
+        <v>285</v>
+      </c>
+      <c r="E270">
+        <v>13.2658421</v>
+      </c>
+      <c r="F270">
+        <v>100.9280545</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s">
+        <v>288</v>
+      </c>
+      <c r="L270" t="s">
+        <v>383</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271">
+        <v>331</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D271" t="s">
+        <v>286</v>
+      </c>
+      <c r="E271">
+        <v>13.0923373</v>
+      </c>
+      <c r="F271">
+        <v>100.9175099</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271" t="s">
+        <v>288</v>
+      </c>
+      <c r="L271" t="s">
+        <v>381</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N271">
         <v>0</v>
       </c>
     </row>
@@ -13343,6 +13955,18 @@
     <hyperlink ref="M257" r:id="rId256"/>
     <hyperlink ref="M258" r:id="rId257"/>
     <hyperlink ref="M259" r:id="rId258"/>
+    <hyperlink ref="M260" r:id="rId259"/>
+    <hyperlink ref="M261" r:id="rId260"/>
+    <hyperlink ref="M262" r:id="rId261"/>
+    <hyperlink ref="M263" r:id="rId262"/>
+    <hyperlink ref="M264" r:id="rId263"/>
+    <hyperlink ref="M265" r:id="rId264"/>
+    <hyperlink ref="M266" r:id="rId265"/>
+    <hyperlink ref="M267" r:id="rId266"/>
+    <hyperlink ref="M268" r:id="rId267"/>
+    <hyperlink ref="M269" r:id="rId268"/>
+    <hyperlink ref="M270" r:id="rId269"/>
+    <hyperlink ref="M271" r:id="rId270"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -1378,7 +1378,7 @@
     <t>https://mgronline.com/onlinesection/detail/9640000000324</t>
   </si>
   <si>
-    <t>https://m.facebook.com/318251788326658/photos/a.1908514712633683/1908532709298550/?type=3</t>
+    <t>https://www.facebook.com/318251788326658/posts/1908515119300309/?d=n</t>
   </si>
   <si>
     <t>https://m.facebook.com/nakhonpathompublichealth/photos/a.117945686306015/411484666952114/?type=3</t>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="485">
   <si>
     <t>id</t>
   </si>
@@ -550,6 +550,9 @@
     <t>ร้านบ้านตะเกียง อ.ลำลูกกา</t>
   </si>
   <si>
+    <t>ร้านโบกี้บาร์ พุทธมณฑลสาย 1</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -607,6 +610,9 @@
     <t>ธนาคารกสิกรไทย อาคารสำนักงานใหญ่ราษฎร์บูรณะ ชั้น 33</t>
   </si>
   <si>
+    <t>วัดแก้วแจ่มฟ้า บางรัก</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -772,6 +778,18 @@
     <t>โรงเหล้าตะวันแดง อ.เมืองสุพรรณบุรี</t>
   </si>
   <si>
+    <t>tops supermarket ซอยพหลโยธิน 48</t>
+  </si>
+  <si>
+    <t>BTS สถานีวงเวียนใหญ่</t>
+  </si>
+  <si>
+    <t>BTS สถานีศาลาแดง</t>
+  </si>
+  <si>
+    <t>7-11 ร้านใหญ่ หัวมุม ถนนเย็นอากาศ</t>
+  </si>
+  <si>
     <t>ธนาคารกรุงศรี สาขาพาราไดซ์พาร์ค</t>
   </si>
   <si>
@@ -781,6 +799,15 @@
     <t>ตลาดนัดวัดโคกเกตุ</t>
   </si>
   <si>
+    <t>tops supermarket ซอยเพิ่มสิน 60</t>
+  </si>
+  <si>
+    <t>สำนักงานเขตคลองสามวา</t>
+  </si>
+  <si>
+    <t>MK ห้างมาร์เก็ตเพลส นางลิ้นจี่</t>
+  </si>
+  <si>
     <t>วัดละหาร</t>
   </si>
   <si>
@@ -820,6 +847,12 @@
     <t>หมู่บ้าน ช.รุ่งเรือง 6</t>
   </si>
   <si>
+    <t>แฟชั่นไอส์แลนด์ โซนใต้ดิน</t>
+  </si>
+  <si>
+    <t>ออเร้นจ์ บาร์ อมตะนคร</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
@@ -856,6 +889,9 @@
     <t>ซอยหน้าวัดละหาร แยกหน้าร้านสังฆภัณฑ์</t>
   </si>
   <si>
+    <t>Siam Country Club Waterside</t>
+  </si>
+  <si>
     <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
   </si>
   <si>
@@ -868,6 +904,9 @@
     <t>โรบินสัน บ่อวิน</t>
   </si>
   <si>
+    <t>Cen suit ศรีราชา</t>
+  </si>
+  <si>
     <t xml:space="preserve">ร้านชาบูอิ่มหมีพีมัน สาขาสตาร์อเวนิว ถนนซูเปอร์ไฮเวย์ เชียงใหม่ </t>
   </si>
   <si>
@@ -877,6 +916,18 @@
     <t>ร้านโรตีชาชัก ซอยกสิกรแหลมฉบัง</t>
   </si>
   <si>
+    <t>Daikichi ซ.ศรีราชานคร 7</t>
+  </si>
+  <si>
+    <t>วัดเจริญธรรม</t>
+  </si>
+  <si>
+    <t>เรือสีชังพาเลซ เบอร์ 4 เที่ยว 14:00 น.</t>
+  </si>
+  <si>
+    <t>I-Rovers Sports Bar &amp; Restaurant</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -1057,6 +1108,9 @@
     <t>นักร้องร้านน้องใหม่พลาซ่าที่ติดโควิด-19 มาที่นี่เวลา 11:00-12:00 น.</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 155</t>
+  </si>
+  <si>
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
@@ -1078,6 +1132,9 @@
     <t>นนทบุรีแจ้งไทม์ไลน์ ผู้ป่วยโควิด-19 ในพื้นที่ รายที่ 197,200</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 166</t>
+  </si>
+  <si>
     <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
@@ -1117,12 +1174,24 @@
     <t>สุพรรณฯ พบโควิดอีก 1 ราย ชายวัย 66 ปีเป็นรายที่ 11 กลับจากชนไก่อ่างทอง</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 145</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 147</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 161</t>
+  </si>
+  <si>
     <t>ธนาคารกรุงศรีขอแจ้งปิดบางสาขาเป็นการชั่วคราว</t>
   </si>
   <si>
     <t xml:space="preserve">สมุทรสงคราม เปิดไทม์ไลน์ผู้ป่วยรายที่ 21-22 </t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 153</t>
+  </si>
+  <si>
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
@@ -1138,6 +1207,9 @@
     <t>timeline ผู้ป่วยนนทบุรี รายที่ 218</t>
   </si>
   <si>
+    <t xml:space="preserve">ข้อมูลสถานที่เสี่ยงตามประกาศของสำนักงานสาธารณสุขชลบุรี </t>
+  </si>
+  <si>
     <t>ท่านใดมาที่นี่วันที่ 1 ม.ค. 2564 เวลา17:00-19:00 น. โปรดสังเกตอาการตัวเอง เว้นระยะห่างกับผู้คน</t>
   </si>
   <si>
@@ -1312,6 +1384,9 @@
     <t>https://www.facebook.com/prbangkok/photos/a.340316886067939/3125681690864764/?type=3</t>
   </si>
   <si>
+    <t>https://www.facebook.com/earthpongsakornk/posts/438608970882337</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/general/news-582966</t>
   </si>
   <si>
@@ -1376,6 +1451,9 @@
   </si>
   <si>
     <t>https://mgronline.com/onlinesection/detail/9640000000324</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/318251788326658/posts/1909226845895803/?d=n</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/posts/1908515119300309/?d=n</t>
@@ -1765,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K2" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1882,22 +1960,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K3" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L3" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1926,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L4" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1970,22 +2048,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J5" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K5" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L5" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2014,22 +2092,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K6" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L6" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2058,22 +2136,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2102,22 +2180,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K8" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2146,22 +2224,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K9" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L9" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2190,22 +2268,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K10" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L10" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2234,22 +2312,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J11" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K11" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L11" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2278,22 +2356,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I12" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L12" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2322,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2366,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K14" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L14" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2410,22 +2488,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K15" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L15" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2454,22 +2532,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K16" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L16" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2498,22 +2576,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I17" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K17" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L17" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2542,22 +2620,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K18" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L18" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2598,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2630,22 +2708,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I20" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K20" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L20" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2674,22 +2752,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I21" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J21" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L21" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2718,22 +2796,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K22" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2762,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J23" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K23" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L23" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2806,22 +2884,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K24" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L24" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2850,22 +2928,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J25" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K25" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L25" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2894,22 +2972,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K26" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L26" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2938,22 +3016,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I27" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K27" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2982,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3026,22 +3104,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3070,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3114,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3158,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3202,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3246,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3290,22 +3368,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3334,22 +3412,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3390,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3434,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3469,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3510,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3554,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3601,19 +3679,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3645,19 +3723,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3689,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3733,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J45" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3774,22 +3852,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3818,22 +3896,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I47" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3862,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3906,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I49" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J49" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L49" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3950,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3994,22 +4072,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I51" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L51" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4038,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I52" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J52" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K52" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4082,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J53" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K53" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4126,22 +4204,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I54" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J54" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L54" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4170,22 +4248,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J55" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K55" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4214,22 +4292,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I56" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K56" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L56" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4258,22 +4336,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I57" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J57" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K57" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4302,22 +4380,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I58" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K58" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4346,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J59" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K59" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4390,22 +4468,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I60" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K60" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4434,22 +4512,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I61" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J61" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K61" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4478,22 +4556,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I62" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J62" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K62" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L62" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4522,22 +4600,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J63" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K63" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L63" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4566,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I64" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J64" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K64" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L64" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4622,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4666,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4710,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4754,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4798,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4830,22 +4908,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I70" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J70" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K70" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L70" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4874,22 +4952,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K71" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L71" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4918,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I72" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J72" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K72" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L72" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4962,22 +5040,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I73" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J73" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K73" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5006,22 +5084,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I74" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J74" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K74" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L74" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5050,22 +5128,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I75" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J75" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L75" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5094,22 +5172,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I76" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J76" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K76" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L76" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5150,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5194,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5238,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5282,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5317,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J81" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K81" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L81" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5361,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J82" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K82" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L82" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5402,22 +5480,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I83" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J83" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L83" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5446,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I84" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J84" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K84" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L84" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5490,22 +5568,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I85" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J85" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K85" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L85" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5534,22 +5612,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I86" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J86" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K86" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L86" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5578,22 +5656,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J87" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K87" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L87" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5622,22 +5700,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I88" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J88" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K88" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L88" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5666,22 +5744,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I89" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J89" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K89" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5710,22 +5788,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I90" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J90" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K90" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L90" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5754,22 +5832,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I91" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J91" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K91" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L91" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5798,22 +5876,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I92" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K92" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L92" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5854,10 +5932,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5898,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5942,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5986,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6021,19 +6099,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J97" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K97" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L97" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6062,22 +6140,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I98" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J98" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K98" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L98" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6106,22 +6184,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I99" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J99" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K99" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L99" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6153,19 +6231,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J100" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K100" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L100" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6194,22 +6272,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I101" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J101" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K101" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L101" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6238,22 +6316,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I102" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J102" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K102" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L102" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6282,22 +6360,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I103" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J103" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K103" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L103" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6326,22 +6404,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I104" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J104" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K104" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L104" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6370,22 +6448,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I105" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J105" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K105" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L105" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6426,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6470,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6514,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6558,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6602,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6646,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6678,22 +6756,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I112" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J112" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K112" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L112" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6722,22 +6800,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I113" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J113" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K113" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L113" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6766,22 +6844,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I114" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J114" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K114" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L114" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6810,22 +6888,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I115" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J115" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K115" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L115" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6854,22 +6932,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I116" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J116" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K116" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L116" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6898,22 +6976,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I117" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J117" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K117" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L117" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6942,22 +7020,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I118" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J118" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K118" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L118" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6986,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I119" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J119" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K119" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L119" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7042,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7086,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -7130,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -7174,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -7218,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7262,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7306,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7350,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7394,10 +7472,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7438,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7470,22 +7548,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I130" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J130" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K130" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L130" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7514,22 +7592,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I131" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J131" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K131" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L131" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7558,22 +7636,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I132" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J132" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K132" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L132" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7614,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7658,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7702,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7746,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7790,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7834,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7878,10 +7956,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7922,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7966,10 +8044,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -8010,10 +8088,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -8054,10 +8132,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8098,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8142,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8186,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8230,10 +8308,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8274,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8318,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8362,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8406,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8450,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8494,10 +8572,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8538,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8582,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8614,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I156" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J156" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K156" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L156" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8658,22 +8736,22 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I157" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J157" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K157" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L157" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8714,10 +8792,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8758,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8802,10 +8880,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8846,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8890,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8904,19 +8982,19 @@
         <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C163" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D163" t="s">
         <v>178</v>
       </c>
       <c r="E163">
-        <v>12.6844183</v>
+        <v>13.72681609</v>
       </c>
       <c r="F163">
-        <v>101.2742991</v>
+        <v>100.4276251</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -8930,14 +9008,14 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163" t="s">
-        <v>288</v>
+      <c r="K163">
+        <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8957,10 +9035,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.9730033</v>
+        <v>12.6844183</v>
       </c>
       <c r="F164">
-        <v>100.9029061</v>
+        <v>101.2742991</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8975,13 +9053,13 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L164" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8992,7 +9070,7 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C165" s="2">
         <v>44192</v>
@@ -9001,10 +9079,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>13.7946069</v>
+        <v>12.9730033</v>
       </c>
       <c r="F165">
-        <v>100.5161808</v>
+        <v>100.9029061</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -9019,13 +9097,13 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L165" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -9045,31 +9123,31 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>13.54448567</v>
+        <v>13.7946069</v>
       </c>
       <c r="F166">
-        <v>100.2752027</v>
+        <v>100.5161808</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166" t="s">
-        <v>287</v>
-      </c>
-      <c r="I166" t="s">
-        <v>290</v>
-      </c>
-      <c r="J166" t="s">
-        <v>292</v>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L166" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -9089,31 +9167,31 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>13.67424547</v>
+        <v>13.54448567</v>
       </c>
       <c r="F167">
-        <v>100.426448</v>
+        <v>100.2752027</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
+      <c r="H167" t="s">
+        <v>304</v>
+      </c>
+      <c r="I167" t="s">
+        <v>307</v>
+      </c>
+      <c r="J167" t="s">
+        <v>309</v>
+      </c>
+      <c r="K167" t="s">
+        <v>305</v>
       </c>
       <c r="L167" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -9133,10 +9211,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.94010609</v>
+        <v>13.67424547</v>
       </c>
       <c r="F168">
-        <v>100.5124853</v>
+        <v>100.426448</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -9154,10 +9232,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -9177,10 +9255,10 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>13.96674442</v>
+        <v>13.94010609</v>
       </c>
       <c r="F169">
-        <v>100.5302521</v>
+        <v>100.5124853</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -9198,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9221,10 +9299,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>13.8766052</v>
+        <v>13.96674442</v>
       </c>
       <c r="F170">
-        <v>100.4449333</v>
+        <v>100.5302521</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -9242,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9265,10 +9343,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>13.85555825</v>
+        <v>13.8766052</v>
       </c>
       <c r="F171">
-        <v>100.5424068</v>
+        <v>100.4449333</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -9286,10 +9364,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9309,10 +9387,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>18.79792861</v>
+        <v>13.85555825</v>
       </c>
       <c r="F172">
-        <v>98.96334683000001</v>
+        <v>100.5424068</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9330,10 +9408,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9347,37 +9425,37 @@
         <v>14</v>
       </c>
       <c r="C173" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D173" t="s">
         <v>188</v>
       </c>
       <c r="E173">
-        <v>13.73545544</v>
+        <v>18.79792861</v>
       </c>
       <c r="F173">
-        <v>100.5661584</v>
+        <v>98.96334683000001</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173" t="s">
-        <v>288</v>
-      </c>
-      <c r="I173" t="s">
-        <v>290</v>
-      </c>
-      <c r="J173" t="s">
-        <v>292</v>
-      </c>
-      <c r="K173" t="s">
-        <v>288</v>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9397,31 +9475,31 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>13.91669065</v>
+        <v>13.73545544</v>
       </c>
       <c r="F174">
-        <v>100.397828</v>
+        <v>100.5661584</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
+      <c r="H174" t="s">
+        <v>305</v>
+      </c>
+      <c r="I174" t="s">
+        <v>307</v>
+      </c>
+      <c r="J174" t="s">
+        <v>309</v>
+      </c>
+      <c r="K174" t="s">
+        <v>305</v>
       </c>
       <c r="L174" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9441,10 +9519,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>13.76710313</v>
+        <v>13.91669065</v>
       </c>
       <c r="F175">
-        <v>100.5328623</v>
+        <v>100.397828</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9462,10 +9540,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9485,10 +9563,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>13.7495748</v>
+        <v>13.76710313</v>
       </c>
       <c r="F176">
-        <v>100.5157013</v>
+        <v>100.5328623</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9506,10 +9584,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9529,10 +9607,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.86015375</v>
+        <v>13.7495748</v>
       </c>
       <c r="F177">
-        <v>100.5133052</v>
+        <v>100.5157013</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9550,10 +9628,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9573,10 +9651,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>13.85554623</v>
+        <v>13.86015375</v>
       </c>
       <c r="F178">
-        <v>100.5420379</v>
+        <v>100.5133052</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9594,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9617,10 +9695,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>18.80178381</v>
+        <v>13.85554623</v>
       </c>
       <c r="F179">
-        <v>98.99477501</v>
+        <v>100.5420379</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9638,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9661,10 +9739,10 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>18.79840936</v>
+        <v>18.80178381</v>
       </c>
       <c r="F180">
-        <v>98.96368013999999</v>
+        <v>98.99477501</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9682,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9705,10 +9783,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>13.67953551</v>
+        <v>18.79840936</v>
       </c>
       <c r="F181">
-        <v>100.5139293</v>
+        <v>98.96368013999999</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9726,10 +9804,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9740,40 +9818,40 @@
         <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D182" t="s">
         <v>197</v>
       </c>
       <c r="E182">
-        <v>12.9098775</v>
+        <v>13.67953551</v>
       </c>
       <c r="F182">
-        <v>100.891563</v>
+        <v>100.5139293</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182" t="s">
-        <v>288</v>
-      </c>
-      <c r="I182" t="s">
-        <v>290</v>
-      </c>
-      <c r="J182" t="s">
-        <v>292</v>
-      </c>
-      <c r="K182" t="s">
-        <v>288</v>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9784,19 +9862,19 @@
         <v>243</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D183" t="s">
         <v>198</v>
       </c>
       <c r="E183">
-        <v>13.3535702</v>
+        <v>13.73105104</v>
       </c>
       <c r="F183">
-        <v>100.9765439</v>
+        <v>100.5194954</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9810,14 +9888,14 @@
       <c r="J183">
         <v>0</v>
       </c>
-      <c r="K183" t="s">
-        <v>288</v>
+      <c r="K183">
+        <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9828,7 +9906,7 @@
         <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C184" s="2">
         <v>44194</v>
@@ -9837,31 +9915,31 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.948902</v>
+        <v>12.9098775</v>
       </c>
       <c r="F184">
-        <v>100.891292</v>
+        <v>100.891563</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
+      <c r="H184" t="s">
+        <v>305</v>
+      </c>
+      <c r="I184" t="s">
+        <v>307</v>
+      </c>
+      <c r="J184" t="s">
+        <v>309</v>
       </c>
       <c r="K184" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L184" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9881,10 +9959,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>12.6495877</v>
+        <v>13.3535702</v>
       </c>
       <c r="F185">
-        <v>102.0329425</v>
+        <v>100.9765439</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9899,13 +9977,13 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L185" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9916,7 +9994,7 @@
         <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186" s="2">
         <v>44194</v>
@@ -9925,10 +10003,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>12.3757564</v>
+        <v>12.948902</v>
       </c>
       <c r="F186">
-        <v>102.3818628</v>
+        <v>100.891292</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9943,13 +10021,13 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L186" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9969,10 +10047,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>12.7246169</v>
+        <v>12.6495877</v>
       </c>
       <c r="F187">
-        <v>101.9362794</v>
+        <v>102.0329425</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9987,13 +10065,13 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L187" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -10004,7 +10082,7 @@
         <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C188" s="2">
         <v>44194</v>
@@ -10013,10 +10091,10 @@
         <v>203</v>
       </c>
       <c r="E188">
-        <v>13.772986</v>
+        <v>12.3757564</v>
       </c>
       <c r="F188">
-        <v>100.4855148</v>
+        <v>102.3818628</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -10031,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L188" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -10048,7 +10126,7 @@
         <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C189" s="2">
         <v>44194</v>
@@ -10057,10 +10135,10 @@
         <v>204</v>
       </c>
       <c r="E189">
-        <v>12.90895904</v>
+        <v>12.7246169</v>
       </c>
       <c r="F189">
-        <v>100.891925</v>
+        <v>101.9362794</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -10074,14 +10152,14 @@
       <c r="J189">
         <v>0</v>
       </c>
-      <c r="K189">
-        <v>0</v>
+      <c r="K189" t="s">
+        <v>305</v>
       </c>
       <c r="L189" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -10092,7 +10170,7 @@
         <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C190" s="2">
         <v>44194</v>
@@ -10101,10 +10179,10 @@
         <v>205</v>
       </c>
       <c r="E190">
-        <v>12.90960418</v>
+        <v>13.772986</v>
       </c>
       <c r="F190">
-        <v>100.870256</v>
+        <v>100.4855148</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -10118,14 +10196,14 @@
       <c r="J190">
         <v>0</v>
       </c>
-      <c r="K190">
-        <v>0</v>
+      <c r="K190" t="s">
+        <v>305</v>
       </c>
       <c r="L190" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -10145,10 +10223,10 @@
         <v>206</v>
       </c>
       <c r="E191">
-        <v>12.93047726</v>
+        <v>12.90895904</v>
       </c>
       <c r="F191">
-        <v>100.8807229</v>
+        <v>100.891925</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -10166,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -10189,10 +10267,10 @@
         <v>207</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>12.90960418</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>100.870256</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -10210,10 +10288,10 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10233,10 +10311,10 @@
         <v>208</v>
       </c>
       <c r="E193">
-        <v>12.66219926</v>
+        <v>12.93047726</v>
       </c>
       <c r="F193">
-        <v>100.8989779</v>
+        <v>100.8807229</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -10254,10 +10332,10 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10277,10 +10355,10 @@
         <v>209</v>
       </c>
       <c r="E194">
-        <v>13.32877789</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>100.9230017</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10298,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10321,10 +10399,10 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>13.33615653</v>
+        <v>12.66219926</v>
       </c>
       <c r="F195">
-        <v>100.9694597</v>
+        <v>100.8989779</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10342,10 +10420,10 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10365,10 +10443,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>12.83546656</v>
+        <v>13.32877789</v>
       </c>
       <c r="F196">
-        <v>100.967575</v>
+        <v>100.9230017</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10386,10 +10464,10 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10409,10 +10487,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>13.33545565</v>
+        <v>13.33615653</v>
       </c>
       <c r="F197">
-        <v>100.9249432</v>
+        <v>100.9694597</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10430,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10453,10 +10531,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>13.33841928</v>
+        <v>12.83546656</v>
       </c>
       <c r="F198">
-        <v>100.9526548</v>
+        <v>100.967575</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10474,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10497,10 +10575,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>12.68318129</v>
+        <v>13.33545565</v>
       </c>
       <c r="F199">
-        <v>101.2479341</v>
+        <v>100.9249432</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10518,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10541,10 +10619,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>12.68178774</v>
+        <v>13.33841928</v>
       </c>
       <c r="F200">
-        <v>101.2804266</v>
+        <v>100.9526548</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10562,10 +10640,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10585,10 +10663,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>12.67663309</v>
+        <v>12.68318129</v>
       </c>
       <c r="F201">
-        <v>101.2204609</v>
+        <v>101.2479341</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10606,10 +10684,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10629,10 +10707,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>12.67969829</v>
+        <v>12.68178774</v>
       </c>
       <c r="F202">
-        <v>101.2516232</v>
+        <v>101.2804266</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10650,10 +10728,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10673,10 +10751,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.67895072</v>
+        <v>12.67663309</v>
       </c>
       <c r="F203">
-        <v>101.2811971</v>
+        <v>101.2204609</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10694,10 +10772,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10717,10 +10795,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>12.69121623</v>
+        <v>12.67969829</v>
       </c>
       <c r="F204">
-        <v>101.2828322</v>
+        <v>101.2516232</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10738,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10761,10 +10839,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>12.61154131</v>
+        <v>12.67895072</v>
       </c>
       <c r="F205">
-        <v>102.105739</v>
+        <v>101.2811971</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10782,10 +10860,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10805,10 +10883,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>12.59875505</v>
+        <v>12.69121623</v>
       </c>
       <c r="F206">
-        <v>102.1108505</v>
+        <v>101.2828322</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10826,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10849,10 +10927,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>12.61154131</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>102.105739</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10870,10 +10948,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10893,10 +10971,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>12.59875505</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>102.1108505</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10914,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10937,10 +11015,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>12.94007297</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>100.9198688</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -10958,10 +11036,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10981,10 +11059,10 @@
         <v>225</v>
       </c>
       <c r="E210">
-        <v>12.93500267</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>100.8828385</v>
+        <v>0</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -11002,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -11025,10 +11103,10 @@
         <v>226</v>
       </c>
       <c r="E211">
-        <v>12.93302705</v>
+        <v>12.94007297</v>
       </c>
       <c r="F211">
-        <v>100.9013151</v>
+        <v>100.9198688</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -11046,10 +11124,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -11069,10 +11147,10 @@
         <v>227</v>
       </c>
       <c r="E212">
-        <v>12.93124481</v>
+        <v>12.93500267</v>
       </c>
       <c r="F212">
-        <v>100.9008084</v>
+        <v>100.8828385</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -11090,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11113,10 +11191,10 @@
         <v>228</v>
       </c>
       <c r="E213">
-        <v>12.93038104</v>
+        <v>12.93302705</v>
       </c>
       <c r="F213">
-        <v>100.9126714</v>
+        <v>100.9013151</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -11134,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -11157,10 +11235,10 @@
         <v>229</v>
       </c>
       <c r="E214">
-        <v>12.84875767</v>
+        <v>12.93124481</v>
       </c>
       <c r="F214">
-        <v>100.9017</v>
+        <v>100.9008084</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -11178,10 +11256,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11201,10 +11279,10 @@
         <v>230</v>
       </c>
       <c r="E215">
-        <v>12.90883138</v>
+        <v>12.93038104</v>
       </c>
       <c r="F215">
-        <v>100.8932458</v>
+        <v>100.9126714</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -11222,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11245,10 +11323,10 @@
         <v>231</v>
       </c>
       <c r="E216">
-        <v>12.66362634</v>
+        <v>12.84875767</v>
       </c>
       <c r="F216">
-        <v>100.8981743</v>
+        <v>100.9017</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -11266,10 +11344,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11289,10 +11367,10 @@
         <v>232</v>
       </c>
       <c r="E217">
-        <v>12.95074463</v>
+        <v>12.90883138</v>
       </c>
       <c r="F217">
-        <v>100.8933879</v>
+        <v>100.8932458</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -11310,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11333,10 +11411,10 @@
         <v>233</v>
       </c>
       <c r="E218">
-        <v>12.97880506</v>
+        <v>12.66362634</v>
       </c>
       <c r="F218">
-        <v>100.9430835</v>
+        <v>100.8981743</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11354,10 +11432,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11377,10 +11455,10 @@
         <v>234</v>
       </c>
       <c r="E219">
-        <v>12.92662465</v>
+        <v>12.95074463</v>
       </c>
       <c r="F219">
-        <v>100.898605</v>
+        <v>100.8933879</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -11398,10 +11476,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11421,10 +11499,10 @@
         <v>235</v>
       </c>
       <c r="E220">
-        <v>12.98328283</v>
+        <v>12.97880506</v>
       </c>
       <c r="F220">
-        <v>100.9354783</v>
+        <v>100.9430835</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -11442,10 +11520,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11465,10 +11543,10 @@
         <v>236</v>
       </c>
       <c r="E221">
-        <v>12.98177123</v>
+        <v>12.92662465</v>
       </c>
       <c r="F221">
-        <v>100.9289336</v>
+        <v>100.898605</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -11486,10 +11564,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11509,10 +11587,10 @@
         <v>237</v>
       </c>
       <c r="E222">
-        <v>13.01893524</v>
+        <v>12.98328283</v>
       </c>
       <c r="F222">
-        <v>100.932701</v>
+        <v>100.9354783</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -11530,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11553,10 +11631,10 @@
         <v>238</v>
       </c>
       <c r="E223">
-        <v>12.95555524</v>
+        <v>12.98177123</v>
       </c>
       <c r="F223">
-        <v>100.8987028</v>
+        <v>100.9289336</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11574,10 +11652,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11597,10 +11675,10 @@
         <v>239</v>
       </c>
       <c r="E224">
-        <v>12.93944879</v>
+        <v>13.01893524</v>
       </c>
       <c r="F224">
-        <v>100.9021397</v>
+        <v>100.932701</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -11618,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11641,10 +11719,10 @@
         <v>240</v>
       </c>
       <c r="E225">
-        <v>12.75400498</v>
+        <v>12.95555524</v>
       </c>
       <c r="F225">
-        <v>100.9017967</v>
+        <v>100.8987028</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -11662,10 +11740,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11685,10 +11763,10 @@
         <v>241</v>
       </c>
       <c r="E226">
-        <v>12.69857571</v>
+        <v>12.93944879</v>
       </c>
       <c r="F226">
-        <v>100.8899412</v>
+        <v>100.9021397</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -11706,10 +11784,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11729,10 +11807,10 @@
         <v>242</v>
       </c>
       <c r="E227">
-        <v>13.76238233</v>
+        <v>12.75400498</v>
       </c>
       <c r="F227">
-        <v>100.507696</v>
+        <v>100.9017967</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11750,10 +11828,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11764,7 +11842,7 @@
         <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C228" s="2">
         <v>44194</v>
@@ -11773,10 +11851,10 @@
         <v>243</v>
       </c>
       <c r="E228">
-        <v>13.76254009</v>
+        <v>12.69857571</v>
       </c>
       <c r="F228">
-        <v>100.5075498</v>
+        <v>100.8899412</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -11794,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="L228" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11817,10 +11895,10 @@
         <v>244</v>
       </c>
       <c r="E229">
-        <v>13.92729422</v>
+        <v>13.76238233</v>
       </c>
       <c r="F229">
-        <v>100.5056386</v>
+        <v>100.507696</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -11838,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11852,7 +11930,7 @@
         <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C230" s="2">
         <v>44194</v>
@@ -11861,10 +11939,10 @@
         <v>245</v>
       </c>
       <c r="E230">
-        <v>13.91794214</v>
+        <v>13.76254009</v>
       </c>
       <c r="F230">
-        <v>100.4950847</v>
+        <v>100.5075498</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -11882,10 +11960,10 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11905,10 +11983,10 @@
         <v>246</v>
       </c>
       <c r="E231">
-        <v>13.98571223</v>
+        <v>13.92729422</v>
       </c>
       <c r="F231">
-        <v>100.605726</v>
+        <v>100.5056386</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -11926,10 +12004,10 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11949,10 +12027,10 @@
         <v>247</v>
       </c>
       <c r="E232">
-        <v>13.87711756</v>
+        <v>13.91794214</v>
       </c>
       <c r="F232">
-        <v>100.4091557</v>
+        <v>100.4950847</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -11970,10 +12048,10 @@
         <v>0</v>
       </c>
       <c r="L232" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11993,10 +12071,10 @@
         <v>248</v>
       </c>
       <c r="E233">
-        <v>13.69058811</v>
+        <v>13.98571223</v>
       </c>
       <c r="F233">
-        <v>100.5032004</v>
+        <v>100.605726</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -12014,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="L233" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -12037,10 +12115,10 @@
         <v>249</v>
       </c>
       <c r="E234">
-        <v>18.26066421</v>
+        <v>13.87711756</v>
       </c>
       <c r="F234">
-        <v>99.54330871000001</v>
+        <v>100.4091557</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -12058,10 +12136,10 @@
         <v>0</v>
       </c>
       <c r="L234" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -12081,10 +12159,10 @@
         <v>250</v>
       </c>
       <c r="E235">
-        <v>18.80845098</v>
+        <v>13.69058811</v>
       </c>
       <c r="F235">
-        <v>98.99692628</v>
+        <v>100.5032004</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -12102,10 +12180,10 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -12125,10 +12203,10 @@
         <v>251</v>
       </c>
       <c r="E236">
-        <v>14.48644022</v>
+        <v>18.26066421</v>
       </c>
       <c r="F236">
-        <v>100.124873</v>
+        <v>99.54330871000001</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -12146,10 +12224,10 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12163,16 +12241,16 @@
         <v>14</v>
       </c>
       <c r="C237" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D237" t="s">
         <v>252</v>
       </c>
       <c r="E237">
-        <v>13.68885671</v>
+        <v>18.80845098</v>
       </c>
       <c r="F237">
-        <v>100.6472895</v>
+        <v>98.99692628</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -12190,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="L237" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12207,16 +12285,16 @@
         <v>14</v>
       </c>
       <c r="C238" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D238" t="s">
         <v>253</v>
       </c>
       <c r="E238">
-        <v>13.7055576</v>
+        <v>14.48644022</v>
       </c>
       <c r="F238">
-        <v>100.6010884</v>
+        <v>100.124873</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -12234,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="L238" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12251,16 +12329,16 @@
         <v>14</v>
       </c>
       <c r="C239" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D239" t="s">
         <v>254</v>
       </c>
       <c r="E239">
-        <v>13.38779853</v>
+        <v>13.88595079</v>
       </c>
       <c r="F239">
-        <v>99.92358786</v>
+        <v>100.603464</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -12278,10 +12356,10 @@
         <v>0</v>
       </c>
       <c r="L239" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12295,16 +12373,16 @@
         <v>14</v>
       </c>
       <c r="C240" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D240" t="s">
         <v>255</v>
       </c>
       <c r="E240">
-        <v>13.91532244</v>
+        <v>13.72108833</v>
       </c>
       <c r="F240">
-        <v>100.4236653</v>
+        <v>100.495412</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -12322,10 +12400,10 @@
         <v>0</v>
       </c>
       <c r="L240" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12339,16 +12417,16 @@
         <v>14</v>
       </c>
       <c r="C241" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D241" t="s">
         <v>256</v>
       </c>
       <c r="E241">
-        <v>14.08063723</v>
+        <v>13.72849375</v>
       </c>
       <c r="F241">
-        <v>100.6228372</v>
+        <v>100.5342486</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -12366,10 +12444,10 @@
         <v>0</v>
       </c>
       <c r="L241" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -12383,16 +12461,16 @@
         <v>14</v>
       </c>
       <c r="C242" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D242" t="s">
         <v>257</v>
       </c>
       <c r="E242">
-        <v>13.95313369</v>
+        <v>13.71927682</v>
       </c>
       <c r="F242">
-        <v>100.4766133</v>
+        <v>100.5489089</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -12410,10 +12488,10 @@
         <v>0</v>
       </c>
       <c r="L242" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12427,16 +12505,16 @@
         <v>14</v>
       </c>
       <c r="C243" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D243" t="s">
         <v>258</v>
       </c>
       <c r="E243">
-        <v>16.78945067</v>
+        <v>13.68885671</v>
       </c>
       <c r="F243">
-        <v>101.0491296</v>
+        <v>100.6472895</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -12454,10 +12532,10 @@
         <v>0</v>
       </c>
       <c r="L243" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12471,16 +12549,16 @@
         <v>14</v>
       </c>
       <c r="C244" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D244" t="s">
         <v>259</v>
       </c>
       <c r="E244">
-        <v>16.79472348</v>
+        <v>13.7055576</v>
       </c>
       <c r="F244">
-        <v>101.0418582</v>
+        <v>100.6010884</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -12498,10 +12576,10 @@
         <v>0</v>
       </c>
       <c r="L244" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12515,16 +12593,16 @@
         <v>14</v>
       </c>
       <c r="C245" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D245" t="s">
         <v>260</v>
       </c>
       <c r="E245">
-        <v>16.87641646</v>
+        <v>13.38779853</v>
       </c>
       <c r="F245">
-        <v>101.1720539</v>
+        <v>99.92358786</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -12542,10 +12620,10 @@
         <v>0</v>
       </c>
       <c r="L245" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -12559,16 +12637,16 @@
         <v>14</v>
       </c>
       <c r="C246" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D246" t="s">
         <v>261</v>
       </c>
       <c r="E246">
-        <v>16.90718372</v>
+        <v>13.90509878</v>
       </c>
       <c r="F246">
-        <v>101.1093359</v>
+        <v>100.6567595</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -12586,10 +12664,10 @@
         <v>0</v>
       </c>
       <c r="L246" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12600,19 +12678,19 @@
         <v>307</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C247" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D247" t="s">
         <v>262</v>
       </c>
       <c r="E247">
-        <v>13.65610344</v>
+        <v>13.85994225</v>
       </c>
       <c r="F247">
-        <v>100.6432163</v>
+        <v>100.7041921</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -12630,10 +12708,10 @@
         <v>0</v>
       </c>
       <c r="L247" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12647,16 +12725,16 @@
         <v>14</v>
       </c>
       <c r="C248" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D248" t="s">
         <v>263</v>
       </c>
       <c r="E248">
-        <v>18.80850902</v>
+        <v>13.70718203</v>
       </c>
       <c r="F248">
-        <v>98.99591362</v>
+        <v>100.5437405</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -12674,10 +12752,10 @@
         <v>0</v>
       </c>
       <c r="L248" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12697,10 +12775,10 @@
         <v>264</v>
       </c>
       <c r="E249">
-        <v>13.39760126</v>
+        <v>13.91532244</v>
       </c>
       <c r="F249">
-        <v>99.92353421</v>
+        <v>100.4236653</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -12718,10 +12796,10 @@
         <v>0</v>
       </c>
       <c r="L249" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12741,10 +12819,10 @@
         <v>265</v>
       </c>
       <c r="E250">
-        <v>14.35549807</v>
+        <v>14.08063723</v>
       </c>
       <c r="F250">
-        <v>100.1472331</v>
+        <v>100.6228372</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -12762,10 +12840,10 @@
         <v>0</v>
       </c>
       <c r="L250" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12785,10 +12863,10 @@
         <v>266</v>
       </c>
       <c r="E251">
-        <v>13.91657726</v>
+        <v>13.95313369</v>
       </c>
       <c r="F251">
-        <v>100.4202007</v>
+        <v>100.4766133</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -12806,10 +12884,10 @@
         <v>0</v>
       </c>
       <c r="L251" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -12829,10 +12907,10 @@
         <v>267</v>
       </c>
       <c r="E252">
-        <v>13.90327914</v>
+        <v>16.78945067</v>
       </c>
       <c r="F252">
-        <v>100.4283632</v>
+        <v>101.0491296</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -12850,10 +12928,10 @@
         <v>0</v>
       </c>
       <c r="L252" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -12867,16 +12945,16 @@
         <v>14</v>
       </c>
       <c r="C253" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D253" t="s">
         <v>268</v>
       </c>
       <c r="E253">
-        <v>13.91454494</v>
+        <v>16.79472348</v>
       </c>
       <c r="F253">
-        <v>100.4960227</v>
+        <v>101.0418582</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -12894,10 +12972,10 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -12911,16 +12989,16 @@
         <v>14</v>
       </c>
       <c r="C254" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D254" t="s">
         <v>269</v>
       </c>
       <c r="E254">
-        <v>18.79508842</v>
+        <v>16.87641646</v>
       </c>
       <c r="F254">
-        <v>98.96505512</v>
+        <v>101.1720539</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -12938,10 +13016,10 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -12955,16 +13033,16 @@
         <v>14</v>
       </c>
       <c r="C255" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D255" t="s">
         <v>270</v>
       </c>
       <c r="E255">
-        <v>18.80723907</v>
+        <v>16.90718372</v>
       </c>
       <c r="F255">
-        <v>99.018125</v>
+        <v>101.1093359</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -12982,10 +13060,10 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12996,19 +13074,19 @@
         <v>316</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C256" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D256" t="s">
         <v>271</v>
       </c>
       <c r="E256">
-        <v>18.7980703</v>
+        <v>13.65610344</v>
       </c>
       <c r="F256">
-        <v>98.96166732</v>
+        <v>100.6432163</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -13026,10 +13104,10 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -13043,16 +13121,16 @@
         <v>14</v>
       </c>
       <c r="C257" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D257" t="s">
         <v>272</v>
       </c>
       <c r="E257">
-        <v>12.67967328</v>
+        <v>18.80850902</v>
       </c>
       <c r="F257">
-        <v>101.2816124</v>
+        <v>98.99591362</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -13070,10 +13148,10 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13087,16 +13165,16 @@
         <v>14</v>
       </c>
       <c r="C258" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D258" t="s">
         <v>273</v>
       </c>
       <c r="E258">
-        <v>12.83113908</v>
+        <v>13.39760126</v>
       </c>
       <c r="F258">
-        <v>101.2045512</v>
+        <v>99.92353421</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -13114,10 +13192,10 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -13128,19 +13206,19 @@
         <v>319</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C259" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D259" t="s">
         <v>274</v>
       </c>
       <c r="E259">
-        <v>13.1690554</v>
+        <v>14.35549807</v>
       </c>
       <c r="F259">
-        <v>100.9246356</v>
+        <v>100.1472331</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -13158,10 +13236,10 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -13172,19 +13250,19 @@
         <v>320</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C260" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D260" t="s">
         <v>275</v>
       </c>
       <c r="E260">
-        <v>13.5984203</v>
+        <v>13.91657726</v>
       </c>
       <c r="F260">
-        <v>100.5945368</v>
+        <v>100.4202007</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -13202,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -13219,16 +13297,16 @@
         <v>14</v>
       </c>
       <c r="C261" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D261" t="s">
         <v>276</v>
       </c>
       <c r="E261">
-        <v>13.93068401</v>
+        <v>13.90327914</v>
       </c>
       <c r="F261">
-        <v>100.5174953</v>
+        <v>100.4283632</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -13246,10 +13324,10 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -13263,16 +13341,16 @@
         <v>14</v>
       </c>
       <c r="C262" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D262" t="s">
         <v>277</v>
       </c>
       <c r="E262">
-        <v>13.87762828</v>
+        <v>13.8261955</v>
       </c>
       <c r="F262">
-        <v>100.4107211</v>
+        <v>100.6783474</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -13290,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M262" s="3" t="s">
         <v>456</v>
@@ -13304,19 +13382,19 @@
         <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C263" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D263" t="s">
         <v>278</v>
       </c>
       <c r="E263">
-        <v>13.87448379</v>
+        <v>13.4292017</v>
       </c>
       <c r="F263">
-        <v>100.4056405</v>
+        <v>101.040314</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -13334,10 +13412,10 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -13357,10 +13435,10 @@
         <v>279</v>
       </c>
       <c r="E264">
-        <v>13.91514634</v>
+        <v>13.91454494</v>
       </c>
       <c r="F264">
-        <v>100.4225456</v>
+        <v>100.4960227</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -13378,10 +13456,10 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13392,19 +13470,19 @@
         <v>325</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D265" t="s">
         <v>280</v>
       </c>
       <c r="E265">
-        <v>14.5063704</v>
+        <v>18.79508842</v>
       </c>
       <c r="F265">
-        <v>100.4640833</v>
+        <v>98.96505512</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -13422,10 +13500,10 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -13436,19 +13514,19 @@
         <v>326</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C266" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D266" t="s">
         <v>281</v>
       </c>
       <c r="E266">
-        <v>15.0696922</v>
+        <v>18.80723907</v>
       </c>
       <c r="F266">
-        <v>100.7237944</v>
+        <v>99.018125</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -13466,10 +13544,10 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -13480,19 +13558,19 @@
         <v>327</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C267" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D267" t="s">
         <v>282</v>
       </c>
       <c r="E267">
-        <v>13.1584655</v>
+        <v>18.7980703</v>
       </c>
       <c r="F267">
-        <v>100.9518027</v>
+        <v>98.96166732</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -13506,14 +13584,14 @@
       <c r="J267">
         <v>0</v>
       </c>
-      <c r="K267" t="s">
-        <v>288</v>
+      <c r="K267">
+        <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -13524,19 +13602,19 @@
         <v>328</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D268" t="s">
         <v>283</v>
       </c>
       <c r="E268">
-        <v>13.0394735</v>
+        <v>12.67967328</v>
       </c>
       <c r="F268">
-        <v>101.0829624</v>
+        <v>101.2816124</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -13554,10 +13632,10 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -13571,16 +13649,16 @@
         <v>14</v>
       </c>
       <c r="C269" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="D269" t="s">
         <v>284</v>
       </c>
       <c r="E269">
-        <v>18.80005469</v>
+        <v>12.83113908</v>
       </c>
       <c r="F269">
-        <v>99.01848506</v>
+        <v>101.2045512</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -13598,10 +13676,10 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13612,19 +13690,19 @@
         <v>330</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C270" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="D270" t="s">
         <v>285</v>
       </c>
       <c r="E270">
-        <v>13.2658421</v>
+        <v>13.1690554</v>
       </c>
       <c r="F270">
-        <v>100.9280545</v>
+        <v>100.9246356</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -13638,14 +13716,14 @@
       <c r="J270">
         <v>0</v>
       </c>
-      <c r="K270" t="s">
-        <v>288</v>
+      <c r="K270">
+        <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -13659,39 +13737,787 @@
         <v>15</v>
       </c>
       <c r="C271" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="D271" t="s">
         <v>286</v>
       </c>
       <c r="E271">
+        <v>13.5984203</v>
+      </c>
+      <c r="F271">
+        <v>100.5945368</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271" t="s">
+        <v>399</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272">
+        <v>332</v>
+      </c>
+      <c r="B272" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D272" t="s">
+        <v>287</v>
+      </c>
+      <c r="E272">
+        <v>13.93068401</v>
+      </c>
+      <c r="F272">
+        <v>100.5174953</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272" t="s">
+        <v>400</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273">
+        <v>333</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D273" t="s">
+        <v>288</v>
+      </c>
+      <c r="E273">
+        <v>13.87762828</v>
+      </c>
+      <c r="F273">
+        <v>100.4107211</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273" t="s">
+        <v>401</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274">
+        <v>334</v>
+      </c>
+      <c r="B274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D274" t="s">
+        <v>289</v>
+      </c>
+      <c r="E274">
+        <v>13.87448379</v>
+      </c>
+      <c r="F274">
+        <v>100.4056405</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274" t="s">
+        <v>402</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275">
+        <v>335</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D275" t="s">
+        <v>290</v>
+      </c>
+      <c r="E275">
+        <v>13.91514634</v>
+      </c>
+      <c r="F275">
+        <v>100.4225456</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275" t="s">
+        <v>403</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
+      <c r="A276">
+        <v>336</v>
+      </c>
+      <c r="B276" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D276" t="s">
+        <v>291</v>
+      </c>
+      <c r="E276">
+        <v>12.9140115</v>
+      </c>
+      <c r="F276">
+        <v>100.9970536</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276" t="s">
+        <v>397</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277">
+        <v>337</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D277" t="s">
+        <v>292</v>
+      </c>
+      <c r="E277">
+        <v>14.5063704</v>
+      </c>
+      <c r="F277">
+        <v>100.4640833</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277" t="s">
+        <v>404</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278">
+        <v>338</v>
+      </c>
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D278" t="s">
+        <v>293</v>
+      </c>
+      <c r="E278">
+        <v>15.0696922</v>
+      </c>
+      <c r="F278">
+        <v>100.7237944</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278" t="s">
+        <v>385</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279">
+        <v>339</v>
+      </c>
+      <c r="B279" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D279" t="s">
+        <v>294</v>
+      </c>
+      <c r="E279">
+        <v>13.1584655</v>
+      </c>
+      <c r="F279">
+        <v>100.9518027</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" t="s">
+        <v>305</v>
+      </c>
+      <c r="L279" t="s">
+        <v>405</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280">
+        <v>340</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D280" t="s">
+        <v>295</v>
+      </c>
+      <c r="E280">
+        <v>13.0394735</v>
+      </c>
+      <c r="F280">
+        <v>101.0829624</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280" t="s">
+        <v>406</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281">
+        <v>341</v>
+      </c>
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D281" t="s">
+        <v>296</v>
+      </c>
+      <c r="E281">
+        <v>13.1636893</v>
+      </c>
+      <c r="F281">
+        <v>100.928039</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281" t="s">
+        <v>397</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282">
+        <v>342</v>
+      </c>
+      <c r="B282" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D282" t="s">
+        <v>297</v>
+      </c>
+      <c r="E282">
+        <v>18.80005469</v>
+      </c>
+      <c r="F282">
+        <v>99.01848506</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282" t="s">
+        <v>369</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283">
+        <v>343</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D283" t="s">
+        <v>298</v>
+      </c>
+      <c r="E283">
+        <v>13.2658421</v>
+      </c>
+      <c r="F283">
+        <v>100.9280545</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>305</v>
+      </c>
+      <c r="L283" t="s">
+        <v>407</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284">
+        <v>344</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D284" t="s">
+        <v>299</v>
+      </c>
+      <c r="E284">
         <v>13.0923373</v>
       </c>
-      <c r="F271">
+      <c r="F284">
         <v>100.9175099</v>
       </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>0</v>
-      </c>
-      <c r="I271">
-        <v>0</v>
-      </c>
-      <c r="J271">
-        <v>0</v>
-      </c>
-      <c r="K271" t="s">
-        <v>288</v>
-      </c>
-      <c r="L271" t="s">
-        <v>381</v>
-      </c>
-      <c r="M271" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N271">
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284" t="s">
+        <v>305</v>
+      </c>
+      <c r="L284" t="s">
+        <v>405</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285">
+        <v>345</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D285" t="s">
+        <v>300</v>
+      </c>
+      <c r="E285">
+        <v>13.1682491</v>
+      </c>
+      <c r="F285">
+        <v>100.9280324</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285" t="s">
+        <v>397</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286">
+        <v>346</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D286" t="s">
+        <v>301</v>
+      </c>
+      <c r="E286">
+        <v>13.3200792</v>
+      </c>
+      <c r="F286">
+        <v>101.1116027</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" t="s">
+        <v>305</v>
+      </c>
+      <c r="L286" t="s">
+        <v>397</v>
+      </c>
+      <c r="M286" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
+      <c r="A287">
+        <v>347</v>
+      </c>
+      <c r="B287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D287" t="s">
+        <v>302</v>
+      </c>
+      <c r="E287">
+        <v>13.1756844</v>
+      </c>
+      <c r="F287">
+        <v>100.9200621</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287" t="s">
+        <v>397</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288">
+        <v>348</v>
+      </c>
+      <c r="B288" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="2">
+        <v>44202</v>
+      </c>
+      <c r="D288" t="s">
+        <v>303</v>
+      </c>
+      <c r="E288">
+        <v>12.9301453</v>
+      </c>
+      <c r="F288">
+        <v>100.884397</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288" t="s">
+        <v>305</v>
+      </c>
+      <c r="L288" t="s">
+        <v>397</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N288">
         <v>0</v>
       </c>
     </row>
@@ -13967,6 +14793,23 @@
     <hyperlink ref="M269" r:id="rId268"/>
     <hyperlink ref="M270" r:id="rId269"/>
     <hyperlink ref="M271" r:id="rId270"/>
+    <hyperlink ref="M272" r:id="rId271"/>
+    <hyperlink ref="M273" r:id="rId272"/>
+    <hyperlink ref="M274" r:id="rId273"/>
+    <hyperlink ref="M275" r:id="rId274"/>
+    <hyperlink ref="M276" r:id="rId275"/>
+    <hyperlink ref="M277" r:id="rId276"/>
+    <hyperlink ref="M278" r:id="rId277"/>
+    <hyperlink ref="M279" r:id="rId278"/>
+    <hyperlink ref="M280" r:id="rId279"/>
+    <hyperlink ref="M281" r:id="rId280"/>
+    <hyperlink ref="M282" r:id="rId281"/>
+    <hyperlink ref="M283" r:id="rId282"/>
+    <hyperlink ref="M284" r:id="rId283"/>
+    <hyperlink ref="M285" r:id="rId284"/>
+    <hyperlink ref="M286" r:id="rId285"/>
+    <hyperlink ref="M287" r:id="rId286"/>
+    <hyperlink ref="M288" r:id="rId287"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -553,6 +553,12 @@
     <t>ร้านโบกี้บาร์ พุทธมณฑลสาย 1</t>
   </si>
   <si>
+    <t>CU sport complex</t>
+  </si>
+  <si>
+    <t>อาคารจามจุรี 9</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -583,6 +589,18 @@
     <t>สถานบันเทิง DC</t>
   </si>
   <si>
+    <t>Dream world</t>
+  </si>
+  <si>
+    <t>ร้านเจ๊เดือน สวนหลวงสแควร์</t>
+  </si>
+  <si>
+    <t>สยามสแควร์วัน</t>
+  </si>
+  <si>
+    <t>สยามดิสคัฟเวอรี่</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -613,6 +631,12 @@
     <t>วัดแก้วแจ่มฟ้า บางรัก</t>
   </si>
   <si>
+    <t>สามย่านมิตรทาวน์</t>
+  </si>
+  <si>
+    <t>โตคิว  MBK</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -790,6 +814,9 @@
     <t>7-11 ร้านใหญ่ หัวมุม ถนนเย็นอากาศ</t>
   </si>
   <si>
+    <t>ร้าน Bajika ทวีวัฒนา</t>
+  </si>
+  <si>
     <t>ธนาคารกรุงศรี สาขาพาราไดซ์พาร์ค</t>
   </si>
   <si>
@@ -808,6 +835,30 @@
     <t>MK ห้างมาร์เก็ตเพลส นางลิ้นจี่</t>
   </si>
   <si>
+    <t>ร้านซูชิแห่งหนึ่ง ในห้างไอคอนสยาม</t>
+  </si>
+  <si>
+    <t>ท่าเรือวังหลัง</t>
+  </si>
+  <si>
+    <t>บิ๊กซี พระราม2</t>
+  </si>
+  <si>
+    <t>7-11 พัฒนาการ 25</t>
+  </si>
+  <si>
+    <t>ATM หน้าร้าน Lawson ปากซอยรัชดา 36</t>
+  </si>
+  <si>
+    <t>สะพานตากสิน</t>
+  </si>
+  <si>
+    <t>ข้าวมันไก่ไหหลำ บรรทัดทอง</t>
+  </si>
+  <si>
+    <t>แอมปาร์ค</t>
+  </si>
+  <si>
     <t>วัดละหาร</t>
   </si>
   <si>
@@ -853,6 +904,15 @@
     <t>ออเร้นจ์ บาร์ อมตะนคร</t>
   </si>
   <si>
+    <t>วัดสว่างอารมณ์ นครชัยศรี</t>
+  </si>
+  <si>
+    <t>แมคโคร จรัญ 35</t>
+  </si>
+  <si>
+    <t>ตลาดพลูหมูกระทะ ถ.อิสรภาพ</t>
+  </si>
+  <si>
     <t>ตลาดพิชัย</t>
   </si>
   <si>
@@ -892,6 +952,15 @@
     <t>Siam Country Club Waterside</t>
   </si>
   <si>
+    <t>เซ็นทรัลปิ่นเกล้า</t>
+  </si>
+  <si>
+    <t>ร้านเจ๊นงค์ อุทยานจุฬา 100ปี</t>
+  </si>
+  <si>
+    <t>7-11 MBK</t>
+  </si>
+  <si>
     <t>สนามชนไก่ใน อ.ป่าโมก จ.อ่างทอง</t>
   </si>
   <si>
@@ -907,6 +976,9 @@
     <t>Cen suit ศรีราชา</t>
   </si>
   <si>
+    <t>ตลาดโกลบอล</t>
+  </si>
+  <si>
     <t xml:space="preserve">ร้านชาบูอิ่มหมีพีมัน สาขาสตาร์อเวนิว ถนนซูเปอร์ไฮเวย์ เชียงใหม่ </t>
   </si>
   <si>
@@ -922,6 +994,9 @@
     <t>วัดเจริญธรรม</t>
   </si>
   <si>
+    <t>หอพักนิสิต จุฬา</t>
+  </si>
+  <si>
     <t>เรือสีชังพาเลซ เบอร์ 4 เที่ยว 14:00 น.</t>
   </si>
   <si>
@@ -1111,6 +1186,9 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 155</t>
   </si>
   <si>
+    <t>Timeline นิสิตหอพัก ผู้ป่วยเพศชาย อายุ 21 ปี โดย จุฬาฯ ศูนย์ปฏิบัติการ โควิด-19</t>
+  </si>
+  <si>
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
@@ -1126,6 +1204,9 @@
     <t>เชียงใหม่พบสาว 25 ปี ติดเชื้อโควิด-19 ไทม์ไลน์เที่ยวผับดังหลายแห่ง</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 198</t>
+  </si>
+  <si>
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
@@ -1183,6 +1264,9 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 161</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 187</t>
+  </si>
+  <si>
     <t>ธนาคารกรุงศรีขอแจ้งปิดบางสาขาเป็นการชั่วคราว</t>
   </si>
   <si>
@@ -1192,6 +1276,18 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 153</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 184</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 188</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 191</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 204</t>
+  </si>
+  <si>
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
@@ -1210,6 +1306,9 @@
     <t xml:space="preserve">ข้อมูลสถานที่เสี่ยงตามประกาศของสำนักงานสาธารณสุขชลบุรี </t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 207</t>
+  </si>
+  <si>
     <t>ท่านใดมาที่นี่วันที่ 1 ม.ค. 2564 เวลา17:00-19:00 น. โปรดสังเกตอาการตัวเอง เว้นระยะห่างกับผู้คน</t>
   </si>
   <si>
@@ -1237,6 +1336,9 @@
     <t>ท่านใดมาที่นี่วันที่ 2 ม.ค. 2564 เวลาเที่ยงถึงบ่ายสี่โมง โปรดสังเกตอาการตัวเอง เว้นระยะห่างกับผู้คน</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 190</t>
+  </si>
+  <si>
     <t>สถานที่เสี่ยงโควิด-19 ตามรายงานของสำนักงานสาธารณสุขจังหวัดชลบุรี</t>
   </si>
   <si>
@@ -1402,10 +1504,16 @@
     <t>https://www.sanook.com/news/8330358/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/posts/3143240189108914</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/general/news-585006</t>
   </si>
   <si>
     <t>https://mgronline.com/onlinesection/detail/9630000134214</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rcuchula/posts/10159089080509282</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
@@ -1843,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:N313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1919,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1960,22 +2068,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K3" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L3" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2004,22 +2112,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J4" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K4" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L4" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2048,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K5" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L5" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2092,22 +2200,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K6" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L6" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2136,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2180,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L8" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2224,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K9" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2268,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J10" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K10" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2312,22 +2420,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K11" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L11" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2356,22 +2464,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K12" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L12" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2400,22 +2508,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J13" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K13" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L13" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2444,22 +2552,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K14" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L14" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2488,22 +2596,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K15" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L15" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2532,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J16" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L16" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2576,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L17" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2620,22 +2728,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K18" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L18" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2676,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2708,22 +2816,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J20" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K20" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L20" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2752,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K21" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L21" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2796,22 +2904,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I22" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K22" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L22" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2840,22 +2948,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K23" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L23" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2884,22 +2992,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L24" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2928,22 +3036,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I25" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J25" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K25" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L25" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2972,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K26" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L26" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3016,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J27" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K27" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L27" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3060,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J28" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K28" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L28" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3104,22 +3212,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3148,22 +3256,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L30" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3192,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L31" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3236,22 +3344,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K32" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3280,22 +3388,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3324,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3368,22 +3476,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3412,22 +3520,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3468,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3512,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3547,19 +3655,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3588,22 +3696,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3632,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3679,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J42" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3723,19 +3831,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3767,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3811,19 +3919,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3852,22 +3960,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J46" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3896,22 +4004,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I47" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3940,22 +4048,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3984,22 +4092,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J49" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4028,22 +4136,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4072,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K51" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4116,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J52" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K52" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4160,22 +4268,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J53" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4204,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4248,22 +4356,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J55" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L55" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4292,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J56" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L56" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4336,22 +4444,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J57" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K57" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L57" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4380,22 +4488,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J58" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K58" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L58" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4424,22 +4532,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I59" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J59" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L59" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4468,22 +4576,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4512,22 +4620,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J61" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L61" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4556,22 +4664,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J62" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K62" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L62" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4600,22 +4708,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J63" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L63" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4644,22 +4752,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I64" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J64" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L64" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4700,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4744,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4788,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4832,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4876,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4908,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J70" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K70" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L70" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4952,22 +5060,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J71" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K71" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4996,22 +5104,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J72" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K72" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L72" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -5040,22 +5148,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J73" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K73" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L73" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5084,22 +5192,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J74" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K74" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L74" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5128,22 +5236,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J75" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L75" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5172,22 +5280,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J76" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K76" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L76" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5228,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5272,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5316,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5360,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5395,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J81" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K81" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L81" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5439,19 +5547,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J82" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K82" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L82" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5480,22 +5588,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J83" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K83" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L83" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5524,22 +5632,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I84" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J84" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K84" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L84" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5568,22 +5676,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J85" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K85" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L85" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5612,22 +5720,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J86" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K86" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L86" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5656,22 +5764,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J87" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K87" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L87" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5700,22 +5808,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J88" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K88" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L88" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5744,22 +5852,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I89" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J89" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K89" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L89" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5788,22 +5896,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I90" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J90" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K90" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L90" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5832,22 +5940,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I91" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J91" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K91" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L91" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5876,22 +5984,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J92" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K92" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L92" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5932,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5976,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6020,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6064,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6099,19 +6207,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J97" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K97" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L97" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6140,22 +6248,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I98" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J98" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K98" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L98" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6184,22 +6292,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J99" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K99" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L99" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6231,19 +6339,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J100" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K100" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L100" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6272,22 +6380,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I101" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J101" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K101" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L101" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6316,22 +6424,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I102" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J102" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K102" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L102" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6360,22 +6468,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J103" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K103" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L103" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6404,22 +6512,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I104" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J104" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K104" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L104" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6448,22 +6556,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I105" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J105" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K105" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L105" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6504,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6548,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6592,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6636,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6680,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6724,10 +6832,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6756,22 +6864,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I112" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J112" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K112" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L112" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6800,22 +6908,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="J113" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K113" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L113" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6844,22 +6952,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I114" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J114" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K114" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L114" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6888,22 +6996,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I115" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J115" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K115" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L115" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6932,22 +7040,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I116" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J116" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K116" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L116" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6976,22 +7084,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I117" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J117" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K117" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L117" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -7020,22 +7128,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I118" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J118" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K118" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L118" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -7064,22 +7172,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J119" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K119" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L119" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7120,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7164,10 +7272,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -7208,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -7252,10 +7360,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -7296,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7340,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7384,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7428,10 +7536,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7472,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7516,10 +7624,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7548,22 +7656,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I130" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J130" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K130" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L130" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7592,22 +7700,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I131" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J131" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K131" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L131" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7636,22 +7744,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I132" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J132" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K132" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L132" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7692,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7736,10 +7844,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7780,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7824,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7868,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7912,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7956,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -8000,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -8044,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -8088,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -8132,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8176,10 +8284,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8220,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8264,10 +8372,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8308,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8352,10 +8460,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8396,10 +8504,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8440,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8484,10 +8592,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8528,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8572,10 +8680,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8616,10 +8724,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8660,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8692,22 +8800,22 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I156" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J156" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K156" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L156" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8736,22 +8844,22 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I157" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J157" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K157" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L157" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8792,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8836,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8880,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8924,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8968,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -9012,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -9026,19 +9134,19 @@
         <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D164" t="s">
         <v>179</v>
       </c>
       <c r="E164">
-        <v>12.6844183</v>
+        <v>13.73880307</v>
       </c>
       <c r="F164">
-        <v>101.2742991</v>
+        <v>100.5265351</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -9052,14 +9160,14 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164" t="s">
-        <v>305</v>
+      <c r="K164">
+        <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>365</v>
-      </c>
-      <c r="M164" s="3" t="s">
-        <v>457</v>
+        <v>390</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -9070,19 +9178,19 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D165" t="s">
         <v>180</v>
       </c>
       <c r="E165">
-        <v>12.9730033</v>
+        <v>13.73589718</v>
       </c>
       <c r="F165">
-        <v>100.9029061</v>
+        <v>100.5255978</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -9096,14 +9204,14 @@
       <c r="J165">
         <v>0</v>
       </c>
-      <c r="K165" t="s">
-        <v>305</v>
+      <c r="K165">
+        <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>365</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>457</v>
+        <v>390</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -9114,7 +9222,7 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C166" s="2">
         <v>44192</v>
@@ -9123,10 +9231,10 @@
         <v>181</v>
       </c>
       <c r="E166">
-        <v>13.7946069</v>
+        <v>12.6844183</v>
       </c>
       <c r="F166">
-        <v>100.5161808</v>
+        <v>101.2742991</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -9141,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L166" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -9158,7 +9266,7 @@
         <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C167" s="2">
         <v>44192</v>
@@ -9167,31 +9275,31 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>13.54448567</v>
+        <v>12.9730033</v>
       </c>
       <c r="F167">
-        <v>100.2752027</v>
+        <v>100.9029061</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167" t="s">
-        <v>304</v>
-      </c>
-      <c r="I167" t="s">
-        <v>307</v>
-      </c>
-      <c r="J167" t="s">
-        <v>309</v>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L167" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -9211,10 +9319,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.67424547</v>
+        <v>13.7946069</v>
       </c>
       <c r="F168">
-        <v>100.426448</v>
+        <v>100.5161808</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -9228,14 +9336,14 @@
       <c r="J168">
         <v>0</v>
       </c>
-      <c r="K168">
-        <v>0</v>
+      <c r="K168" t="s">
+        <v>330</v>
       </c>
       <c r="L168" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -9255,31 +9363,31 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>13.94010609</v>
+        <v>13.54448567</v>
       </c>
       <c r="F169">
-        <v>100.5124853</v>
+        <v>100.2752027</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
+      <c r="H169" t="s">
+        <v>329</v>
+      </c>
+      <c r="I169" t="s">
+        <v>332</v>
+      </c>
+      <c r="J169" t="s">
+        <v>334</v>
+      </c>
+      <c r="K169" t="s">
+        <v>330</v>
       </c>
       <c r="L169" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9299,10 +9407,10 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>13.96674442</v>
+        <v>13.67424547</v>
       </c>
       <c r="F170">
-        <v>100.5302521</v>
+        <v>100.426448</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -9320,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9343,10 +9451,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>13.8766052</v>
+        <v>13.94010609</v>
       </c>
       <c r="F171">
-        <v>100.4449333</v>
+        <v>100.5124853</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -9364,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9387,10 +9495,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>13.85555825</v>
+        <v>13.96674442</v>
       </c>
       <c r="F172">
-        <v>100.5424068</v>
+        <v>100.5302521</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9408,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9431,10 +9539,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>18.79792861</v>
+        <v>13.8766052</v>
       </c>
       <c r="F173">
-        <v>98.96334683000001</v>
+        <v>100.4449333</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9452,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9469,37 +9577,37 @@
         <v>14</v>
       </c>
       <c r="C174" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D174" t="s">
         <v>189</v>
       </c>
       <c r="E174">
-        <v>13.73545544</v>
+        <v>13.85555825</v>
       </c>
       <c r="F174">
-        <v>100.5661584</v>
+        <v>100.5424068</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174" t="s">
-        <v>305</v>
-      </c>
-      <c r="I174" t="s">
-        <v>307</v>
-      </c>
-      <c r="J174" t="s">
-        <v>309</v>
-      </c>
-      <c r="K174" t="s">
-        <v>305</v>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9513,16 +9621,16 @@
         <v>14</v>
       </c>
       <c r="C175" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D175" t="s">
         <v>190</v>
       </c>
       <c r="E175">
-        <v>13.91669065</v>
+        <v>18.79792861</v>
       </c>
       <c r="F175">
-        <v>100.397828</v>
+        <v>98.96334683000001</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9540,10 +9648,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9557,16 +9665,16 @@
         <v>14</v>
       </c>
       <c r="C176" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D176" t="s">
         <v>191</v>
       </c>
       <c r="E176">
-        <v>13.76710313</v>
+        <v>13.98760892</v>
       </c>
       <c r="F176">
-        <v>100.5328623</v>
+        <v>100.6755888</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9584,10 +9692,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9601,16 +9709,16 @@
         <v>14</v>
       </c>
       <c r="C177" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D177" t="s">
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.7495748</v>
+        <v>13.74224785</v>
       </c>
       <c r="F177">
-        <v>100.5157013</v>
+        <v>100.5250176</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9628,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>338</v>
-      </c>
-      <c r="M177" s="3" t="s">
-        <v>431</v>
+        <v>390</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9645,16 +9753,16 @@
         <v>14</v>
       </c>
       <c r="C178" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D178" t="s">
         <v>193</v>
       </c>
       <c r="E178">
-        <v>13.86015375</v>
+        <v>13.74491238</v>
       </c>
       <c r="F178">
-        <v>100.5133052</v>
+        <v>100.533897</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9672,10 +9780,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>371</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>463</v>
+        <v>390</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9689,16 +9797,16 @@
         <v>14</v>
       </c>
       <c r="C179" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D179" t="s">
         <v>194</v>
       </c>
       <c r="E179">
-        <v>13.85554623</v>
+        <v>13.74654683</v>
       </c>
       <c r="F179">
-        <v>100.5420379</v>
+        <v>100.5313126</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9716,10 +9824,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>371</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>463</v>
+        <v>390</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9739,31 +9847,31 @@
         <v>195</v>
       </c>
       <c r="E180">
-        <v>18.80178381</v>
+        <v>13.73545544</v>
       </c>
       <c r="F180">
-        <v>98.99477501</v>
+        <v>100.5661584</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
+      <c r="H180" t="s">
+        <v>330</v>
+      </c>
+      <c r="I180" t="s">
+        <v>332</v>
+      </c>
+      <c r="J180" t="s">
+        <v>334</v>
+      </c>
+      <c r="K180" t="s">
+        <v>330</v>
       </c>
       <c r="L180" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9783,10 +9891,10 @@
         <v>196</v>
       </c>
       <c r="E181">
-        <v>18.79840936</v>
+        <v>13.91669065</v>
       </c>
       <c r="F181">
-        <v>98.96368013999999</v>
+        <v>100.397828</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9804,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9827,10 +9935,10 @@
         <v>197</v>
       </c>
       <c r="E182">
-        <v>13.67953551</v>
+        <v>13.76710313</v>
       </c>
       <c r="F182">
-        <v>100.5139293</v>
+        <v>100.5328623</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9848,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9871,10 +9979,10 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>13.73105104</v>
+        <v>13.7495748</v>
       </c>
       <c r="F183">
-        <v>100.5194954</v>
+        <v>100.5157013</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9892,10 +10000,10 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9906,40 +10014,40 @@
         <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D184" t="s">
         <v>199</v>
       </c>
       <c r="E184">
-        <v>12.9098775</v>
+        <v>13.86015375</v>
       </c>
       <c r="F184">
-        <v>100.891563</v>
+        <v>100.5133052</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184" t="s">
-        <v>305</v>
-      </c>
-      <c r="I184" t="s">
-        <v>307</v>
-      </c>
-      <c r="J184" t="s">
-        <v>309</v>
-      </c>
-      <c r="K184" t="s">
-        <v>305</v>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9950,19 +10058,19 @@
         <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D185" t="s">
         <v>200</v>
       </c>
       <c r="E185">
-        <v>13.3535702</v>
+        <v>13.85554623</v>
       </c>
       <c r="F185">
-        <v>100.9765439</v>
+        <v>100.5420379</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -9976,14 +10084,14 @@
       <c r="J185">
         <v>0</v>
       </c>
-      <c r="K185" t="s">
-        <v>305</v>
+      <c r="K185">
+        <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9997,16 +10105,16 @@
         <v>14</v>
       </c>
       <c r="C186" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D186" t="s">
         <v>201</v>
       </c>
       <c r="E186">
-        <v>12.948902</v>
+        <v>18.80178381</v>
       </c>
       <c r="F186">
-        <v>100.891292</v>
+        <v>98.99477501</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -10020,14 +10128,14 @@
       <c r="J186">
         <v>0</v>
       </c>
-      <c r="K186" t="s">
-        <v>305</v>
+      <c r="K186">
+        <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -10038,19 +10146,19 @@
         <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D187" t="s">
         <v>202</v>
       </c>
       <c r="E187">
-        <v>12.6495877</v>
+        <v>18.79840936</v>
       </c>
       <c r="F187">
-        <v>102.0329425</v>
+        <v>98.96368013999999</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -10064,14 +10172,14 @@
       <c r="J187">
         <v>0</v>
       </c>
-      <c r="K187" t="s">
-        <v>305</v>
+      <c r="K187">
+        <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -10082,19 +10190,19 @@
         <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D188" t="s">
         <v>203</v>
       </c>
       <c r="E188">
-        <v>12.3757564</v>
+        <v>13.67953551</v>
       </c>
       <c r="F188">
-        <v>102.3818628</v>
+        <v>100.5139293</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -10108,14 +10216,14 @@
       <c r="J188">
         <v>0</v>
       </c>
-      <c r="K188" t="s">
-        <v>305</v>
+      <c r="K188">
+        <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -10126,19 +10234,19 @@
         <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D189" t="s">
         <v>204</v>
       </c>
       <c r="E189">
-        <v>12.7246169</v>
+        <v>13.73105104</v>
       </c>
       <c r="F189">
-        <v>101.9362794</v>
+        <v>100.5194954</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -10152,14 +10260,14 @@
       <c r="J189">
         <v>0</v>
       </c>
-      <c r="K189" t="s">
-        <v>305</v>
+      <c r="K189">
+        <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -10170,19 +10278,19 @@
         <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C190" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D190" t="s">
         <v>205</v>
       </c>
       <c r="E190">
-        <v>13.772986</v>
+        <v>13.73433065</v>
       </c>
       <c r="F190">
-        <v>100.4855148</v>
+        <v>100.528408</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -10196,14 +10304,14 @@
       <c r="J190">
         <v>0</v>
       </c>
-      <c r="K190" t="s">
-        <v>305</v>
+      <c r="K190">
+        <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -10217,16 +10325,16 @@
         <v>14</v>
       </c>
       <c r="C191" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D191" t="s">
         <v>206</v>
       </c>
       <c r="E191">
-        <v>12.90895904</v>
+        <v>13.74583841</v>
       </c>
       <c r="F191">
-        <v>100.891925</v>
+        <v>100.5302062</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -10244,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>380</v>
-      </c>
-      <c r="M191" s="3" t="s">
-        <v>468</v>
+        <v>390</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -10258,7 +10366,7 @@
         <v>252</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C192" s="2">
         <v>44194</v>
@@ -10267,31 +10375,31 @@
         <v>207</v>
       </c>
       <c r="E192">
-        <v>12.90960418</v>
+        <v>12.9098775</v>
       </c>
       <c r="F192">
-        <v>100.870256</v>
+        <v>100.891563</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
+      <c r="H192" t="s">
+        <v>330</v>
+      </c>
+      <c r="I192" t="s">
+        <v>332</v>
+      </c>
+      <c r="J192" t="s">
+        <v>334</v>
+      </c>
+      <c r="K192" t="s">
+        <v>330</v>
       </c>
       <c r="L192" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10302,7 +10410,7 @@
         <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C193" s="2">
         <v>44194</v>
@@ -10311,10 +10419,10 @@
         <v>208</v>
       </c>
       <c r="E193">
-        <v>12.93047726</v>
+        <v>13.3535702</v>
       </c>
       <c r="F193">
-        <v>100.8807229</v>
+        <v>100.9765439</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -10328,14 +10436,14 @@
       <c r="J193">
         <v>0</v>
       </c>
-      <c r="K193">
-        <v>0</v>
+      <c r="K193" t="s">
+        <v>330</v>
       </c>
       <c r="L193" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10355,10 +10463,10 @@
         <v>209</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>12.948902</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>100.891292</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10372,14 +10480,14 @@
       <c r="J194">
         <v>0</v>
       </c>
-      <c r="K194">
-        <v>0</v>
+      <c r="K194" t="s">
+        <v>330</v>
       </c>
       <c r="L194" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10390,7 +10498,7 @@
         <v>255</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C195" s="2">
         <v>44194</v>
@@ -10399,10 +10507,10 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>12.66219926</v>
+        <v>12.6495877</v>
       </c>
       <c r="F195">
-        <v>100.8989779</v>
+        <v>102.0329425</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10416,14 +10524,14 @@
       <c r="J195">
         <v>0</v>
       </c>
-      <c r="K195">
-        <v>0</v>
+      <c r="K195" t="s">
+        <v>330</v>
       </c>
       <c r="L195" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10434,7 +10542,7 @@
         <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C196" s="2">
         <v>44194</v>
@@ -10443,10 +10551,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>13.32877789</v>
+        <v>12.3757564</v>
       </c>
       <c r="F196">
-        <v>100.9230017</v>
+        <v>102.3818628</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10460,14 +10568,14 @@
       <c r="J196">
         <v>0</v>
       </c>
-      <c r="K196">
-        <v>0</v>
+      <c r="K196" t="s">
+        <v>330</v>
       </c>
       <c r="L196" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10478,7 +10586,7 @@
         <v>257</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C197" s="2">
         <v>44194</v>
@@ -10487,10 +10595,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>13.33615653</v>
+        <v>12.7246169</v>
       </c>
       <c r="F197">
-        <v>100.9694597</v>
+        <v>101.9362794</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10504,14 +10612,14 @@
       <c r="J197">
         <v>0</v>
       </c>
-      <c r="K197">
-        <v>0</v>
+      <c r="K197" t="s">
+        <v>330</v>
       </c>
       <c r="L197" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10522,7 +10630,7 @@
         <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C198" s="2">
         <v>44194</v>
@@ -10531,10 +10639,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>12.83546656</v>
+        <v>13.772986</v>
       </c>
       <c r="F198">
-        <v>100.967575</v>
+        <v>100.4855148</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10548,14 +10656,14 @@
       <c r="J198">
         <v>0</v>
       </c>
-      <c r="K198">
-        <v>0</v>
+      <c r="K198" t="s">
+        <v>330</v>
       </c>
       <c r="L198" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10575,10 +10683,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>13.33545565</v>
+        <v>12.90895904</v>
       </c>
       <c r="F199">
-        <v>100.9249432</v>
+        <v>100.891925</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10596,10 +10704,10 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10619,10 +10727,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>13.33841928</v>
+        <v>12.90960418</v>
       </c>
       <c r="F200">
-        <v>100.9526548</v>
+        <v>100.870256</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10640,10 +10748,10 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10663,10 +10771,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>12.68318129</v>
+        <v>12.93047726</v>
       </c>
       <c r="F201">
-        <v>101.2479341</v>
+        <v>100.8807229</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10684,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10707,10 +10815,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>12.68178774</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>101.2804266</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10728,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10751,10 +10859,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.67663309</v>
+        <v>12.66219926</v>
       </c>
       <c r="F203">
-        <v>101.2204609</v>
+        <v>100.8989779</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10772,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10795,10 +10903,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>12.67969829</v>
+        <v>13.32877789</v>
       </c>
       <c r="F204">
-        <v>101.2516232</v>
+        <v>100.9230017</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10816,10 +10924,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10839,10 +10947,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>12.67895072</v>
+        <v>13.33615653</v>
       </c>
       <c r="F205">
-        <v>101.2811971</v>
+        <v>100.9694597</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10860,10 +10968,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10883,10 +10991,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>12.69121623</v>
+        <v>12.83546656</v>
       </c>
       <c r="F206">
-        <v>101.2828322</v>
+        <v>100.967575</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10904,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10927,10 +11035,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>12.61154131</v>
+        <v>13.33545565</v>
       </c>
       <c r="F207">
-        <v>102.105739</v>
+        <v>100.9249432</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10948,10 +11056,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10971,10 +11079,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>12.59875505</v>
+        <v>13.33841928</v>
       </c>
       <c r="F208">
-        <v>102.1108505</v>
+        <v>100.9526548</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10992,10 +11100,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -11015,10 +11123,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>12.68318129</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>101.2479341</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -11036,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -11059,10 +11167,10 @@
         <v>225</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>12.68178774</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>101.2804266</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -11080,10 +11188,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -11103,10 +11211,10 @@
         <v>226</v>
       </c>
       <c r="E211">
-        <v>12.94007297</v>
+        <v>12.67663309</v>
       </c>
       <c r="F211">
-        <v>100.9198688</v>
+        <v>101.2204609</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -11124,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -11147,10 +11255,10 @@
         <v>227</v>
       </c>
       <c r="E212">
-        <v>12.93500267</v>
+        <v>12.67969829</v>
       </c>
       <c r="F212">
-        <v>100.8828385</v>
+        <v>101.2516232</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -11168,10 +11276,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11191,10 +11299,10 @@
         <v>228</v>
       </c>
       <c r="E213">
-        <v>12.93302705</v>
+        <v>12.67895072</v>
       </c>
       <c r="F213">
-        <v>100.9013151</v>
+        <v>101.2811971</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -11212,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -11235,10 +11343,10 @@
         <v>229</v>
       </c>
       <c r="E214">
-        <v>12.93124481</v>
+        <v>12.69121623</v>
       </c>
       <c r="F214">
-        <v>100.9008084</v>
+        <v>101.2828322</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -11256,10 +11364,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11279,10 +11387,10 @@
         <v>230</v>
       </c>
       <c r="E215">
-        <v>12.93038104</v>
+        <v>12.61154131</v>
       </c>
       <c r="F215">
-        <v>100.9126714</v>
+        <v>102.105739</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -11300,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11323,10 +11431,10 @@
         <v>231</v>
       </c>
       <c r="E216">
-        <v>12.84875767</v>
+        <v>12.59875505</v>
       </c>
       <c r="F216">
-        <v>100.9017</v>
+        <v>102.1108505</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -11344,10 +11452,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11367,10 +11475,10 @@
         <v>232</v>
       </c>
       <c r="E217">
-        <v>12.90883138</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>100.8932458</v>
+        <v>0</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -11388,10 +11496,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11411,10 +11519,10 @@
         <v>233</v>
       </c>
       <c r="E218">
-        <v>12.66362634</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>100.8981743</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11432,10 +11540,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11455,10 +11563,10 @@
         <v>234</v>
       </c>
       <c r="E219">
-        <v>12.95074463</v>
+        <v>12.94007297</v>
       </c>
       <c r="F219">
-        <v>100.8933879</v>
+        <v>100.9198688</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -11476,10 +11584,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11499,10 +11607,10 @@
         <v>235</v>
       </c>
       <c r="E220">
-        <v>12.97880506</v>
+        <v>12.93500267</v>
       </c>
       <c r="F220">
-        <v>100.9430835</v>
+        <v>100.8828385</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -11520,10 +11628,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11543,10 +11651,10 @@
         <v>236</v>
       </c>
       <c r="E221">
-        <v>12.92662465</v>
+        <v>12.93302705</v>
       </c>
       <c r="F221">
-        <v>100.898605</v>
+        <v>100.9013151</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -11564,10 +11672,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11587,10 +11695,10 @@
         <v>237</v>
       </c>
       <c r="E222">
-        <v>12.98328283</v>
+        <v>12.93124481</v>
       </c>
       <c r="F222">
-        <v>100.9354783</v>
+        <v>100.9008084</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -11608,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11631,10 +11739,10 @@
         <v>238</v>
       </c>
       <c r="E223">
-        <v>12.98177123</v>
+        <v>12.93038104</v>
       </c>
       <c r="F223">
-        <v>100.9289336</v>
+        <v>100.9126714</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11652,10 +11760,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11675,10 +11783,10 @@
         <v>239</v>
       </c>
       <c r="E224">
-        <v>13.01893524</v>
+        <v>12.84875767</v>
       </c>
       <c r="F224">
-        <v>100.932701</v>
+        <v>100.9017</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -11696,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11719,10 +11827,10 @@
         <v>240</v>
       </c>
       <c r="E225">
-        <v>12.95555524</v>
+        <v>12.90883138</v>
       </c>
       <c r="F225">
-        <v>100.8987028</v>
+        <v>100.8932458</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -11740,10 +11848,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11763,10 +11871,10 @@
         <v>241</v>
       </c>
       <c r="E226">
-        <v>12.93944879</v>
+        <v>12.66362634</v>
       </c>
       <c r="F226">
-        <v>100.9021397</v>
+        <v>100.8981743</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -11784,10 +11892,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11807,10 +11915,10 @@
         <v>242</v>
       </c>
       <c r="E227">
-        <v>12.75400498</v>
+        <v>12.95074463</v>
       </c>
       <c r="F227">
-        <v>100.9017967</v>
+        <v>100.8933879</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11828,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11851,10 +11959,10 @@
         <v>243</v>
       </c>
       <c r="E228">
-        <v>12.69857571</v>
+        <v>12.97880506</v>
       </c>
       <c r="F228">
-        <v>100.8899412</v>
+        <v>100.9430835</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -11872,10 +11980,10 @@
         <v>0</v>
       </c>
       <c r="L228" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11895,10 +12003,10 @@
         <v>244</v>
       </c>
       <c r="E229">
-        <v>13.76238233</v>
+        <v>12.92662465</v>
       </c>
       <c r="F229">
-        <v>100.507696</v>
+        <v>100.898605</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -11916,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11930,7 +12038,7 @@
         <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230" s="2">
         <v>44194</v>
@@ -11939,10 +12047,10 @@
         <v>245</v>
       </c>
       <c r="E230">
-        <v>13.76254009</v>
+        <v>12.98328283</v>
       </c>
       <c r="F230">
-        <v>100.5075498</v>
+        <v>100.9354783</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -11960,10 +12068,10 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11983,10 +12091,10 @@
         <v>246</v>
       </c>
       <c r="E231">
-        <v>13.92729422</v>
+        <v>12.98177123</v>
       </c>
       <c r="F231">
-        <v>100.5056386</v>
+        <v>100.9289336</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -12004,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -12027,10 +12135,10 @@
         <v>247</v>
       </c>
       <c r="E232">
-        <v>13.91794214</v>
+        <v>13.01893524</v>
       </c>
       <c r="F232">
-        <v>100.4950847</v>
+        <v>100.932701</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -12048,10 +12156,10 @@
         <v>0</v>
       </c>
       <c r="L232" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -12071,10 +12179,10 @@
         <v>248</v>
       </c>
       <c r="E233">
-        <v>13.98571223</v>
+        <v>12.95555524</v>
       </c>
       <c r="F233">
-        <v>100.605726</v>
+        <v>100.8987028</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -12092,10 +12200,10 @@
         <v>0</v>
       </c>
       <c r="L233" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -12115,10 +12223,10 @@
         <v>249</v>
       </c>
       <c r="E234">
-        <v>13.87711756</v>
+        <v>12.93944879</v>
       </c>
       <c r="F234">
-        <v>100.4091557</v>
+        <v>100.9021397</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -12136,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="L234" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -12159,10 +12267,10 @@
         <v>250</v>
       </c>
       <c r="E235">
-        <v>13.69058811</v>
+        <v>12.75400498</v>
       </c>
       <c r="F235">
-        <v>100.5032004</v>
+        <v>100.9017967</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -12180,10 +12288,10 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -12203,10 +12311,10 @@
         <v>251</v>
       </c>
       <c r="E236">
-        <v>18.26066421</v>
+        <v>12.69857571</v>
       </c>
       <c r="F236">
-        <v>99.54330871000001</v>
+        <v>100.8899412</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -12224,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12247,10 +12355,10 @@
         <v>252</v>
       </c>
       <c r="E237">
-        <v>18.80845098</v>
+        <v>13.76238233</v>
       </c>
       <c r="F237">
-        <v>98.99692628</v>
+        <v>100.507696</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -12268,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="L237" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12282,7 +12390,7 @@
         <v>298</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C238" s="2">
         <v>44194</v>
@@ -12291,10 +12399,10 @@
         <v>253</v>
       </c>
       <c r="E238">
-        <v>14.48644022</v>
+        <v>13.76254009</v>
       </c>
       <c r="F238">
-        <v>100.124873</v>
+        <v>100.5075498</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -12312,10 +12420,10 @@
         <v>0</v>
       </c>
       <c r="L238" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12335,10 +12443,10 @@
         <v>254</v>
       </c>
       <c r="E239">
-        <v>13.88595079</v>
+        <v>13.92729422</v>
       </c>
       <c r="F239">
-        <v>100.603464</v>
+        <v>100.5056386</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -12356,10 +12464,10 @@
         <v>0</v>
       </c>
       <c r="L239" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12379,10 +12487,10 @@
         <v>255</v>
       </c>
       <c r="E240">
-        <v>13.72108833</v>
+        <v>13.91794214</v>
       </c>
       <c r="F240">
-        <v>100.495412</v>
+        <v>100.4950847</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -12400,10 +12508,10 @@
         <v>0</v>
       </c>
       <c r="L240" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12423,10 +12531,10 @@
         <v>256</v>
       </c>
       <c r="E241">
-        <v>13.72849375</v>
+        <v>13.98571223</v>
       </c>
       <c r="F241">
-        <v>100.5342486</v>
+        <v>100.605726</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -12444,10 +12552,10 @@
         <v>0</v>
       </c>
       <c r="L241" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -12467,10 +12575,10 @@
         <v>257</v>
       </c>
       <c r="E242">
-        <v>13.71927682</v>
+        <v>13.87711756</v>
       </c>
       <c r="F242">
-        <v>100.5489089</v>
+        <v>100.4091557</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -12488,10 +12596,10 @@
         <v>0</v>
       </c>
       <c r="L242" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12505,16 +12613,16 @@
         <v>14</v>
       </c>
       <c r="C243" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D243" t="s">
         <v>258</v>
       </c>
       <c r="E243">
-        <v>13.68885671</v>
+        <v>13.69058811</v>
       </c>
       <c r="F243">
-        <v>100.6472895</v>
+        <v>100.5032004</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -12532,10 +12640,10 @@
         <v>0</v>
       </c>
       <c r="L243" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12549,16 +12657,16 @@
         <v>14</v>
       </c>
       <c r="C244" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D244" t="s">
         <v>259</v>
       </c>
       <c r="E244">
-        <v>13.7055576</v>
+        <v>18.26066421</v>
       </c>
       <c r="F244">
-        <v>100.6010884</v>
+        <v>99.54330871000001</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -12576,10 +12684,10 @@
         <v>0</v>
       </c>
       <c r="L244" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12593,16 +12701,16 @@
         <v>14</v>
       </c>
       <c r="C245" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D245" t="s">
         <v>260</v>
       </c>
       <c r="E245">
-        <v>13.38779853</v>
+        <v>18.80845098</v>
       </c>
       <c r="F245">
-        <v>99.92358786</v>
+        <v>98.99692628</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -12620,10 +12728,10 @@
         <v>0</v>
       </c>
       <c r="L245" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -12637,16 +12745,16 @@
         <v>14</v>
       </c>
       <c r="C246" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D246" t="s">
         <v>261</v>
       </c>
       <c r="E246">
-        <v>13.90509878</v>
+        <v>14.48644022</v>
       </c>
       <c r="F246">
-        <v>100.6567595</v>
+        <v>100.124873</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -12664,10 +12772,10 @@
         <v>0</v>
       </c>
       <c r="L246" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12681,16 +12789,16 @@
         <v>14</v>
       </c>
       <c r="C247" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D247" t="s">
         <v>262</v>
       </c>
       <c r="E247">
-        <v>13.85994225</v>
+        <v>13.88595079</v>
       </c>
       <c r="F247">
-        <v>100.7041921</v>
+        <v>100.603464</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -12708,10 +12816,10 @@
         <v>0</v>
       </c>
       <c r="L247" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12725,16 +12833,16 @@
         <v>14</v>
       </c>
       <c r="C248" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D248" t="s">
         <v>263</v>
       </c>
       <c r="E248">
-        <v>13.70718203</v>
+        <v>13.72108833</v>
       </c>
       <c r="F248">
-        <v>100.5437405</v>
+        <v>100.495412</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -12752,10 +12860,10 @@
         <v>0</v>
       </c>
       <c r="L248" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12769,16 +12877,16 @@
         <v>14</v>
       </c>
       <c r="C249" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D249" t="s">
         <v>264</v>
       </c>
       <c r="E249">
-        <v>13.91532244</v>
+        <v>13.72849375</v>
       </c>
       <c r="F249">
-        <v>100.4236653</v>
+        <v>100.5342486</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -12796,10 +12904,10 @@
         <v>0</v>
       </c>
       <c r="L249" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12813,16 +12921,16 @@
         <v>14</v>
       </c>
       <c r="C250" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D250" t="s">
         <v>265</v>
       </c>
       <c r="E250">
-        <v>14.08063723</v>
+        <v>13.71927682</v>
       </c>
       <c r="F250">
-        <v>100.6228372</v>
+        <v>100.5489089</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -12840,10 +12948,10 @@
         <v>0</v>
       </c>
       <c r="L250" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12857,16 +12965,16 @@
         <v>14</v>
       </c>
       <c r="C251" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="D251" t="s">
         <v>266</v>
       </c>
       <c r="E251">
-        <v>13.95313369</v>
+        <v>13.76931412</v>
       </c>
       <c r="F251">
-        <v>100.4766133</v>
+        <v>100.4066107</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -12884,10 +12992,10 @@
         <v>0</v>
       </c>
       <c r="L251" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -12901,16 +13009,16 @@
         <v>14</v>
       </c>
       <c r="C252" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D252" t="s">
         <v>267</v>
       </c>
       <c r="E252">
-        <v>16.78945067</v>
+        <v>13.68885671</v>
       </c>
       <c r="F252">
-        <v>101.0491296</v>
+        <v>100.6472895</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -12928,10 +13036,10 @@
         <v>0</v>
       </c>
       <c r="L252" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -12945,16 +13053,16 @@
         <v>14</v>
       </c>
       <c r="C253" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D253" t="s">
         <v>268</v>
       </c>
       <c r="E253">
-        <v>16.79472348</v>
+        <v>13.7055576</v>
       </c>
       <c r="F253">
-        <v>101.0418582</v>
+        <v>100.6010884</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -12972,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -12989,16 +13097,16 @@
         <v>14</v>
       </c>
       <c r="C254" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D254" t="s">
         <v>269</v>
       </c>
       <c r="E254">
-        <v>16.87641646</v>
+        <v>13.38779853</v>
       </c>
       <c r="F254">
-        <v>101.1720539</v>
+        <v>99.92358786</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -13016,10 +13124,10 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -13033,16 +13141,16 @@
         <v>14</v>
       </c>
       <c r="C255" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D255" t="s">
         <v>270</v>
       </c>
       <c r="E255">
-        <v>16.90718372</v>
+        <v>13.90509878</v>
       </c>
       <c r="F255">
-        <v>101.1093359</v>
+        <v>100.6567595</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -13060,10 +13168,10 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -13074,19 +13182,19 @@
         <v>316</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C256" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D256" t="s">
         <v>271</v>
       </c>
       <c r="E256">
-        <v>13.65610344</v>
+        <v>13.85994225</v>
       </c>
       <c r="F256">
-        <v>100.6432163</v>
+        <v>100.7041921</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -13104,10 +13212,10 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -13121,16 +13229,16 @@
         <v>14</v>
       </c>
       <c r="C257" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D257" t="s">
         <v>272</v>
       </c>
       <c r="E257">
-        <v>18.80850902</v>
+        <v>13.70718203</v>
       </c>
       <c r="F257">
-        <v>98.99591362</v>
+        <v>100.5437405</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -13148,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13165,16 +13273,16 @@
         <v>14</v>
       </c>
       <c r="C258" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D258" t="s">
         <v>273</v>
       </c>
       <c r="E258">
-        <v>13.39760126</v>
+        <v>13.7263342</v>
       </c>
       <c r="F258">
-        <v>99.92353421</v>
+        <v>100.5101857</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -13192,10 +13300,10 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -13209,16 +13317,16 @@
         <v>14</v>
       </c>
       <c r="C259" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D259" t="s">
         <v>274</v>
       </c>
       <c r="E259">
-        <v>14.35549807</v>
+        <v>13.7557408</v>
       </c>
       <c r="F259">
-        <v>100.1472331</v>
+        <v>100.486811</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -13236,10 +13344,10 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -13253,16 +13361,16 @@
         <v>14</v>
       </c>
       <c r="C260" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D260" t="s">
         <v>275</v>
       </c>
       <c r="E260">
-        <v>13.91657726</v>
+        <v>13.66150852</v>
       </c>
       <c r="F260">
-        <v>100.4202007</v>
+        <v>100.4407593</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -13280,10 +13388,10 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -13297,16 +13405,16 @@
         <v>14</v>
       </c>
       <c r="C261" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D261" t="s">
         <v>276</v>
       </c>
       <c r="E261">
-        <v>13.90327914</v>
+        <v>13.73804482</v>
       </c>
       <c r="F261">
-        <v>100.4283632</v>
+        <v>100.6160544</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -13324,10 +13432,10 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -13341,16 +13449,16 @@
         <v>14</v>
       </c>
       <c r="C262" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D262" t="s">
         <v>277</v>
       </c>
       <c r="E262">
-        <v>13.8261955</v>
+        <v>13.82336229</v>
       </c>
       <c r="F262">
-        <v>100.6783474</v>
+        <v>100.5844342</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -13368,10 +13476,10 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -13382,19 +13490,19 @@
         <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C263" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D263" t="s">
         <v>278</v>
       </c>
       <c r="E263">
-        <v>13.4292017</v>
+        <v>13.71891809</v>
       </c>
       <c r="F263">
-        <v>101.040314</v>
+        <v>100.5136817</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -13412,10 +13520,10 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>397</v>
-      </c>
-      <c r="M263" s="3" t="s">
-        <v>479</v>
+        <v>390</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -13429,16 +13537,16 @@
         <v>14</v>
       </c>
       <c r="C264" s="2">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="D264" t="s">
         <v>279</v>
       </c>
       <c r="E264">
-        <v>13.91454494</v>
+        <v>13.74248551</v>
       </c>
       <c r="F264">
-        <v>100.4960227</v>
+        <v>100.523025</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -13456,10 +13564,10 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>368</v>
-      </c>
-      <c r="M264" s="3" t="s">
-        <v>460</v>
+        <v>390</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13473,16 +13581,16 @@
         <v>14</v>
       </c>
       <c r="C265" s="2">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="D265" t="s">
         <v>280</v>
       </c>
       <c r="E265">
-        <v>18.79508842</v>
+        <v>13.74001645</v>
       </c>
       <c r="F265">
-        <v>98.96505512</v>
+        <v>100.5246812</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -13500,10 +13608,10 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>369</v>
-      </c>
-      <c r="M265" s="3" t="s">
-        <v>461</v>
+        <v>390</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -13517,16 +13625,16 @@
         <v>14</v>
       </c>
       <c r="C266" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D266" t="s">
         <v>281</v>
       </c>
       <c r="E266">
-        <v>18.80723907</v>
+        <v>13.91532244</v>
       </c>
       <c r="F266">
-        <v>99.018125</v>
+        <v>100.4236653</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -13544,10 +13652,10 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -13561,16 +13669,16 @@
         <v>14</v>
       </c>
       <c r="C267" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D267" t="s">
         <v>282</v>
       </c>
       <c r="E267">
-        <v>18.7980703</v>
+        <v>14.08063723</v>
       </c>
       <c r="F267">
-        <v>98.96166732</v>
+        <v>100.6228372</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -13588,10 +13696,10 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -13605,16 +13713,16 @@
         <v>14</v>
       </c>
       <c r="C268" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D268" t="s">
         <v>283</v>
       </c>
       <c r="E268">
-        <v>12.67967328</v>
+        <v>13.95313369</v>
       </c>
       <c r="F268">
-        <v>101.2816124</v>
+        <v>100.4766133</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -13632,10 +13740,10 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -13649,16 +13757,16 @@
         <v>14</v>
       </c>
       <c r="C269" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D269" t="s">
         <v>284</v>
       </c>
       <c r="E269">
-        <v>12.83113908</v>
+        <v>16.78945067</v>
       </c>
       <c r="F269">
-        <v>101.2045512</v>
+        <v>101.0491296</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -13676,10 +13784,10 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13690,19 +13798,19 @@
         <v>330</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D270" t="s">
         <v>285</v>
       </c>
       <c r="E270">
-        <v>13.1690554</v>
+        <v>16.79472348</v>
       </c>
       <c r="F270">
-        <v>100.9246356</v>
+        <v>101.0418582</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -13720,10 +13828,10 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -13734,19 +13842,19 @@
         <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C271" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D271" t="s">
         <v>286</v>
       </c>
       <c r="E271">
-        <v>13.5984203</v>
+        <v>16.87641646</v>
       </c>
       <c r="F271">
-        <v>100.5945368</v>
+        <v>101.1720539</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -13764,10 +13872,10 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13781,16 +13889,16 @@
         <v>14</v>
       </c>
       <c r="C272" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D272" t="s">
         <v>287</v>
       </c>
       <c r="E272">
-        <v>13.93068401</v>
+        <v>16.90718372</v>
       </c>
       <c r="F272">
-        <v>100.5174953</v>
+        <v>101.1093359</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -13808,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -13822,19 +13930,19 @@
         <v>333</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C273" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D273" t="s">
         <v>288</v>
       </c>
       <c r="E273">
-        <v>13.87762828</v>
+        <v>13.65610344</v>
       </c>
       <c r="F273">
-        <v>100.4107211</v>
+        <v>100.6432163</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -13852,10 +13960,10 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="M273" s="3" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13866,19 +13974,19 @@
         <v>334</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C274" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D274" t="s">
         <v>289</v>
       </c>
       <c r="E274">
-        <v>13.87448379</v>
+        <v>18.80850902</v>
       </c>
       <c r="F274">
-        <v>100.4056405</v>
+        <v>98.99591362</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -13896,10 +14004,10 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -13913,16 +14021,16 @@
         <v>14</v>
       </c>
       <c r="C275" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D275" t="s">
         <v>290</v>
       </c>
       <c r="E275">
-        <v>13.91514634</v>
+        <v>13.39760126</v>
       </c>
       <c r="F275">
-        <v>100.4225456</v>
+        <v>99.92353421</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -13940,10 +14048,10 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13957,16 +14065,16 @@
         <v>14</v>
       </c>
       <c r="C276" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D276" t="s">
         <v>291</v>
       </c>
       <c r="E276">
-        <v>12.9140115</v>
+        <v>14.35549807</v>
       </c>
       <c r="F276">
-        <v>100.9970536</v>
+        <v>100.1472331</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -13984,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13998,19 +14106,19 @@
         <v>337</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C277" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D277" t="s">
         <v>292</v>
       </c>
       <c r="E277">
-        <v>14.5063704</v>
+        <v>13.91657726</v>
       </c>
       <c r="F277">
-        <v>100.4640833</v>
+        <v>100.4202007</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -14028,10 +14136,10 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -14042,19 +14150,19 @@
         <v>338</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C278" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D278" t="s">
         <v>293</v>
       </c>
       <c r="E278">
-        <v>15.0696922</v>
+        <v>13.90327914</v>
       </c>
       <c r="F278">
-        <v>100.7237944</v>
+        <v>100.4283632</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -14072,10 +14180,10 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -14086,19 +14194,19 @@
         <v>339</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C279" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D279" t="s">
         <v>294</v>
       </c>
       <c r="E279">
-        <v>13.1584655</v>
+        <v>13.8261955</v>
       </c>
       <c r="F279">
-        <v>100.9518027</v>
+        <v>100.6783474</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -14112,14 +14220,14 @@
       <c r="J279">
         <v>0</v>
       </c>
-      <c r="K279" t="s">
-        <v>305</v>
+      <c r="K279">
+        <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -14133,16 +14241,16 @@
         <v>15</v>
       </c>
       <c r="C280" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D280" t="s">
         <v>295</v>
       </c>
       <c r="E280">
-        <v>13.0394735</v>
+        <v>13.4292017</v>
       </c>
       <c r="F280">
-        <v>101.0829624</v>
+        <v>101.040314</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -14160,10 +14268,10 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -14177,16 +14285,16 @@
         <v>14</v>
       </c>
       <c r="C281" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="D281" t="s">
         <v>296</v>
       </c>
       <c r="E281">
-        <v>13.1636893</v>
+        <v>13.74571175</v>
       </c>
       <c r="F281">
-        <v>100.928039</v>
+        <v>100.1804949</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -14204,10 +14312,10 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="N281">
         <v>0</v>
@@ -14221,16 +14329,16 @@
         <v>14</v>
       </c>
       <c r="C282" s="2">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="D282" t="s">
         <v>297</v>
       </c>
       <c r="E282">
-        <v>18.80005469</v>
+        <v>13.76186745</v>
       </c>
       <c r="F282">
-        <v>99.01848506</v>
+        <v>100.4700566</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -14248,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="N282">
         <v>0</v>
@@ -14262,19 +14370,19 @@
         <v>343</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C283" s="2">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="D283" t="s">
         <v>298</v>
       </c>
       <c r="E283">
-        <v>13.2658421</v>
+        <v>13.74117982</v>
       </c>
       <c r="F283">
-        <v>100.9280545</v>
+        <v>100.4836637</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -14288,14 +14396,14 @@
       <c r="J283">
         <v>0</v>
       </c>
-      <c r="K283" t="s">
-        <v>305</v>
+      <c r="K283">
+        <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>407</v>
-      </c>
-      <c r="M283" s="3" t="s">
-        <v>480</v>
+        <v>390</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -14306,19 +14414,19 @@
         <v>344</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C284" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="D284" t="s">
         <v>299</v>
       </c>
       <c r="E284">
-        <v>13.0923373</v>
+        <v>13.91454494</v>
       </c>
       <c r="F284">
-        <v>100.9175099</v>
+        <v>100.4960227</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -14332,14 +14440,14 @@
       <c r="J284">
         <v>0</v>
       </c>
-      <c r="K284" t="s">
-        <v>305</v>
+      <c r="K284">
+        <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -14353,16 +14461,16 @@
         <v>14</v>
       </c>
       <c r="C285" s="2">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="D285" t="s">
         <v>300</v>
       </c>
       <c r="E285">
-        <v>13.1682491</v>
+        <v>18.79508842</v>
       </c>
       <c r="F285">
-        <v>100.9280324</v>
+        <v>98.96505512</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -14380,10 +14488,10 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -14394,19 +14502,19 @@
         <v>346</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C286" s="2">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="D286" t="s">
         <v>301</v>
       </c>
       <c r="E286">
-        <v>13.3200792</v>
+        <v>18.80723907</v>
       </c>
       <c r="F286">
-        <v>101.1116027</v>
+        <v>99.018125</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -14420,14 +14528,14 @@
       <c r="J286">
         <v>0</v>
       </c>
-      <c r="K286" t="s">
-        <v>305</v>
+      <c r="K286">
+        <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -14441,16 +14549,16 @@
         <v>14</v>
       </c>
       <c r="C287" s="2">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="D287" t="s">
         <v>302</v>
       </c>
       <c r="E287">
-        <v>13.1756844</v>
+        <v>18.7980703</v>
       </c>
       <c r="F287">
-        <v>100.9200621</v>
+        <v>98.96166732</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -14468,10 +14576,10 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -14482,42 +14590,1142 @@
         <v>348</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C288" s="2">
-        <v>44202</v>
+        <v>44197</v>
       </c>
       <c r="D288" t="s">
         <v>303</v>
       </c>
       <c r="E288">
+        <v>12.67967328</v>
+      </c>
+      <c r="F288">
+        <v>101.2816124</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288" t="s">
+        <v>385</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289">
+        <v>349</v>
+      </c>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D289" t="s">
+        <v>304</v>
+      </c>
+      <c r="E289">
+        <v>12.83113908</v>
+      </c>
+      <c r="F289">
+        <v>101.2045512</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289" t="s">
+        <v>385</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290">
+        <v>350</v>
+      </c>
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D290" t="s">
+        <v>305</v>
+      </c>
+      <c r="E290">
+        <v>13.1690554</v>
+      </c>
+      <c r="F290">
+        <v>100.9246356</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290" t="s">
+        <v>431</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291">
+        <v>351</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D291" t="s">
+        <v>306</v>
+      </c>
+      <c r="E291">
+        <v>13.5984203</v>
+      </c>
+      <c r="F291">
+        <v>100.5945368</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291" t="s">
+        <v>432</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292">
+        <v>352</v>
+      </c>
+      <c r="B292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D292" t="s">
+        <v>307</v>
+      </c>
+      <c r="E292">
+        <v>13.93068401</v>
+      </c>
+      <c r="F292">
+        <v>100.5174953</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292" t="s">
+        <v>433</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293">
+        <v>353</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D293" t="s">
+        <v>308</v>
+      </c>
+      <c r="E293">
+        <v>13.87762828</v>
+      </c>
+      <c r="F293">
+        <v>100.4107211</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293" t="s">
+        <v>434</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294">
+        <v>354</v>
+      </c>
+      <c r="B294" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D294" t="s">
+        <v>309</v>
+      </c>
+      <c r="E294">
+        <v>13.87448379</v>
+      </c>
+      <c r="F294">
+        <v>100.4056405</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294" t="s">
+        <v>435</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295">
+        <v>355</v>
+      </c>
+      <c r="B295" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D295" t="s">
+        <v>310</v>
+      </c>
+      <c r="E295">
+        <v>13.91514634</v>
+      </c>
+      <c r="F295">
+        <v>100.4225456</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295" t="s">
+        <v>436</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296">
+        <v>356</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D296" t="s">
+        <v>311</v>
+      </c>
+      <c r="E296">
+        <v>12.9140115</v>
+      </c>
+      <c r="F296">
+        <v>100.9970536</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296" t="s">
+        <v>429</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297">
+        <v>357</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D297" t="s">
+        <v>312</v>
+      </c>
+      <c r="E297">
+        <v>13.77793234</v>
+      </c>
+      <c r="F297">
+        <v>100.4761222</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297" t="s">
+        <v>430</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298">
+        <v>358</v>
+      </c>
+      <c r="B298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D298" t="s">
+        <v>313</v>
+      </c>
+      <c r="E298">
+        <v>13.7408325</v>
+      </c>
+      <c r="F298">
+        <v>100.5235316</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298" t="s">
+        <v>390</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299">
+        <v>359</v>
+      </c>
+      <c r="B299" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D299" t="s">
+        <v>314</v>
+      </c>
+      <c r="E299">
+        <v>13.74338686</v>
+      </c>
+      <c r="F299">
+        <v>100.530094</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299" t="s">
+        <v>390</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300">
+        <v>360</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D300" t="s">
+        <v>315</v>
+      </c>
+      <c r="E300">
+        <v>14.5063704</v>
+      </c>
+      <c r="F300">
+        <v>100.4640833</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300" t="s">
+        <v>437</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301">
+        <v>361</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D301" t="s">
+        <v>316</v>
+      </c>
+      <c r="E301">
+        <v>15.0696922</v>
+      </c>
+      <c r="F301">
+        <v>100.7237944</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301" t="s">
+        <v>412</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302">
+        <v>362</v>
+      </c>
+      <c r="B302" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D302" t="s">
+        <v>317</v>
+      </c>
+      <c r="E302">
+        <v>13.1584655</v>
+      </c>
+      <c r="F302">
+        <v>100.9518027</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302" t="s">
+        <v>330</v>
+      </c>
+      <c r="L302" t="s">
+        <v>438</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303">
+        <v>363</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D303" t="s">
+        <v>318</v>
+      </c>
+      <c r="E303">
+        <v>13.0394735</v>
+      </c>
+      <c r="F303">
+        <v>101.0829624</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303" t="s">
+        <v>439</v>
+      </c>
+      <c r="M303" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304">
+        <v>364</v>
+      </c>
+      <c r="B304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D304" t="s">
+        <v>319</v>
+      </c>
+      <c r="E304">
+        <v>13.1636893</v>
+      </c>
+      <c r="F304">
+        <v>100.928039</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304" t="s">
+        <v>429</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305">
+        <v>365</v>
+      </c>
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D305" t="s">
+        <v>320</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305" t="s">
+        <v>440</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306">
+        <v>366</v>
+      </c>
+      <c r="B306" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D306" t="s">
+        <v>321</v>
+      </c>
+      <c r="E306">
+        <v>18.80005469</v>
+      </c>
+      <c r="F306">
+        <v>99.01848506</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306" t="s">
+        <v>395</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307">
+        <v>367</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D307" t="s">
+        <v>322</v>
+      </c>
+      <c r="E307">
+        <v>13.2658421</v>
+      </c>
+      <c r="F307">
+        <v>100.9280545</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307" t="s">
+        <v>330</v>
+      </c>
+      <c r="L307" t="s">
+        <v>441</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308">
+        <v>368</v>
+      </c>
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" s="2">
+        <v>44199</v>
+      </c>
+      <c r="D308" t="s">
+        <v>323</v>
+      </c>
+      <c r="E308">
+        <v>13.0923373</v>
+      </c>
+      <c r="F308">
+        <v>100.9175099</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308" t="s">
+        <v>330</v>
+      </c>
+      <c r="L308" t="s">
+        <v>438</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309">
+        <v>369</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D309" t="s">
+        <v>324</v>
+      </c>
+      <c r="E309">
+        <v>13.1682491</v>
+      </c>
+      <c r="F309">
+        <v>100.9280324</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309" t="s">
+        <v>429</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310">
+        <v>370</v>
+      </c>
+      <c r="B310" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D310" t="s">
+        <v>325</v>
+      </c>
+      <c r="E310">
+        <v>13.3200792</v>
+      </c>
+      <c r="F310">
+        <v>101.1116027</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310" t="s">
+        <v>330</v>
+      </c>
+      <c r="L310" t="s">
+        <v>429</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311">
+        <v>371</v>
+      </c>
+      <c r="B311" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D311" t="s">
+        <v>326</v>
+      </c>
+      <c r="E311">
+        <v>13.74090148</v>
+      </c>
+      <c r="F311">
+        <v>100.5291059</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311" t="s">
+        <v>390</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312">
+        <v>372</v>
+      </c>
+      <c r="B312" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D312" t="s">
+        <v>327</v>
+      </c>
+      <c r="E312">
+        <v>13.1756844</v>
+      </c>
+      <c r="F312">
+        <v>100.9200621</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312" t="s">
+        <v>429</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313">
+        <v>373</v>
+      </c>
+      <c r="B313" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313" s="2">
+        <v>44202</v>
+      </c>
+      <c r="D313" t="s">
+        <v>328</v>
+      </c>
+      <c r="E313">
         <v>12.9301453</v>
       </c>
-      <c r="F288">
+      <c r="F313">
         <v>100.884397</v>
       </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-      <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
-      <c r="J288">
-        <v>0</v>
-      </c>
-      <c r="K288" t="s">
-        <v>305</v>
-      </c>
-      <c r="L288" t="s">
-        <v>397</v>
-      </c>
-      <c r="M288" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="N288">
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" t="s">
+        <v>330</v>
+      </c>
+      <c r="L313" t="s">
+        <v>429</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N313">
         <v>0</v>
       </c>
     </row>
@@ -14685,131 +15893,143 @@
     <hyperlink ref="M161" r:id="rId160"/>
     <hyperlink ref="M162" r:id="rId161"/>
     <hyperlink ref="M163" r:id="rId162"/>
-    <hyperlink ref="M164" r:id="rId163"/>
-    <hyperlink ref="M165" r:id="rId164"/>
-    <hyperlink ref="M166" r:id="rId165"/>
-    <hyperlink ref="M167" r:id="rId166"/>
-    <hyperlink ref="M168" r:id="rId167"/>
-    <hyperlink ref="M169" r:id="rId168"/>
-    <hyperlink ref="M170" r:id="rId169"/>
-    <hyperlink ref="M171" r:id="rId170"/>
-    <hyperlink ref="M172" r:id="rId171"/>
-    <hyperlink ref="M173" r:id="rId172"/>
-    <hyperlink ref="M174" r:id="rId173"/>
-    <hyperlink ref="M175" r:id="rId174"/>
-    <hyperlink ref="M176" r:id="rId175"/>
-    <hyperlink ref="M177" r:id="rId176"/>
-    <hyperlink ref="M178" r:id="rId177"/>
-    <hyperlink ref="M179" r:id="rId178"/>
-    <hyperlink ref="M180" r:id="rId179"/>
-    <hyperlink ref="M181" r:id="rId180"/>
-    <hyperlink ref="M182" r:id="rId181"/>
-    <hyperlink ref="M183" r:id="rId182"/>
-    <hyperlink ref="M184" r:id="rId183"/>
-    <hyperlink ref="M185" r:id="rId184"/>
-    <hyperlink ref="M186" r:id="rId185"/>
-    <hyperlink ref="M187" r:id="rId186"/>
-    <hyperlink ref="M188" r:id="rId187"/>
-    <hyperlink ref="M189" r:id="rId188"/>
-    <hyperlink ref="M190" r:id="rId189"/>
-    <hyperlink ref="M191" r:id="rId190"/>
-    <hyperlink ref="M192" r:id="rId191"/>
-    <hyperlink ref="M193" r:id="rId192"/>
-    <hyperlink ref="M194" r:id="rId193"/>
-    <hyperlink ref="M195" r:id="rId194"/>
-    <hyperlink ref="M196" r:id="rId195"/>
-    <hyperlink ref="M197" r:id="rId196"/>
-    <hyperlink ref="M198" r:id="rId197"/>
-    <hyperlink ref="M199" r:id="rId198"/>
-    <hyperlink ref="M200" r:id="rId199"/>
-    <hyperlink ref="M201" r:id="rId200"/>
-    <hyperlink ref="M202" r:id="rId201"/>
-    <hyperlink ref="M203" r:id="rId202"/>
-    <hyperlink ref="M204" r:id="rId203"/>
-    <hyperlink ref="M205" r:id="rId204"/>
-    <hyperlink ref="M206" r:id="rId205"/>
-    <hyperlink ref="M207" r:id="rId206"/>
-    <hyperlink ref="M208" r:id="rId207"/>
-    <hyperlink ref="M209" r:id="rId208"/>
-    <hyperlink ref="M210" r:id="rId209"/>
-    <hyperlink ref="M211" r:id="rId210"/>
-    <hyperlink ref="M212" r:id="rId211"/>
-    <hyperlink ref="M213" r:id="rId212"/>
-    <hyperlink ref="M214" r:id="rId213"/>
-    <hyperlink ref="M215" r:id="rId214"/>
-    <hyperlink ref="M216" r:id="rId215"/>
-    <hyperlink ref="M217" r:id="rId216"/>
-    <hyperlink ref="M218" r:id="rId217"/>
-    <hyperlink ref="M219" r:id="rId218"/>
-    <hyperlink ref="M220" r:id="rId219"/>
-    <hyperlink ref="M221" r:id="rId220"/>
-    <hyperlink ref="M222" r:id="rId221"/>
-    <hyperlink ref="M223" r:id="rId222"/>
-    <hyperlink ref="M224" r:id="rId223"/>
-    <hyperlink ref="M225" r:id="rId224"/>
-    <hyperlink ref="M226" r:id="rId225"/>
-    <hyperlink ref="M227" r:id="rId226"/>
-    <hyperlink ref="M228" r:id="rId227"/>
-    <hyperlink ref="M229" r:id="rId228"/>
-    <hyperlink ref="M230" r:id="rId229"/>
-    <hyperlink ref="M231" r:id="rId230"/>
-    <hyperlink ref="M232" r:id="rId231"/>
-    <hyperlink ref="M233" r:id="rId232"/>
-    <hyperlink ref="M234" r:id="rId233"/>
-    <hyperlink ref="M235" r:id="rId234"/>
-    <hyperlink ref="M236" r:id="rId235"/>
-    <hyperlink ref="M237" r:id="rId236"/>
-    <hyperlink ref="M238" r:id="rId237"/>
-    <hyperlink ref="M239" r:id="rId238"/>
-    <hyperlink ref="M240" r:id="rId239"/>
-    <hyperlink ref="M241" r:id="rId240"/>
-    <hyperlink ref="M242" r:id="rId241"/>
-    <hyperlink ref="M243" r:id="rId242"/>
-    <hyperlink ref="M244" r:id="rId243"/>
-    <hyperlink ref="M245" r:id="rId244"/>
-    <hyperlink ref="M246" r:id="rId245"/>
-    <hyperlink ref="M247" r:id="rId246"/>
-    <hyperlink ref="M248" r:id="rId247"/>
-    <hyperlink ref="M249" r:id="rId248"/>
-    <hyperlink ref="M250" r:id="rId249"/>
-    <hyperlink ref="M251" r:id="rId250"/>
-    <hyperlink ref="M252" r:id="rId251"/>
-    <hyperlink ref="M253" r:id="rId252"/>
-    <hyperlink ref="M254" r:id="rId253"/>
-    <hyperlink ref="M255" r:id="rId254"/>
-    <hyperlink ref="M256" r:id="rId255"/>
-    <hyperlink ref="M257" r:id="rId256"/>
-    <hyperlink ref="M258" r:id="rId257"/>
-    <hyperlink ref="M259" r:id="rId258"/>
-    <hyperlink ref="M260" r:id="rId259"/>
-    <hyperlink ref="M261" r:id="rId260"/>
-    <hyperlink ref="M262" r:id="rId261"/>
-    <hyperlink ref="M263" r:id="rId262"/>
-    <hyperlink ref="M264" r:id="rId263"/>
-    <hyperlink ref="M265" r:id="rId264"/>
-    <hyperlink ref="M266" r:id="rId265"/>
-    <hyperlink ref="M267" r:id="rId266"/>
-    <hyperlink ref="M268" r:id="rId267"/>
-    <hyperlink ref="M269" r:id="rId268"/>
-    <hyperlink ref="M270" r:id="rId269"/>
-    <hyperlink ref="M271" r:id="rId270"/>
-    <hyperlink ref="M272" r:id="rId271"/>
-    <hyperlink ref="M273" r:id="rId272"/>
-    <hyperlink ref="M274" r:id="rId273"/>
-    <hyperlink ref="M275" r:id="rId274"/>
-    <hyperlink ref="M276" r:id="rId275"/>
-    <hyperlink ref="M277" r:id="rId276"/>
-    <hyperlink ref="M278" r:id="rId277"/>
-    <hyperlink ref="M279" r:id="rId278"/>
-    <hyperlink ref="M280" r:id="rId279"/>
-    <hyperlink ref="M281" r:id="rId280"/>
-    <hyperlink ref="M282" r:id="rId281"/>
-    <hyperlink ref="M283" r:id="rId282"/>
-    <hyperlink ref="M284" r:id="rId283"/>
-    <hyperlink ref="M285" r:id="rId284"/>
-    <hyperlink ref="M286" r:id="rId285"/>
-    <hyperlink ref="M287" r:id="rId286"/>
-    <hyperlink ref="M288" r:id="rId287"/>
+    <hyperlink ref="M166" r:id="rId163"/>
+    <hyperlink ref="M167" r:id="rId164"/>
+    <hyperlink ref="M168" r:id="rId165"/>
+    <hyperlink ref="M169" r:id="rId166"/>
+    <hyperlink ref="M170" r:id="rId167"/>
+    <hyperlink ref="M171" r:id="rId168"/>
+    <hyperlink ref="M172" r:id="rId169"/>
+    <hyperlink ref="M173" r:id="rId170"/>
+    <hyperlink ref="M174" r:id="rId171"/>
+    <hyperlink ref="M175" r:id="rId172"/>
+    <hyperlink ref="M176" r:id="rId173"/>
+    <hyperlink ref="M180" r:id="rId174"/>
+    <hyperlink ref="M181" r:id="rId175"/>
+    <hyperlink ref="M182" r:id="rId176"/>
+    <hyperlink ref="M183" r:id="rId177"/>
+    <hyperlink ref="M184" r:id="rId178"/>
+    <hyperlink ref="M185" r:id="rId179"/>
+    <hyperlink ref="M186" r:id="rId180"/>
+    <hyperlink ref="M187" r:id="rId181"/>
+    <hyperlink ref="M188" r:id="rId182"/>
+    <hyperlink ref="M189" r:id="rId183"/>
+    <hyperlink ref="M190" r:id="rId184"/>
+    <hyperlink ref="M192" r:id="rId185"/>
+    <hyperlink ref="M193" r:id="rId186"/>
+    <hyperlink ref="M194" r:id="rId187"/>
+    <hyperlink ref="M195" r:id="rId188"/>
+    <hyperlink ref="M196" r:id="rId189"/>
+    <hyperlink ref="M197" r:id="rId190"/>
+    <hyperlink ref="M198" r:id="rId191"/>
+    <hyperlink ref="M199" r:id="rId192"/>
+    <hyperlink ref="M200" r:id="rId193"/>
+    <hyperlink ref="M201" r:id="rId194"/>
+    <hyperlink ref="M202" r:id="rId195"/>
+    <hyperlink ref="M203" r:id="rId196"/>
+    <hyperlink ref="M204" r:id="rId197"/>
+    <hyperlink ref="M205" r:id="rId198"/>
+    <hyperlink ref="M206" r:id="rId199"/>
+    <hyperlink ref="M207" r:id="rId200"/>
+    <hyperlink ref="M208" r:id="rId201"/>
+    <hyperlink ref="M209" r:id="rId202"/>
+    <hyperlink ref="M210" r:id="rId203"/>
+    <hyperlink ref="M211" r:id="rId204"/>
+    <hyperlink ref="M212" r:id="rId205"/>
+    <hyperlink ref="M213" r:id="rId206"/>
+    <hyperlink ref="M214" r:id="rId207"/>
+    <hyperlink ref="M215" r:id="rId208"/>
+    <hyperlink ref="M216" r:id="rId209"/>
+    <hyperlink ref="M217" r:id="rId210"/>
+    <hyperlink ref="M218" r:id="rId211"/>
+    <hyperlink ref="M219" r:id="rId212"/>
+    <hyperlink ref="M220" r:id="rId213"/>
+    <hyperlink ref="M221" r:id="rId214"/>
+    <hyperlink ref="M222" r:id="rId215"/>
+    <hyperlink ref="M223" r:id="rId216"/>
+    <hyperlink ref="M224" r:id="rId217"/>
+    <hyperlink ref="M225" r:id="rId218"/>
+    <hyperlink ref="M226" r:id="rId219"/>
+    <hyperlink ref="M227" r:id="rId220"/>
+    <hyperlink ref="M228" r:id="rId221"/>
+    <hyperlink ref="M229" r:id="rId222"/>
+    <hyperlink ref="M230" r:id="rId223"/>
+    <hyperlink ref="M231" r:id="rId224"/>
+    <hyperlink ref="M232" r:id="rId225"/>
+    <hyperlink ref="M233" r:id="rId226"/>
+    <hyperlink ref="M234" r:id="rId227"/>
+    <hyperlink ref="M235" r:id="rId228"/>
+    <hyperlink ref="M236" r:id="rId229"/>
+    <hyperlink ref="M237" r:id="rId230"/>
+    <hyperlink ref="M238" r:id="rId231"/>
+    <hyperlink ref="M239" r:id="rId232"/>
+    <hyperlink ref="M240" r:id="rId233"/>
+    <hyperlink ref="M241" r:id="rId234"/>
+    <hyperlink ref="M242" r:id="rId235"/>
+    <hyperlink ref="M243" r:id="rId236"/>
+    <hyperlink ref="M244" r:id="rId237"/>
+    <hyperlink ref="M245" r:id="rId238"/>
+    <hyperlink ref="M246" r:id="rId239"/>
+    <hyperlink ref="M247" r:id="rId240"/>
+    <hyperlink ref="M248" r:id="rId241"/>
+    <hyperlink ref="M249" r:id="rId242"/>
+    <hyperlink ref="M250" r:id="rId243"/>
+    <hyperlink ref="M251" r:id="rId244"/>
+    <hyperlink ref="M252" r:id="rId245"/>
+    <hyperlink ref="M253" r:id="rId246"/>
+    <hyperlink ref="M254" r:id="rId247"/>
+    <hyperlink ref="M255" r:id="rId248"/>
+    <hyperlink ref="M256" r:id="rId249"/>
+    <hyperlink ref="M257" r:id="rId250"/>
+    <hyperlink ref="M258" r:id="rId251"/>
+    <hyperlink ref="M259" r:id="rId252"/>
+    <hyperlink ref="M260" r:id="rId253"/>
+    <hyperlink ref="M261" r:id="rId254"/>
+    <hyperlink ref="M262" r:id="rId255"/>
+    <hyperlink ref="M266" r:id="rId256"/>
+    <hyperlink ref="M267" r:id="rId257"/>
+    <hyperlink ref="M268" r:id="rId258"/>
+    <hyperlink ref="M269" r:id="rId259"/>
+    <hyperlink ref="M270" r:id="rId260"/>
+    <hyperlink ref="M271" r:id="rId261"/>
+    <hyperlink ref="M272" r:id="rId262"/>
+    <hyperlink ref="M273" r:id="rId263"/>
+    <hyperlink ref="M274" r:id="rId264"/>
+    <hyperlink ref="M275" r:id="rId265"/>
+    <hyperlink ref="M276" r:id="rId266"/>
+    <hyperlink ref="M277" r:id="rId267"/>
+    <hyperlink ref="M278" r:id="rId268"/>
+    <hyperlink ref="M279" r:id="rId269"/>
+    <hyperlink ref="M280" r:id="rId270"/>
+    <hyperlink ref="M281" r:id="rId271"/>
+    <hyperlink ref="M282" r:id="rId272"/>
+    <hyperlink ref="M284" r:id="rId273"/>
+    <hyperlink ref="M285" r:id="rId274"/>
+    <hyperlink ref="M286" r:id="rId275"/>
+    <hyperlink ref="M287" r:id="rId276"/>
+    <hyperlink ref="M288" r:id="rId277"/>
+    <hyperlink ref="M289" r:id="rId278"/>
+    <hyperlink ref="M290" r:id="rId279"/>
+    <hyperlink ref="M291" r:id="rId280"/>
+    <hyperlink ref="M292" r:id="rId281"/>
+    <hyperlink ref="M293" r:id="rId282"/>
+    <hyperlink ref="M294" r:id="rId283"/>
+    <hyperlink ref="M295" r:id="rId284"/>
+    <hyperlink ref="M296" r:id="rId285"/>
+    <hyperlink ref="M297" r:id="rId286"/>
+    <hyperlink ref="M300" r:id="rId287"/>
+    <hyperlink ref="M301" r:id="rId288"/>
+    <hyperlink ref="M302" r:id="rId289"/>
+    <hyperlink ref="M303" r:id="rId290"/>
+    <hyperlink ref="M304" r:id="rId291"/>
+    <hyperlink ref="M305" r:id="rId292"/>
+    <hyperlink ref="M306" r:id="rId293"/>
+    <hyperlink ref="M307" r:id="rId294"/>
+    <hyperlink ref="M308" r:id="rId295"/>
+    <hyperlink ref="M309" r:id="rId296"/>
+    <hyperlink ref="M310" r:id="rId297"/>
+    <hyperlink ref="M312" r:id="rId298"/>
+    <hyperlink ref="M313" r:id="rId299"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="525">
   <si>
     <t>id</t>
   </si>
@@ -523,6 +523,9 @@
     <t>สำนักงานใหญ่ EGCO</t>
   </si>
   <si>
+    <t>ร้านลาบตรงข้าม New Jazz Plaza</t>
+  </si>
+  <si>
     <t>ร้านนิตยาไก่ย่าง</t>
   </si>
   <si>
@@ -601,6 +604,12 @@
     <t>สยามดิสคัฟเวอรี่</t>
   </si>
   <si>
+    <t>ตลาดอินดี้ ดาวคะนอง</t>
+  </si>
+  <si>
+    <t>บ่อตกกุ้ง รัชดาซอย8</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -1174,6 +1183,9 @@
     <t>เอกชนเร่งแจงไทม์ไลน์พนักงานติดโควิด พร้อมดันมาตรการป้องกันขั้นสูงสุด</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 183</t>
+  </si>
+  <si>
     <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
   </si>
   <si>
@@ -1207,6 +1219,9 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 198</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 184</t>
+  </si>
+  <si>
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
@@ -1276,9 +1291,6 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 153</t>
   </si>
   <si>
-    <t>timeline ผู้ป่วยกทม. รายที่ 184</t>
-  </si>
-  <si>
     <t>timeline ผู้ป่วยกทม. รายที่ 188</t>
   </si>
   <si>
@@ -1477,6 +1489,9 @@
     <t>https://www.thairath.co.th/news/business/2006208</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/posts/3143240189108914</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/marketing/news-582754</t>
   </si>
   <si>
@@ -1489,6 +1504,9 @@
     <t>https://www.facebook.com/earthpongsakornk/posts/438608970882337</t>
   </si>
   <si>
+    <t>https://www.facebook.com/rcuchula/posts/10159089080509282</t>
+  </si>
+  <si>
     <t>https://www.prachachat.net/general/news-582966</t>
   </si>
   <si>
@@ -1504,16 +1522,10 @@
     <t>https://www.sanook.com/news/8330358/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/posts/3143240189108914</t>
-  </si>
-  <si>
     <t>https://www.prachachat.net/general/news-585006</t>
   </si>
   <si>
     <t>https://mgronline.com/onlinesection/detail/9630000134214</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/rcuchula/posts/10159089080509282</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
@@ -1951,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N313"/>
+  <dimension ref="A1:N316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2027,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2068,22 +2080,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2112,22 +2124,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2156,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2200,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2244,22 +2256,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2288,22 +2300,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2332,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2376,22 +2388,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2420,22 +2432,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L11" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2464,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2508,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2552,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2596,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2640,22 +2652,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2684,22 +2696,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2728,22 +2740,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2784,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2816,22 +2828,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2860,22 +2872,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2904,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2948,22 +2960,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K23" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L23" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2992,22 +3004,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J24" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K24" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3036,22 +3048,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J25" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K25" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3080,22 +3092,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I26" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J26" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L26" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3124,22 +3136,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J27" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3168,22 +3180,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J28" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3212,22 +3224,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L29" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3256,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3300,22 +3312,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3344,22 +3356,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L32" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3388,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3432,22 +3444,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3476,22 +3488,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3520,22 +3532,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3576,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3620,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3655,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3696,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3740,22 +3752,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3787,19 +3799,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3831,19 +3843,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3875,19 +3887,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3919,19 +3931,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3960,22 +3972,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J46" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K46" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -4004,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J47" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -4048,22 +4060,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4092,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4136,22 +4148,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4180,22 +4192,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4224,22 +4236,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4268,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I53" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J53" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L53" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4312,22 +4324,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J54" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4356,22 +4368,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I55" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J55" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K55" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4400,22 +4412,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J56" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K56" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4444,22 +4456,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J57" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K57" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L57" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4488,22 +4500,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J58" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K58" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4532,22 +4544,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I59" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J59" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L59" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4576,22 +4588,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I60" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K60" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L60" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4620,22 +4632,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J61" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L61" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4664,22 +4676,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J62" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K62" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L62" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4708,22 +4720,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J63" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K63" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L63" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4752,22 +4764,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J64" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K64" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4808,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4852,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4896,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4940,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4984,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -5016,22 +5028,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J70" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K70" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -5060,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J71" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K71" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L71" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -5104,22 +5116,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I72" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J72" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K72" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -5148,22 +5160,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I73" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J73" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L73" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5192,22 +5204,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L74" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5236,22 +5248,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I75" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J75" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L75" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5280,22 +5292,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K76" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L76" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5336,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5380,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5424,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5468,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5503,19 +5515,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J81" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K81" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5547,19 +5559,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J82" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K82" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L82" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5588,22 +5600,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I83" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J83" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K83" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L83" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5632,22 +5644,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I84" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J84" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K84" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L84" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5676,22 +5688,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I85" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J85" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K85" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L85" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5720,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I86" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J86" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K86" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L86" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5764,22 +5776,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I87" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J87" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K87" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5808,22 +5820,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I88" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J88" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K88" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L88" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5852,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I89" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K89" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L89" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5896,22 +5908,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I90" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J90" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K90" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L90" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5940,22 +5952,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J91" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K91" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L91" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5984,22 +5996,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I92" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J92" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K92" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L92" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6040,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6084,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6128,10 +6140,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6172,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6207,19 +6219,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J97" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K97" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L97" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6248,22 +6260,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I98" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J98" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K98" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L98" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6292,22 +6304,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J99" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K99" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L99" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6339,19 +6351,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J100" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K100" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L100" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6380,22 +6392,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I101" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J101" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K101" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L101" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6424,22 +6436,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I102" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L102" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6468,22 +6480,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J103" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K103" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L103" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6512,22 +6524,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I104" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J104" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K104" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L104" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6556,22 +6568,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I105" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J105" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K105" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L105" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6612,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6656,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6700,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6744,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6788,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6832,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6864,22 +6876,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I112" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J112" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K112" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L112" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6908,22 +6920,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I113" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J113" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K113" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L113" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6952,22 +6964,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I114" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J114" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K114" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L114" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6996,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I115" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J115" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K115" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L115" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -7040,22 +7052,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I116" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J116" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K116" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L116" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -7084,22 +7096,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I117" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J117" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K117" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L117" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -7128,22 +7140,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I118" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J118" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K118" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L118" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -7172,22 +7184,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I119" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J119" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K119" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L119" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7228,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7272,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -7316,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -7360,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -7404,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7448,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7492,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7536,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7580,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7624,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7656,22 +7668,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I130" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J130" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K130" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7700,22 +7712,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I131" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J131" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K131" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L131" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7744,22 +7756,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I132" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J132" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K132" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L132" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7800,10 +7812,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7844,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7888,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7932,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7976,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -8020,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -8064,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -8108,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -8152,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -8196,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -8240,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8284,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8328,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8372,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8416,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8460,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8504,10 +8516,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8548,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8592,10 +8604,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8636,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8680,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8691,22 +8703,22 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>214</v>
-      </c>
-      <c r="B154" t="s">
-        <v>17</v>
+        <v>213</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D154" t="s">
         <v>169</v>
       </c>
       <c r="E154">
-        <v>13.734066</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>100.5278354</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8724,10 +8736,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8738,7 +8750,7 @@
         <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C155" s="2">
         <v>44191</v>
@@ -8747,10 +8759,10 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>12.6483736</v>
+        <v>13.734066</v>
       </c>
       <c r="F155">
-        <v>101.2273679</v>
+        <v>100.5278354</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8768,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8782,7 +8794,7 @@
         <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C156" s="2">
         <v>44191</v>
@@ -8791,31 +8803,31 @@
         <v>171</v>
       </c>
       <c r="E156">
-        <v>12.69691038</v>
+        <v>12.6483736</v>
       </c>
       <c r="F156">
-        <v>101.268451</v>
+        <v>101.2273679</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156" t="s">
-        <v>329</v>
-      </c>
-      <c r="I156" t="s">
-        <v>332</v>
-      </c>
-      <c r="J156" t="s">
-        <v>334</v>
-      </c>
-      <c r="K156" t="s">
-        <v>330</v>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8835,31 +8847,31 @@
         <v>172</v>
       </c>
       <c r="E157">
-        <v>12.66695256</v>
+        <v>12.69691038</v>
       </c>
       <c r="F157">
-        <v>101.2738756</v>
+        <v>101.268451</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I157" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J157" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K157" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L157" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8879,31 +8891,31 @@
         <v>173</v>
       </c>
       <c r="E158">
-        <v>13.86265154</v>
+        <v>12.66695256</v>
       </c>
       <c r="F158">
-        <v>100.6432858</v>
+        <v>101.2738756</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
+      <c r="H158" t="s">
+        <v>332</v>
+      </c>
+      <c r="I158" t="s">
+        <v>335</v>
+      </c>
+      <c r="J158" t="s">
+        <v>337</v>
+      </c>
+      <c r="K158" t="s">
+        <v>333</v>
       </c>
       <c r="L158" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8923,10 +8935,10 @@
         <v>174</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>13.86265154</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>100.6432858</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8944,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8967,10 +8979,10 @@
         <v>175</v>
       </c>
       <c r="E160">
-        <v>13.7831563</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>100.5154952</v>
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8988,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -9011,10 +9023,10 @@
         <v>176</v>
       </c>
       <c r="E161">
-        <v>13.85626845</v>
+        <v>13.7831563</v>
       </c>
       <c r="F161">
-        <v>100.5418055</v>
+        <v>100.5154952</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -9032,10 +9044,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -9055,10 +9067,10 @@
         <v>177</v>
       </c>
       <c r="E162">
-        <v>13.93341769</v>
+        <v>13.85626845</v>
       </c>
       <c r="F162">
-        <v>100.7190324</v>
+        <v>100.5418055</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -9076,10 +9088,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -9099,10 +9111,10 @@
         <v>178</v>
       </c>
       <c r="E163">
-        <v>13.72681609</v>
+        <v>13.93341769</v>
       </c>
       <c r="F163">
-        <v>100.4276251</v>
+        <v>100.7190324</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -9120,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -9143,10 +9155,10 @@
         <v>179</v>
       </c>
       <c r="E164">
-        <v>13.73880307</v>
+        <v>13.72681609</v>
       </c>
       <c r="F164">
-        <v>100.5265351</v>
+        <v>100.4276251</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -9164,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>390</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -9187,10 +9199,10 @@
         <v>180</v>
       </c>
       <c r="E165">
-        <v>13.73589718</v>
+        <v>13.73880307</v>
       </c>
       <c r="F165">
-        <v>100.5255978</v>
+        <v>100.5265351</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -9208,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>390</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -9222,19 +9234,19 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D166" t="s">
         <v>181</v>
       </c>
       <c r="E166">
-        <v>12.6844183</v>
+        <v>13.73589718</v>
       </c>
       <c r="F166">
-        <v>101.2742991</v>
+        <v>100.5255978</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -9248,14 +9260,14 @@
       <c r="J166">
         <v>0</v>
       </c>
-      <c r="K166" t="s">
-        <v>330</v>
+      <c r="K166">
+        <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -9275,10 +9287,10 @@
         <v>182</v>
       </c>
       <c r="E167">
-        <v>12.9730033</v>
+        <v>12.6844183</v>
       </c>
       <c r="F167">
-        <v>100.9029061</v>
+        <v>101.2742991</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -9293,13 +9305,13 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L167" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -9310,7 +9322,7 @@
         <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C168" s="2">
         <v>44192</v>
@@ -9319,10 +9331,10 @@
         <v>183</v>
       </c>
       <c r="E168">
-        <v>13.7946069</v>
+        <v>12.9730033</v>
       </c>
       <c r="F168">
-        <v>100.5161808</v>
+        <v>100.9029061</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -9337,13 +9349,13 @@
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L168" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -9363,31 +9375,31 @@
         <v>184</v>
       </c>
       <c r="E169">
-        <v>13.54448567</v>
+        <v>13.7946069</v>
       </c>
       <c r="F169">
-        <v>100.2752027</v>
+        <v>100.5161808</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169" t="s">
-        <v>329</v>
-      </c>
-      <c r="I169" t="s">
-        <v>332</v>
-      </c>
-      <c r="J169" t="s">
-        <v>334</v>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L169" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9407,31 +9419,31 @@
         <v>185</v>
       </c>
       <c r="E170">
-        <v>13.67424547</v>
+        <v>13.54448567</v>
       </c>
       <c r="F170">
-        <v>100.426448</v>
+        <v>100.2752027</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
+      <c r="H170" t="s">
+        <v>332</v>
+      </c>
+      <c r="I170" t="s">
+        <v>335</v>
+      </c>
+      <c r="J170" t="s">
+        <v>337</v>
+      </c>
+      <c r="K170" t="s">
+        <v>333</v>
       </c>
       <c r="L170" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9451,10 +9463,10 @@
         <v>186</v>
       </c>
       <c r="E171">
-        <v>13.94010609</v>
+        <v>13.67424547</v>
       </c>
       <c r="F171">
-        <v>100.5124853</v>
+        <v>100.426448</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -9472,10 +9484,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9495,10 +9507,10 @@
         <v>187</v>
       </c>
       <c r="E172">
-        <v>13.96674442</v>
+        <v>13.94010609</v>
       </c>
       <c r="F172">
-        <v>100.5302521</v>
+        <v>100.5124853</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9516,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9539,10 +9551,10 @@
         <v>188</v>
       </c>
       <c r="E173">
-        <v>13.8766052</v>
+        <v>13.96674442</v>
       </c>
       <c r="F173">
-        <v>100.4449333</v>
+        <v>100.5302521</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9560,10 +9572,10 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9583,10 +9595,10 @@
         <v>189</v>
       </c>
       <c r="E174">
-        <v>13.85555825</v>
+        <v>13.8766052</v>
       </c>
       <c r="F174">
-        <v>100.5424068</v>
+        <v>100.4449333</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9604,10 +9616,10 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9627,10 +9639,10 @@
         <v>190</v>
       </c>
       <c r="E175">
-        <v>18.79792861</v>
+        <v>13.85555825</v>
       </c>
       <c r="F175">
-        <v>98.96334683000001</v>
+        <v>100.5424068</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9648,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9671,10 +9683,10 @@
         <v>191</v>
       </c>
       <c r="E176">
-        <v>13.98760892</v>
+        <v>18.79792861</v>
       </c>
       <c r="F176">
-        <v>100.6755888</v>
+        <v>98.96334683000001</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9692,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9715,10 +9727,10 @@
         <v>192</v>
       </c>
       <c r="E177">
-        <v>13.74224785</v>
+        <v>13.98760892</v>
       </c>
       <c r="F177">
-        <v>100.5250176</v>
+        <v>100.6755888</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -9736,10 +9748,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>390</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9759,10 +9771,10 @@
         <v>193</v>
       </c>
       <c r="E178">
-        <v>13.74491238</v>
+        <v>13.74224785</v>
       </c>
       <c r="F178">
-        <v>100.533897</v>
+        <v>100.5250176</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9780,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>390</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9803,10 +9815,10 @@
         <v>194</v>
       </c>
       <c r="E179">
-        <v>13.74654683</v>
+        <v>13.74491238</v>
       </c>
       <c r="F179">
-        <v>100.5313126</v>
+        <v>100.533897</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9824,10 +9836,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>390</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9841,37 +9853,37 @@
         <v>14</v>
       </c>
       <c r="C180" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D180" t="s">
         <v>195</v>
       </c>
       <c r="E180">
-        <v>13.73545544</v>
+        <v>13.74654683</v>
       </c>
       <c r="F180">
-        <v>100.5661584</v>
+        <v>100.5313126</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180" t="s">
-        <v>330</v>
-      </c>
-      <c r="I180" t="s">
-        <v>332</v>
-      </c>
-      <c r="J180" t="s">
-        <v>334</v>
-      </c>
-      <c r="K180" t="s">
-        <v>330</v>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9881,20 +9893,20 @@
       <c r="A181">
         <v>241</v>
       </c>
-      <c r="B181" t="s">
-        <v>14</v>
+      <c r="B181">
+        <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D181" t="s">
         <v>196</v>
       </c>
       <c r="E181">
-        <v>13.91669065</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>100.397828</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9912,10 +9924,10 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>354</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>459</v>
+        <v>389</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9925,20 +9937,20 @@
       <c r="A182">
         <v>242</v>
       </c>
-      <c r="B182" t="s">
-        <v>14</v>
+      <c r="B182">
+        <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D182" t="s">
         <v>197</v>
       </c>
       <c r="E182">
-        <v>13.76710313</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>100.5328623</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9956,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>363</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>465</v>
+        <v>401</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9979,31 +9991,31 @@
         <v>198</v>
       </c>
       <c r="E183">
-        <v>13.7495748</v>
+        <v>13.73545544</v>
       </c>
       <c r="F183">
-        <v>100.5157013</v>
+        <v>100.5661584</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
+      <c r="H183" t="s">
+        <v>333</v>
+      </c>
+      <c r="I183" t="s">
+        <v>335</v>
+      </c>
+      <c r="J183" t="s">
+        <v>337</v>
+      </c>
+      <c r="K183" t="s">
+        <v>333</v>
       </c>
       <c r="L183" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -10023,10 +10035,10 @@
         <v>199</v>
       </c>
       <c r="E184">
-        <v>13.86015375</v>
+        <v>13.91669065</v>
       </c>
       <c r="F184">
-        <v>100.5133052</v>
+        <v>100.397828</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -10044,10 +10056,10 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -10067,10 +10079,10 @@
         <v>200</v>
       </c>
       <c r="E185">
-        <v>13.85554623</v>
+        <v>13.76710313</v>
       </c>
       <c r="F185">
-        <v>100.5420379</v>
+        <v>100.5328623</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -10088,10 +10100,10 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -10111,10 +10123,10 @@
         <v>201</v>
       </c>
       <c r="E186">
-        <v>18.80178381</v>
+        <v>13.7495748</v>
       </c>
       <c r="F186">
-        <v>98.99477501</v>
+        <v>100.5157013</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -10132,10 +10144,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -10155,10 +10167,10 @@
         <v>202</v>
       </c>
       <c r="E187">
-        <v>18.79840936</v>
+        <v>13.86015375</v>
       </c>
       <c r="F187">
-        <v>98.96368013999999</v>
+        <v>100.5133052</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -10176,10 +10188,10 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -10199,10 +10211,10 @@
         <v>203</v>
       </c>
       <c r="E188">
-        <v>13.67953551</v>
+        <v>13.85554623</v>
       </c>
       <c r="F188">
-        <v>100.5139293</v>
+        <v>100.5420379</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -10220,10 +10232,10 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -10243,10 +10255,10 @@
         <v>204</v>
       </c>
       <c r="E189">
-        <v>13.73105104</v>
+        <v>18.80178381</v>
       </c>
       <c r="F189">
-        <v>100.5194954</v>
+        <v>98.99477501</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -10267,7 +10279,7 @@
         <v>399</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -10287,10 +10299,10 @@
         <v>205</v>
       </c>
       <c r="E190">
-        <v>13.73433065</v>
+        <v>18.79840936</v>
       </c>
       <c r="F190">
-        <v>100.528408</v>
+        <v>98.96368013999999</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -10308,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -10331,10 +10343,10 @@
         <v>206</v>
       </c>
       <c r="E191">
-        <v>13.74583841</v>
+        <v>13.67953551</v>
       </c>
       <c r="F191">
-        <v>100.5302062</v>
+        <v>100.5139293</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -10352,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>390</v>
-      </c>
-      <c r="M191">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -10366,40 +10378,40 @@
         <v>252</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D192" t="s">
         <v>207</v>
       </c>
       <c r="E192">
-        <v>12.9098775</v>
+        <v>13.73105104</v>
       </c>
       <c r="F192">
-        <v>100.891563</v>
+        <v>100.5194954</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192" t="s">
-        <v>330</v>
-      </c>
-      <c r="I192" t="s">
-        <v>332</v>
-      </c>
-      <c r="J192" t="s">
-        <v>334</v>
-      </c>
-      <c r="K192" t="s">
-        <v>330</v>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -10410,19 +10422,19 @@
         <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D193" t="s">
         <v>208</v>
       </c>
       <c r="E193">
-        <v>13.3535702</v>
+        <v>13.73433065</v>
       </c>
       <c r="F193">
-        <v>100.9765439</v>
+        <v>100.528408</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -10436,14 +10448,14 @@
       <c r="J193">
         <v>0</v>
       </c>
-      <c r="K193" t="s">
-        <v>330</v>
+      <c r="K193">
+        <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -10457,16 +10469,16 @@
         <v>14</v>
       </c>
       <c r="C194" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D194" t="s">
         <v>209</v>
       </c>
       <c r="E194">
-        <v>12.948902</v>
+        <v>13.74583841</v>
       </c>
       <c r="F194">
-        <v>100.891292</v>
+        <v>100.5302062</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10480,14 +10492,14 @@
       <c r="J194">
         <v>0</v>
       </c>
-      <c r="K194" t="s">
-        <v>330</v>
+      <c r="K194">
+        <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -10507,31 +10519,31 @@
         <v>210</v>
       </c>
       <c r="E195">
-        <v>12.6495877</v>
+        <v>12.9098775</v>
       </c>
       <c r="F195">
-        <v>102.0329425</v>
+        <v>100.891563</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
+      <c r="H195" t="s">
+        <v>333</v>
+      </c>
+      <c r="I195" t="s">
+        <v>335</v>
+      </c>
+      <c r="J195" t="s">
+        <v>337</v>
       </c>
       <c r="K195" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L195" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10551,10 +10563,10 @@
         <v>211</v>
       </c>
       <c r="E196">
-        <v>12.3757564</v>
+        <v>13.3535702</v>
       </c>
       <c r="F196">
-        <v>102.3818628</v>
+        <v>100.9765439</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10569,13 +10581,13 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L196" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10586,7 +10598,7 @@
         <v>257</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="2">
         <v>44194</v>
@@ -10595,10 +10607,10 @@
         <v>212</v>
       </c>
       <c r="E197">
-        <v>12.7246169</v>
+        <v>12.948902</v>
       </c>
       <c r="F197">
-        <v>101.9362794</v>
+        <v>100.891292</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -10613,13 +10625,13 @@
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L197" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10630,7 +10642,7 @@
         <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C198" s="2">
         <v>44194</v>
@@ -10639,10 +10651,10 @@
         <v>213</v>
       </c>
       <c r="E198">
-        <v>13.772986</v>
+        <v>12.6495877</v>
       </c>
       <c r="F198">
-        <v>100.4855148</v>
+        <v>102.0329425</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -10657,13 +10669,13 @@
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L198" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10674,7 +10686,7 @@
         <v>259</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C199" s="2">
         <v>44194</v>
@@ -10683,10 +10695,10 @@
         <v>214</v>
       </c>
       <c r="E199">
-        <v>12.90895904</v>
+        <v>12.3757564</v>
       </c>
       <c r="F199">
-        <v>100.891925</v>
+        <v>102.3818628</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -10700,14 +10712,14 @@
       <c r="J199">
         <v>0</v>
       </c>
-      <c r="K199">
-        <v>0</v>
+      <c r="K199" t="s">
+        <v>333</v>
       </c>
       <c r="L199" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10718,7 +10730,7 @@
         <v>260</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C200" s="2">
         <v>44194</v>
@@ -10727,10 +10739,10 @@
         <v>215</v>
       </c>
       <c r="E200">
-        <v>12.90960418</v>
+        <v>12.7246169</v>
       </c>
       <c r="F200">
-        <v>100.870256</v>
+        <v>101.9362794</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -10744,14 +10756,14 @@
       <c r="J200">
         <v>0</v>
       </c>
-      <c r="K200">
-        <v>0</v>
+      <c r="K200" t="s">
+        <v>333</v>
       </c>
       <c r="L200" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10762,7 +10774,7 @@
         <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C201" s="2">
         <v>44194</v>
@@ -10771,10 +10783,10 @@
         <v>216</v>
       </c>
       <c r="E201">
-        <v>12.93047726</v>
+        <v>13.772986</v>
       </c>
       <c r="F201">
-        <v>100.8807229</v>
+        <v>100.4855148</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -10788,14 +10800,14 @@
       <c r="J201">
         <v>0</v>
       </c>
-      <c r="K201">
-        <v>0</v>
+      <c r="K201" t="s">
+        <v>333</v>
       </c>
       <c r="L201" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10815,10 +10827,10 @@
         <v>217</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>12.90895904</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>100.891925</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -10836,10 +10848,10 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10859,10 +10871,10 @@
         <v>218</v>
       </c>
       <c r="E203">
-        <v>12.66219926</v>
+        <v>12.90960418</v>
       </c>
       <c r="F203">
-        <v>100.8989779</v>
+        <v>100.870256</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10880,10 +10892,10 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10903,10 +10915,10 @@
         <v>219</v>
       </c>
       <c r="E204">
-        <v>13.32877789</v>
+        <v>12.93047726</v>
       </c>
       <c r="F204">
-        <v>100.9230017</v>
+        <v>100.8807229</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10924,10 +10936,10 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10947,10 +10959,10 @@
         <v>220</v>
       </c>
       <c r="E205">
-        <v>13.33615653</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>100.9694597</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10968,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10991,10 +11003,10 @@
         <v>221</v>
       </c>
       <c r="E206">
-        <v>12.83546656</v>
+        <v>12.66219926</v>
       </c>
       <c r="F206">
-        <v>100.967575</v>
+        <v>100.8989779</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -11012,10 +11024,10 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -11035,10 +11047,10 @@
         <v>222</v>
       </c>
       <c r="E207">
-        <v>13.33545565</v>
+        <v>13.32877789</v>
       </c>
       <c r="F207">
-        <v>100.9249432</v>
+        <v>100.9230017</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -11056,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -11079,10 +11091,10 @@
         <v>223</v>
       </c>
       <c r="E208">
-        <v>13.33841928</v>
+        <v>13.33615653</v>
       </c>
       <c r="F208">
-        <v>100.9526548</v>
+        <v>100.9694597</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -11100,10 +11112,10 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -11123,10 +11135,10 @@
         <v>224</v>
       </c>
       <c r="E209">
-        <v>12.68318129</v>
+        <v>12.83546656</v>
       </c>
       <c r="F209">
-        <v>101.2479341</v>
+        <v>100.967575</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -11144,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -11167,10 +11179,10 @@
         <v>225</v>
       </c>
       <c r="E210">
-        <v>12.68178774</v>
+        <v>13.33545565</v>
       </c>
       <c r="F210">
-        <v>101.2804266</v>
+        <v>100.9249432</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -11188,10 +11200,10 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -11211,10 +11223,10 @@
         <v>226</v>
       </c>
       <c r="E211">
-        <v>12.67663309</v>
+        <v>13.33841928</v>
       </c>
       <c r="F211">
-        <v>101.2204609</v>
+        <v>100.9526548</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -11232,10 +11244,10 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -11255,10 +11267,10 @@
         <v>227</v>
       </c>
       <c r="E212">
-        <v>12.67969829</v>
+        <v>12.68318129</v>
       </c>
       <c r="F212">
-        <v>101.2516232</v>
+        <v>101.2479341</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -11276,10 +11288,10 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11299,10 +11311,10 @@
         <v>228</v>
       </c>
       <c r="E213">
-        <v>12.67895072</v>
+        <v>12.68178774</v>
       </c>
       <c r="F213">
-        <v>101.2811971</v>
+        <v>101.2804266</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -11320,10 +11332,10 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -11343,10 +11355,10 @@
         <v>229</v>
       </c>
       <c r="E214">
-        <v>12.69121623</v>
+        <v>12.67663309</v>
       </c>
       <c r="F214">
-        <v>101.2828322</v>
+        <v>101.2204609</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -11364,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11387,10 +11399,10 @@
         <v>230</v>
       </c>
       <c r="E215">
-        <v>12.61154131</v>
+        <v>12.67969829</v>
       </c>
       <c r="F215">
-        <v>102.105739</v>
+        <v>101.2516232</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -11408,10 +11420,10 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -11431,10 +11443,10 @@
         <v>231</v>
       </c>
       <c r="E216">
-        <v>12.59875505</v>
+        <v>12.67895072</v>
       </c>
       <c r="F216">
-        <v>102.1108505</v>
+        <v>101.2811971</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -11452,10 +11464,10 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11475,10 +11487,10 @@
         <v>232</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>12.69121623</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>101.2828322</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -11496,10 +11508,10 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -11519,10 +11531,10 @@
         <v>233</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>12.61154131</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>102.105739</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -11540,10 +11552,10 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11563,10 +11575,10 @@
         <v>234</v>
       </c>
       <c r="E219">
-        <v>12.94007297</v>
+        <v>12.59875505</v>
       </c>
       <c r="F219">
-        <v>100.9198688</v>
+        <v>102.1108505</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -11584,10 +11596,10 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11607,10 +11619,10 @@
         <v>235</v>
       </c>
       <c r="E220">
-        <v>12.93500267</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>100.8828385</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -11628,10 +11640,10 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11651,10 +11663,10 @@
         <v>236</v>
       </c>
       <c r="E221">
-        <v>12.93302705</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>100.9013151</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -11672,10 +11684,10 @@
         <v>0</v>
       </c>
       <c r="L221" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11695,10 +11707,10 @@
         <v>237</v>
       </c>
       <c r="E222">
-        <v>12.93124481</v>
+        <v>12.94007297</v>
       </c>
       <c r="F222">
-        <v>100.9008084</v>
+        <v>100.9198688</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -11716,10 +11728,10 @@
         <v>0</v>
       </c>
       <c r="L222" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11739,10 +11751,10 @@
         <v>238</v>
       </c>
       <c r="E223">
-        <v>12.93038104</v>
+        <v>12.93500267</v>
       </c>
       <c r="F223">
-        <v>100.9126714</v>
+        <v>100.8828385</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -11760,10 +11772,10 @@
         <v>0</v>
       </c>
       <c r="L223" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -11783,10 +11795,10 @@
         <v>239</v>
       </c>
       <c r="E224">
-        <v>12.84875767</v>
+        <v>12.93302705</v>
       </c>
       <c r="F224">
-        <v>100.9017</v>
+        <v>100.9013151</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -11804,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="L224" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11827,10 +11839,10 @@
         <v>240</v>
       </c>
       <c r="E225">
-        <v>12.90883138</v>
+        <v>12.93124481</v>
       </c>
       <c r="F225">
-        <v>100.8932458</v>
+        <v>100.9008084</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -11848,10 +11860,10 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11871,10 +11883,10 @@
         <v>241</v>
       </c>
       <c r="E226">
-        <v>12.66362634</v>
+        <v>12.93038104</v>
       </c>
       <c r="F226">
-        <v>100.8981743</v>
+        <v>100.9126714</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -11892,10 +11904,10 @@
         <v>0</v>
       </c>
       <c r="L226" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11915,10 +11927,10 @@
         <v>242</v>
       </c>
       <c r="E227">
-        <v>12.95074463</v>
+        <v>12.84875767</v>
       </c>
       <c r="F227">
-        <v>100.8933879</v>
+        <v>100.9017</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11936,10 +11948,10 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11959,10 +11971,10 @@
         <v>243</v>
       </c>
       <c r="E228">
-        <v>12.97880506</v>
+        <v>12.90883138</v>
       </c>
       <c r="F228">
-        <v>100.9430835</v>
+        <v>100.8932458</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -11980,10 +11992,10 @@
         <v>0</v>
       </c>
       <c r="L228" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -12003,10 +12015,10 @@
         <v>244</v>
       </c>
       <c r="E229">
-        <v>12.92662465</v>
+        <v>12.66362634</v>
       </c>
       <c r="F229">
-        <v>100.898605</v>
+        <v>100.8981743</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -12024,10 +12036,10 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -12047,10 +12059,10 @@
         <v>245</v>
       </c>
       <c r="E230">
-        <v>12.98328283</v>
+        <v>12.95074463</v>
       </c>
       <c r="F230">
-        <v>100.9354783</v>
+        <v>100.8933879</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -12068,10 +12080,10 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -12091,10 +12103,10 @@
         <v>246</v>
       </c>
       <c r="E231">
-        <v>12.98177123</v>
+        <v>12.97880506</v>
       </c>
       <c r="F231">
-        <v>100.9289336</v>
+        <v>100.9430835</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -12112,10 +12124,10 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -12135,10 +12147,10 @@
         <v>247</v>
       </c>
       <c r="E232">
-        <v>13.01893524</v>
+        <v>12.92662465</v>
       </c>
       <c r="F232">
-        <v>100.932701</v>
+        <v>100.898605</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -12156,10 +12168,10 @@
         <v>0</v>
       </c>
       <c r="L232" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -12179,10 +12191,10 @@
         <v>248</v>
       </c>
       <c r="E233">
-        <v>12.95555524</v>
+        <v>12.98328283</v>
       </c>
       <c r="F233">
-        <v>100.8987028</v>
+        <v>100.9354783</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -12200,10 +12212,10 @@
         <v>0</v>
       </c>
       <c r="L233" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -12223,10 +12235,10 @@
         <v>249</v>
       </c>
       <c r="E234">
-        <v>12.93944879</v>
+        <v>12.98177123</v>
       </c>
       <c r="F234">
-        <v>100.9021397</v>
+        <v>100.9289336</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -12244,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="L234" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -12267,10 +12279,10 @@
         <v>250</v>
       </c>
       <c r="E235">
-        <v>12.75400498</v>
+        <v>13.01893524</v>
       </c>
       <c r="F235">
-        <v>100.9017967</v>
+        <v>100.932701</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -12288,10 +12300,10 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -12311,10 +12323,10 @@
         <v>251</v>
       </c>
       <c r="E236">
-        <v>12.69857571</v>
+        <v>12.95555524</v>
       </c>
       <c r="F236">
-        <v>100.8899412</v>
+        <v>100.8987028</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -12332,10 +12344,10 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12355,10 +12367,10 @@
         <v>252</v>
       </c>
       <c r="E237">
-        <v>13.76238233</v>
+        <v>12.93944879</v>
       </c>
       <c r="F237">
-        <v>100.507696</v>
+        <v>100.9021397</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -12376,10 +12388,10 @@
         <v>0</v>
       </c>
       <c r="L237" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12390,7 +12402,7 @@
         <v>298</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238" s="2">
         <v>44194</v>
@@ -12399,10 +12411,10 @@
         <v>253</v>
       </c>
       <c r="E238">
-        <v>13.76254009</v>
+        <v>12.75400498</v>
       </c>
       <c r="F238">
-        <v>100.5075498</v>
+        <v>100.9017967</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -12420,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="L238" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12443,10 +12455,10 @@
         <v>254</v>
       </c>
       <c r="E239">
-        <v>13.92729422</v>
+        <v>12.69857571</v>
       </c>
       <c r="F239">
-        <v>100.5056386</v>
+        <v>100.8899412</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -12464,10 +12476,10 @@
         <v>0</v>
       </c>
       <c r="L239" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12487,10 +12499,10 @@
         <v>255</v>
       </c>
       <c r="E240">
-        <v>13.91794214</v>
+        <v>13.76238233</v>
       </c>
       <c r="F240">
-        <v>100.4950847</v>
+        <v>100.507696</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -12508,10 +12520,10 @@
         <v>0</v>
       </c>
       <c r="L240" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12522,7 +12534,7 @@
         <v>301</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C241" s="2">
         <v>44194</v>
@@ -12531,10 +12543,10 @@
         <v>256</v>
       </c>
       <c r="E241">
-        <v>13.98571223</v>
+        <v>13.76254009</v>
       </c>
       <c r="F241">
-        <v>100.605726</v>
+        <v>100.5075498</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -12552,10 +12564,10 @@
         <v>0</v>
       </c>
       <c r="L241" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -12575,10 +12587,10 @@
         <v>257</v>
       </c>
       <c r="E242">
-        <v>13.87711756</v>
+        <v>13.92729422</v>
       </c>
       <c r="F242">
-        <v>100.4091557</v>
+        <v>100.5056386</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -12596,10 +12608,10 @@
         <v>0</v>
       </c>
       <c r="L242" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12619,10 +12631,10 @@
         <v>258</v>
       </c>
       <c r="E243">
-        <v>13.69058811</v>
+        <v>13.91794214</v>
       </c>
       <c r="F243">
-        <v>100.5032004</v>
+        <v>100.4950847</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -12640,10 +12652,10 @@
         <v>0</v>
       </c>
       <c r="L243" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12663,10 +12675,10 @@
         <v>259</v>
       </c>
       <c r="E244">
-        <v>18.26066421</v>
+        <v>13.98571223</v>
       </c>
       <c r="F244">
-        <v>99.54330871000001</v>
+        <v>100.605726</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -12684,10 +12696,10 @@
         <v>0</v>
       </c>
       <c r="L244" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12707,10 +12719,10 @@
         <v>260</v>
       </c>
       <c r="E245">
-        <v>18.80845098</v>
+        <v>13.87711756</v>
       </c>
       <c r="F245">
-        <v>98.99692628</v>
+        <v>100.4091557</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -12728,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="L245" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -12751,10 +12763,10 @@
         <v>261</v>
       </c>
       <c r="E246">
-        <v>14.48644022</v>
+        <v>13.69058811</v>
       </c>
       <c r="F246">
-        <v>100.124873</v>
+        <v>100.5032004</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -12772,10 +12784,10 @@
         <v>0</v>
       </c>
       <c r="L246" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12795,10 +12807,10 @@
         <v>262</v>
       </c>
       <c r="E247">
-        <v>13.88595079</v>
+        <v>18.26066421</v>
       </c>
       <c r="F247">
-        <v>100.603464</v>
+        <v>99.54330871000001</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -12816,10 +12828,10 @@
         <v>0</v>
       </c>
       <c r="L247" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12839,10 +12851,10 @@
         <v>263</v>
       </c>
       <c r="E248">
-        <v>13.72108833</v>
+        <v>18.80845098</v>
       </c>
       <c r="F248">
-        <v>100.495412</v>
+        <v>98.99692628</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -12860,10 +12872,10 @@
         <v>0</v>
       </c>
       <c r="L248" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12883,10 +12895,10 @@
         <v>264</v>
       </c>
       <c r="E249">
-        <v>13.72849375</v>
+        <v>14.48644022</v>
       </c>
       <c r="F249">
-        <v>100.5342486</v>
+        <v>100.124873</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -12904,10 +12916,10 @@
         <v>0</v>
       </c>
       <c r="L249" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12927,10 +12939,10 @@
         <v>265</v>
       </c>
       <c r="E250">
-        <v>13.71927682</v>
+        <v>13.88595079</v>
       </c>
       <c r="F250">
-        <v>100.5489089</v>
+        <v>100.603464</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -12948,10 +12960,10 @@
         <v>0</v>
       </c>
       <c r="L250" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12971,10 +12983,10 @@
         <v>266</v>
       </c>
       <c r="E251">
-        <v>13.76931412</v>
+        <v>13.72108833</v>
       </c>
       <c r="F251">
-        <v>100.4066107</v>
+        <v>100.495412</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -12992,10 +13004,10 @@
         <v>0</v>
       </c>
       <c r="L251" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -13009,16 +13021,16 @@
         <v>14</v>
       </c>
       <c r="C252" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D252" t="s">
         <v>267</v>
       </c>
       <c r="E252">
-        <v>13.68885671</v>
+        <v>13.72849375</v>
       </c>
       <c r="F252">
-        <v>100.6472895</v>
+        <v>100.5342486</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -13036,10 +13048,10 @@
         <v>0</v>
       </c>
       <c r="L252" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -13053,16 +13065,16 @@
         <v>14</v>
       </c>
       <c r="C253" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D253" t="s">
         <v>268</v>
       </c>
       <c r="E253">
-        <v>13.7055576</v>
+        <v>13.71927682</v>
       </c>
       <c r="F253">
-        <v>100.6010884</v>
+        <v>100.5489089</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -13080,10 +13092,10 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -13097,16 +13109,16 @@
         <v>14</v>
       </c>
       <c r="C254" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D254" t="s">
         <v>269</v>
       </c>
       <c r="E254">
-        <v>13.38779853</v>
+        <v>13.76931412</v>
       </c>
       <c r="F254">
-        <v>99.92358786</v>
+        <v>100.4066107</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -13124,10 +13136,10 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -13147,10 +13159,10 @@
         <v>270</v>
       </c>
       <c r="E255">
-        <v>13.90509878</v>
+        <v>13.68885671</v>
       </c>
       <c r="F255">
-        <v>100.6567595</v>
+        <v>100.6472895</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -13168,10 +13180,10 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -13191,10 +13203,10 @@
         <v>271</v>
       </c>
       <c r="E256">
-        <v>13.85994225</v>
+        <v>13.7055576</v>
       </c>
       <c r="F256">
-        <v>100.7041921</v>
+        <v>100.6010884</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -13212,10 +13224,10 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -13235,10 +13247,10 @@
         <v>272</v>
       </c>
       <c r="E257">
-        <v>13.70718203</v>
+        <v>13.38779853</v>
       </c>
       <c r="F257">
-        <v>100.5437405</v>
+        <v>99.92358786</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -13256,10 +13268,10 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13279,10 +13291,10 @@
         <v>273</v>
       </c>
       <c r="E258">
-        <v>13.7263342</v>
+        <v>13.90509878</v>
       </c>
       <c r="F258">
-        <v>100.5101857</v>
+        <v>100.6567595</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -13300,10 +13312,10 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -13323,10 +13335,10 @@
         <v>274</v>
       </c>
       <c r="E259">
-        <v>13.7557408</v>
+        <v>13.85994225</v>
       </c>
       <c r="F259">
-        <v>100.486811</v>
+        <v>100.7041921</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -13344,10 +13356,10 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -13367,10 +13379,10 @@
         <v>275</v>
       </c>
       <c r="E260">
-        <v>13.66150852</v>
+        <v>13.70718203</v>
       </c>
       <c r="F260">
-        <v>100.4407593</v>
+        <v>100.5437405</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -13388,10 +13400,10 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -13411,10 +13423,10 @@
         <v>276</v>
       </c>
       <c r="E261">
-        <v>13.73804482</v>
+        <v>13.7263342</v>
       </c>
       <c r="F261">
-        <v>100.6160544</v>
+        <v>100.5101857</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -13432,10 +13444,10 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -13455,10 +13467,10 @@
         <v>277</v>
       </c>
       <c r="E262">
-        <v>13.82336229</v>
+        <v>13.7557408</v>
       </c>
       <c r="F262">
-        <v>100.5844342</v>
+        <v>100.486811</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -13476,10 +13488,10 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -13499,10 +13511,10 @@
         <v>278</v>
       </c>
       <c r="E263">
-        <v>13.71891809</v>
+        <v>13.66150852</v>
       </c>
       <c r="F263">
-        <v>100.5136817</v>
+        <v>100.4407593</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -13520,10 +13532,10 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>390</v>
-      </c>
-      <c r="M263">
-        <v>0</v>
+        <v>425</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -13543,10 +13555,10 @@
         <v>279</v>
       </c>
       <c r="E264">
-        <v>13.74248551</v>
+        <v>13.73804482</v>
       </c>
       <c r="F264">
-        <v>100.523025</v>
+        <v>100.6160544</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -13564,10 +13576,10 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>390</v>
-      </c>
-      <c r="M264">
-        <v>0</v>
+        <v>426</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13587,10 +13599,10 @@
         <v>280</v>
       </c>
       <c r="E265">
-        <v>13.74001645</v>
+        <v>13.82336229</v>
       </c>
       <c r="F265">
-        <v>100.5246812</v>
+        <v>100.5844342</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -13608,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>390</v>
-      </c>
-      <c r="M265">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -13625,16 +13637,16 @@
         <v>14</v>
       </c>
       <c r="C266" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D266" t="s">
         <v>281</v>
       </c>
       <c r="E266">
-        <v>13.91532244</v>
+        <v>13.71891809</v>
       </c>
       <c r="F266">
-        <v>100.4236653</v>
+        <v>100.5136817</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -13652,10 +13664,10 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -13669,16 +13681,16 @@
         <v>14</v>
       </c>
       <c r="C267" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D267" t="s">
         <v>282</v>
       </c>
       <c r="E267">
-        <v>14.08063723</v>
+        <v>13.74248551</v>
       </c>
       <c r="F267">
-        <v>100.6228372</v>
+        <v>100.523025</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -13699,7 +13711,7 @@
         <v>394</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -13713,16 +13725,16 @@
         <v>14</v>
       </c>
       <c r="C268" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="D268" t="s">
         <v>283</v>
       </c>
       <c r="E268">
-        <v>13.95313369</v>
+        <v>13.74001645</v>
       </c>
       <c r="F268">
-        <v>100.4766133</v>
+        <v>100.5246812</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -13743,7 +13755,7 @@
         <v>394</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -13763,10 +13775,10 @@
         <v>284</v>
       </c>
       <c r="E269">
-        <v>16.78945067</v>
+        <v>13.91532244</v>
       </c>
       <c r="F269">
-        <v>101.0491296</v>
+        <v>100.4236653</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -13784,10 +13796,10 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13807,10 +13819,10 @@
         <v>285</v>
       </c>
       <c r="E270">
-        <v>16.79472348</v>
+        <v>14.08063723</v>
       </c>
       <c r="F270">
-        <v>101.0418582</v>
+        <v>100.6228372</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -13828,10 +13840,10 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -13851,10 +13863,10 @@
         <v>286</v>
       </c>
       <c r="E271">
-        <v>16.87641646</v>
+        <v>13.95313369</v>
       </c>
       <c r="F271">
-        <v>101.1720539</v>
+        <v>100.4766133</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -13872,10 +13884,10 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13895,10 +13907,10 @@
         <v>287</v>
       </c>
       <c r="E272">
-        <v>16.90718372</v>
+        <v>16.78945067</v>
       </c>
       <c r="F272">
-        <v>101.1093359</v>
+        <v>101.0491296</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -13916,10 +13928,10 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -13930,7 +13942,7 @@
         <v>333</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C273" s="2">
         <v>44196</v>
@@ -13939,10 +13951,10 @@
         <v>288</v>
       </c>
       <c r="E273">
-        <v>13.65610344</v>
+        <v>16.79472348</v>
       </c>
       <c r="F273">
-        <v>100.6432163</v>
+        <v>101.0418582</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -13960,10 +13972,10 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M273" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13983,10 +13995,10 @@
         <v>289</v>
       </c>
       <c r="E274">
-        <v>18.80850902</v>
+        <v>16.87641646</v>
       </c>
       <c r="F274">
-        <v>98.99591362</v>
+        <v>101.1720539</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -14004,10 +14016,10 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -14027,10 +14039,10 @@
         <v>290</v>
       </c>
       <c r="E275">
-        <v>13.39760126</v>
+        <v>16.90718372</v>
       </c>
       <c r="F275">
-        <v>99.92353421</v>
+        <v>101.1093359</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -14048,10 +14060,10 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -14062,7 +14074,7 @@
         <v>336</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C276" s="2">
         <v>44196</v>
@@ -14071,10 +14083,10 @@
         <v>291</v>
       </c>
       <c r="E276">
-        <v>14.35549807</v>
+        <v>13.65610344</v>
       </c>
       <c r="F276">
-        <v>100.1472331</v>
+        <v>100.6432163</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -14092,10 +14104,10 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -14115,10 +14127,10 @@
         <v>292</v>
       </c>
       <c r="E277">
-        <v>13.91657726</v>
+        <v>18.80850902</v>
       </c>
       <c r="F277">
-        <v>100.4202007</v>
+        <v>98.99591362</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -14136,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -14159,10 +14171,10 @@
         <v>293</v>
       </c>
       <c r="E278">
-        <v>13.90327914</v>
+        <v>13.39760126</v>
       </c>
       <c r="F278">
-        <v>100.4283632</v>
+        <v>99.92353421</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -14180,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M278" s="3" t="s">
         <v>514</v>
@@ -14203,10 +14215,10 @@
         <v>294</v>
       </c>
       <c r="E279">
-        <v>13.8261955</v>
+        <v>14.35549807</v>
       </c>
       <c r="F279">
-        <v>100.6783474</v>
+        <v>100.1472331</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -14224,10 +14236,10 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -14238,7 +14250,7 @@
         <v>340</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C280" s="2">
         <v>44196</v>
@@ -14247,10 +14259,10 @@
         <v>295</v>
       </c>
       <c r="E280">
-        <v>13.4292017</v>
+        <v>13.91657726</v>
       </c>
       <c r="F280">
-        <v>101.040314</v>
+        <v>100.4202007</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -14268,10 +14280,10 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -14291,10 +14303,10 @@
         <v>296</v>
       </c>
       <c r="E281">
-        <v>13.74571175</v>
+        <v>13.90327914</v>
       </c>
       <c r="F281">
-        <v>100.1804949</v>
+        <v>100.4283632</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -14312,10 +14324,10 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="N281">
         <v>0</v>
@@ -14335,10 +14347,10 @@
         <v>297</v>
       </c>
       <c r="E282">
-        <v>13.76186745</v>
+        <v>13.8261955</v>
       </c>
       <c r="F282">
-        <v>100.4700566</v>
+        <v>100.6783474</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -14356,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N282">
         <v>0</v>
@@ -14370,7 +14382,7 @@
         <v>343</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C283" s="2">
         <v>44196</v>
@@ -14379,10 +14391,10 @@
         <v>298</v>
       </c>
       <c r="E283">
-        <v>13.74117982</v>
+        <v>13.4292017</v>
       </c>
       <c r="F283">
-        <v>100.4836637</v>
+        <v>101.040314</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -14400,10 +14412,10 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>390</v>
-      </c>
-      <c r="M283">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -14417,16 +14429,16 @@
         <v>14</v>
       </c>
       <c r="C284" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D284" t="s">
         <v>299</v>
       </c>
       <c r="E284">
-        <v>13.91454494</v>
+        <v>13.74571175</v>
       </c>
       <c r="F284">
-        <v>100.4960227</v>
+        <v>100.1804949</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -14444,10 +14456,10 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -14461,16 +14473,16 @@
         <v>14</v>
       </c>
       <c r="C285" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D285" t="s">
         <v>300</v>
       </c>
       <c r="E285">
-        <v>18.79508842</v>
+        <v>13.76186745</v>
       </c>
       <c r="F285">
-        <v>98.96505512</v>
+        <v>100.4700566</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -14488,10 +14500,10 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -14505,16 +14517,16 @@
         <v>14</v>
       </c>
       <c r="C286" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D286" t="s">
         <v>301</v>
       </c>
       <c r="E286">
-        <v>18.80723907</v>
+        <v>13.74117982</v>
       </c>
       <c r="F286">
-        <v>99.018125</v>
+        <v>100.4836637</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -14532,10 +14544,10 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -14555,10 +14567,10 @@
         <v>302</v>
       </c>
       <c r="E287">
-        <v>18.7980703</v>
+        <v>13.91454494</v>
       </c>
       <c r="F287">
-        <v>98.96166732</v>
+        <v>100.4960227</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -14576,10 +14588,10 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -14599,10 +14611,10 @@
         <v>303</v>
       </c>
       <c r="E288">
-        <v>12.67967328</v>
+        <v>18.79508842</v>
       </c>
       <c r="F288">
-        <v>101.2816124</v>
+        <v>98.96505512</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -14620,10 +14632,10 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -14643,10 +14655,10 @@
         <v>304</v>
       </c>
       <c r="E289">
-        <v>12.83113908</v>
+        <v>18.80723907</v>
       </c>
       <c r="F289">
-        <v>101.2045512</v>
+        <v>99.018125</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -14664,10 +14676,10 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -14678,7 +14690,7 @@
         <v>350</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C290" s="2">
         <v>44197</v>
@@ -14687,10 +14699,10 @@
         <v>305</v>
       </c>
       <c r="E290">
-        <v>13.1690554</v>
+        <v>18.7980703</v>
       </c>
       <c r="F290">
-        <v>100.9246356</v>
+        <v>98.96166732</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -14708,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -14722,7 +14734,7 @@
         <v>351</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C291" s="2">
         <v>44197</v>
@@ -14731,10 +14743,10 @@
         <v>306</v>
       </c>
       <c r="E291">
-        <v>13.5984203</v>
+        <v>12.67967328</v>
       </c>
       <c r="F291">
-        <v>100.5945368</v>
+        <v>101.2816124</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -14752,10 +14764,10 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -14775,10 +14787,10 @@
         <v>307</v>
       </c>
       <c r="E292">
-        <v>13.93068401</v>
+        <v>12.83113908</v>
       </c>
       <c r="F292">
-        <v>100.5174953</v>
+        <v>101.2045512</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -14796,10 +14808,10 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -14810,7 +14822,7 @@
         <v>353</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C293" s="2">
         <v>44197</v>
@@ -14819,10 +14831,10 @@
         <v>308</v>
       </c>
       <c r="E293">
-        <v>13.87762828</v>
+        <v>13.1690554</v>
       </c>
       <c r="F293">
-        <v>100.4107211</v>
+        <v>100.9246356</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -14840,10 +14852,10 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -14854,7 +14866,7 @@
         <v>354</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C294" s="2">
         <v>44197</v>
@@ -14863,10 +14875,10 @@
         <v>309</v>
       </c>
       <c r="E294">
-        <v>13.87448379</v>
+        <v>13.5984203</v>
       </c>
       <c r="F294">
-        <v>100.4056405</v>
+        <v>100.5945368</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -14884,10 +14896,10 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -14907,10 +14919,10 @@
         <v>310</v>
       </c>
       <c r="E295">
-        <v>13.91514634</v>
+        <v>13.93068401</v>
       </c>
       <c r="F295">
-        <v>100.4225456</v>
+        <v>100.5174953</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -14928,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -14951,10 +14963,10 @@
         <v>311</v>
       </c>
       <c r="E296">
-        <v>12.9140115</v>
+        <v>13.87762828</v>
       </c>
       <c r="F296">
-        <v>100.9970536</v>
+        <v>100.4107211</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -14972,10 +14984,10 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M296" s="3" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14986,7 +14998,7 @@
         <v>357</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C297" s="2">
         <v>44197</v>
@@ -14995,10 +15007,10 @@
         <v>312</v>
       </c>
       <c r="E297">
-        <v>13.77793234</v>
+        <v>13.87448379</v>
       </c>
       <c r="F297">
-        <v>100.4761222</v>
+        <v>100.4056405</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -15016,10 +15028,10 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M297" s="3" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -15039,10 +15051,10 @@
         <v>313</v>
       </c>
       <c r="E298">
-        <v>13.7408325</v>
+        <v>13.91514634</v>
       </c>
       <c r="F298">
-        <v>100.5235316</v>
+        <v>100.4225456</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -15060,10 +15072,10 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>390</v>
-      </c>
-      <c r="M298">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -15083,10 +15095,10 @@
         <v>314</v>
       </c>
       <c r="E299">
-        <v>13.74338686</v>
+        <v>12.9140115</v>
       </c>
       <c r="F299">
-        <v>100.530094</v>
+        <v>100.9970536</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -15104,10 +15116,10 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>390</v>
-      </c>
-      <c r="M299">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -15118,19 +15130,19 @@
         <v>360</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C300" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D300" t="s">
         <v>315</v>
       </c>
       <c r="E300">
-        <v>14.5063704</v>
+        <v>13.77793234</v>
       </c>
       <c r="F300">
-        <v>100.4640833</v>
+        <v>100.4761222</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -15148,10 +15160,10 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -15162,19 +15174,19 @@
         <v>361</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C301" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D301" t="s">
         <v>316</v>
       </c>
       <c r="E301">
-        <v>15.0696922</v>
+        <v>13.7408325</v>
       </c>
       <c r="F301">
-        <v>100.7237944</v>
+        <v>100.5235316</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -15192,10 +15204,10 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -15206,19 +15218,19 @@
         <v>362</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C302" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="D302" t="s">
         <v>317</v>
       </c>
       <c r="E302">
-        <v>13.1584655</v>
+        <v>13.74338686</v>
       </c>
       <c r="F302">
-        <v>100.9518027</v>
+        <v>100.530094</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -15232,14 +15244,14 @@
       <c r="J302">
         <v>0</v>
       </c>
-      <c r="K302" t="s">
-        <v>330</v>
+      <c r="K302">
+        <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -15259,10 +15271,10 @@
         <v>318</v>
       </c>
       <c r="E303">
-        <v>13.0394735</v>
+        <v>14.5063704</v>
       </c>
       <c r="F303">
-        <v>101.0829624</v>
+        <v>100.4640833</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -15280,10 +15292,10 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -15294,7 +15306,7 @@
         <v>364</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C304" s="2">
         <v>44198</v>
@@ -15303,10 +15315,10 @@
         <v>319</v>
       </c>
       <c r="E304">
-        <v>13.1636893</v>
+        <v>15.0696922</v>
       </c>
       <c r="F304">
-        <v>100.928039</v>
+        <v>100.7237944</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -15324,10 +15336,10 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -15338,7 +15350,7 @@
         <v>365</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C305" s="2">
         <v>44198</v>
@@ -15347,10 +15359,10 @@
         <v>320</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>13.1584655</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>100.9518027</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -15364,14 +15376,14 @@
       <c r="J305">
         <v>0</v>
       </c>
-      <c r="K305">
-        <v>0</v>
+      <c r="K305" t="s">
+        <v>333</v>
       </c>
       <c r="L305" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -15382,19 +15394,19 @@
         <v>366</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C306" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="D306" t="s">
         <v>321</v>
       </c>
       <c r="E306">
-        <v>18.80005469</v>
+        <v>13.0394735</v>
       </c>
       <c r="F306">
-        <v>99.01848506</v>
+        <v>101.0829624</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -15412,10 +15424,10 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -15426,19 +15438,19 @@
         <v>367</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C307" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="D307" t="s">
         <v>322</v>
       </c>
       <c r="E307">
-        <v>13.2658421</v>
+        <v>13.1636893</v>
       </c>
       <c r="F307">
-        <v>100.9280545</v>
+        <v>100.928039</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -15452,14 +15464,14 @@
       <c r="J307">
         <v>0</v>
       </c>
-      <c r="K307" t="s">
-        <v>330</v>
+      <c r="K307">
+        <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -15470,19 +15482,19 @@
         <v>368</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C308" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="D308" t="s">
         <v>323</v>
       </c>
       <c r="E308">
-        <v>13.0923373</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>100.9175099</v>
+        <v>0</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -15496,14 +15508,14 @@
       <c r="J308">
         <v>0</v>
       </c>
-      <c r="K308" t="s">
-        <v>330</v>
+      <c r="K308">
+        <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -15517,16 +15529,16 @@
         <v>14</v>
       </c>
       <c r="C309" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="D309" t="s">
         <v>324</v>
       </c>
       <c r="E309">
-        <v>13.1682491</v>
+        <v>18.80005469</v>
       </c>
       <c r="F309">
-        <v>100.9280324</v>
+        <v>99.01848506</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -15544,10 +15556,10 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -15561,16 +15573,16 @@
         <v>17</v>
       </c>
       <c r="C310" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="D310" t="s">
         <v>325</v>
       </c>
       <c r="E310">
-        <v>13.3200792</v>
+        <v>13.2658421</v>
       </c>
       <c r="F310">
-        <v>101.1116027</v>
+        <v>100.9280545</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -15585,13 +15597,13 @@
         <v>0</v>
       </c>
       <c r="K310" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L310" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -15602,19 +15614,19 @@
         <v>371</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C311" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="D311" t="s">
         <v>326</v>
       </c>
       <c r="E311">
-        <v>13.74090148</v>
+        <v>13.0923373</v>
       </c>
       <c r="F311">
-        <v>100.5291059</v>
+        <v>100.9175099</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -15628,14 +15640,14 @@
       <c r="J311">
         <v>0</v>
       </c>
-      <c r="K311">
-        <v>0</v>
+      <c r="K311" t="s">
+        <v>333</v>
       </c>
       <c r="L311" t="s">
-        <v>390</v>
-      </c>
-      <c r="M311">
-        <v>0</v>
+        <v>442</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -15649,16 +15661,16 @@
         <v>14</v>
       </c>
       <c r="C312" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="D312" t="s">
         <v>327</v>
       </c>
       <c r="E312">
-        <v>13.1756844</v>
+        <v>13.1682491</v>
       </c>
       <c r="F312">
-        <v>100.9200621</v>
+        <v>100.9280324</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -15676,10 +15688,10 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -15693,39 +15705,171 @@
         <v>17</v>
       </c>
       <c r="C313" s="2">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="D313" t="s">
         <v>328</v>
       </c>
       <c r="E313">
+        <v>13.3200792</v>
+      </c>
+      <c r="F313">
+        <v>101.1116027</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" t="s">
+        <v>333</v>
+      </c>
+      <c r="L313" t="s">
+        <v>433</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314">
+        <v>374</v>
+      </c>
+      <c r="B314" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D314" t="s">
+        <v>329</v>
+      </c>
+      <c r="E314">
+        <v>13.74090148</v>
+      </c>
+      <c r="F314">
+        <v>100.5291059</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314" t="s">
+        <v>394</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315">
+        <v>375</v>
+      </c>
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D315" t="s">
+        <v>330</v>
+      </c>
+      <c r="E315">
+        <v>13.1756844</v>
+      </c>
+      <c r="F315">
+        <v>100.9200621</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315" t="s">
+        <v>433</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
+      <c r="A316">
+        <v>376</v>
+      </c>
+      <c r="B316" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="2">
+        <v>44202</v>
+      </c>
+      <c r="D316" t="s">
+        <v>331</v>
+      </c>
+      <c r="E316">
         <v>12.9301453</v>
       </c>
-      <c r="F313">
+      <c r="F316">
         <v>100.884397</v>
       </c>
-      <c r="G313">
-        <v>0</v>
-      </c>
-      <c r="H313">
-        <v>0</v>
-      </c>
-      <c r="I313">
-        <v>0</v>
-      </c>
-      <c r="J313">
-        <v>0</v>
-      </c>
-      <c r="K313" t="s">
-        <v>330</v>
-      </c>
-      <c r="L313" t="s">
-        <v>429</v>
-      </c>
-      <c r="M313" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="N313">
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316" t="s">
+        <v>333</v>
+      </c>
+      <c r="L316" t="s">
+        <v>433</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="N316">
         <v>0</v>
       </c>
     </row>
@@ -15893,143 +16037,157 @@
     <hyperlink ref="M161" r:id="rId160"/>
     <hyperlink ref="M162" r:id="rId161"/>
     <hyperlink ref="M163" r:id="rId162"/>
-    <hyperlink ref="M166" r:id="rId163"/>
-    <hyperlink ref="M167" r:id="rId164"/>
-    <hyperlink ref="M168" r:id="rId165"/>
-    <hyperlink ref="M169" r:id="rId166"/>
-    <hyperlink ref="M170" r:id="rId167"/>
-    <hyperlink ref="M171" r:id="rId168"/>
-    <hyperlink ref="M172" r:id="rId169"/>
-    <hyperlink ref="M173" r:id="rId170"/>
-    <hyperlink ref="M174" r:id="rId171"/>
-    <hyperlink ref="M175" r:id="rId172"/>
-    <hyperlink ref="M176" r:id="rId173"/>
-    <hyperlink ref="M180" r:id="rId174"/>
-    <hyperlink ref="M181" r:id="rId175"/>
-    <hyperlink ref="M182" r:id="rId176"/>
-    <hyperlink ref="M183" r:id="rId177"/>
-    <hyperlink ref="M184" r:id="rId178"/>
-    <hyperlink ref="M185" r:id="rId179"/>
-    <hyperlink ref="M186" r:id="rId180"/>
-    <hyperlink ref="M187" r:id="rId181"/>
-    <hyperlink ref="M188" r:id="rId182"/>
-    <hyperlink ref="M189" r:id="rId183"/>
-    <hyperlink ref="M190" r:id="rId184"/>
-    <hyperlink ref="M192" r:id="rId185"/>
-    <hyperlink ref="M193" r:id="rId186"/>
-    <hyperlink ref="M194" r:id="rId187"/>
-    <hyperlink ref="M195" r:id="rId188"/>
-    <hyperlink ref="M196" r:id="rId189"/>
-    <hyperlink ref="M197" r:id="rId190"/>
-    <hyperlink ref="M198" r:id="rId191"/>
-    <hyperlink ref="M199" r:id="rId192"/>
-    <hyperlink ref="M200" r:id="rId193"/>
-    <hyperlink ref="M201" r:id="rId194"/>
-    <hyperlink ref="M202" r:id="rId195"/>
-    <hyperlink ref="M203" r:id="rId196"/>
-    <hyperlink ref="M204" r:id="rId197"/>
-    <hyperlink ref="M205" r:id="rId198"/>
-    <hyperlink ref="M206" r:id="rId199"/>
-    <hyperlink ref="M207" r:id="rId200"/>
-    <hyperlink ref="M208" r:id="rId201"/>
-    <hyperlink ref="M209" r:id="rId202"/>
-    <hyperlink ref="M210" r:id="rId203"/>
-    <hyperlink ref="M211" r:id="rId204"/>
-    <hyperlink ref="M212" r:id="rId205"/>
-    <hyperlink ref="M213" r:id="rId206"/>
-    <hyperlink ref="M214" r:id="rId207"/>
-    <hyperlink ref="M215" r:id="rId208"/>
-    <hyperlink ref="M216" r:id="rId209"/>
-    <hyperlink ref="M217" r:id="rId210"/>
-    <hyperlink ref="M218" r:id="rId211"/>
-    <hyperlink ref="M219" r:id="rId212"/>
-    <hyperlink ref="M220" r:id="rId213"/>
-    <hyperlink ref="M221" r:id="rId214"/>
-    <hyperlink ref="M222" r:id="rId215"/>
-    <hyperlink ref="M223" r:id="rId216"/>
-    <hyperlink ref="M224" r:id="rId217"/>
-    <hyperlink ref="M225" r:id="rId218"/>
-    <hyperlink ref="M226" r:id="rId219"/>
-    <hyperlink ref="M227" r:id="rId220"/>
-    <hyperlink ref="M228" r:id="rId221"/>
-    <hyperlink ref="M229" r:id="rId222"/>
-    <hyperlink ref="M230" r:id="rId223"/>
-    <hyperlink ref="M231" r:id="rId224"/>
-    <hyperlink ref="M232" r:id="rId225"/>
-    <hyperlink ref="M233" r:id="rId226"/>
-    <hyperlink ref="M234" r:id="rId227"/>
-    <hyperlink ref="M235" r:id="rId228"/>
-    <hyperlink ref="M236" r:id="rId229"/>
-    <hyperlink ref="M237" r:id="rId230"/>
-    <hyperlink ref="M238" r:id="rId231"/>
-    <hyperlink ref="M239" r:id="rId232"/>
-    <hyperlink ref="M240" r:id="rId233"/>
-    <hyperlink ref="M241" r:id="rId234"/>
-    <hyperlink ref="M242" r:id="rId235"/>
-    <hyperlink ref="M243" r:id="rId236"/>
-    <hyperlink ref="M244" r:id="rId237"/>
-    <hyperlink ref="M245" r:id="rId238"/>
-    <hyperlink ref="M246" r:id="rId239"/>
-    <hyperlink ref="M247" r:id="rId240"/>
-    <hyperlink ref="M248" r:id="rId241"/>
-    <hyperlink ref="M249" r:id="rId242"/>
-    <hyperlink ref="M250" r:id="rId243"/>
-    <hyperlink ref="M251" r:id="rId244"/>
-    <hyperlink ref="M252" r:id="rId245"/>
-    <hyperlink ref="M253" r:id="rId246"/>
-    <hyperlink ref="M254" r:id="rId247"/>
-    <hyperlink ref="M255" r:id="rId248"/>
-    <hyperlink ref="M256" r:id="rId249"/>
-    <hyperlink ref="M257" r:id="rId250"/>
-    <hyperlink ref="M258" r:id="rId251"/>
-    <hyperlink ref="M259" r:id="rId252"/>
-    <hyperlink ref="M260" r:id="rId253"/>
-    <hyperlink ref="M261" r:id="rId254"/>
-    <hyperlink ref="M262" r:id="rId255"/>
-    <hyperlink ref="M266" r:id="rId256"/>
-    <hyperlink ref="M267" r:id="rId257"/>
-    <hyperlink ref="M268" r:id="rId258"/>
-    <hyperlink ref="M269" r:id="rId259"/>
-    <hyperlink ref="M270" r:id="rId260"/>
-    <hyperlink ref="M271" r:id="rId261"/>
-    <hyperlink ref="M272" r:id="rId262"/>
-    <hyperlink ref="M273" r:id="rId263"/>
-    <hyperlink ref="M274" r:id="rId264"/>
-    <hyperlink ref="M275" r:id="rId265"/>
-    <hyperlink ref="M276" r:id="rId266"/>
-    <hyperlink ref="M277" r:id="rId267"/>
-    <hyperlink ref="M278" r:id="rId268"/>
-    <hyperlink ref="M279" r:id="rId269"/>
-    <hyperlink ref="M280" r:id="rId270"/>
-    <hyperlink ref="M281" r:id="rId271"/>
-    <hyperlink ref="M282" r:id="rId272"/>
-    <hyperlink ref="M284" r:id="rId273"/>
-    <hyperlink ref="M285" r:id="rId274"/>
-    <hyperlink ref="M286" r:id="rId275"/>
-    <hyperlink ref="M287" r:id="rId276"/>
-    <hyperlink ref="M288" r:id="rId277"/>
-    <hyperlink ref="M289" r:id="rId278"/>
-    <hyperlink ref="M290" r:id="rId279"/>
-    <hyperlink ref="M291" r:id="rId280"/>
-    <hyperlink ref="M292" r:id="rId281"/>
-    <hyperlink ref="M293" r:id="rId282"/>
-    <hyperlink ref="M294" r:id="rId283"/>
-    <hyperlink ref="M295" r:id="rId284"/>
-    <hyperlink ref="M296" r:id="rId285"/>
-    <hyperlink ref="M297" r:id="rId286"/>
-    <hyperlink ref="M300" r:id="rId287"/>
-    <hyperlink ref="M301" r:id="rId288"/>
-    <hyperlink ref="M302" r:id="rId289"/>
-    <hyperlink ref="M303" r:id="rId290"/>
-    <hyperlink ref="M304" r:id="rId291"/>
-    <hyperlink ref="M305" r:id="rId292"/>
-    <hyperlink ref="M306" r:id="rId293"/>
-    <hyperlink ref="M307" r:id="rId294"/>
-    <hyperlink ref="M308" r:id="rId295"/>
-    <hyperlink ref="M309" r:id="rId296"/>
-    <hyperlink ref="M310" r:id="rId297"/>
-    <hyperlink ref="M312" r:id="rId298"/>
-    <hyperlink ref="M313" r:id="rId299"/>
+    <hyperlink ref="M164" r:id="rId163"/>
+    <hyperlink ref="M165" r:id="rId164"/>
+    <hyperlink ref="M166" r:id="rId165"/>
+    <hyperlink ref="M167" r:id="rId166"/>
+    <hyperlink ref="M168" r:id="rId167"/>
+    <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
+    <hyperlink ref="M172" r:id="rId171"/>
+    <hyperlink ref="M173" r:id="rId172"/>
+    <hyperlink ref="M174" r:id="rId173"/>
+    <hyperlink ref="M175" r:id="rId174"/>
+    <hyperlink ref="M176" r:id="rId175"/>
+    <hyperlink ref="M177" r:id="rId176"/>
+    <hyperlink ref="M178" r:id="rId177"/>
+    <hyperlink ref="M179" r:id="rId178"/>
+    <hyperlink ref="M180" r:id="rId179"/>
+    <hyperlink ref="M183" r:id="rId180"/>
+    <hyperlink ref="M184" r:id="rId181"/>
+    <hyperlink ref="M185" r:id="rId182"/>
+    <hyperlink ref="M186" r:id="rId183"/>
+    <hyperlink ref="M187" r:id="rId184"/>
+    <hyperlink ref="M188" r:id="rId185"/>
+    <hyperlink ref="M189" r:id="rId186"/>
+    <hyperlink ref="M190" r:id="rId187"/>
+    <hyperlink ref="M191" r:id="rId188"/>
+    <hyperlink ref="M192" r:id="rId189"/>
+    <hyperlink ref="M193" r:id="rId190"/>
+    <hyperlink ref="M194" r:id="rId191"/>
+    <hyperlink ref="M195" r:id="rId192"/>
+    <hyperlink ref="M196" r:id="rId193"/>
+    <hyperlink ref="M197" r:id="rId194"/>
+    <hyperlink ref="M198" r:id="rId195"/>
+    <hyperlink ref="M199" r:id="rId196"/>
+    <hyperlink ref="M200" r:id="rId197"/>
+    <hyperlink ref="M201" r:id="rId198"/>
+    <hyperlink ref="M202" r:id="rId199"/>
+    <hyperlink ref="M203" r:id="rId200"/>
+    <hyperlink ref="M204" r:id="rId201"/>
+    <hyperlink ref="M205" r:id="rId202"/>
+    <hyperlink ref="M206" r:id="rId203"/>
+    <hyperlink ref="M207" r:id="rId204"/>
+    <hyperlink ref="M208" r:id="rId205"/>
+    <hyperlink ref="M209" r:id="rId206"/>
+    <hyperlink ref="M210" r:id="rId207"/>
+    <hyperlink ref="M211" r:id="rId208"/>
+    <hyperlink ref="M212" r:id="rId209"/>
+    <hyperlink ref="M213" r:id="rId210"/>
+    <hyperlink ref="M214" r:id="rId211"/>
+    <hyperlink ref="M215" r:id="rId212"/>
+    <hyperlink ref="M216" r:id="rId213"/>
+    <hyperlink ref="M217" r:id="rId214"/>
+    <hyperlink ref="M218" r:id="rId215"/>
+    <hyperlink ref="M219" r:id="rId216"/>
+    <hyperlink ref="M220" r:id="rId217"/>
+    <hyperlink ref="M221" r:id="rId218"/>
+    <hyperlink ref="M222" r:id="rId219"/>
+    <hyperlink ref="M223" r:id="rId220"/>
+    <hyperlink ref="M224" r:id="rId221"/>
+    <hyperlink ref="M225" r:id="rId222"/>
+    <hyperlink ref="M226" r:id="rId223"/>
+    <hyperlink ref="M227" r:id="rId224"/>
+    <hyperlink ref="M228" r:id="rId225"/>
+    <hyperlink ref="M229" r:id="rId226"/>
+    <hyperlink ref="M230" r:id="rId227"/>
+    <hyperlink ref="M231" r:id="rId228"/>
+    <hyperlink ref="M232" r:id="rId229"/>
+    <hyperlink ref="M233" r:id="rId230"/>
+    <hyperlink ref="M234" r:id="rId231"/>
+    <hyperlink ref="M235" r:id="rId232"/>
+    <hyperlink ref="M236" r:id="rId233"/>
+    <hyperlink ref="M237" r:id="rId234"/>
+    <hyperlink ref="M238" r:id="rId235"/>
+    <hyperlink ref="M239" r:id="rId236"/>
+    <hyperlink ref="M240" r:id="rId237"/>
+    <hyperlink ref="M241" r:id="rId238"/>
+    <hyperlink ref="M242" r:id="rId239"/>
+    <hyperlink ref="M243" r:id="rId240"/>
+    <hyperlink ref="M244" r:id="rId241"/>
+    <hyperlink ref="M245" r:id="rId242"/>
+    <hyperlink ref="M246" r:id="rId243"/>
+    <hyperlink ref="M247" r:id="rId244"/>
+    <hyperlink ref="M248" r:id="rId245"/>
+    <hyperlink ref="M249" r:id="rId246"/>
+    <hyperlink ref="M250" r:id="rId247"/>
+    <hyperlink ref="M251" r:id="rId248"/>
+    <hyperlink ref="M252" r:id="rId249"/>
+    <hyperlink ref="M253" r:id="rId250"/>
+    <hyperlink ref="M254" r:id="rId251"/>
+    <hyperlink ref="M255" r:id="rId252"/>
+    <hyperlink ref="M256" r:id="rId253"/>
+    <hyperlink ref="M257" r:id="rId254"/>
+    <hyperlink ref="M258" r:id="rId255"/>
+    <hyperlink ref="M259" r:id="rId256"/>
+    <hyperlink ref="M260" r:id="rId257"/>
+    <hyperlink ref="M261" r:id="rId258"/>
+    <hyperlink ref="M262" r:id="rId259"/>
+    <hyperlink ref="M263" r:id="rId260"/>
+    <hyperlink ref="M264" r:id="rId261"/>
+    <hyperlink ref="M265" r:id="rId262"/>
+    <hyperlink ref="M266" r:id="rId263"/>
+    <hyperlink ref="M267" r:id="rId264"/>
+    <hyperlink ref="M268" r:id="rId265"/>
+    <hyperlink ref="M269" r:id="rId266"/>
+    <hyperlink ref="M270" r:id="rId267"/>
+    <hyperlink ref="M271" r:id="rId268"/>
+    <hyperlink ref="M272" r:id="rId269"/>
+    <hyperlink ref="M273" r:id="rId270"/>
+    <hyperlink ref="M274" r:id="rId271"/>
+    <hyperlink ref="M275" r:id="rId272"/>
+    <hyperlink ref="M276" r:id="rId273"/>
+    <hyperlink ref="M277" r:id="rId274"/>
+    <hyperlink ref="M278" r:id="rId275"/>
+    <hyperlink ref="M279" r:id="rId276"/>
+    <hyperlink ref="M280" r:id="rId277"/>
+    <hyperlink ref="M281" r:id="rId278"/>
+    <hyperlink ref="M282" r:id="rId279"/>
+    <hyperlink ref="M283" r:id="rId280"/>
+    <hyperlink ref="M284" r:id="rId281"/>
+    <hyperlink ref="M285" r:id="rId282"/>
+    <hyperlink ref="M286" r:id="rId283"/>
+    <hyperlink ref="M287" r:id="rId284"/>
+    <hyperlink ref="M288" r:id="rId285"/>
+    <hyperlink ref="M289" r:id="rId286"/>
+    <hyperlink ref="M290" r:id="rId287"/>
+    <hyperlink ref="M291" r:id="rId288"/>
+    <hyperlink ref="M292" r:id="rId289"/>
+    <hyperlink ref="M293" r:id="rId290"/>
+    <hyperlink ref="M294" r:id="rId291"/>
+    <hyperlink ref="M295" r:id="rId292"/>
+    <hyperlink ref="M296" r:id="rId293"/>
+    <hyperlink ref="M297" r:id="rId294"/>
+    <hyperlink ref="M298" r:id="rId295"/>
+    <hyperlink ref="M299" r:id="rId296"/>
+    <hyperlink ref="M300" r:id="rId297"/>
+    <hyperlink ref="M301" r:id="rId298"/>
+    <hyperlink ref="M302" r:id="rId299"/>
+    <hyperlink ref="M303" r:id="rId300"/>
+    <hyperlink ref="M304" r:id="rId301"/>
+    <hyperlink ref="M305" r:id="rId302"/>
+    <hyperlink ref="M306" r:id="rId303"/>
+    <hyperlink ref="M307" r:id="rId304"/>
+    <hyperlink ref="M308" r:id="rId305"/>
+    <hyperlink ref="M309" r:id="rId306"/>
+    <hyperlink ref="M310" r:id="rId307"/>
+    <hyperlink ref="M311" r:id="rId308"/>
+    <hyperlink ref="M312" r:id="rId309"/>
+    <hyperlink ref="M313" r:id="rId310"/>
+    <hyperlink ref="M314" r:id="rId311"/>
+    <hyperlink ref="M315" r:id="rId312"/>
+    <hyperlink ref="M316" r:id="rId313"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
+++ b/New Wave Data🔥/xlsx/new-wave-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="544">
   <si>
     <t>id</t>
   </si>
@@ -562,6 +562,21 @@
     <t>อาคารจามจุรี 9</t>
   </si>
   <si>
+    <t>Kouen Sushi Bar สยามสแควร์</t>
+  </si>
+  <si>
+    <t>ร้านศิลวัฒน์ซีฟู้ด ถนนสรรพาวุธ</t>
+  </si>
+  <si>
+    <t>ร้านฮอทพอต แฟชั่นไอส์แลนด์</t>
+  </si>
+  <si>
+    <t>Mister donut เซ็นทรัลพระราม 2</t>
+  </si>
+  <si>
+    <t>ปากคลองตลาด 2 พุทธมณฑลสาย 4</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -610,6 +625,12 @@
     <t>บ่อตกกุ้ง รัชดาซอย8</t>
   </si>
   <si>
+    <t>ป.กุ้งเผา ปิ่นเกล้า</t>
+  </si>
+  <si>
+    <t>Mister donut เซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -646,6 +667,15 @@
     <t>โตคิว  MBK</t>
   </si>
   <si>
+    <t>ร้านจับแพะชนแกะ แถวราชพฤกษ์</t>
+  </si>
+  <si>
+    <t>ห้างฟู้ดแลนด์ ศรีนครินทร์</t>
+  </si>
+  <si>
+    <t>วินซอยลาดพร้าว 23</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -826,6 +856,9 @@
     <t>ร้าน Bajika ทวีวัฒนา</t>
   </si>
   <si>
+    <t>ตลาดนัดเช้าหน้าวัดหนองแขม</t>
+  </si>
+  <si>
     <t>ธนาคารกรุงศรี สาขาพาราไดซ์พาร์ค</t>
   </si>
   <si>
@@ -1006,6 +1039,9 @@
     <t>หอพักนิสิต จุฬา</t>
   </si>
   <si>
+    <t>Maison Kitsune สาขา Emquartier</t>
+  </si>
+  <si>
     <t>เรือสีชังพาเลซ เบอร์ 4 เที่ยว 14:00 น.</t>
   </si>
   <si>
@@ -1201,6 +1237,21 @@
     <t>Timeline นิสิตหอพัก ผู้ป่วยเพศชาย อายุ 21 ปี โดย จุฬาฯ ศูนย์ปฏิบัติการ โควิด-19</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 186</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 191</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 198</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 200</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 205</t>
+  </si>
+  <si>
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
@@ -1216,12 +1267,12 @@
     <t>เชียงใหม่พบสาว 25 ปี ติดเชื้อโควิด-19 ไทม์ไลน์เที่ยวผับดังหลายแห่ง</t>
   </si>
   <si>
-    <t>timeline ผู้ป่วยกทม. รายที่ 198</t>
-  </si>
-  <si>
     <t>timeline ผู้ป่วยกทม. รายที่ 184</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 187</t>
+  </si>
+  <si>
     <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
   </si>
   <si>
@@ -1231,6 +1282,12 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 166</t>
   </si>
   <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 192</t>
+  </si>
+  <si>
+    <t>timeline ผู้ป่วยกทม. รายที่ 204</t>
+  </si>
+  <si>
     <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
@@ -1279,7 +1336,7 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 161</t>
   </si>
   <si>
-    <t>timeline ผู้ป่วยกทม. รายที่ 187</t>
+    <t>timeline ผู้ป่วยกทม. รายที่ 208</t>
   </si>
   <si>
     <t>ธนาคารกรุงศรีขอแจ้งปิดบางสาขาเป็นการชั่วคราว</t>
@@ -1294,12 +1351,6 @@
     <t>timeline ผู้ป่วยกทม. รายที่ 188</t>
   </si>
   <si>
-    <t>timeline ผู้ป่วยกทม. รายที่ 191</t>
-  </si>
-  <si>
-    <t>timeline ผู้ป่วยกทม. รายที่ 204</t>
-  </si>
-  <si>
     <t>ปิดแล้ว ‘วัดละหาร’ นนทบุรี หลังพบ ‘เจ้าอาวาส’ ติดโควิด-19 ผู้ว่าฯ สั่งคุมพื้นที่เร่งด่วน</t>
   </si>
   <si>
@@ -1354,6 +1405,9 @@
     <t>สถานที่เสี่ยงโควิด-19 ตามรายงานของสำนักงานสาธารณสุขจังหวัดชลบุรี</t>
   </si>
   <si>
+    <t>มีผู้ป่วย Covid-19 ได้เข้ามาเลือกซื้อสินค้าภายในร้าน</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
@@ -1589,6 +1643,9 @@
   </si>
   <si>
     <t>https://www.thebangkokinsight.com/518217/</t>
+  </si>
+  <si>
+    <t>https://lin.ee/6JVw1A0</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2039,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2080,22 +2137,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K3" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2124,22 +2181,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K4" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L4" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2168,22 +2225,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J5" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2212,22 +2269,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2256,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2300,22 +2357,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J8" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K8" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L8" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2344,22 +2401,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J9" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L9" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2388,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J10" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L10" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2432,22 +2489,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J11" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K11" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L11" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2476,22 +2533,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J12" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K12" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L12" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2520,22 +2577,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J13" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L13" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2564,22 +2621,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J14" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K14" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L14" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2608,22 +2665,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J15" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K15" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L15" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2652,22 +2709,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I16" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J16" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L16" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2696,22 +2753,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I17" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K17" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L17" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2740,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J18" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K18" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L18" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2796,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2828,22 +2885,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I20" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K20" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L20" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2872,22 +2929,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J21" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K21" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L21" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2916,22 +2973,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J22" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K22" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L22" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2960,22 +3017,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I23" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J23" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K23" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L23" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3004,22 +3061,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J24" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K24" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L24" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3048,22 +3105,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I25" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J25" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K25" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L25" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3092,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K26" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L26" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3136,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J27" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K27" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L27" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3180,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I28" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J28" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K28" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3224,22 +3281,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I29" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J29" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K29" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L29" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3268,22 +3325,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J30" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K30" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L30" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3312,22 +3369,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I31" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J31" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K31" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L31" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3356,22 +3413,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I32" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J32" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L32" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3400,22 +3457,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K33" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3444,22 +3501,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3488,22 +3545,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I35" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L35" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3532,22 +3589,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3588,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3632,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3667,19 +3724,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3708,22 +3765,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3752,22 +3809,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3799,19 +3856,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3843,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3887,19 +3944,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3931,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3972,22 +4029,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -4016,22 +4073,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J47" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -4060,22 +4117,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4104,22 +4161,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J49" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4148,22 +4205,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4192,22 +4249,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I51" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J51" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K51" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4236,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I52" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J52" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K52" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4280,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J53" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4324,22 +4381,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K54" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4368,22 +4425,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K55" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4412,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I56" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J56" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K56" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L56" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4456,22 +4513,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I57" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J57" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K57" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L57" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4500,22 +4557,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I58" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J58" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K58" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4544,22 +4601,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I59" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L59" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4588,22 +4645,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J60" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K60" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4632,22 +4689,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J61" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K61" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L61" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4676,22 +4733,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J62" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K62" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L62" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4720,22 +4777,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I63" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J63" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L63" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4764,22 +4821,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I64" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J64" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K64" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4820,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4864,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4908,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4952,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4996,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -5028,22 +5085,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J70" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K70" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L70" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -5072,22 +5129,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I71" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J71" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K71" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L71" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -5116,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I72" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J72" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K72" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L72" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -5160,22 +5217,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I73" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J73" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K73" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L73" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5204,22 +5261,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I74" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J74" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K74" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L74" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5248,22 +5305,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J75" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K75" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L75" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5292,22 +5349,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J76" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K76" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L76" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5348,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5392,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5436,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5480,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5515,19 +5572,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J81" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K81" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L81" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5559,19 +5616,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J82" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K82" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L82" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5600,22 +5657,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I83" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J83" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K83" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L83" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5644,22 +5701,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J84" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K84" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L84" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5688,22 +5745,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I85" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J85" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K85" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L85" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5732,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I86" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J86" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K86" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L86" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5776,22 +5833,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I87" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J87" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K87" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L87" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5820,22 +5877,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J88" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K88" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L88" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5864,22 +5921,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J89" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K89" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L89" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5908,22 +5965,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J90" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K90" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L90" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5952,22 +6009,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J91" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K91" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L91" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5996,22 +6053,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I92" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K92" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L92" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6052,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6096,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6140,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6184,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6219,19 +6276,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J97" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K97" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L97" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6260,22 +6317,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I98" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J98" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K98" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L98" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6304,22 +6361,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I99" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J99" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K99" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6351,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J100" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K100" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L100" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6392,22 +6449,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I101" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J101" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K101" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L101" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6436,22 +6493,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J102" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K102" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L102" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6480,22 +6537,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I103" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J103" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K103" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L103" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6524,22 +6581,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J104" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K104" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L104" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6568,22 +6625,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J105" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K105" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L105" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6624,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6668,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6712,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6756,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6800,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6844,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6876,22 +6933,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I112" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J112" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K112" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L112" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6920,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I113" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="J113" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K113" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L113" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6964,22 +7021,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I114" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="J114" t="s">
-        <v>